--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/483805976292d47c/Documents/NSS/excel/da16-lookups-exercise-janvimehendale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F915772F-F344-4284-BF21-A4406F2AAF11}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
-    <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
+    <sheet name="Readme" sheetId="3" r:id="rId1"/>
+    <sheet name="metro_budget" sheetId="1" r:id="rId2"/>
+    <sheet name="data_dictionary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t>Department</t>
   </si>
@@ -304,6 +305,54 @@
   </si>
   <si>
     <t>Actual spending amount - budget amount for fiscal year 2019</t>
+  </si>
+  <si>
+    <t>Learning Objectives:</t>
+  </si>
+  <si>
+    <t>Write a formula using IFERROR or IF.</t>
+  </si>
+  <si>
+    <t>Correctly utilize absolute cell references to allow for copying formulas.</t>
+  </si>
+  <si>
+    <t>Use VLOOKUP, XLOOKUP, and INDEX + MATCH to do two-way lookups.</t>
+  </si>
+  <si>
+    <t>Utilize data validation to create a dropdown menu.</t>
+  </si>
+  <si>
+    <t>Directions:</t>
+  </si>
+  <si>
+    <t>1. Fill in formulas to first calculate the difference between budget and actual (actual - budget) and then the percent difference between the actual and budgeted amount of each department (divide the difference by the budget).</t>
+  </si>
+  <si>
+    <t>2. Fill in the rank columns to calculate for each year the rank of each department from lowest percentage difference to highest percentage difference. Order them so the department who came out with the highest percentage of their budget left over is number 1. Hint: You're likely to get a #DIV/0 error here. First, try and understand what might be leading to this error. Then correct the problem by using IFERROR or some other logical function in your percent difference column.</t>
+  </si>
+  <si>
+    <t>3. Use VLOOKUP to fill in the first table at the bottom to retrieve the difference for the selected departments for each year. You may need to modify your VLOOKUP to bring in values from the correct column. Your formula should be able to pull down, but not necessarily across.</t>
+  </si>
+  <si>
+    <t>4. Repeat this in the next table, but this time use XLOOKUP. Your formula should be able to pull down, but not necessarily across.</t>
+  </si>
+  <si>
+    <t>5. Repeat one more time, but use INDEX and MATCH to fill in the third table. Your formula should be able to pull down, but not necessarily across.</t>
+  </si>
+  <si>
+    <t>6. Use Data Validation in cell B87 in order to create a dropdown where a department can be chosen. Then use INDEX and MATCH in order to fill in the table to retrieve the Budget and Actual for each financial year. Then take this table and create a bar chart to display the results. You can read about using data validation to create a drop-down list here: https://support.microsoft.com/en-us/office/create-a-drop-down-list-7693307a-59ef-400a-b769-c5402dce407b</t>
+  </si>
+  <si>
+    <t>Challenge Questions (Save for last):</t>
+  </si>
+  <si>
+    <t>1. Modify your formulas from questions 3-5 using MATCH so that you can pull the formula both down and sideways to fill in the entire table.</t>
+  </si>
+  <si>
+    <t>2. Use XLOOKUP to find, for each financial year, the three highest ranked departments in terms of the percentage below budget their actual spending was. Bonus: Combine XLOOKUP with INDEX and MATCH in order to write two formulas that can be copied and pasted to fill in the table.</t>
+  </si>
+  <si>
+    <t>3. Do the same as above, but using only INDEX and MATCH.</t>
   </si>
 </sst>
 </file>
@@ -314,7 +363,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,11 +507,23 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,8 +709,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -764,6 +867,335 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -809,16 +1241,103 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="37" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="38" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="38" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -868,6 +1387,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB9B9"/>
+      <color rgb="FFFFDDFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -880,9 +1405,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -920,7 +1445,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1026,7 +1551,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1168,1738 +1693,3796 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C48D45-1BE3-4B33-A856-F38C2E92A17A}">
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:D79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="32">
         <v>356640100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="33">
         <v>341243679.13</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="G2">
+      <c r="D2" s="34">
+        <f>ABS(C2-B2)</f>
+        <v>15396420.870000005</v>
+      </c>
+      <c r="E2" s="35">
+        <f>IFERROR(D2/B2,0)</f>
+        <v>4.3170750765267295E-2</v>
+      </c>
+      <c r="F2" s="36">
+        <f>RANK(E2,E:E)</f>
+        <v>14</v>
+      </c>
+      <c r="G2" s="37">
         <v>382685200</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="38">
         <v>346340810.81999999</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="L2">
+      <c r="I2" s="38">
+        <f>ABS(H2-G2)</f>
+        <v>36344389.180000007</v>
+      </c>
+      <c r="J2" s="39">
+        <f>IFERROR(I2/G2,0)</f>
+        <v>9.4972027086493035E-2</v>
+      </c>
+      <c r="K2" s="40">
+        <f>RANK(J2,J2:J52)</f>
+        <v>10</v>
+      </c>
+      <c r="L2" s="49">
         <v>376548600</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="50">
         <v>355279492.22999901</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
+      <c r="N2" s="61">
+        <f>ABS(M2-L2)</f>
+        <v>21269107.770000994</v>
+      </c>
+      <c r="O2" s="62">
+        <f>IFERROR(N2/L2,0)</f>
+        <v>5.6484362894991494E-2</v>
+      </c>
+      <c r="P2" s="63">
+        <f>RANK(O2,O2:O52)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="18">
         <v>328800</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>321214.59000000003</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="G3">
+      <c r="D3" s="12">
+        <f t="shared" ref="D3:D52" si="0">ABS(C3-B3)</f>
+        <v>7585.4099999999744</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E52" si="1">IFERROR(D3/B3,0)</f>
+        <v>2.3069981751824741E-2</v>
+      </c>
+      <c r="F3" s="19">
+        <f t="shared" ref="F3:F52" si="2">RANK(E3,E:E)</f>
+        <v>22</v>
+      </c>
+      <c r="G3" s="25">
         <v>334800</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="14">
         <v>312433.70999999897</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="L3">
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I52" si="3">ABS(H3-G3)</f>
+        <v>22366.290000001027</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J52" si="4">IFERROR(I3/G3,0)</f>
+        <v>6.6804928315415249E-2</v>
+      </c>
+      <c r="K3" s="26">
+        <f t="shared" ref="K3:K52" si="5">RANK(J3,J3:J53)</f>
+        <v>13</v>
+      </c>
+      <c r="L3" s="51">
         <v>322700</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="59">
         <v>322263.03999999998</v>
       </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
+      <c r="N3" s="52">
+        <f t="shared" ref="N3:N52" si="6">ABS(M3-L3)</f>
+        <v>436.96000000002095</v>
+      </c>
+      <c r="O3" s="53">
+        <f t="shared" ref="O3:O52" si="7">IFERROR(N3/L3,0)</f>
+        <v>1.3540749922529313E-3</v>
+      </c>
+      <c r="P3" s="54">
+        <f t="shared" ref="P3:P52" si="8">RANK(O3,O3:O53)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="18">
         <v>3130600</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>3115157.5599999898</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="G4">
+      <c r="D4" s="12">
+        <f t="shared" si="0"/>
+        <v>15442.440000010189</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9327413275443007E-3</v>
+      </c>
+      <c r="F4" s="19">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="G4" s="25">
         <v>3652300</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="14">
         <v>3589693.2099999902</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="L4">
+      <c r="I4" s="14">
+        <f t="shared" si="3"/>
+        <v>62606.790000009816</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="4"/>
+        <v>1.7141743558856015E-2</v>
+      </c>
+      <c r="K4" s="26">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="L4" s="51">
         <v>3662400</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="59">
         <v>3564983.04999999</v>
       </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
+      <c r="N4" s="52">
+        <f t="shared" si="6"/>
+        <v>97416.950000009965</v>
+      </c>
+      <c r="O4" s="53">
+        <f t="shared" si="7"/>
+        <v>2.6599210899959033E-2</v>
+      </c>
+      <c r="P4" s="54">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="18">
         <v>7670700</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>6947552.6699999999</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="G5">
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>723147.33000000007</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>9.4273968477453174E-2</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="25">
         <v>7968300</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="14">
         <v>7020609.3200000003</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="L5">
+      <c r="I5" s="14">
+        <f t="shared" si="3"/>
+        <v>947690.6799999997</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="4"/>
+        <v>0.118932605449092</v>
+      </c>
+      <c r="K5" s="26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="51">
         <v>7759600</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="59">
         <v>7497322.9100000001</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
+      <c r="N5" s="52">
+        <f t="shared" si="6"/>
+        <v>262277.08999999985</v>
+      </c>
+      <c r="O5" s="53">
+        <f t="shared" si="7"/>
+        <v>3.3800336357544182E-2</v>
+      </c>
+      <c r="P5" s="54">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="18">
         <v>409300</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>385908.52</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="G6">
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>23391.479999999981</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>5.7149963352064452E-2</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G6" s="25">
         <v>428500</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="14">
         <v>427758.64</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="L6">
+      <c r="I6" s="14">
+        <f t="shared" si="3"/>
+        <v>741.35999999998603</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="4"/>
+        <v>1.7301283547257551E-3</v>
+      </c>
+      <c r="K6" s="26">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="L6" s="51">
         <v>445200</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="59">
         <v>445114.28999999899</v>
       </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
+      <c r="N6" s="52">
+        <f t="shared" si="6"/>
+        <v>85.710000001010485</v>
+      </c>
+      <c r="O6" s="53">
+        <f t="shared" si="7"/>
+        <v>1.925202156356929E-4</v>
+      </c>
+      <c r="P6" s="54">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="18">
         <v>3329000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>2946071.21</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="G7">
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>382928.79000000004</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.11502817362571344</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="25">
         <v>3390900</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="14">
         <v>3051483.41</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="L7">
+      <c r="I7" s="14">
+        <f t="shared" si="3"/>
+        <v>339416.58999999985</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10009631366303927</v>
+      </c>
+      <c r="K7" s="26">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="51">
         <v>3345200</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="59">
         <v>2946440.08</v>
       </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
+      <c r="N7" s="52">
+        <f t="shared" si="6"/>
+        <v>398759.91999999993</v>
+      </c>
+      <c r="O7" s="53">
+        <f t="shared" si="7"/>
+        <v>0.11920361114432618</v>
+      </c>
+      <c r="P7" s="54">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="18">
         <v>1552100</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>1315623.30999999</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="G8">
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>236476.69000000996</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.15235918433091292</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
         <v>1590700</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="14">
         <v>1383905.98999999</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="L8">
+      <c r="I8" s="14">
+        <f t="shared" si="3"/>
+        <v>206794.01000001002</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="4"/>
+        <v>0.13000189224870184</v>
+      </c>
+      <c r="K8" s="26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="51">
         <v>1579300</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="59">
         <v>1337735.3199999901</v>
       </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
+      <c r="N8" s="52">
+        <f t="shared" si="6"/>
+        <v>241564.68000000995</v>
+      </c>
+      <c r="O8" s="53">
+        <f t="shared" si="7"/>
+        <v>0.15295680364719175</v>
+      </c>
+      <c r="P8" s="54">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="18">
         <v>9349400</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>8952825.2799999993</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="G9">
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>396574.72000000067</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>4.2417130511048909E-2</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="25">
         <v>11073700</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="14">
         <v>9929059.5199999996</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="L9">
+      <c r="I9" s="14">
+        <f t="shared" si="3"/>
+        <v>1144640.4800000004</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10336567542917005</v>
+      </c>
+      <c r="K9" s="26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L9" s="51">
         <v>10790500</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="59">
         <v>9993599.52999999</v>
       </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
+      <c r="N9" s="52">
+        <f t="shared" si="6"/>
+        <v>796900.47000000998</v>
+      </c>
+      <c r="O9" s="53">
+        <f t="shared" si="7"/>
+        <v>7.3852043000788653E-2</v>
+      </c>
+      <c r="P9" s="54">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="18">
         <v>443300</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>407090.37</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="G10">
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>36209.630000000005</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>8.1681998646514792E-2</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="25">
         <v>495200</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="14">
         <v>467907.84000000003</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="L10">
+      <c r="I10" s="14">
+        <f t="shared" si="3"/>
+        <v>27292.159999999974</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="4"/>
+        <v>5.5113408723747932E-2</v>
+      </c>
+      <c r="K10" s="26">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="L10" s="51">
         <v>487500</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="59">
         <v>478318.92</v>
       </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
+      <c r="N10" s="52">
+        <f t="shared" si="6"/>
+        <v>9181.0800000000163</v>
+      </c>
+      <c r="O10" s="53">
+        <f t="shared" si="7"/>
+        <v>1.883298461538465E-2</v>
+      </c>
+      <c r="P10" s="54">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="L11">
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="26">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="L11" s="51">
         <v>375000</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="59">
         <v>63771.91</v>
       </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
+      <c r="N11" s="52">
+        <f t="shared" si="6"/>
+        <v>311228.08999999997</v>
+      </c>
+      <c r="O11" s="53">
+        <f t="shared" si="7"/>
+        <v>0.82994157333333329</v>
+      </c>
+      <c r="P11" s="54">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="18">
         <v>4280900</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>4066595.33</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="G12">
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>214304.66999999993</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>5.0060657805601608E-2</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G12" s="25">
         <v>4700400</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="14">
         <v>4205555.5999999996</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="L12">
+      <c r="I12" s="14">
+        <f t="shared" si="3"/>
+        <v>494844.40000000037</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10527708280146378</v>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="51">
         <v>4677800</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="59">
         <v>4371713.1399999997</v>
       </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
+      <c r="N12" s="52">
+        <f t="shared" si="6"/>
+        <v>306086.86000000034</v>
+      </c>
+      <c r="O12" s="53">
+        <f t="shared" si="7"/>
+        <v>6.5433934755654441E-2</v>
+      </c>
+      <c r="P12" s="54">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="18">
         <v>5847800</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>5772288.3300000001</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="G13">
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>75511.669999999925</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2912833886247806E-2</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="G13" s="25">
         <v>6223700</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="14">
         <v>5909077.9399999902</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="L13">
+      <c r="I13" s="14">
+        <f t="shared" si="3"/>
+        <v>314622.06000000983</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="4"/>
+        <v>5.0552253482656594E-2</v>
+      </c>
+      <c r="K13" s="26">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="L13" s="51">
         <v>6207300</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="59">
         <v>6056976.6699999999</v>
       </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
+      <c r="N13" s="52">
+        <f t="shared" si="6"/>
+        <v>150323.33000000007</v>
+      </c>
+      <c r="O13" s="53">
+        <f t="shared" si="7"/>
+        <v>2.4217184605222895E-2</v>
+      </c>
+      <c r="P13" s="54">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="18">
         <v>512000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>505017.37</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="G14">
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>6982.6300000000047</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3637949218750009E-2</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="G14" s="25">
         <v>530500</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="14">
         <v>524402.98</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="L14">
+      <c r="I14" s="14">
+        <f t="shared" si="3"/>
+        <v>6097.0200000000186</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="4"/>
+        <v>1.1492968897266765E-2</v>
+      </c>
+      <c r="K14" s="26">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L14" s="51">
         <v>526200</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="59">
         <v>504989.88</v>
       </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
+      <c r="N14" s="52">
+        <f t="shared" si="6"/>
+        <v>21210.119999999995</v>
+      </c>
+      <c r="O14" s="53">
+        <f t="shared" si="7"/>
+        <v>4.0308095781071827E-2</v>
+      </c>
+      <c r="P14" s="54">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="18">
         <v>156049100</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>156545919.90000001</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="G15">
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="G15" s="25">
         <v>184167800</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="14">
         <v>175966389.24999899</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="L15">
+      <c r="I15" s="14">
+        <f t="shared" si="3"/>
+        <v>8201410.7500010133</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="4"/>
+        <v>4.4532273014072019E-2</v>
+      </c>
+      <c r="K15" s="26">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="L15" s="51">
         <v>188953500</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="59">
         <v>184450910.84999901</v>
       </c>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
+      <c r="N15" s="52">
+        <f t="shared" si="6"/>
+        <v>4502589.1500009894</v>
+      </c>
+      <c r="O15" s="53">
+        <f t="shared" si="7"/>
+        <v>2.3829085727446114E-2</v>
+      </c>
+      <c r="P15" s="54">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="18">
         <v>6600700</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <v>6522480.4599999897</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="G16">
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>78219.540000010282</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1850188616360429E-2</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="G16" s="25">
         <v>7352500</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="14">
         <v>7350464.0800000001</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="L16">
+      <c r="I16" s="14">
+        <f t="shared" si="3"/>
+        <v>2035.9199999999255</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="4"/>
+        <v>2.769017341040361E-4</v>
+      </c>
+      <c r="K16" s="26">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L16" s="51">
         <v>7397200</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="59">
         <v>7397093</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
+      <c r="N16" s="52">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="O16" s="53">
+        <f t="shared" si="7"/>
+        <v>1.4464932677229222E-5</v>
+      </c>
+      <c r="P16" s="54">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="18">
         <v>14860800</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <v>14439480.050000001</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="G17">
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>421319.94999999925</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8351094826658003E-2</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G17" s="25">
         <v>15309700</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="14">
         <v>14645233.51</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="L17">
+      <c r="I17" s="14">
+        <f t="shared" si="3"/>
+        <v>664466.49000000022</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="4"/>
+        <v>4.3401666263871937E-2</v>
+      </c>
+      <c r="K17" s="26">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="L17" s="51">
         <v>15311800</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="59">
         <v>14346057.039999999</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
+      <c r="N17" s="52">
+        <f t="shared" si="6"/>
+        <v>965742.96000000089</v>
+      </c>
+      <c r="O17" s="53">
+        <f t="shared" si="7"/>
+        <v>6.3071811282801551E-2</v>
+      </c>
+      <c r="P17" s="54">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="18">
         <v>2764700</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <v>2615303.8999999901</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="G18">
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>149396.10000000987</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>5.4037002206391245E-2</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G18" s="25">
         <v>2861000</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="14">
         <v>2671745.94</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="L18">
+      <c r="I18" s="14">
+        <f t="shared" si="3"/>
+        <v>189254.06000000006</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="4"/>
+        <v>6.6149619014330668E-2</v>
+      </c>
+      <c r="K18" s="26">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L18" s="51">
         <v>2910600</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="59">
         <v>2535637.09</v>
       </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
+      <c r="N18" s="52">
+        <f t="shared" si="6"/>
+        <v>374962.91000000015</v>
+      </c>
+      <c r="O18" s="53">
+        <f t="shared" si="7"/>
+        <v>0.12882667147667154</v>
+      </c>
+      <c r="P18" s="54">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="18">
         <v>8837300</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <v>8460963.1999999899</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="G19">
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
+        <v>376336.80000001006</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>4.258504294298146E-2</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G19" s="25">
         <v>9713300</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="14">
         <v>8991707.2399999909</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="L19">
+      <c r="I19" s="14">
+        <f t="shared" si="3"/>
+        <v>721592.76000000909</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="4"/>
+        <v>7.4289145810384635E-2</v>
+      </c>
+      <c r="K19" s="26">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L19" s="51">
         <v>9343000</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="59">
         <v>8766655.9100000001</v>
       </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
+      <c r="N19" s="52">
+        <f t="shared" si="6"/>
+        <v>576344.08999999985</v>
+      </c>
+      <c r="O19" s="53">
+        <f t="shared" si="7"/>
+        <v>6.1687262121374278E-2</v>
+      </c>
+      <c r="P19" s="54">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="18">
         <v>124385900</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <v>124384360.159999</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="G20">
+      <c r="D20" s="12">
+        <f t="shared" si="0"/>
+        <v>1539.8400010019541</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2379538203300809E-5</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="G20" s="25">
         <v>131849400</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="14">
         <v>131839624.37</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="L20">
+      <c r="I20" s="14">
+        <f t="shared" si="3"/>
+        <v>9775.6299999952316</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="4"/>
+        <v>7.4142392760188761E-5</v>
+      </c>
+      <c r="K20" s="26">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L20" s="51">
         <v>130621400</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="59">
         <v>130621283.53999899</v>
       </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
+      <c r="N20" s="52">
+        <f t="shared" si="6"/>
+        <v>116.46000100672245</v>
+      </c>
+      <c r="O20" s="53">
+        <f t="shared" si="7"/>
+        <v>8.9158438821450736E-7</v>
+      </c>
+      <c r="P20" s="54">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="18">
         <v>24332100</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="11">
         <v>22408587.5499999</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="G21">
+      <c r="D21" s="12">
+        <f t="shared" si="0"/>
+        <v>1923512.4500000998</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>7.9052463618023094E-2</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G21" s="25">
         <v>24497400</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="14">
         <v>22655993.629999999</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="L21">
+      <c r="I21" s="14">
+        <f t="shared" si="3"/>
+        <v>1841406.370000001</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="4"/>
+        <v>7.5167420624229556E-2</v>
+      </c>
+      <c r="K21" s="26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L21" s="51">
         <v>24323000</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="59">
         <v>23434073.089999899</v>
       </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
+      <c r="N21" s="52">
+        <f t="shared" si="6"/>
+        <v>888926.91000010073</v>
+      </c>
+      <c r="O21" s="53">
+        <f t="shared" si="7"/>
+        <v>3.6546762734864152E-2</v>
+      </c>
+      <c r="P21" s="54">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="18">
         <v>11566000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="11">
         <v>11412339.8799999</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="G22">
+      <c r="D22" s="12">
+        <f t="shared" si="0"/>
+        <v>153660.12000009976</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3285502334437123E-2</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G22" s="25">
         <v>11980700</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="14">
         <v>11791977.9699999</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="L22">
+      <c r="I22" s="14">
+        <f t="shared" si="3"/>
+        <v>188722.03000009991</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="4"/>
+        <v>1.5752170574348738E-2</v>
+      </c>
+      <c r="K22" s="26">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="L22" s="51">
         <v>11935200</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="59">
         <v>11934454.77</v>
       </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
+      <c r="N22" s="52">
+        <f t="shared" si="6"/>
+        <v>745.23000000044703</v>
+      </c>
+      <c r="O22" s="53">
+        <f t="shared" si="7"/>
+        <v>6.2439674240938325E-5</v>
+      </c>
+      <c r="P22" s="54">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="18">
         <v>20862700</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="11">
         <v>20036743.4099999</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="G23">
+      <c r="D23" s="12">
+        <f t="shared" si="0"/>
+        <v>825956.59000010043</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9590110100806722E-2</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G23" s="25">
         <v>22683800</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="14">
         <v>21722126.219999898</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="L23">
+      <c r="I23" s="14">
+        <f t="shared" si="3"/>
+        <v>961673.78000010177</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="4"/>
+        <v>4.2394738976719144E-2</v>
+      </c>
+      <c r="K23" s="26">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="L23" s="51">
         <v>23220300</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="59">
         <v>22619057.440000001</v>
       </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
+      <c r="N23" s="52">
+        <f t="shared" si="6"/>
+        <v>601242.55999999866</v>
+      </c>
+      <c r="O23" s="53">
+        <f t="shared" si="7"/>
+        <v>2.5892971236375011E-2</v>
+      </c>
+      <c r="P23" s="54">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="18">
         <v>917200</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="11">
         <v>904969.19</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="G24">
+      <c r="D24" s="12">
+        <f t="shared" si="0"/>
+        <v>12230.810000000056</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3334943305713101E-2</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="G24" s="25">
         <v>1112700</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="14">
         <v>1067214.42</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="L24">
+      <c r="I24" s="14">
+        <f t="shared" si="3"/>
+        <v>45485.580000000075</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="4"/>
+        <v>4.087856565111897E-2</v>
+      </c>
+      <c r="K24" s="26">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="L24" s="51">
         <v>1112600</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="59">
         <v>1112527.1200000001</v>
       </c>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
+      <c r="N24" s="52">
+        <f t="shared" si="6"/>
+        <v>72.879999999888241</v>
+      </c>
+      <c r="O24" s="53">
+        <f t="shared" si="7"/>
+        <v>6.5504224339284781E-5</v>
+      </c>
+      <c r="P24" s="54">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="18">
         <v>484100</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="11">
         <v>479149.53</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="G25">
+      <c r="D25" s="12">
+        <f t="shared" si="0"/>
+        <v>4950.4699999999721</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0226130964676661E-2</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="G25" s="25">
         <v>505200</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="14">
         <v>497194.20999999897</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="L25">
+      <c r="I25" s="14">
+        <f t="shared" si="3"/>
+        <v>8005.7900000010268</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="4"/>
+        <v>1.5846773555029746E-2</v>
+      </c>
+      <c r="K25" s="26">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="L25" s="51">
         <v>496500</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="59">
         <v>494775.1</v>
       </c>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
+      <c r="N25" s="52">
+        <f t="shared" si="6"/>
+        <v>1724.9000000000233</v>
+      </c>
+      <c r="O25" s="53">
+        <f t="shared" si="7"/>
+        <v>3.4741188318228064E-3</v>
+      </c>
+      <c r="P25" s="54">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="18">
         <v>5249800</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="11">
         <v>4801960.08</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="G26">
+      <c r="D26" s="12">
+        <f t="shared" si="0"/>
+        <v>447839.91999999993</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>8.5306091660634673E-2</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G26" s="25">
         <v>5442200</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="14">
         <v>5122329.02999999</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="L26">
+      <c r="I26" s="14">
+        <f t="shared" si="3"/>
+        <v>319870.97000000998</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="4"/>
+        <v>5.8776040939327839E-2</v>
+      </c>
+      <c r="K26" s="26">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L26" s="51">
         <v>5430700</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="59">
         <v>5117235.21</v>
       </c>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
+      <c r="N26" s="52">
+        <f t="shared" si="6"/>
+        <v>313464.79000000004</v>
+      </c>
+      <c r="O26" s="53">
+        <f t="shared" si="7"/>
+        <v>5.7720881286022069E-2</v>
+      </c>
+      <c r="P26" s="54">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
+      <c r="B27" s="18">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="26">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="L27" s="51">
+        <v>0</v>
+      </c>
+      <c r="M27" s="59">
+        <v>0</v>
+      </c>
+      <c r="N27" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="54">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="18">
         <v>1382900</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="11">
         <v>1250442.02</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="G28">
+      <c r="D28" s="12">
+        <f t="shared" si="0"/>
+        <v>132457.97999999998</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>9.5782760864849215E-2</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="25">
         <v>1545700</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="14">
         <v>1281335.23</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="L28">
+      <c r="I28" s="14">
+        <f t="shared" si="3"/>
+        <v>264364.77</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="4"/>
+        <v>0.17103239309050916</v>
+      </c>
+      <c r="K28" s="26">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="51">
         <v>1525900</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="59">
         <v>1393285.06</v>
       </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
+      <c r="N28" s="52">
+        <f t="shared" si="6"/>
+        <v>132614.93999999994</v>
+      </c>
+      <c r="O28" s="53">
+        <f t="shared" si="7"/>
+        <v>8.6909325643882263E-2</v>
+      </c>
+      <c r="P28" s="54">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="18">
         <v>2561800</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="11">
         <v>2523884.71</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="G29">
+      <c r="D29" s="12">
+        <f t="shared" si="0"/>
+        <v>37915.290000000037</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4800253727847622E-2</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G29" s="25">
         <v>2779500</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="14">
         <v>2665264.4399999902</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="L29">
+      <c r="I29" s="14">
+        <f t="shared" si="3"/>
+        <v>114235.56000000983</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="4"/>
+        <v>4.1099320021590155E-2</v>
+      </c>
+      <c r="K29" s="26">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="L29" s="51">
         <v>2889900</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="59">
         <v>2889864.67</v>
       </c>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
+      <c r="N29" s="52">
+        <f t="shared" si="6"/>
+        <v>35.330000000074506</v>
+      </c>
+      <c r="O29" s="53">
+        <f t="shared" si="7"/>
+        <v>1.2225336516860273E-5</v>
+      </c>
+      <c r="P29" s="54">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="18">
         <v>12132200</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="11">
         <v>12030494.1</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="G30">
+      <c r="D30" s="12">
+        <f t="shared" si="0"/>
+        <v>101705.90000000037</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="1"/>
+        <v>8.3831374359143746E-3</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G30" s="25">
         <v>12735900</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="14">
         <v>12685514.279999901</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="L30">
+      <c r="I30" s="14">
+        <f t="shared" si="3"/>
+        <v>50385.720000099391</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="4"/>
+        <v>3.9561962641116366E-3</v>
+      </c>
+      <c r="K30" s="26">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="L30" s="51">
         <v>12861300</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="59">
         <v>12826009.609999999</v>
       </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
+      <c r="N30" s="52">
+        <f t="shared" si="6"/>
+        <v>35290.390000000596</v>
+      </c>
+      <c r="O30" s="53">
+        <f t="shared" si="7"/>
+        <v>2.7439209100169185E-3</v>
+      </c>
+      <c r="P30" s="54">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="18">
         <v>1765600</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="11">
         <v>1740827.69</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="G31">
+      <c r="D31" s="12">
+        <f t="shared" si="0"/>
+        <v>24772.310000000056</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4030533529678329E-2</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="G31" s="25">
         <v>1823300</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="14">
         <v>1762676.85</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="L31">
+      <c r="I31" s="14">
+        <f t="shared" si="3"/>
+        <v>60623.149999999907</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="4"/>
+        <v>3.3249136181648611E-2</v>
+      </c>
+      <c r="K31" s="26">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="L31" s="51">
         <v>1870700</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="59">
         <v>1801391.34</v>
       </c>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" t="s">
+      <c r="N31" s="52">
+        <f t="shared" si="6"/>
+        <v>69308.659999999916</v>
+      </c>
+      <c r="O31" s="53">
+        <f t="shared" si="7"/>
+        <v>3.7049585716576634E-2</v>
+      </c>
+      <c r="P31" s="54">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="18">
         <v>5999400</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="11">
         <v>5925637.7199999904</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="G32">
+      <c r="D32" s="12">
+        <f t="shared" si="0"/>
+        <v>73762.280000009574</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2294942827617691E-2</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G32" s="25">
         <v>6195500</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="14">
         <v>6084985.4699999997</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="L32">
+      <c r="I32" s="14">
+        <f t="shared" si="3"/>
+        <v>110514.53000000026</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="4"/>
+        <v>1.7837871035428981E-2</v>
+      </c>
+      <c r="K32" s="26">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="L32" s="51">
         <v>6157400</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="59">
         <v>5987572.0199999996</v>
       </c>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" t="s">
+      <c r="N32" s="52">
+        <f t="shared" si="6"/>
+        <v>169827.98000000045</v>
+      </c>
+      <c r="O32" s="53">
+        <f t="shared" si="7"/>
+        <v>2.7581118653977402E-2</v>
+      </c>
+      <c r="P32" s="54">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="18">
         <v>927703099.99999905</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="11">
         <v>920284264.73000002</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="G33">
+      <c r="D33" s="12">
+        <f t="shared" si="0"/>
+        <v>7418835.2699990273</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="1"/>
+        <v>7.9969930789269058E-3</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="G33" s="25">
         <v>979671000</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="14">
         <v>977068513.48000002</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="L33">
+      <c r="I33" s="14">
+        <f t="shared" si="3"/>
+        <v>2602486.5199999809</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="4"/>
+        <v>2.6564903115433454E-3</v>
+      </c>
+      <c r="K33" s="26">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="L33" s="51">
         <v>989572899.99999905</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="59">
         <v>984116289.40999901</v>
       </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
+      <c r="N33" s="52">
+        <f t="shared" si="6"/>
+        <v>5456610.5900000334</v>
+      </c>
+      <c r="O33" s="53">
+        <f t="shared" si="7"/>
+        <v>5.5141067323084929E-3</v>
+      </c>
+      <c r="P33" s="54">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="18">
         <v>4189300</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="11">
         <v>4109958.22</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="G34">
+      <c r="D34" s="12">
+        <f t="shared" si="0"/>
+        <v>79341.779999999795</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>1.8939149738619768E-2</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G34" s="25">
         <v>4350600</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="14">
         <v>4137588.7699999898</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="L34">
+      <c r="I34" s="14">
+        <f t="shared" si="3"/>
+        <v>213011.23000001023</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="4"/>
+        <v>4.8961345561534093E-2</v>
+      </c>
+      <c r="K34" s="26">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L34" s="51">
         <v>4345600</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="59">
         <v>4229801.51</v>
       </c>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
+      <c r="N34" s="52">
+        <f t="shared" si="6"/>
+        <v>115798.49000000022</v>
+      </c>
+      <c r="O34" s="53">
+        <f t="shared" si="7"/>
+        <v>2.6647296115611244E-2</v>
+      </c>
+      <c r="P34" s="54">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
+      <c r="B35" s="18">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G35" s="25">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="26">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="L35" s="51">
+        <v>0</v>
+      </c>
+      <c r="M35" s="59">
+        <v>0</v>
+      </c>
+      <c r="N35" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="54">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="18">
         <v>798200</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="11">
         <v>735423.27999999898</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="G36">
+      <c r="D36" s="12">
+        <f t="shared" si="0"/>
+        <v>62776.72000000102</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>7.8647857679780775E-2</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G36" s="25">
         <v>898700</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="14">
         <v>740966.94999999902</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="L36">
+      <c r="I36" s="14">
+        <f t="shared" si="3"/>
+        <v>157733.05000000098</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="4"/>
+        <v>0.17551246244575608</v>
+      </c>
+      <c r="K36" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="51">
         <v>878300</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="59">
         <v>777215.28999999899</v>
       </c>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
+      <c r="N36" s="52">
+        <f t="shared" si="6"/>
+        <v>101084.71000000101</v>
+      </c>
+      <c r="O36" s="53">
+        <f t="shared" si="7"/>
+        <v>0.11509132414892521</v>
+      </c>
+      <c r="P36" s="54">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="18">
         <v>2087800</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="11">
         <v>2005447.73999999</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="G37">
+      <c r="D37" s="12">
+        <f t="shared" si="0"/>
+        <v>82352.260000010021</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9444515758219188E-2</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G37" s="25">
         <v>2229200</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="14">
         <v>2118943.21</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="L37">
+      <c r="I37" s="14">
+        <f t="shared" si="3"/>
+        <v>110256.79000000004</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="4"/>
+        <v>4.9460250314014013E-2</v>
+      </c>
+      <c r="K37" s="26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L37" s="51">
         <v>2296900</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="59">
         <v>2108718.34</v>
       </c>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" t="s">
+      <c r="N37" s="52">
+        <f t="shared" si="6"/>
+        <v>188181.66000000015</v>
+      </c>
+      <c r="O37" s="53">
+        <f t="shared" si="7"/>
+        <v>8.1928538464887526E-2</v>
+      </c>
+      <c r="P37" s="54">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="18">
         <v>855300</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="11">
         <v>838669.82</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="G38">
+      <c r="D38" s="12">
+        <f t="shared" si="0"/>
+        <v>16630.180000000051</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9443680579913542E-2</v>
+      </c>
+      <c r="F38" s="19">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G38" s="25">
         <v>792800</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="14">
         <v>753451.96</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="L38">
+      <c r="I38" s="14">
+        <f t="shared" si="3"/>
+        <v>39348.040000000037</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="4"/>
+        <v>4.9631735620585316E-2</v>
+      </c>
+      <c r="K38" s="26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L38" s="51">
         <v>777800</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="59">
         <v>777663.26</v>
       </c>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" t="s">
+      <c r="N38" s="52">
+        <f t="shared" si="6"/>
+        <v>136.73999999999069</v>
+      </c>
+      <c r="O38" s="53">
+        <f t="shared" si="7"/>
+        <v>1.7580354847003174E-4</v>
+      </c>
+      <c r="P38" s="54">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="18">
         <v>883900</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="11">
         <v>813108.87</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="G39">
+      <c r="D39" s="12">
+        <f t="shared" si="0"/>
+        <v>70791.13</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="1"/>
+        <v>8.008952370177623E-2</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="25">
         <v>1294400</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="14">
         <v>1114242.27999999</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="L39">
+      <c r="I39" s="14">
+        <f t="shared" si="3"/>
+        <v>180157.72000000998</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="4"/>
+        <v>0.13918241656366656</v>
+      </c>
+      <c r="K39" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L39" s="51">
         <v>1759500</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="59">
         <v>1680463.8699999901</v>
       </c>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" t="s">
+      <c r="N39" s="52">
+        <f t="shared" si="6"/>
+        <v>79036.1300000099</v>
+      </c>
+      <c r="O39" s="53">
+        <f t="shared" si="7"/>
+        <v>4.4919653310605226E-2</v>
+      </c>
+      <c r="P39" s="54">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="18">
         <v>38381900</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="11">
         <v>37565141.859999903</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="G40">
+      <c r="D40" s="12">
+        <f t="shared" si="0"/>
+        <v>816758.14000009745</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1279773539092578E-2</v>
+      </c>
+      <c r="F40" s="19">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="G40" s="25">
         <v>39964900</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="14">
         <v>38095240.189999901</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="L40">
+      <c r="I40" s="14">
+        <f t="shared" si="3"/>
+        <v>1869659.8100000992</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="4"/>
+        <v>4.6782546934937892E-2</v>
+      </c>
+      <c r="K40" s="26">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L40" s="51">
         <v>40216700</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="59">
         <v>39606263.709999897</v>
       </c>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" t="s">
+      <c r="N40" s="52">
+        <f t="shared" si="6"/>
+        <v>610436.29000010341</v>
+      </c>
+      <c r="O40" s="53">
+        <f t="shared" si="7"/>
+        <v>1.5178676768608648E-2</v>
+      </c>
+      <c r="P40" s="54">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="18">
         <v>4593300</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="11">
         <v>4409060.2099999897</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="G41">
+      <c r="D41" s="12">
+        <f t="shared" si="0"/>
+        <v>184239.79000001028</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0110550149132493E-2</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="G41" s="25">
         <v>5089500</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="14">
         <v>4956043.6699999897</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="L41">
+      <c r="I41" s="14">
+        <f t="shared" si="3"/>
+        <v>133456.33000001032</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="4"/>
+        <v>2.6221894095689226E-2</v>
+      </c>
+      <c r="K41" s="26">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L41" s="51">
         <v>4799900</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="59">
         <v>4717822.6500000004</v>
       </c>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" t="s">
+      <c r="N41" s="52">
+        <f t="shared" si="6"/>
+        <v>82077.349999999627</v>
+      </c>
+      <c r="O41" s="53">
+        <f t="shared" si="7"/>
+        <v>1.7099804162586642E-2</v>
+      </c>
+      <c r="P41" s="54">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="18">
         <v>188593300</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="11">
         <v>188551675.67999899</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="G42">
+      <c r="D42" s="12">
+        <f t="shared" si="0"/>
+        <v>41624.320001006126</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="1"/>
+        <v>2.2070943135841053E-4</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="G42" s="25">
         <v>199130300</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="14">
         <v>196755033.31</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="L42">
+      <c r="I42" s="14">
+        <f t="shared" si="3"/>
+        <v>2375266.6899999976</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="4"/>
+        <v>1.1928203241796942E-2</v>
+      </c>
+      <c r="K42" s="26">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L42" s="51">
         <v>199954600</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="59">
         <v>199954563.74999899</v>
       </c>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" t="s">
+      <c r="N42" s="52">
+        <f t="shared" si="6"/>
+        <v>36.250001013278961</v>
+      </c>
+      <c r="O42" s="53">
+        <f t="shared" si="7"/>
+        <v>1.8129115815929696E-7</v>
+      </c>
+      <c r="P42" s="54">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="18">
         <v>8135400</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="11">
         <v>7968645.8300000001</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="G43">
+      <c r="D43" s="12">
+        <f t="shared" si="0"/>
+        <v>166754.16999999993</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="1"/>
+        <v>2.0497353541313264E-2</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G43" s="25">
         <v>8560800</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="14">
         <v>8171472.0199999996</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="L43">
+      <c r="I43" s="14">
+        <f t="shared" si="3"/>
+        <v>389327.98000000045</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="4"/>
+        <v>4.5477990374731388E-2</v>
+      </c>
+      <c r="K43" s="26">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L43" s="51">
         <v>8497500</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="59">
         <v>8150982.5699999901</v>
       </c>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" t="s">
+      <c r="N43" s="52">
+        <f t="shared" si="6"/>
+        <v>346517.43000000995</v>
+      </c>
+      <c r="O43" s="53">
+        <f t="shared" si="7"/>
+        <v>4.0778750220654303E-2</v>
+      </c>
+      <c r="P43" s="54">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="18">
         <v>30083200</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="11">
         <v>29789104.379999999</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="G44">
+      <c r="D44" s="12">
+        <f t="shared" si="0"/>
+        <v>294095.62000000104</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="1"/>
+        <v>9.7760750186150751E-3</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="G44" s="25">
         <v>31040700</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="14">
         <v>30793711.48</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="L44">
+      <c r="I44" s="14">
+        <f t="shared" si="3"/>
+        <v>246988.51999999955</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="4"/>
+        <v>7.9569249404813532E-3</v>
+      </c>
+      <c r="K44" s="26">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L44" s="51">
         <v>31282200</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="59">
         <v>31282141.25</v>
       </c>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" t="s">
+      <c r="N44" s="52">
+        <f t="shared" si="6"/>
+        <v>58.75</v>
+      </c>
+      <c r="O44" s="53">
+        <f t="shared" si="7"/>
+        <v>1.8780648419868168E-6</v>
+      </c>
+      <c r="P44" s="54">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="18">
         <v>55301600</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="11">
         <v>54589584.0499999</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="G45">
+      <c r="D45" s="12">
+        <f t="shared" si="0"/>
+        <v>712015.95000009984</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="1"/>
+        <v>1.287514194887851E-2</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G45" s="25">
         <v>56792200</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="14">
         <v>54594953.959999897</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="L45">
+      <c r="I45" s="14">
+        <f t="shared" si="3"/>
+        <v>2197246.0400001034</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="4"/>
+        <v>3.8689222111488959E-2</v>
+      </c>
+      <c r="K45" s="26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L45" s="51">
         <v>56027100</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="59">
         <v>55386549.6599999</v>
       </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" t="s">
+      <c r="N45" s="52">
+        <f t="shared" si="6"/>
+        <v>640550.34000010043</v>
+      </c>
+      <c r="O45" s="53">
+        <f t="shared" si="7"/>
+        <v>1.1432866237947358E-2</v>
+      </c>
+      <c r="P45" s="54">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="18">
         <v>259100</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="11">
         <v>258322.43</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="G46">
+      <c r="D46" s="12">
+        <f t="shared" si="0"/>
+        <v>777.57000000000698</v>
+      </c>
+      <c r="E46" s="13">
+        <f t="shared" si="1"/>
+        <v>3.0010420686993711E-3</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="G46" s="25">
         <v>266000</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="14">
         <v>257402.90999999901</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="L46">
+      <c r="I46" s="14">
+        <f t="shared" si="3"/>
+        <v>8597.090000000986</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="4"/>
+        <v>3.2319887218048821E-2</v>
+      </c>
+      <c r="K46" s="26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L46" s="51">
         <v>267100</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="59">
         <v>254753.15999999901</v>
       </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" t="s">
+      <c r="N46" s="52">
+        <f t="shared" si="6"/>
+        <v>12346.840000000986</v>
+      </c>
+      <c r="O46" s="53">
+        <f t="shared" si="7"/>
+        <v>4.6225533508053113E-2</v>
+      </c>
+      <c r="P46" s="54">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="18">
         <v>70390700</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="11">
         <v>70378426.719999999</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="G47">
+      <c r="D47" s="12">
+        <f t="shared" si="0"/>
+        <v>12273.280000001192</v>
+      </c>
+      <c r="E47" s="13">
+        <f t="shared" si="1"/>
+        <v>1.7435939690898361E-4</v>
+      </c>
+      <c r="F47" s="19">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G47" s="25">
         <v>73467000</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="14">
         <v>73442541.659999996</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="L47">
+      <c r="I47" s="14">
+        <f t="shared" si="3"/>
+        <v>24458.340000003576</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="4"/>
+        <v>3.3291600310348285E-4</v>
+      </c>
+      <c r="K47" s="26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L47" s="51">
         <v>75072800</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="59">
         <v>75050829.179999903</v>
       </c>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" t="s">
+      <c r="N47" s="52">
+        <f t="shared" si="6"/>
+        <v>21970.820000097156</v>
+      </c>
+      <c r="O47" s="53">
+        <f t="shared" si="7"/>
+        <v>2.9266019117572752E-4</v>
+      </c>
+      <c r="P47" s="54">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="18">
         <v>6737100</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="11">
         <v>6527352.5699999901</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="G48">
+      <c r="D48" s="12">
+        <f t="shared" si="0"/>
+        <v>209747.43000000995</v>
+      </c>
+      <c r="E48" s="13">
+        <f t="shared" si="1"/>
+        <v>3.1133192323107857E-2</v>
+      </c>
+      <c r="F48" s="19">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G48" s="25">
         <v>7214700</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="14">
         <v>6922072.5599999996</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="L48">
+      <c r="I48" s="14">
+        <f t="shared" si="3"/>
+        <v>292627.44000000041</v>
+      </c>
+      <c r="J48" s="15">
+        <f t="shared" si="4"/>
+        <v>4.0559890224125802E-2</v>
+      </c>
+      <c r="K48" s="26">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L48" s="51">
         <v>7289800</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="59">
         <v>6882350.23999999</v>
       </c>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" t="s">
+      <c r="N48" s="52">
+        <f t="shared" si="6"/>
+        <v>407449.76000001002</v>
+      </c>
+      <c r="O48" s="53">
+        <f t="shared" si="7"/>
+        <v>5.5893132870587676E-2</v>
+      </c>
+      <c r="P48" s="54">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="18">
         <v>92200</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="11">
         <v>90499.43</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="G49">
+      <c r="D49" s="12">
+        <f t="shared" si="0"/>
+        <v>1700.570000000007</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="1"/>
+        <v>1.8444360086767971E-2</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="G49" s="25">
         <v>102600</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="14">
         <v>95466.880000000005</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" t="s">
+      <c r="I49" s="14">
+        <f t="shared" si="3"/>
+        <v>7133.1199999999953</v>
+      </c>
+      <c r="J49" s="15">
+        <f t="shared" si="4"/>
+        <v>6.9523586744639335E-2</v>
+      </c>
+      <c r="K49" s="26">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L49" s="51">
+        <v>0</v>
+      </c>
+      <c r="M49" s="59">
+        <v>0</v>
+      </c>
+      <c r="N49" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="54">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="18">
         <v>832600</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="11">
         <v>832600</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="G50">
+      <c r="D50" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G50" s="25">
         <v>859100</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="14">
         <v>859100</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="L50">
+      <c r="I50" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="26">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L50" s="51">
         <v>843200</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="59">
         <v>843200</v>
       </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" t="s">
+      <c r="N50" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="54">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="18">
         <v>8609500</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="11">
         <v>8499425.3399999905</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="G51">
+      <c r="D51" s="12">
+        <f t="shared" si="0"/>
+        <v>110074.66000000946</v>
+      </c>
+      <c r="E51" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2785255822058129E-2</v>
+      </c>
+      <c r="F51" s="19">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="G51" s="25">
         <v>8925500</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="14">
         <v>8599059.6199999992</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="L51">
+      <c r="I51" s="14">
+        <f t="shared" si="3"/>
+        <v>326440.38000000082</v>
+      </c>
+      <c r="J51" s="15">
+        <f t="shared" si="4"/>
+        <v>3.6573903982970231E-2</v>
+      </c>
+      <c r="K51" s="26">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L51" s="51">
         <v>8833900</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="59">
         <v>8735843.3100000005</v>
       </c>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" t="s">
+      <c r="N51" s="52">
+        <f t="shared" si="6"/>
+        <v>98056.689999999478</v>
+      </c>
+      <c r="O51" s="53">
+        <f t="shared" si="7"/>
+        <v>1.1100045280114048E-2</v>
+      </c>
+      <c r="P51" s="54">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="20">
         <v>2451000</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="21">
         <v>2254684.7999999998</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="G52">
+      <c r="D52" s="22">
+        <f t="shared" si="0"/>
+        <v>196315.20000000019</v>
+      </c>
+      <c r="E52" s="23">
+        <f t="shared" si="1"/>
+        <v>8.009596083231342E-2</v>
+      </c>
+      <c r="F52" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G52" s="27">
         <v>2440700</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="28">
         <v>2204672.88</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="L52">
+      <c r="I52" s="28">
+        <f t="shared" si="3"/>
+        <v>236027.12000000011</v>
+      </c>
+      <c r="J52" s="29">
+        <f t="shared" si="4"/>
+        <v>9.6704683082722218E-2</v>
+      </c>
+      <c r="K52" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L52" s="55">
         <v>2321600</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="60">
         <v>2056835.26</v>
       </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="54" spans="1:15" ht="15">
-      <c r="A54" s="2" t="s">
+      <c r="N52" s="56">
+        <f t="shared" si="6"/>
+        <v>264764.74</v>
+      </c>
+      <c r="O52" s="57">
+        <f t="shared" si="7"/>
+        <v>0.11404408166781529</v>
+      </c>
+      <c r="P52" s="58">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" s="67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="66" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56" s="45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" t="s">
+      <c r="B56" s="11">
+        <f>VLOOKUP($A56,$A$2:$D$52,4,TRUE)</f>
+        <v>36209.630000000005</v>
+      </c>
+      <c r="C56" s="14">
+        <f>VLOOKUP($A56,$A$2:$K$52,9,TRUE)</f>
+        <v>27292.159999999974</v>
+      </c>
+      <c r="D56" s="54">
+        <f>VLOOKUP($A56,A2:N52,14,TRUE)</f>
+        <v>9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57" s="45" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" t="s">
+      <c r="B57" s="11">
+        <f t="shared" ref="B57:B61" si="9">VLOOKUP($A57,$A$2:$D$52,4,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="14">
+        <f t="shared" ref="C57:C61" si="10">VLOOKUP($A57,$A$2:$K$52,9,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="54">
+        <f t="shared" ref="D57:D61" si="11">VLOOKUP($A57,A3:N53,14,TRUE)</f>
+        <v>311228.08999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" s="45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" t="s">
+      <c r="B58" s="11">
+        <f t="shared" si="9"/>
+        <v>149396.10000000987</v>
+      </c>
+      <c r="C58" s="14">
+        <f t="shared" si="10"/>
+        <v>189254.06000000006</v>
+      </c>
+      <c r="D58" s="54">
+        <f t="shared" si="11"/>
+        <v>374962.91000000015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" s="45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" t="s">
+      <c r="B59" s="11">
+        <f t="shared" si="9"/>
+        <v>12230.810000000056</v>
+      </c>
+      <c r="C59" s="14">
+        <f t="shared" si="10"/>
+        <v>45485.580000000075</v>
+      </c>
+      <c r="D59" s="54">
+        <f t="shared" si="11"/>
+        <v>72.879999999888241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" s="45" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" t="s">
+      <c r="B60" s="11">
+        <f t="shared" si="9"/>
+        <v>4950.4699999999721</v>
+      </c>
+      <c r="C60" s="14">
+        <f t="shared" si="10"/>
+        <v>8005.7900000010268</v>
+      </c>
+      <c r="D60" s="54">
+        <f t="shared" si="11"/>
+        <v>1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15">
-      <c r="A63" s="7" t="s">
+      <c r="B61" s="21">
+        <f t="shared" si="9"/>
+        <v>184239.79000001028</v>
+      </c>
+      <c r="C61" s="28">
+        <f t="shared" si="10"/>
+        <v>133456.33000001032</v>
+      </c>
+      <c r="D61" s="58">
+        <f t="shared" si="11"/>
+        <v>82077.349999999627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63" s="67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="69"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A64" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="66" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
-      <c r="A65" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15">
-      <c r="A66" t="s">
+      <c r="B65" s="11">
+        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
+        <v>36209.630000000005</v>
+      </c>
+      <c r="C65" s="14">
+        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$I$2:$I$52,"Not Found",0)</f>
+        <v>27292.159999999974</v>
+      </c>
+      <c r="D65" s="54">
+        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$N$2:$N$52,"Not Found",0)</f>
+        <v>9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="45" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15">
-      <c r="A67" t="s">
+      <c r="B66" s="11">
+        <f t="shared" ref="B66:B70" si="12">_xlfn.XLOOKUP($A66,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="14">
+        <f t="shared" ref="C66:C70" si="13">_xlfn.XLOOKUP($A66,$A$2:$A$52,$I$2:$I$52,"Not Found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="54">
+        <f t="shared" ref="D66:D70" si="14">_xlfn.XLOOKUP($A66,$A$2:$A$52,$N$2:$N$52,"Not Found",0)</f>
+        <v>311228.08999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="B67" s="11">
+        <f t="shared" si="12"/>
+        <v>149396.10000000987</v>
+      </c>
+      <c r="C67" s="14">
+        <f t="shared" si="13"/>
+        <v>189254.06000000006</v>
+      </c>
+      <c r="D67" s="54">
+        <f t="shared" si="14"/>
+        <v>374962.91000000015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="B68" s="11">
+        <f t="shared" si="12"/>
+        <v>12230.810000000056</v>
+      </c>
+      <c r="C68" s="14">
+        <f t="shared" si="13"/>
+        <v>45485.580000000075</v>
+      </c>
+      <c r="D68" s="54">
+        <f t="shared" si="14"/>
+        <v>72.879999999888241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="45" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="B69" s="11">
+        <f t="shared" si="12"/>
+        <v>4950.4699999999721</v>
+      </c>
+      <c r="C69" s="14">
+        <f t="shared" si="13"/>
+        <v>8005.7900000010268</v>
+      </c>
+      <c r="D69" s="54">
+        <f t="shared" si="14"/>
+        <v>1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15"/>
-    <row r="72" spans="1:4" ht="15">
-      <c r="A72" s="7" t="s">
+      <c r="B70" s="21">
+        <f t="shared" si="12"/>
+        <v>184239.79000001028</v>
+      </c>
+      <c r="C70" s="28">
+        <f t="shared" si="13"/>
+        <v>133456.33000001032</v>
+      </c>
+      <c r="D70" s="58">
+        <f t="shared" si="14"/>
+        <v>82077.349999999627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="B72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="69"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="66" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
-      <c r="A74" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15">
-      <c r="A75" t="s">
+      <c r="B74" s="11">
+        <f>INDEX($D$2:$D$52,(MATCH($A74,$A$2:$A$52,0)))</f>
+        <v>36209.630000000005</v>
+      </c>
+      <c r="C74" s="14">
+        <f>INDEX($I$2:$I$52,MATCH(A74,$A$2:$A$52,0))</f>
+        <v>27292.159999999974</v>
+      </c>
+      <c r="D74" s="54">
+        <f>INDEX($N$2:$N$52,MATCH(A74,$A$2:$A$52,0))</f>
+        <v>9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="45" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+      <c r="B75" s="11">
+        <f t="shared" ref="B75:B79" si="15">INDEX($D$2:$D$52,(MATCH($A75,$A$2:$A$52,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="14">
+        <f t="shared" ref="C75:C79" si="16">INDEX($I$2:$I$52,MATCH(A75,$A$2:$A$52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="54">
+        <f t="shared" ref="D75:D79" si="17">INDEX($N$2:$N$52,MATCH(A75,$A$2:$A$52,0))</f>
+        <v>311228.08999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+      <c r="B76" s="11">
+        <f t="shared" si="15"/>
+        <v>149396.10000000987</v>
+      </c>
+      <c r="C76" s="14">
+        <f t="shared" si="16"/>
+        <v>189254.06000000006</v>
+      </c>
+      <c r="D76" s="54">
+        <f t="shared" si="17"/>
+        <v>374962.91000000015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+      <c r="B77" s="11">
+        <f t="shared" si="15"/>
+        <v>12230.810000000056</v>
+      </c>
+      <c r="C77" s="14">
+        <f t="shared" si="16"/>
+        <v>45485.580000000075</v>
+      </c>
+      <c r="D77" s="54">
+        <f t="shared" si="17"/>
+        <v>72.879999999888241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="45" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+      <c r="B78" s="11">
+        <f t="shared" si="15"/>
+        <v>4950.4699999999721</v>
+      </c>
+      <c r="C78" s="14">
+        <f t="shared" si="16"/>
+        <v>8005.7900000010268</v>
+      </c>
+      <c r="D78" s="54">
+        <f t="shared" si="17"/>
+        <v>1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15"/>
-    <row r="81" spans="1:7" ht="15">
-      <c r="A81" s="7" t="s">
+      <c r="B79" s="21">
+        <f t="shared" si="15"/>
+        <v>184239.79000001028</v>
+      </c>
+      <c r="C79" s="28">
+        <f t="shared" si="16"/>
+        <v>133456.33000001032</v>
+      </c>
+      <c r="D79" s="58">
+        <f t="shared" si="17"/>
+        <v>82077.349999999627</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="74" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="15">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="B83" s="1" t="s">
+      <c r="B81" s="75"/>
+      <c r="C81" s="76"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="64"/>
+      <c r="C82" s="66"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="45"/>
+      <c r="B83" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="66" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
+      <c r="B84" s="70"/>
+      <c r="C84" s="71"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
+      <c r="B85" s="70"/>
+      <c r="C85" s="71"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="1:7" ht="15"/>
-    <row r="88" spans="1:7" ht="15">
-      <c r="A88" s="7" t="s">
+      <c r="B86" s="72"/>
+      <c r="C86" s="73"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="15">
-      <c r="A89" t="s">
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="76"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="77">
         <v>1</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7">
+      <c r="C89" s="77"/>
+      <c r="D89" s="77">
         <v>2</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7">
+      <c r="E89" s="77"/>
+      <c r="F89" s="77">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="15">
-      <c r="B90" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="8" t="s">
+      <c r="G89" s="79"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="65"/>
+      <c r="B90" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="8" t="s">
+      <c r="D90" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="F90" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G90" s="8" t="s">
+      <c r="F90" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="83" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="80"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="80"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="95" spans="1:7" ht="15">
-      <c r="A95" s="7" t="s">
+      <c r="B93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="81"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="74" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="15">
-      <c r="A96" t="s">
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="76"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="77">
         <v>1</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7">
+      <c r="C96" s="77"/>
+      <c r="D96" s="77">
         <v>2</v>
       </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7">
+      <c r="E96" s="77"/>
+      <c r="F96" s="77">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="15">
-      <c r="B97" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="8" t="s">
+      <c r="G96" s="79"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="65"/>
+      <c r="B97" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="8" t="s">
+      <c r="D97" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" s="8" t="s">
+      <c r="F97" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="83" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="80"/>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="80"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="I100" s="4"/>
-    </row>
-    <row r="102" spans="1:9" ht="15"/>
-    <row r="103" spans="1:9" ht="15"/>
-    <row r="104" spans="1:9" ht="15"/>
-    <row r="105" spans="1:9" ht="15"/>
-    <row r="106" spans="1:9" ht="15"/>
-    <row r="107" spans="1:9" ht="15"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="81"/>
+      <c r="I100" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
@@ -2911,7 +5494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB99AC6-F6B8-4A26-96BE-D02EE21B4B6C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -2919,89 +5502,89 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>89</v>
       </c>
     </row>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/483805976292d47c/Documents/NSS/excel/da16-lookups-exercise-janvimehendale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F915772F-F344-4284-BF21-A4406F2AAF11}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0F939FB-CE2D-46F9-AF00-18282B97C9C2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="106">
   <si>
     <t>Department</t>
   </si>
@@ -346,13 +368,13 @@
     <t>Challenge Questions (Save for last):</t>
   </si>
   <si>
-    <t>1. Modify your formulas from questions 3-5 using MATCH so that you can pull the formula both down and sideways to fill in the entire table.</t>
-  </si>
-  <si>
-    <t>2. Use XLOOKUP to find, for each financial year, the three highest ranked departments in terms of the percentage below budget their actual spending was. Bonus: Combine XLOOKUP with INDEX and MATCH in order to write two formulas that can be copied and pasted to fill in the table.</t>
-  </si>
-  <si>
-    <t>3. Do the same as above, but using only INDEX and MATCH.</t>
+    <t>7. Modify your formulas from questions 3-5 using MATCH so that you can pull the formula both down and sideways to fill in the entire table.</t>
+  </si>
+  <si>
+    <t>8. Use XLOOKUP to find, for each financial year, the three highest ranked departments in terms of the percentage below budget their actual spending was. Bonus: Combine XLOOKUP with INDEX and MATCH in order to write two formulas that can be copied and pasted to fill in the table.</t>
+  </si>
+  <si>
+    <t>9. Do the same as above, but using only INDEX and MATCH.</t>
   </si>
 </sst>
 </file>
@@ -752,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1196,6 +1218,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1241,7 +1331,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1264,7 +1354,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1274,15 +1363,12 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1292,7 +1378,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="37" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1301,8 +1386,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1311,8 +1394,6 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="38" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="38" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1324,7 +1405,6 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1340,6 +1420,14 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1402,6 +1490,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1703,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C48D45-1BE3-4B33-A856-F38C2E92A17A}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1810,14 +1902,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
@@ -1836,3536 +1928,3551 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="28">
         <v>356640100</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="29">
         <v>341243679.13</v>
       </c>
-      <c r="D2" s="34">
-        <f>ABS(C2-B2)</f>
-        <v>15396420.870000005</v>
-      </c>
-      <c r="E2" s="35">
+      <c r="D2" s="30">
+        <f>(C2-B2)</f>
+        <v>-15396420.870000005</v>
+      </c>
+      <c r="E2" s="31">
         <f>IFERROR(D2/B2,0)</f>
-        <v>4.3170750765267295E-2</v>
-      </c>
-      <c r="F2" s="36">
+        <v>-4.3170750765267295E-2</v>
+      </c>
+      <c r="F2" s="32">
         <f>RANK(E2,E:E)</f>
-        <v>14</v>
-      </c>
-      <c r="G2" s="37">
+        <v>38</v>
+      </c>
+      <c r="G2" s="33">
         <v>382685200</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="34">
         <v>346340810.81999999</v>
       </c>
-      <c r="I2" s="38">
-        <f>ABS(H2-G2)</f>
-        <v>36344389.180000007</v>
-      </c>
-      <c r="J2" s="39">
+      <c r="I2" s="34">
+        <f>(H2-G2)</f>
+        <v>-36344389.180000007</v>
+      </c>
+      <c r="J2" s="35">
         <f>IFERROR(I2/G2,0)</f>
-        <v>9.4972027086493035E-2</v>
-      </c>
-      <c r="K2" s="40">
+        <v>-9.4972027086493035E-2</v>
+      </c>
+      <c r="K2" s="81">
         <f>RANK(J2,J2:J52)</f>
-        <v>10</v>
-      </c>
-      <c r="L2" s="49">
+        <v>42</v>
+      </c>
+      <c r="L2" s="79">
         <v>376548600</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="52">
         <v>355279492.22999901</v>
       </c>
-      <c r="N2" s="61">
-        <f>ABS(M2-L2)</f>
-        <v>21269107.770000994</v>
-      </c>
-      <c r="O2" s="62">
+      <c r="N2" s="52">
+        <f>(M2-L2)</f>
+        <v>-21269107.770000994</v>
+      </c>
+      <c r="O2" s="53">
         <f>IFERROR(N2/L2,0)</f>
-        <v>5.6484362894991494E-2</v>
-      </c>
-      <c r="P2" s="63">
+        <v>-5.6484362894991494E-2</v>
+      </c>
+      <c r="P2" s="54">
         <f>RANK(O2,O2:O52)</f>
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>328800</v>
       </c>
       <c r="C3" s="11">
         <v>321214.59000000003</v>
       </c>
-      <c r="D3" s="12">
-        <f t="shared" ref="D3:D52" si="0">ABS(C3-B3)</f>
-        <v>7585.4099999999744</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="30">
+        <f t="shared" ref="D3:D52" si="0">(C3-B3)</f>
+        <v>-7585.4099999999744</v>
+      </c>
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E52" si="1">IFERROR(D3/B3,0)</f>
-        <v>2.3069981751824741E-2</v>
-      </c>
-      <c r="F3" s="19">
-        <f t="shared" ref="F3:F52" si="2">RANK(E3,E:E)</f>
-        <v>22</v>
-      </c>
-      <c r="G3" s="25">
+        <v>-2.3069981751824741E-2</v>
+      </c>
+      <c r="F3" s="18">
+        <f>RANK(E3,E:E)</f>
+        <v>30</v>
+      </c>
+      <c r="G3" s="23">
         <v>334800</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>312433.70999999897</v>
       </c>
-      <c r="I3" s="14">
-        <f t="shared" ref="I3:I52" si="3">ABS(H3-G3)</f>
-        <v>22366.290000001027</v>
-      </c>
-      <c r="J3" s="15">
-        <f t="shared" ref="J3:J52" si="4">IFERROR(I3/G3,0)</f>
-        <v>6.6804928315415249E-2</v>
-      </c>
-      <c r="K3" s="26">
-        <f t="shared" ref="K3:K52" si="5">RANK(J3,J3:J53)</f>
-        <v>13</v>
-      </c>
-      <c r="L3" s="51">
+      <c r="I3" s="34">
+        <f t="shared" ref="I3:I52" si="2">(H3-G3)</f>
+        <v>-22366.290000001027</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J52" si="3">IFERROR(I3/G3,0)</f>
+        <v>-6.6804928315415249E-2</v>
+      </c>
+      <c r="K3" s="77">
+        <f t="shared" ref="K3:K35" si="4">RANK(J3,J3:J53)</f>
+        <v>38</v>
+      </c>
+      <c r="L3" s="44">
         <v>322700</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="45">
         <v>322263.03999999998</v>
       </c>
-      <c r="N3" s="52">
-        <f t="shared" ref="N3:N52" si="6">ABS(M3-L3)</f>
-        <v>436.96000000002095</v>
-      </c>
-      <c r="O3" s="53">
-        <f t="shared" ref="O3:O52" si="7">IFERROR(N3/L3,0)</f>
-        <v>1.3540749922529313E-3</v>
-      </c>
-      <c r="P3" s="54">
-        <f t="shared" ref="P3:P52" si="8">RANK(O3,O3:O53)</f>
-        <v>36</v>
+      <c r="N3" s="45">
+        <f t="shared" ref="N3:N52" si="5">(M3-L3)</f>
+        <v>-436.96000000002095</v>
+      </c>
+      <c r="O3" s="46">
+        <f t="shared" ref="O3:O52" si="6">IFERROR(N3/L3,0)</f>
+        <v>-1.3540749922529313E-3</v>
+      </c>
+      <c r="P3" s="47">
+        <f t="shared" ref="P3:P35" si="7">RANK(O3,O3:O53)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>3130600</v>
       </c>
       <c r="C4" s="11">
         <v>3115157.5599999898</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="30">
         <f t="shared" si="0"/>
-        <v>15442.440000010189</v>
-      </c>
-      <c r="E4" s="13">
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>4.9327413275443007E-3</v>
-      </c>
-      <c r="F4" s="19">
+        <v>-4.9327413275443007E-3</v>
+      </c>
+      <c r="F4" s="18">
+        <f>RANK(E4,E:E)</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="23">
+        <v>3652300</v>
+      </c>
+      <c r="H4" s="13">
+        <v>3589693.2099999902</v>
+      </c>
+      <c r="I4" s="34">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="G4" s="25">
-        <v>3652300</v>
-      </c>
-      <c r="H4" s="14">
-        <v>3589693.2099999902</v>
-      </c>
-      <c r="I4" s="14">
+        <v>-62606.790000009816</v>
+      </c>
+      <c r="J4" s="14">
         <f t="shared" si="3"/>
-        <v>62606.790000009816</v>
-      </c>
-      <c r="J4" s="15">
+        <v>-1.7141743558856015E-2</v>
+      </c>
+      <c r="K4" s="77">
         <f t="shared" si="4"/>
-        <v>1.7141743558856015E-2</v>
-      </c>
-      <c r="K4" s="26">
+        <v>16</v>
+      </c>
+      <c r="L4" s="44">
+        <v>3662400</v>
+      </c>
+      <c r="M4" s="45">
+        <v>3564983.04999999</v>
+      </c>
+      <c r="N4" s="45">
         <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="L4" s="51">
-        <v>3662400</v>
-      </c>
-      <c r="M4" s="59">
-        <v>3564983.04999999</v>
-      </c>
-      <c r="N4" s="52">
+        <v>-97416.950000009965</v>
+      </c>
+      <c r="O4" s="46">
         <f t="shared" si="6"/>
-        <v>97416.950000009965</v>
-      </c>
-      <c r="O4" s="53">
+        <v>-2.6599210899959033E-2</v>
+      </c>
+      <c r="P4" s="47">
         <f t="shared" si="7"/>
-        <v>2.6599210899959033E-2</v>
-      </c>
-      <c r="P4" s="54">
-        <f t="shared" si="8"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>7670700</v>
       </c>
       <c r="C5" s="11">
         <v>6947552.6699999999</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="30">
         <f t="shared" si="0"/>
-        <v>723147.33000000007</v>
-      </c>
-      <c r="E5" s="13">
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>9.4273968477453174E-2</v>
-      </c>
-      <c r="F5" s="19">
+        <v>-9.4273968477453174E-2</v>
+      </c>
+      <c r="F5" s="18">
+        <f>RANK(E5,E:E)</f>
+        <v>48</v>
+      </c>
+      <c r="G5" s="23">
+        <v>7968300</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7020609.3200000003</v>
+      </c>
+      <c r="I5" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G5" s="25">
-        <v>7968300</v>
-      </c>
-      <c r="H5" s="14">
-        <v>7020609.3200000003</v>
-      </c>
-      <c r="I5" s="14">
+        <v>-947690.6799999997</v>
+      </c>
+      <c r="J5" s="14">
         <f t="shared" si="3"/>
-        <v>947690.6799999997</v>
-      </c>
-      <c r="J5" s="15">
+        <v>-0.118932605449092</v>
+      </c>
+      <c r="K5" s="77">
         <f t="shared" si="4"/>
-        <v>0.118932605449092</v>
-      </c>
-      <c r="K5" s="26">
+        <v>44</v>
+      </c>
+      <c r="L5" s="44">
+        <v>7759600</v>
+      </c>
+      <c r="M5" s="45">
+        <v>7497322.9100000001</v>
+      </c>
+      <c r="N5" s="45">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L5" s="51">
-        <v>7759600</v>
-      </c>
-      <c r="M5" s="59">
-        <v>7497322.9100000001</v>
-      </c>
-      <c r="N5" s="52">
+        <v>-262277.08999999985</v>
+      </c>
+      <c r="O5" s="46">
         <f t="shared" si="6"/>
-        <v>262277.08999999985</v>
-      </c>
-      <c r="O5" s="53">
+        <v>-3.3800336357544182E-2</v>
+      </c>
+      <c r="P5" s="47">
         <f t="shared" si="7"/>
-        <v>3.3800336357544182E-2</v>
-      </c>
-      <c r="P5" s="54">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>409300</v>
       </c>
       <c r="C6" s="11">
         <v>385908.52</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="30">
         <f t="shared" si="0"/>
-        <v>23391.479999999981</v>
-      </c>
-      <c r="E6" s="13">
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
-        <v>5.7149963352064452E-2</v>
-      </c>
-      <c r="F6" s="19">
+        <v>-5.7149963352064452E-2</v>
+      </c>
+      <c r="F6" s="18">
+        <f>RANK(E6,E:E)</f>
+        <v>41</v>
+      </c>
+      <c r="G6" s="23">
+        <v>428500</v>
+      </c>
+      <c r="H6" s="13">
+        <v>427758.64</v>
+      </c>
+      <c r="I6" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G6" s="25">
-        <v>428500</v>
-      </c>
-      <c r="H6" s="14">
-        <v>427758.64</v>
-      </c>
-      <c r="I6" s="14">
+        <v>-741.35999999998603</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="3"/>
-        <v>741.35999999998603</v>
-      </c>
-      <c r="J6" s="15">
+        <v>-1.7301283547257551E-3</v>
+      </c>
+      <c r="K6" s="77">
         <f t="shared" si="4"/>
-        <v>1.7301283547257551E-3</v>
-      </c>
-      <c r="K6" s="26">
+        <v>8</v>
+      </c>
+      <c r="L6" s="44">
+        <v>445200</v>
+      </c>
+      <c r="M6" s="45">
+        <v>445114.28999999899</v>
+      </c>
+      <c r="N6" s="45">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="L6" s="51">
-        <v>445200</v>
-      </c>
-      <c r="M6" s="59">
-        <v>445114.28999999899</v>
-      </c>
-      <c r="N6" s="52">
+        <v>-85.710000001010485</v>
+      </c>
+      <c r="O6" s="46">
         <f t="shared" si="6"/>
-        <v>85.710000001010485</v>
-      </c>
-      <c r="O6" s="53">
+        <v>-1.925202156356929E-4</v>
+      </c>
+      <c r="P6" s="47">
         <f t="shared" si="7"/>
-        <v>1.925202156356929E-4</v>
-      </c>
-      <c r="P6" s="54">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>3329000</v>
       </c>
       <c r="C7" s="11">
         <v>2946071.21</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="30">
         <f t="shared" si="0"/>
-        <v>382928.79000000004</v>
-      </c>
-      <c r="E7" s="13">
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
-        <v>0.11502817362571344</v>
-      </c>
-      <c r="F7" s="19">
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F7" s="18">
+        <f>RANK(E7,E:E)</f>
+        <v>50</v>
+      </c>
+      <c r="G7" s="23">
+        <v>3390900</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3051483.41</v>
+      </c>
+      <c r="I7" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G7" s="25">
-        <v>3390900</v>
-      </c>
-      <c r="H7" s="14">
-        <v>3051483.41</v>
-      </c>
-      <c r="I7" s="14">
+        <v>-339416.58999999985</v>
+      </c>
+      <c r="J7" s="14">
         <f t="shared" si="3"/>
-        <v>339416.58999999985</v>
-      </c>
-      <c r="J7" s="15">
+        <v>-0.10009631366303927</v>
+      </c>
+      <c r="K7" s="77">
         <f t="shared" si="4"/>
-        <v>0.10009631366303927</v>
-      </c>
-      <c r="K7" s="26">
+        <v>40</v>
+      </c>
+      <c r="L7" s="44">
+        <v>3345200</v>
+      </c>
+      <c r="M7" s="45">
+        <v>2946440.08</v>
+      </c>
+      <c r="N7" s="45">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="L7" s="51">
-        <v>3345200</v>
-      </c>
-      <c r="M7" s="59">
-        <v>2946440.08</v>
-      </c>
-      <c r="N7" s="52">
+        <v>-398759.91999999993</v>
+      </c>
+      <c r="O7" s="46">
         <f t="shared" si="6"/>
-        <v>398759.91999999993</v>
-      </c>
-      <c r="O7" s="53">
+        <v>-0.11920361114432618</v>
+      </c>
+      <c r="P7" s="47">
         <f t="shared" si="7"/>
-        <v>0.11920361114432618</v>
-      </c>
-      <c r="P7" s="54">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>1552100</v>
       </c>
       <c r="C8" s="11">
         <v>1315623.30999999</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="30">
         <f t="shared" si="0"/>
-        <v>236476.69000000996</v>
-      </c>
-      <c r="E8" s="13">
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
-        <v>0.15235918433091292</v>
-      </c>
-      <c r="F8" s="19">
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="F8" s="18">
+        <f>RANK(E8,E:E)</f>
+        <v>51</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1590700</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1383905.98999999</v>
+      </c>
+      <c r="I8" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="25">
-        <v>1590700</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1383905.98999999</v>
-      </c>
-      <c r="I8" s="14">
+        <v>-206794.01000001002</v>
+      </c>
+      <c r="J8" s="14">
         <f t="shared" si="3"/>
-        <v>206794.01000001002</v>
-      </c>
-      <c r="J8" s="15">
+        <v>-0.13000189224870184</v>
+      </c>
+      <c r="K8" s="77">
         <f t="shared" si="4"/>
-        <v>0.13000189224870184</v>
-      </c>
-      <c r="K8" s="26">
+        <v>42</v>
+      </c>
+      <c r="L8" s="44">
+        <v>1579300</v>
+      </c>
+      <c r="M8" s="45">
+        <v>1337735.3199999901</v>
+      </c>
+      <c r="N8" s="45">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="L8" s="51">
-        <v>1579300</v>
-      </c>
-      <c r="M8" s="59">
-        <v>1337735.3199999901</v>
-      </c>
-      <c r="N8" s="52">
+        <v>-241564.68000000995</v>
+      </c>
+      <c r="O8" s="46">
         <f t="shared" si="6"/>
-        <v>241564.68000000995</v>
-      </c>
-      <c r="O8" s="53">
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="P8" s="47">
         <f t="shared" si="7"/>
-        <v>0.15295680364719175</v>
-      </c>
-      <c r="P8" s="54">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>9349400</v>
       </c>
       <c r="C9" s="11">
         <v>8952825.2799999993</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="30">
         <f t="shared" si="0"/>
-        <v>396574.72000000067</v>
-      </c>
-      <c r="E9" s="13">
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
-        <v>4.2417130511048909E-2</v>
-      </c>
-      <c r="F9" s="19">
+        <v>-4.2417130511048909E-2</v>
+      </c>
+      <c r="F9" s="18">
+        <f>RANK(E9,E:E)</f>
+        <v>36</v>
+      </c>
+      <c r="G9" s="23">
+        <v>11073700</v>
+      </c>
+      <c r="H9" s="13">
+        <v>9929059.5199999996</v>
+      </c>
+      <c r="I9" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G9" s="25">
-        <v>11073700</v>
-      </c>
-      <c r="H9" s="14">
-        <v>9929059.5199999996</v>
-      </c>
-      <c r="I9" s="14">
+        <v>-1144640.4800000004</v>
+      </c>
+      <c r="J9" s="14">
         <f t="shared" si="3"/>
-        <v>1144640.4800000004</v>
-      </c>
-      <c r="J9" s="15">
+        <v>-0.10336567542917005</v>
+      </c>
+      <c r="K9" s="77">
         <f t="shared" si="4"/>
-        <v>0.10336567542917005</v>
-      </c>
-      <c r="K9" s="26">
+        <v>40</v>
+      </c>
+      <c r="L9" s="44">
+        <v>10790500</v>
+      </c>
+      <c r="M9" s="45">
+        <v>9993599.52999999</v>
+      </c>
+      <c r="N9" s="45">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L9" s="51">
-        <v>10790500</v>
-      </c>
-      <c r="M9" s="59">
-        <v>9993599.52999999</v>
-      </c>
-      <c r="N9" s="52">
+        <v>-796900.47000000998</v>
+      </c>
+      <c r="O9" s="46">
         <f t="shared" si="6"/>
-        <v>796900.47000000998</v>
-      </c>
-      <c r="O9" s="53">
+        <v>-7.3852043000788653E-2</v>
+      </c>
+      <c r="P9" s="47">
         <f t="shared" si="7"/>
-        <v>7.3852043000788653E-2</v>
-      </c>
-      <c r="P9" s="54">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>443300</v>
       </c>
       <c r="C10" s="11">
         <v>407090.37</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="30">
         <f t="shared" si="0"/>
-        <v>36209.630000000005</v>
-      </c>
-      <c r="E10" s="13">
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
-        <v>8.1681998646514792E-2</v>
-      </c>
-      <c r="F10" s="19">
+        <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="F10" s="18">
+        <f>RANK(E10,E:E)</f>
+        <v>46</v>
+      </c>
+      <c r="G10" s="23">
+        <v>495200</v>
+      </c>
+      <c r="H10" s="13">
+        <v>467907.84000000003</v>
+      </c>
+      <c r="I10" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G10" s="25">
-        <v>495200</v>
-      </c>
-      <c r="H10" s="14">
-        <v>467907.84000000003</v>
-      </c>
-      <c r="I10" s="14">
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="J10" s="14">
         <f t="shared" si="3"/>
-        <v>27292.159999999974</v>
-      </c>
-      <c r="J10" s="15">
+        <v>-5.5113408723747932E-2</v>
+      </c>
+      <c r="K10" s="77">
         <f t="shared" si="4"/>
-        <v>5.5113408723747932E-2</v>
-      </c>
-      <c r="K10" s="26">
+        <v>33</v>
+      </c>
+      <c r="L10" s="44">
+        <v>487500</v>
+      </c>
+      <c r="M10" s="45">
+        <v>478318.92</v>
+      </c>
+      <c r="N10" s="45">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="L10" s="51">
-        <v>487500</v>
-      </c>
-      <c r="M10" s="59">
-        <v>478318.92</v>
-      </c>
-      <c r="N10" s="52">
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="O10" s="46">
         <f t="shared" si="6"/>
-        <v>9181.0800000000163</v>
-      </c>
-      <c r="O10" s="53">
+        <v>-1.883298461538465E-2</v>
+      </c>
+      <c r="P10" s="47">
         <f t="shared" si="7"/>
-        <v>1.883298461538465E-2</v>
-      </c>
-      <c r="P10" s="54">
-        <f t="shared" si="8"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>0</v>
       </c>
       <c r="C11" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
+        <f>RANK(E11,E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="15">
+      <c r="K11" s="77">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="26">
+        <v>1</v>
+      </c>
+      <c r="L11" s="44">
+        <v>375000</v>
+      </c>
+      <c r="M11" s="45">
+        <v>63771.91</v>
+      </c>
+      <c r="N11" s="45">
         <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="L11" s="51">
-        <v>375000</v>
-      </c>
-      <c r="M11" s="59">
-        <v>63771.91</v>
-      </c>
-      <c r="N11" s="52">
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="O11" s="46">
         <f t="shared" si="6"/>
-        <v>311228.08999999997</v>
-      </c>
-      <c r="O11" s="53">
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="P11" s="47">
         <f t="shared" si="7"/>
-        <v>0.82994157333333329</v>
-      </c>
-      <c r="P11" s="54">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>4280900</v>
       </c>
       <c r="C12" s="11">
         <v>4066595.33</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="30">
         <f t="shared" si="0"/>
-        <v>214304.66999999993</v>
-      </c>
-      <c r="E12" s="13">
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E12" s="12">
         <f t="shared" si="1"/>
-        <v>5.0060657805601608E-2</v>
-      </c>
-      <c r="F12" s="19">
+        <v>-5.0060657805601608E-2</v>
+      </c>
+      <c r="F12" s="18">
+        <f>RANK(E12,E:E)</f>
+        <v>39</v>
+      </c>
+      <c r="G12" s="23">
+        <v>4700400</v>
+      </c>
+      <c r="H12" s="13">
+        <v>4205555.5999999996</v>
+      </c>
+      <c r="I12" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G12" s="25">
-        <v>4700400</v>
-      </c>
-      <c r="H12" s="14">
-        <v>4205555.5999999996</v>
-      </c>
-      <c r="I12" s="14">
+        <v>-494844.40000000037</v>
+      </c>
+      <c r="J12" s="14">
         <f t="shared" si="3"/>
-        <v>494844.40000000037</v>
-      </c>
-      <c r="J12" s="15">
+        <v>-0.10527708280146378</v>
+      </c>
+      <c r="K12" s="77">
         <f t="shared" si="4"/>
-        <v>0.10527708280146378</v>
-      </c>
-      <c r="K12" s="26">
+        <v>38</v>
+      </c>
+      <c r="L12" s="44">
+        <v>4677800</v>
+      </c>
+      <c r="M12" s="45">
+        <v>4371713.1399999997</v>
+      </c>
+      <c r="N12" s="45">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="51">
-        <v>4677800</v>
-      </c>
-      <c r="M12" s="59">
-        <v>4371713.1399999997</v>
-      </c>
-      <c r="N12" s="52">
+        <v>-306086.86000000034</v>
+      </c>
+      <c r="O12" s="46">
         <f t="shared" si="6"/>
-        <v>306086.86000000034</v>
-      </c>
-      <c r="O12" s="53">
+        <v>-6.5433934755654441E-2</v>
+      </c>
+      <c r="P12" s="47">
         <f t="shared" si="7"/>
-        <v>6.5433934755654441E-2</v>
-      </c>
-      <c r="P12" s="54">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>5847800</v>
       </c>
       <c r="C13" s="11">
         <v>5772288.3300000001</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="30">
         <f t="shared" si="0"/>
-        <v>75511.669999999925</v>
-      </c>
-      <c r="E13" s="13">
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E13" s="12">
         <f t="shared" si="1"/>
-        <v>1.2912833886247806E-2</v>
-      </c>
-      <c r="F13" s="19">
+        <v>-1.2912833886247806E-2</v>
+      </c>
+      <c r="F13" s="18">
+        <f>RANK(E13,E:E)</f>
+        <v>19</v>
+      </c>
+      <c r="G13" s="23">
+        <v>6223700</v>
+      </c>
+      <c r="H13" s="13">
+        <v>5909077.9399999902</v>
+      </c>
+      <c r="I13" s="34">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="G13" s="25">
-        <v>6223700</v>
-      </c>
-      <c r="H13" s="14">
-        <v>5909077.9399999902</v>
-      </c>
-      <c r="I13" s="14">
+        <v>-314622.06000000983</v>
+      </c>
+      <c r="J13" s="14">
         <f t="shared" si="3"/>
-        <v>314622.06000000983</v>
-      </c>
-      <c r="J13" s="15">
+        <v>-5.0552253482656594E-2</v>
+      </c>
+      <c r="K13" s="77">
         <f t="shared" si="4"/>
-        <v>5.0552253482656594E-2</v>
-      </c>
-      <c r="K13" s="26">
+        <v>31</v>
+      </c>
+      <c r="L13" s="44">
+        <v>6207300</v>
+      </c>
+      <c r="M13" s="45">
+        <v>6056976.6699999999</v>
+      </c>
+      <c r="N13" s="45">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L13" s="51">
-        <v>6207300</v>
-      </c>
-      <c r="M13" s="59">
-        <v>6056976.6699999999</v>
-      </c>
-      <c r="N13" s="52">
+        <v>-150323.33000000007</v>
+      </c>
+      <c r="O13" s="46">
         <f t="shared" si="6"/>
-        <v>150323.33000000007</v>
-      </c>
-      <c r="O13" s="53">
+        <v>-2.4217184605222895E-2</v>
+      </c>
+      <c r="P13" s="47">
         <f t="shared" si="7"/>
-        <v>2.4217184605222895E-2</v>
-      </c>
-      <c r="P13" s="54">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>512000</v>
       </c>
       <c r="C14" s="11">
         <v>505017.37</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="30">
         <f t="shared" si="0"/>
-        <v>6982.6300000000047</v>
-      </c>
-      <c r="E14" s="13">
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E14" s="12">
         <f t="shared" si="1"/>
-        <v>1.3637949218750009E-2</v>
-      </c>
-      <c r="F14" s="19">
+        <v>-1.3637949218750009E-2</v>
+      </c>
+      <c r="F14" s="18">
+        <f>RANK(E14,E:E)</f>
+        <v>22</v>
+      </c>
+      <c r="G14" s="23">
+        <v>530500</v>
+      </c>
+      <c r="H14" s="13">
+        <v>524402.98</v>
+      </c>
+      <c r="I14" s="34">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="G14" s="25">
-        <v>530500</v>
-      </c>
-      <c r="H14" s="14">
-        <v>524402.98</v>
-      </c>
-      <c r="I14" s="14">
+        <v>-6097.0200000000186</v>
+      </c>
+      <c r="J14" s="14">
         <f t="shared" si="3"/>
-        <v>6097.0200000000186</v>
-      </c>
-      <c r="J14" s="15">
+        <v>-1.1492968897266765E-2</v>
+      </c>
+      <c r="K14" s="77">
         <f t="shared" si="4"/>
-        <v>1.1492968897266765E-2</v>
-      </c>
-      <c r="K14" s="26">
+        <v>10</v>
+      </c>
+      <c r="L14" s="44">
+        <v>526200</v>
+      </c>
+      <c r="M14" s="45">
+        <v>504989.88</v>
+      </c>
+      <c r="N14" s="45">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="L14" s="51">
-        <v>526200</v>
-      </c>
-      <c r="M14" s="59">
-        <v>504989.88</v>
-      </c>
-      <c r="N14" s="52">
+        <v>-21210.119999999995</v>
+      </c>
+      <c r="O14" s="46">
         <f t="shared" si="6"/>
-        <v>21210.119999999995</v>
-      </c>
-      <c r="O14" s="53">
+        <v>-4.0308095781071827E-2</v>
+      </c>
+      <c r="P14" s="47">
         <f t="shared" si="7"/>
-        <v>4.0308095781071827E-2</v>
-      </c>
-      <c r="P14" s="54">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>156049100</v>
       </c>
       <c r="C15" s="11">
         <v>156545919.90000001</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="30">
         <f t="shared" si="0"/>
         <v>496819.90000000596</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <f t="shared" si="1"/>
         <v>3.1837408866824991E-3</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
+        <f>RANK(E15,E:E)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="23">
+        <v>184167800</v>
+      </c>
+      <c r="H15" s="13">
+        <v>175966389.24999899</v>
+      </c>
+      <c r="I15" s="34">
         <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="G15" s="25">
-        <v>184167800</v>
-      </c>
-      <c r="H15" s="14">
-        <v>175966389.24999899</v>
-      </c>
-      <c r="I15" s="14">
+        <v>-8201410.7500010133</v>
+      </c>
+      <c r="J15" s="14">
         <f t="shared" si="3"/>
-        <v>8201410.7500010133</v>
-      </c>
-      <c r="J15" s="15">
+        <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="K15" s="77">
         <f t="shared" si="4"/>
-        <v>4.4532273014072019E-2</v>
-      </c>
-      <c r="K15" s="26">
+        <v>24</v>
+      </c>
+      <c r="L15" s="44">
+        <v>188953500</v>
+      </c>
+      <c r="M15" s="45">
+        <v>184450910.84999901</v>
+      </c>
+      <c r="N15" s="45">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="L15" s="51">
-        <v>188953500</v>
-      </c>
-      <c r="M15" s="59">
-        <v>184450910.84999901</v>
-      </c>
-      <c r="N15" s="52">
+        <v>-4502589.1500009894</v>
+      </c>
+      <c r="O15" s="46">
         <f t="shared" si="6"/>
-        <v>4502589.1500009894</v>
-      </c>
-      <c r="O15" s="53">
+        <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="P15" s="47">
         <f t="shared" si="7"/>
-        <v>2.3829085727446114E-2</v>
-      </c>
-      <c r="P15" s="54">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>6600700</v>
       </c>
       <c r="C16" s="11">
         <v>6522480.4599999897</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="30">
         <f t="shared" si="0"/>
-        <v>78219.540000010282</v>
-      </c>
-      <c r="E16" s="13">
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E16" s="12">
         <f t="shared" si="1"/>
-        <v>1.1850188616360429E-2</v>
-      </c>
-      <c r="F16" s="19">
+        <v>-1.1850188616360429E-2</v>
+      </c>
+      <c r="F16" s="18">
+        <f>RANK(E16,E:E)</f>
+        <v>15</v>
+      </c>
+      <c r="G16" s="23">
+        <v>7352500</v>
+      </c>
+      <c r="H16" s="13">
+        <v>7350464.0800000001</v>
+      </c>
+      <c r="I16" s="34">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="G16" s="25">
-        <v>7352500</v>
-      </c>
-      <c r="H16" s="14">
-        <v>7350464.0800000001</v>
-      </c>
-      <c r="I16" s="14">
+        <v>-2035.9199999999255</v>
+      </c>
+      <c r="J16" s="14">
         <f t="shared" si="3"/>
-        <v>2035.9199999999255</v>
-      </c>
-      <c r="J16" s="15">
+        <v>-2.769017341040361E-4</v>
+      </c>
+      <c r="K16" s="77">
         <f t="shared" si="4"/>
-        <v>2.769017341040361E-4</v>
-      </c>
-      <c r="K16" s="26">
+        <v>5</v>
+      </c>
+      <c r="L16" s="44">
+        <v>7397200</v>
+      </c>
+      <c r="M16" s="45">
+        <v>7397093</v>
+      </c>
+      <c r="N16" s="45">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="L16" s="51">
-        <v>7397200</v>
-      </c>
-      <c r="M16" s="59">
-        <v>7397093</v>
-      </c>
-      <c r="N16" s="52">
+        <v>-107</v>
+      </c>
+      <c r="O16" s="46">
         <f t="shared" si="6"/>
-        <v>107</v>
-      </c>
-      <c r="O16" s="53">
+        <v>-1.4464932677229222E-5</v>
+      </c>
+      <c r="P16" s="47">
         <f t="shared" si="7"/>
-        <v>1.4464932677229222E-5</v>
-      </c>
-      <c r="P16" s="54">
-        <f t="shared" si="8"/>
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>14860800</v>
       </c>
       <c r="C17" s="11">
         <v>14439480.050000001</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="30">
         <f t="shared" si="0"/>
-        <v>421319.94999999925</v>
-      </c>
-      <c r="E17" s="13">
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E17" s="12">
         <f t="shared" si="1"/>
-        <v>2.8351094826658003E-2</v>
-      </c>
-      <c r="F17" s="19">
+        <v>-2.8351094826658003E-2</v>
+      </c>
+      <c r="F17" s="18">
+        <f>RANK(E17,E:E)</f>
+        <v>31</v>
+      </c>
+      <c r="G17" s="23">
+        <v>15309700</v>
+      </c>
+      <c r="H17" s="13">
+        <v>14645233.51</v>
+      </c>
+      <c r="I17" s="34">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="G17" s="25">
-        <v>15309700</v>
-      </c>
-      <c r="H17" s="14">
-        <v>14645233.51</v>
-      </c>
-      <c r="I17" s="14">
+        <v>-664466.49000000022</v>
+      </c>
+      <c r="J17" s="14">
         <f t="shared" si="3"/>
-        <v>664466.49000000022</v>
-      </c>
-      <c r="J17" s="15">
+        <v>-4.3401666263871937E-2</v>
+      </c>
+      <c r="K17" s="77">
         <f t="shared" si="4"/>
-        <v>4.3401666263871937E-2</v>
-      </c>
-      <c r="K17" s="26">
+        <v>22</v>
+      </c>
+      <c r="L17" s="44">
+        <v>15311800</v>
+      </c>
+      <c r="M17" s="45">
+        <v>14346057.039999999</v>
+      </c>
+      <c r="N17" s="45">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="L17" s="51">
-        <v>15311800</v>
-      </c>
-      <c r="M17" s="59">
-        <v>14346057.039999999</v>
-      </c>
-      <c r="N17" s="52">
+        <v>-965742.96000000089</v>
+      </c>
+      <c r="O17" s="46">
         <f t="shared" si="6"/>
-        <v>965742.96000000089</v>
-      </c>
-      <c r="O17" s="53">
+        <v>-6.3071811282801551E-2</v>
+      </c>
+      <c r="P17" s="47">
         <f t="shared" si="7"/>
-        <v>6.3071811282801551E-2</v>
-      </c>
-      <c r="P17" s="54">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>2764700</v>
       </c>
       <c r="C18" s="11">
         <v>2615303.8999999901</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="30">
         <f t="shared" si="0"/>
-        <v>149396.10000000987</v>
-      </c>
-      <c r="E18" s="13">
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E18" s="12">
         <f t="shared" si="1"/>
-        <v>5.4037002206391245E-2</v>
-      </c>
-      <c r="F18" s="19">
+        <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="F18" s="18">
+        <f>RANK(E18,E:E)</f>
+        <v>40</v>
+      </c>
+      <c r="G18" s="23">
+        <v>2861000</v>
+      </c>
+      <c r="H18" s="13">
+        <v>2671745.94</v>
+      </c>
+      <c r="I18" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G18" s="25">
-        <v>2861000</v>
-      </c>
-      <c r="H18" s="14">
-        <v>2671745.94</v>
-      </c>
-      <c r="I18" s="14">
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="J18" s="14">
         <f t="shared" si="3"/>
-        <v>189254.06000000006</v>
-      </c>
-      <c r="J18" s="15">
+        <v>-6.6149619014330668E-2</v>
+      </c>
+      <c r="K18" s="77">
         <f t="shared" si="4"/>
-        <v>6.6149619014330668E-2</v>
-      </c>
-      <c r="K18" s="26">
+        <v>28</v>
+      </c>
+      <c r="L18" s="44">
+        <v>2910600</v>
+      </c>
+      <c r="M18" s="45">
+        <v>2535637.09</v>
+      </c>
+      <c r="N18" s="45">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="L18" s="51">
-        <v>2910600</v>
-      </c>
-      <c r="M18" s="59">
-        <v>2535637.09</v>
-      </c>
-      <c r="N18" s="52">
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="O18" s="46">
         <f t="shared" si="6"/>
-        <v>374962.91000000015</v>
-      </c>
-      <c r="O18" s="53">
+        <v>-0.12882667147667154</v>
+      </c>
+      <c r="P18" s="47">
         <f t="shared" si="7"/>
-        <v>0.12882667147667154</v>
-      </c>
-      <c r="P18" s="54">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>8837300</v>
       </c>
       <c r="C19" s="11">
         <v>8460963.1999999899</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="30">
         <f t="shared" si="0"/>
-        <v>376336.80000001006</v>
-      </c>
-      <c r="E19" s="13">
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E19" s="12">
         <f t="shared" si="1"/>
-        <v>4.258504294298146E-2</v>
-      </c>
-      <c r="F19" s="19">
+        <v>-4.258504294298146E-2</v>
+      </c>
+      <c r="F19" s="18">
+        <f>RANK(E19,E:E)</f>
+        <v>37</v>
+      </c>
+      <c r="G19" s="23">
+        <v>9713300</v>
+      </c>
+      <c r="H19" s="13">
+        <v>8991707.2399999909</v>
+      </c>
+      <c r="I19" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="G19" s="25">
-        <v>9713300</v>
-      </c>
-      <c r="H19" s="14">
-        <v>8991707.2399999909</v>
-      </c>
-      <c r="I19" s="14">
+        <v>-721592.76000000909</v>
+      </c>
+      <c r="J19" s="14">
         <f t="shared" si="3"/>
-        <v>721592.76000000909</v>
-      </c>
-      <c r="J19" s="15">
+        <v>-7.4289145810384635E-2</v>
+      </c>
+      <c r="K19" s="77">
         <f t="shared" si="4"/>
-        <v>7.4289145810384635E-2</v>
-      </c>
-      <c r="K19" s="26">
+        <v>29</v>
+      </c>
+      <c r="L19" s="44">
+        <v>9343000</v>
+      </c>
+      <c r="M19" s="45">
+        <v>8766655.9100000001</v>
+      </c>
+      <c r="N19" s="45">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="L19" s="51">
-        <v>9343000</v>
-      </c>
-      <c r="M19" s="59">
-        <v>8766655.9100000001</v>
-      </c>
-      <c r="N19" s="52">
+        <v>-576344.08999999985</v>
+      </c>
+      <c r="O19" s="46">
         <f t="shared" si="6"/>
-        <v>576344.08999999985</v>
-      </c>
-      <c r="O19" s="53">
+        <v>-6.1687262121374278E-2</v>
+      </c>
+      <c r="P19" s="47">
         <f t="shared" si="7"/>
-        <v>6.1687262121374278E-2</v>
-      </c>
-      <c r="P19" s="54">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>124385900</v>
       </c>
       <c r="C20" s="11">
         <v>124384360.159999</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="30">
         <f t="shared" si="0"/>
-        <v>1539.8400010019541</v>
-      </c>
-      <c r="E20" s="13">
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E20" s="12">
         <f t="shared" si="1"/>
-        <v>1.2379538203300809E-5</v>
-      </c>
-      <c r="F20" s="19">
+        <v>-1.2379538203300809E-5</v>
+      </c>
+      <c r="F20" s="18">
+        <f>RANK(E20,E:E)</f>
+        <v>6</v>
+      </c>
+      <c r="G20" s="23">
+        <v>131849400</v>
+      </c>
+      <c r="H20" s="13">
+        <v>131839624.37</v>
+      </c>
+      <c r="I20" s="34">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="G20" s="25">
-        <v>131849400</v>
-      </c>
-      <c r="H20" s="14">
-        <v>131839624.37</v>
-      </c>
-      <c r="I20" s="14">
+        <v>-9775.6299999952316</v>
+      </c>
+      <c r="J20" s="14">
         <f t="shared" si="3"/>
-        <v>9775.6299999952316</v>
-      </c>
-      <c r="J20" s="15">
+        <v>-7.4142392760188761E-5</v>
+      </c>
+      <c r="K20" s="77">
         <f t="shared" si="4"/>
-        <v>7.4142392760188761E-5</v>
-      </c>
-      <c r="K20" s="26">
+        <v>4</v>
+      </c>
+      <c r="L20" s="44">
+        <v>130621400</v>
+      </c>
+      <c r="M20" s="45">
+        <v>130621283.53999899</v>
+      </c>
+      <c r="N20" s="45">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="L20" s="51">
-        <v>130621400</v>
-      </c>
-      <c r="M20" s="59">
-        <v>130621283.53999899</v>
-      </c>
-      <c r="N20" s="52">
+        <v>-116.46000100672245</v>
+      </c>
+      <c r="O20" s="46">
         <f t="shared" si="6"/>
-        <v>116.46000100672245</v>
-      </c>
-      <c r="O20" s="53">
+        <v>-8.9158438821450736E-7</v>
+      </c>
+      <c r="P20" s="47">
         <f t="shared" si="7"/>
-        <v>8.9158438821450736E-7</v>
-      </c>
-      <c r="P20" s="54">
-        <f t="shared" si="8"/>
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>24332100</v>
       </c>
       <c r="C21" s="11">
         <v>22408587.5499999</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="30">
         <f t="shared" si="0"/>
-        <v>1923512.4500000998</v>
-      </c>
-      <c r="E21" s="13">
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E21" s="12">
         <f t="shared" si="1"/>
-        <v>7.9052463618023094E-2</v>
-      </c>
-      <c r="F21" s="19">
+        <v>-7.9052463618023094E-2</v>
+      </c>
+      <c r="F21" s="18">
+        <f>RANK(E21,E:E)</f>
+        <v>43</v>
+      </c>
+      <c r="G21" s="23">
+        <v>24497400</v>
+      </c>
+      <c r="H21" s="13">
+        <v>22655993.629999999</v>
+      </c>
+      <c r="I21" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G21" s="25">
-        <v>24497400</v>
-      </c>
-      <c r="H21" s="14">
-        <v>22655993.629999999</v>
-      </c>
-      <c r="I21" s="14">
+        <v>-1841406.370000001</v>
+      </c>
+      <c r="J21" s="14">
         <f t="shared" si="3"/>
-        <v>1841406.370000001</v>
-      </c>
-      <c r="J21" s="15">
+        <v>-7.5167420624229556E-2</v>
+      </c>
+      <c r="K21" s="77">
         <f t="shared" si="4"/>
-        <v>7.5167420624229556E-2</v>
-      </c>
-      <c r="K21" s="26">
+        <v>28</v>
+      </c>
+      <c r="L21" s="44">
+        <v>24323000</v>
+      </c>
+      <c r="M21" s="45">
+        <v>23434073.089999899</v>
+      </c>
+      <c r="N21" s="45">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L21" s="51">
-        <v>24323000</v>
-      </c>
-      <c r="M21" s="59">
-        <v>23434073.089999899</v>
-      </c>
-      <c r="N21" s="52">
+        <v>-888926.91000010073</v>
+      </c>
+      <c r="O21" s="46">
         <f t="shared" si="6"/>
-        <v>888926.91000010073</v>
-      </c>
-      <c r="O21" s="53">
+        <v>-3.6546762734864152E-2</v>
+      </c>
+      <c r="P21" s="47">
         <f t="shared" si="7"/>
-        <v>3.6546762734864152E-2</v>
-      </c>
-      <c r="P21" s="54">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>11566000</v>
       </c>
       <c r="C22" s="11">
         <v>11412339.8799999</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="30">
         <f t="shared" si="0"/>
-        <v>153660.12000009976</v>
-      </c>
-      <c r="E22" s="13">
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E22" s="12">
         <f t="shared" si="1"/>
-        <v>1.3285502334437123E-2</v>
-      </c>
-      <c r="F22" s="19">
+        <v>-1.3285502334437123E-2</v>
+      </c>
+      <c r="F22" s="18">
+        <f>RANK(E22,E:E)</f>
+        <v>20</v>
+      </c>
+      <c r="G22" s="23">
+        <v>11980700</v>
+      </c>
+      <c r="H22" s="13">
+        <v>11791977.9699999</v>
+      </c>
+      <c r="I22" s="34">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="G22" s="25">
-        <v>11980700</v>
-      </c>
-      <c r="H22" s="14">
-        <v>11791977.9699999</v>
-      </c>
-      <c r="I22" s="14">
+        <v>-188722.03000009991</v>
+      </c>
+      <c r="J22" s="14">
         <f t="shared" si="3"/>
-        <v>188722.03000009991</v>
-      </c>
-      <c r="J22" s="15">
+        <v>-1.5752170574348738E-2</v>
+      </c>
+      <c r="K22" s="77">
         <f t="shared" si="4"/>
-        <v>1.5752170574348738E-2</v>
-      </c>
-      <c r="K22" s="26">
+        <v>9</v>
+      </c>
+      <c r="L22" s="44">
+        <v>11935200</v>
+      </c>
+      <c r="M22" s="45">
+        <v>11934454.77</v>
+      </c>
+      <c r="N22" s="45">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="L22" s="51">
-        <v>11935200</v>
-      </c>
-      <c r="M22" s="59">
-        <v>11934454.77</v>
-      </c>
-      <c r="N22" s="52">
+        <v>-745.23000000044703</v>
+      </c>
+      <c r="O22" s="46">
         <f t="shared" si="6"/>
-        <v>745.23000000044703</v>
-      </c>
-      <c r="O22" s="53">
+        <v>-6.2439674240938325E-5</v>
+      </c>
+      <c r="P22" s="47">
         <f t="shared" si="7"/>
-        <v>6.2439674240938325E-5</v>
-      </c>
-      <c r="P22" s="54">
-        <f t="shared" si="8"/>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>20862700</v>
       </c>
       <c r="C23" s="11">
         <v>20036743.4099999</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="30">
         <f t="shared" si="0"/>
-        <v>825956.59000010043</v>
-      </c>
-      <c r="E23" s="13">
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E23" s="12">
         <f t="shared" si="1"/>
-        <v>3.9590110100806722E-2</v>
-      </c>
-      <c r="F23" s="19">
+        <v>-3.9590110100806722E-2</v>
+      </c>
+      <c r="F23" s="18">
+        <f>RANK(E23,E:E)</f>
+        <v>34</v>
+      </c>
+      <c r="G23" s="23">
+        <v>22683800</v>
+      </c>
+      <c r="H23" s="13">
+        <v>21722126.219999898</v>
+      </c>
+      <c r="I23" s="34">
         <f t="shared" si="2"/>
+        <v>-961673.78000010177</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="3"/>
+        <v>-4.2394738976719144E-2</v>
+      </c>
+      <c r="K23" s="77">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="L23" s="44">
+        <v>23220300</v>
+      </c>
+      <c r="M23" s="45">
+        <v>22619057.440000001</v>
+      </c>
+      <c r="N23" s="45">
+        <f t="shared" si="5"/>
+        <v>-601242.55999999866</v>
+      </c>
+      <c r="O23" s="46">
+        <f t="shared" si="6"/>
+        <v>-2.5892971236375011E-2</v>
+      </c>
+      <c r="P23" s="47">
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="G23" s="25">
-        <v>22683800</v>
-      </c>
-      <c r="H23" s="14">
-        <v>21722126.219999898</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="3"/>
-        <v>961673.78000010177</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="4"/>
-        <v>4.2394738976719144E-2</v>
-      </c>
-      <c r="K23" s="26">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="L23" s="51">
-        <v>23220300</v>
-      </c>
-      <c r="M23" s="59">
-        <v>22619057.440000001</v>
-      </c>
-      <c r="N23" s="52">
-        <f t="shared" si="6"/>
-        <v>601242.55999999866</v>
-      </c>
-      <c r="O23" s="53">
-        <f t="shared" si="7"/>
-        <v>2.5892971236375011E-2</v>
-      </c>
-      <c r="P23" s="54">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>917200</v>
       </c>
       <c r="C24" s="11">
         <v>904969.19</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="30">
         <f t="shared" si="0"/>
-        <v>12230.810000000056</v>
-      </c>
-      <c r="E24" s="13">
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E24" s="12">
         <f t="shared" si="1"/>
-        <v>1.3334943305713101E-2</v>
-      </c>
-      <c r="F24" s="19">
+        <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="F24" s="18">
+        <f>RANK(E24,E:E)</f>
+        <v>21</v>
+      </c>
+      <c r="G24" s="23">
+        <v>1112700</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1067214.42</v>
+      </c>
+      <c r="I24" s="34">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="G24" s="25">
-        <v>1112700</v>
-      </c>
-      <c r="H24" s="14">
-        <v>1067214.42</v>
-      </c>
-      <c r="I24" s="14">
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="J24" s="14">
         <f t="shared" si="3"/>
-        <v>45485.580000000075</v>
-      </c>
-      <c r="J24" s="15">
+        <v>-4.087856565111897E-2</v>
+      </c>
+      <c r="K24" s="77">
         <f t="shared" si="4"/>
-        <v>4.087856565111897E-2</v>
-      </c>
-      <c r="K24" s="26">
+        <v>17</v>
+      </c>
+      <c r="L24" s="44">
+        <v>1112600</v>
+      </c>
+      <c r="M24" s="45">
+        <v>1112527.1200000001</v>
+      </c>
+      <c r="N24" s="45">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="L24" s="51">
-        <v>1112600</v>
-      </c>
-      <c r="M24" s="59">
-        <v>1112527.1200000001</v>
-      </c>
-      <c r="N24" s="52">
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="O24" s="46">
         <f t="shared" si="6"/>
-        <v>72.879999999888241</v>
-      </c>
-      <c r="O24" s="53">
+        <v>-6.5504224339284781E-5</v>
+      </c>
+      <c r="P24" s="47">
         <f t="shared" si="7"/>
-        <v>6.5504224339284781E-5</v>
-      </c>
-      <c r="P24" s="54">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>484100</v>
       </c>
       <c r="C25" s="11">
         <v>479149.53</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="30">
         <f t="shared" si="0"/>
-        <v>4950.4699999999721</v>
-      </c>
-      <c r="E25" s="13">
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E25" s="12">
         <f t="shared" si="1"/>
-        <v>1.0226130964676661E-2</v>
-      </c>
-      <c r="F25" s="19">
+        <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="F25" s="18">
+        <f>RANK(E25,E:E)</f>
+        <v>14</v>
+      </c>
+      <c r="G25" s="23">
+        <v>505200</v>
+      </c>
+      <c r="H25" s="13">
+        <v>497194.20999999897</v>
+      </c>
+      <c r="I25" s="34">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="G25" s="25">
-        <v>505200</v>
-      </c>
-      <c r="H25" s="14">
-        <v>497194.20999999897</v>
-      </c>
-      <c r="I25" s="14">
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="J25" s="14">
         <f t="shared" si="3"/>
-        <v>8005.7900000010268</v>
-      </c>
-      <c r="J25" s="15">
+        <v>-1.5846773555029746E-2</v>
+      </c>
+      <c r="K25" s="77">
         <f t="shared" si="4"/>
-        <v>1.5846773555029746E-2</v>
-      </c>
-      <c r="K25" s="26">
+        <v>9</v>
+      </c>
+      <c r="L25" s="44">
+        <v>496500</v>
+      </c>
+      <c r="M25" s="45">
+        <v>494775.1</v>
+      </c>
+      <c r="N25" s="45">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="L25" s="51">
-        <v>496500</v>
-      </c>
-      <c r="M25" s="59">
-        <v>494775.1</v>
-      </c>
-      <c r="N25" s="52">
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="O25" s="46">
         <f t="shared" si="6"/>
-        <v>1724.9000000000233</v>
-      </c>
-      <c r="O25" s="53">
+        <v>-3.4741188318228064E-3</v>
+      </c>
+      <c r="P25" s="47">
         <f t="shared" si="7"/>
-        <v>3.4741188318228064E-3</v>
-      </c>
-      <c r="P25" s="54">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>5249800</v>
       </c>
       <c r="C26" s="11">
         <v>4801960.08</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="30">
         <f t="shared" si="0"/>
-        <v>447839.91999999993</v>
-      </c>
-      <c r="E26" s="13">
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E26" s="12">
         <f t="shared" si="1"/>
-        <v>8.5306091660634673E-2</v>
-      </c>
-      <c r="F26" s="19">
+        <v>-8.5306091660634673E-2</v>
+      </c>
+      <c r="F26" s="18">
+        <f>RANK(E26,E:E)</f>
+        <v>47</v>
+      </c>
+      <c r="G26" s="23">
+        <v>5442200</v>
+      </c>
+      <c r="H26" s="13">
+        <v>5122329.02999999</v>
+      </c>
+      <c r="I26" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G26" s="25">
-        <v>5442200</v>
-      </c>
-      <c r="H26" s="14">
-        <v>5122329.02999999</v>
-      </c>
-      <c r="I26" s="14">
+        <v>-319870.97000000998</v>
+      </c>
+      <c r="J26" s="14">
         <f t="shared" si="3"/>
-        <v>319870.97000000998</v>
-      </c>
-      <c r="J26" s="15">
+        <v>-5.8776040939327839E-2</v>
+      </c>
+      <c r="K26" s="77">
         <f t="shared" si="4"/>
-        <v>5.8776040939327839E-2</v>
-      </c>
-      <c r="K26" s="26">
+        <v>22</v>
+      </c>
+      <c r="L26" s="44">
+        <v>5430700</v>
+      </c>
+      <c r="M26" s="45">
+        <v>5117235.21</v>
+      </c>
+      <c r="N26" s="45">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="L26" s="51">
-        <v>5430700</v>
-      </c>
-      <c r="M26" s="59">
-        <v>5117235.21</v>
-      </c>
-      <c r="N26" s="52">
+        <v>-313464.79000000004</v>
+      </c>
+      <c r="O26" s="46">
         <f t="shared" si="6"/>
-        <v>313464.79000000004</v>
-      </c>
-      <c r="O26" s="53">
+        <v>-5.7720881286022069E-2</v>
+      </c>
+      <c r="P26" s="47">
         <f t="shared" si="7"/>
-        <v>5.7720881286022069E-2</v>
-      </c>
-      <c r="P26" s="54">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>0</v>
       </c>
       <c r="C27" s="11">
         <v>0</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
+        <f>RANK(E27,E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="34">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J27" s="15">
+      <c r="K27" s="77">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="26">
+        <v>1</v>
+      </c>
+      <c r="L27" s="44">
+        <v>0</v>
+      </c>
+      <c r="M27" s="45">
+        <v>0</v>
+      </c>
+      <c r="N27" s="45">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="L27" s="51">
-        <v>0</v>
-      </c>
-      <c r="M27" s="59">
-        <v>0</v>
-      </c>
-      <c r="N27" s="52">
+        <v>0</v>
+      </c>
+      <c r="O27" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O27" s="53">
+      <c r="P27" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="54">
-        <f t="shared" si="8"/>
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>1382900</v>
       </c>
       <c r="C28" s="11">
         <v>1250442.02</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="30">
         <f t="shared" si="0"/>
-        <v>132457.97999999998</v>
-      </c>
-      <c r="E28" s="13">
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E28" s="12">
         <f t="shared" si="1"/>
-        <v>9.5782760864849215E-2</v>
-      </c>
-      <c r="F28" s="19">
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="F28" s="18">
+        <f>RANK(E28,E:E)</f>
+        <v>49</v>
+      </c>
+      <c r="G28" s="23">
+        <v>1545700</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1281335.23</v>
+      </c>
+      <c r="I28" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G28" s="25">
-        <v>1545700</v>
-      </c>
-      <c r="H28" s="14">
-        <v>1281335.23</v>
-      </c>
-      <c r="I28" s="14">
+        <v>-264364.77</v>
+      </c>
+      <c r="J28" s="14">
         <f t="shared" si="3"/>
-        <v>264364.77</v>
-      </c>
-      <c r="J28" s="15">
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="K28" s="77">
         <f t="shared" si="4"/>
-        <v>0.17103239309050916</v>
-      </c>
-      <c r="K28" s="26">
+        <v>24</v>
+      </c>
+      <c r="L28" s="44">
+        <v>1525900</v>
+      </c>
+      <c r="M28" s="45">
+        <v>1393285.06</v>
+      </c>
+      <c r="N28" s="45">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L28" s="51">
-        <v>1525900</v>
-      </c>
-      <c r="M28" s="59">
-        <v>1393285.06</v>
-      </c>
-      <c r="N28" s="52">
+        <v>-132614.93999999994</v>
+      </c>
+      <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>132614.93999999994</v>
-      </c>
-      <c r="O28" s="53">
+        <v>-8.6909325643882263E-2</v>
+      </c>
+      <c r="P28" s="47">
         <f t="shared" si="7"/>
-        <v>8.6909325643882263E-2</v>
-      </c>
-      <c r="P28" s="54">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>2561800</v>
       </c>
       <c r="C29" s="11">
         <v>2523884.71</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="30">
         <f t="shared" si="0"/>
-        <v>37915.290000000037</v>
-      </c>
-      <c r="E29" s="13">
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E29" s="12">
         <f t="shared" si="1"/>
-        <v>1.4800253727847622E-2</v>
-      </c>
-      <c r="F29" s="19">
+        <v>-1.4800253727847622E-2</v>
+      </c>
+      <c r="F29" s="18">
+        <f>RANK(E29,E:E)</f>
+        <v>24</v>
+      </c>
+      <c r="G29" s="23">
+        <v>2779500</v>
+      </c>
+      <c r="H29" s="13">
+        <v>2665264.4399999902</v>
+      </c>
+      <c r="I29" s="34">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="G29" s="25">
-        <v>2779500</v>
-      </c>
-      <c r="H29" s="14">
-        <v>2665264.4399999902</v>
-      </c>
-      <c r="I29" s="14">
+        <v>-114235.56000000983</v>
+      </c>
+      <c r="J29" s="14">
         <f t="shared" si="3"/>
-        <v>114235.56000000983</v>
-      </c>
-      <c r="J29" s="15">
+        <v>-4.1099320021590155E-2</v>
+      </c>
+      <c r="K29" s="77">
         <f t="shared" si="4"/>
-        <v>4.1099320021590155E-2</v>
-      </c>
-      <c r="K29" s="26">
+        <v>15</v>
+      </c>
+      <c r="L29" s="44">
+        <v>2889900</v>
+      </c>
+      <c r="M29" s="45">
+        <v>2889864.67</v>
+      </c>
+      <c r="N29" s="45">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L29" s="51">
-        <v>2889900</v>
-      </c>
-      <c r="M29" s="59">
-        <v>2889864.67</v>
-      </c>
-      <c r="N29" s="52">
+        <v>-35.330000000074506</v>
+      </c>
+      <c r="O29" s="46">
         <f t="shared" si="6"/>
-        <v>35.330000000074506</v>
-      </c>
-      <c r="O29" s="53">
+        <v>-1.2225336516860273E-5</v>
+      </c>
+      <c r="P29" s="47">
         <f t="shared" si="7"/>
-        <v>1.2225336516860273E-5</v>
-      </c>
-      <c r="P29" s="54">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>12132200</v>
       </c>
       <c r="C30" s="11">
         <v>12030494.1</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="30">
         <f t="shared" si="0"/>
-        <v>101705.90000000037</v>
-      </c>
-      <c r="E30" s="13">
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E30" s="12">
         <f t="shared" si="1"/>
-        <v>8.3831374359143746E-3</v>
-      </c>
-      <c r="F30" s="19">
+        <v>-8.3831374359143746E-3</v>
+      </c>
+      <c r="F30" s="18">
+        <f>RANK(E30,E:E)</f>
+        <v>12</v>
+      </c>
+      <c r="G30" s="23">
+        <v>12735900</v>
+      </c>
+      <c r="H30" s="13">
+        <v>12685514.279999901</v>
+      </c>
+      <c r="I30" s="34">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="G30" s="25">
-        <v>12735900</v>
-      </c>
-      <c r="H30" s="14">
-        <v>12685514.279999901</v>
-      </c>
-      <c r="I30" s="14">
+        <v>-50385.720000099391</v>
+      </c>
+      <c r="J30" s="14">
         <f t="shared" si="3"/>
-        <v>50385.720000099391</v>
-      </c>
-      <c r="J30" s="15">
+        <v>-3.9561962641116366E-3</v>
+      </c>
+      <c r="K30" s="77">
         <f t="shared" si="4"/>
-        <v>3.9561962641116366E-3</v>
-      </c>
-      <c r="K30" s="26">
+        <v>5</v>
+      </c>
+      <c r="L30" s="44">
+        <v>12861300</v>
+      </c>
+      <c r="M30" s="45">
+        <v>12826009.609999999</v>
+      </c>
+      <c r="N30" s="45">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="L30" s="51">
-        <v>12861300</v>
-      </c>
-      <c r="M30" s="59">
-        <v>12826009.609999999</v>
-      </c>
-      <c r="N30" s="52">
+        <v>-35290.390000000596</v>
+      </c>
+      <c r="O30" s="46">
         <f t="shared" si="6"/>
-        <v>35290.390000000596</v>
-      </c>
-      <c r="O30" s="53">
+        <v>-2.7439209100169185E-3</v>
+      </c>
+      <c r="P30" s="47">
         <f t="shared" si="7"/>
-        <v>2.7439209100169185E-3</v>
-      </c>
-      <c r="P30" s="54">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>1765600</v>
       </c>
       <c r="C31" s="11">
         <v>1740827.69</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="30">
         <f t="shared" si="0"/>
-        <v>24772.310000000056</v>
-      </c>
-      <c r="E31" s="13">
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E31" s="12">
         <f t="shared" si="1"/>
-        <v>1.4030533529678329E-2</v>
-      </c>
-      <c r="F31" s="19">
+        <v>-1.4030533529678329E-2</v>
+      </c>
+      <c r="F31" s="18">
+        <f>RANK(E31,E:E)</f>
+        <v>23</v>
+      </c>
+      <c r="G31" s="23">
+        <v>1823300</v>
+      </c>
+      <c r="H31" s="13">
+        <v>1762676.85</v>
+      </c>
+      <c r="I31" s="34">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="G31" s="25">
-        <v>1823300</v>
-      </c>
-      <c r="H31" s="14">
-        <v>1762676.85</v>
-      </c>
-      <c r="I31" s="14">
+        <v>-60623.149999999907</v>
+      </c>
+      <c r="J31" s="14">
         <f t="shared" si="3"/>
-        <v>60623.149999999907</v>
-      </c>
-      <c r="J31" s="15">
+        <v>-3.3249136181648611E-2</v>
+      </c>
+      <c r="K31" s="77">
         <f t="shared" si="4"/>
-        <v>3.3249136181648611E-2</v>
-      </c>
-      <c r="K31" s="26">
+        <v>10</v>
+      </c>
+      <c r="L31" s="44">
+        <v>1870700</v>
+      </c>
+      <c r="M31" s="45">
+        <v>1801391.34</v>
+      </c>
+      <c r="N31" s="45">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="L31" s="51">
-        <v>1870700</v>
-      </c>
-      <c r="M31" s="59">
-        <v>1801391.34</v>
-      </c>
-      <c r="N31" s="52">
+        <v>-69308.659999999916</v>
+      </c>
+      <c r="O31" s="46">
         <f t="shared" si="6"/>
-        <v>69308.659999999916</v>
-      </c>
-      <c r="O31" s="53">
+        <v>-3.7049585716576634E-2</v>
+      </c>
+      <c r="P31" s="47">
         <f t="shared" si="7"/>
-        <v>3.7049585716576634E-2</v>
-      </c>
-      <c r="P31" s="54">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>5999400</v>
       </c>
       <c r="C32" s="11">
         <v>5925637.7199999904</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="30">
         <f t="shared" si="0"/>
-        <v>73762.280000009574</v>
-      </c>
-      <c r="E32" s="13">
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E32" s="12">
         <f t="shared" si="1"/>
-        <v>1.2294942827617691E-2</v>
-      </c>
-      <c r="F32" s="19">
+        <v>-1.2294942827617691E-2</v>
+      </c>
+      <c r="F32" s="18">
+        <f>RANK(E32,E:E)</f>
+        <v>16</v>
+      </c>
+      <c r="G32" s="23">
+        <v>6195500</v>
+      </c>
+      <c r="H32" s="13">
+        <v>6084985.4699999997</v>
+      </c>
+      <c r="I32" s="34">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="G32" s="25">
-        <v>6195500</v>
-      </c>
-      <c r="H32" s="14">
-        <v>6084985.4699999997</v>
-      </c>
-      <c r="I32" s="14">
+        <v>-110514.53000000026</v>
+      </c>
+      <c r="J32" s="14">
         <f t="shared" si="3"/>
-        <v>110514.53000000026</v>
-      </c>
-      <c r="J32" s="15">
+        <v>-1.7837871035428981E-2</v>
+      </c>
+      <c r="K32" s="77">
         <f t="shared" si="4"/>
-        <v>1.7837871035428981E-2</v>
-      </c>
-      <c r="K32" s="26">
+        <v>7</v>
+      </c>
+      <c r="L32" s="44">
+        <v>6157400</v>
+      </c>
+      <c r="M32" s="45">
+        <v>5987572.0199999996</v>
+      </c>
+      <c r="N32" s="45">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="L32" s="51">
-        <v>6157400</v>
-      </c>
-      <c r="M32" s="59">
-        <v>5987572.0199999996</v>
-      </c>
-      <c r="N32" s="52">
+        <v>-169827.98000000045</v>
+      </c>
+      <c r="O32" s="46">
         <f t="shared" si="6"/>
-        <v>169827.98000000045</v>
-      </c>
-      <c r="O32" s="53">
+        <v>-2.7581118653977402E-2</v>
+      </c>
+      <c r="P32" s="47">
         <f t="shared" si="7"/>
-        <v>2.7581118653977402E-2</v>
-      </c>
-      <c r="P32" s="54">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>927703099.99999905</v>
       </c>
       <c r="C33" s="11">
         <v>920284264.73000002</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="30">
         <f t="shared" si="0"/>
-        <v>7418835.2699990273</v>
-      </c>
-      <c r="E33" s="13">
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E33" s="12">
         <f t="shared" si="1"/>
-        <v>7.9969930789269058E-3</v>
-      </c>
-      <c r="F33" s="19">
+        <v>-7.9969930789269058E-3</v>
+      </c>
+      <c r="F33" s="18">
+        <f>RANK(E33,E:E)</f>
+        <v>11</v>
+      </c>
+      <c r="G33" s="23">
+        <v>979671000</v>
+      </c>
+      <c r="H33" s="13">
+        <v>977068513.48000002</v>
+      </c>
+      <c r="I33" s="34">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="G33" s="25">
-        <v>979671000</v>
-      </c>
-      <c r="H33" s="14">
-        <v>977068513.48000002</v>
-      </c>
-      <c r="I33" s="14">
+        <v>-2602486.5199999809</v>
+      </c>
+      <c r="J33" s="14">
         <f t="shared" si="3"/>
-        <v>2602486.5199999809</v>
-      </c>
-      <c r="J33" s="15">
+        <v>-2.6564903115433454E-3</v>
+      </c>
+      <c r="K33" s="77">
         <f t="shared" si="4"/>
-        <v>2.6564903115433454E-3</v>
-      </c>
-      <c r="K33" s="26">
+        <v>4</v>
+      </c>
+      <c r="L33" s="44">
+        <v>989572899.99999905</v>
+      </c>
+      <c r="M33" s="45">
+        <v>984116289.40999901</v>
+      </c>
+      <c r="N33" s="45">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="L33" s="51">
-        <v>989572899.99999905</v>
-      </c>
-      <c r="M33" s="59">
-        <v>984116289.40999901</v>
-      </c>
-      <c r="N33" s="52">
+        <v>-5456610.5900000334</v>
+      </c>
+      <c r="O33" s="46">
         <f t="shared" si="6"/>
-        <v>5456610.5900000334</v>
-      </c>
-      <c r="O33" s="53">
+        <v>-5.5141067323084929E-3</v>
+      </c>
+      <c r="P33" s="47">
         <f t="shared" si="7"/>
-        <v>5.5141067323084929E-3</v>
-      </c>
-      <c r="P33" s="54">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>4189300</v>
       </c>
       <c r="C34" s="11">
         <v>4109958.22</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="30">
         <f t="shared" si="0"/>
-        <v>79341.779999999795</v>
-      </c>
-      <c r="E34" s="13">
+        <v>-79341.779999999795</v>
+      </c>
+      <c r="E34" s="12">
         <f t="shared" si="1"/>
-        <v>1.8939149738619768E-2</v>
-      </c>
-      <c r="F34" s="19">
+        <v>-1.8939149738619768E-2</v>
+      </c>
+      <c r="F34" s="18">
+        <f>RANK(E34,E:E)</f>
+        <v>26</v>
+      </c>
+      <c r="G34" s="23">
+        <v>4350600</v>
+      </c>
+      <c r="H34" s="13">
+        <v>4137588.7699999898</v>
+      </c>
+      <c r="I34" s="34">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="G34" s="25">
-        <v>4350600</v>
-      </c>
-      <c r="H34" s="14">
-        <v>4137588.7699999898</v>
-      </c>
-      <c r="I34" s="14">
+        <v>-213011.23000001023</v>
+      </c>
+      <c r="J34" s="14">
         <f t="shared" si="3"/>
-        <v>213011.23000001023</v>
-      </c>
-      <c r="J34" s="15">
+        <v>-4.8961345561534093E-2</v>
+      </c>
+      <c r="K34" s="77">
         <f t="shared" si="4"/>
-        <v>4.8961345561534093E-2</v>
-      </c>
-      <c r="K34" s="26">
+        <v>13</v>
+      </c>
+      <c r="L34" s="44">
+        <v>4345600</v>
+      </c>
+      <c r="M34" s="45">
+        <v>4229801.51</v>
+      </c>
+      <c r="N34" s="45">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="L34" s="51">
-        <v>4345600</v>
-      </c>
-      <c r="M34" s="59">
-        <v>4229801.51</v>
-      </c>
-      <c r="N34" s="52">
+        <v>-115798.49000000022</v>
+      </c>
+      <c r="O34" s="46">
         <f t="shared" si="6"/>
-        <v>115798.49000000022</v>
-      </c>
-      <c r="O34" s="53">
+        <v>-2.6647296115611244E-2</v>
+      </c>
+      <c r="P34" s="47">
         <f t="shared" si="7"/>
-        <v>2.6647296115611244E-2</v>
-      </c>
-      <c r="P34" s="54">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>0</v>
       </c>
       <c r="C35" s="11">
         <v>0</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
+        <f>RANK(E35,E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="G35" s="23">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="34">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="G35" s="25">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="15">
+      <c r="K35" s="77">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="26">
+        <v>1</v>
+      </c>
+      <c r="L35" s="44">
+        <v>0</v>
+      </c>
+      <c r="M35" s="45">
+        <v>0</v>
+      </c>
+      <c r="N35" s="45">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="L35" s="51">
-        <v>0</v>
-      </c>
-      <c r="M35" s="59">
-        <v>0</v>
-      </c>
-      <c r="N35" s="52">
+        <v>0</v>
+      </c>
+      <c r="O35" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O35" s="53">
+      <c r="P35" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="54">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="17">
         <v>798200</v>
       </c>
       <c r="C36" s="11">
         <v>735423.27999999898</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="30">
         <f t="shared" si="0"/>
-        <v>62776.72000000102</v>
-      </c>
-      <c r="E36" s="13">
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E36" s="12">
         <f t="shared" si="1"/>
-        <v>7.8647857679780775E-2</v>
-      </c>
-      <c r="F36" s="19">
+        <v>-7.8647857679780775E-2</v>
+      </c>
+      <c r="F36" s="18">
+        <f>RANK(E36,E:E)</f>
+        <v>42</v>
+      </c>
+      <c r="G36" s="23">
+        <v>898700</v>
+      </c>
+      <c r="H36" s="13">
+        <v>740966.94999999902</v>
+      </c>
+      <c r="I36" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G36" s="25">
-        <v>898700</v>
-      </c>
-      <c r="H36" s="14">
-        <v>740966.94999999902</v>
-      </c>
-      <c r="I36" s="14">
+        <v>-157733.05000000098</v>
+      </c>
+      <c r="J36" s="14">
         <f t="shared" si="3"/>
-        <v>157733.05000000098</v>
-      </c>
-      <c r="J36" s="15">
-        <f t="shared" si="4"/>
-        <v>0.17551246244575608</v>
-      </c>
-      <c r="K36" s="26">
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="K36" s="77">
+        <f>RANK(J36,J36:J86)</f>
+        <v>17</v>
+      </c>
+      <c r="L36" s="44">
+        <v>878300</v>
+      </c>
+      <c r="M36" s="45">
+        <v>777215.28999999899</v>
+      </c>
+      <c r="N36" s="45">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="51">
-        <v>878300</v>
-      </c>
-      <c r="M36" s="59">
-        <v>777215.28999999899</v>
-      </c>
-      <c r="N36" s="52">
+        <v>-101084.71000000101</v>
+      </c>
+      <c r="O36" s="46">
         <f t="shared" si="6"/>
-        <v>101084.71000000101</v>
-      </c>
-      <c r="O36" s="53">
-        <f t="shared" si="7"/>
-        <v>0.11509132414892521</v>
-      </c>
-      <c r="P36" s="54">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-0.11509132414892521</v>
+      </c>
+      <c r="P36" s="47">
+        <f>RANK(O36,O36:O86)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="17">
         <v>2087800</v>
       </c>
       <c r="C37" s="11">
         <v>2005447.73999999</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="30">
         <f t="shared" si="0"/>
-        <v>82352.260000010021</v>
-      </c>
-      <c r="E37" s="13">
+        <v>-82352.260000010021</v>
+      </c>
+      <c r="E37" s="12">
         <f t="shared" si="1"/>
-        <v>3.9444515758219188E-2</v>
-      </c>
-      <c r="F37" s="19">
+        <v>-3.9444515758219188E-2</v>
+      </c>
+      <c r="F37" s="18">
+        <f>RANK(E37,E:E)</f>
+        <v>33</v>
+      </c>
+      <c r="G37" s="23">
+        <v>2229200</v>
+      </c>
+      <c r="H37" s="13">
+        <v>2118943.21</v>
+      </c>
+      <c r="I37" s="34">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="G37" s="25">
-        <v>2229200</v>
-      </c>
-      <c r="H37" s="14">
-        <v>2118943.21</v>
-      </c>
-      <c r="I37" s="14">
+        <v>-110256.79000000004</v>
+      </c>
+      <c r="J37" s="14">
         <f t="shared" si="3"/>
-        <v>110256.79000000004</v>
-      </c>
-      <c r="J37" s="15">
-        <f t="shared" si="4"/>
-        <v>4.9460250314014013E-2</v>
-      </c>
-      <c r="K37" s="26">
+        <v>-4.9460250314014013E-2</v>
+      </c>
+      <c r="K37" s="77">
+        <f>RANK(J37,J37:J87)</f>
+        <v>12</v>
+      </c>
+      <c r="L37" s="44">
+        <v>2296900</v>
+      </c>
+      <c r="M37" s="45">
+        <v>2108718.34</v>
+      </c>
+      <c r="N37" s="45">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L37" s="51">
-        <v>2296900</v>
-      </c>
-      <c r="M37" s="59">
-        <v>2108718.34</v>
-      </c>
-      <c r="N37" s="52">
+        <v>-188181.66000000015</v>
+      </c>
+      <c r="O37" s="46">
         <f t="shared" si="6"/>
-        <v>188181.66000000015</v>
-      </c>
-      <c r="O37" s="53">
-        <f t="shared" si="7"/>
-        <v>8.1928538464887526E-2</v>
-      </c>
-      <c r="P37" s="54">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>-8.1928538464887526E-2</v>
+      </c>
+      <c r="P37" s="47">
+        <f>RANK(O37,O37:O87)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="17">
         <v>855300</v>
       </c>
       <c r="C38" s="11">
         <v>838669.82</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="30">
         <f t="shared" si="0"/>
-        <v>16630.180000000051</v>
-      </c>
-      <c r="E38" s="13">
+        <v>-16630.180000000051</v>
+      </c>
+      <c r="E38" s="12">
         <f t="shared" si="1"/>
-        <v>1.9443680579913542E-2</v>
-      </c>
-      <c r="F38" s="19">
+        <v>-1.9443680579913542E-2</v>
+      </c>
+      <c r="F38" s="18">
+        <f>RANK(E38,E:E)</f>
+        <v>27</v>
+      </c>
+      <c r="G38" s="23">
+        <v>792800</v>
+      </c>
+      <c r="H38" s="13">
+        <v>753451.96</v>
+      </c>
+      <c r="I38" s="34">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G38" s="25">
-        <v>792800</v>
-      </c>
-      <c r="H38" s="14">
-        <v>753451.96</v>
-      </c>
-      <c r="I38" s="14">
+        <v>-39348.040000000037</v>
+      </c>
+      <c r="J38" s="14">
         <f t="shared" si="3"/>
-        <v>39348.040000000037</v>
-      </c>
-      <c r="J38" s="15">
-        <f t="shared" si="4"/>
-        <v>4.9631735620585316E-2</v>
-      </c>
-      <c r="K38" s="26">
+        <v>-4.9631735620585316E-2</v>
+      </c>
+      <c r="K38" s="77">
+        <f>RANK(J38,J38:J88)</f>
+        <v>12</v>
+      </c>
+      <c r="L38" s="44">
+        <v>777800</v>
+      </c>
+      <c r="M38" s="45">
+        <v>777663.26</v>
+      </c>
+      <c r="N38" s="45">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="L38" s="51">
-        <v>777800</v>
-      </c>
-      <c r="M38" s="59">
-        <v>777663.26</v>
-      </c>
-      <c r="N38" s="52">
+        <v>-136.73999999999069</v>
+      </c>
+      <c r="O38" s="46">
         <f t="shared" si="6"/>
-        <v>136.73999999999069</v>
-      </c>
-      <c r="O38" s="53">
-        <f t="shared" si="7"/>
-        <v>1.7580354847003174E-4</v>
-      </c>
-      <c r="P38" s="54">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>-1.7580354847003174E-4</v>
+      </c>
+      <c r="P38" s="47">
+        <f>RANK(O38,O38:O88)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="17">
         <v>883900</v>
       </c>
       <c r="C39" s="11">
         <v>813108.87</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="30">
         <f t="shared" si="0"/>
-        <v>70791.13</v>
-      </c>
-      <c r="E39" s="13">
+        <v>-70791.13</v>
+      </c>
+      <c r="E39" s="12">
         <f t="shared" si="1"/>
-        <v>8.008952370177623E-2</v>
-      </c>
-      <c r="F39" s="19">
+        <v>-8.008952370177623E-2</v>
+      </c>
+      <c r="F39" s="18">
+        <f>RANK(E39,E:E)</f>
+        <v>44</v>
+      </c>
+      <c r="G39" s="23">
+        <v>1294400</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1114242.27999999</v>
+      </c>
+      <c r="I39" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G39" s="25">
-        <v>1294400</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1114242.27999999</v>
-      </c>
-      <c r="I39" s="14">
+        <v>-180157.72000000998</v>
+      </c>
+      <c r="J39" s="14">
         <f t="shared" si="3"/>
-        <v>180157.72000000998</v>
-      </c>
-      <c r="J39" s="15">
-        <f t="shared" si="4"/>
-        <v>0.13918241656366656</v>
-      </c>
-      <c r="K39" s="26">
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="K39" s="77">
+        <f>RANK(J39,J39:J89)</f>
+        <v>14</v>
+      </c>
+      <c r="L39" s="44">
+        <v>1759500</v>
+      </c>
+      <c r="M39" s="45">
+        <v>1680463.8699999901</v>
+      </c>
+      <c r="N39" s="45">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L39" s="51">
-        <v>1759500</v>
-      </c>
-      <c r="M39" s="59">
-        <v>1680463.8699999901</v>
-      </c>
-      <c r="N39" s="52">
+        <v>-79036.1300000099</v>
+      </c>
+      <c r="O39" s="46">
         <f t="shared" si="6"/>
-        <v>79036.1300000099</v>
-      </c>
-      <c r="O39" s="53">
-        <f t="shared" si="7"/>
-        <v>4.4919653310605226E-2</v>
-      </c>
-      <c r="P39" s="54">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>-4.4919653310605226E-2</v>
+      </c>
+      <c r="P39" s="47">
+        <f>RANK(O39,O39:O89)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="17">
         <v>38381900</v>
       </c>
       <c r="C40" s="11">
         <v>37565141.859999903</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="30">
         <f t="shared" si="0"/>
-        <v>816758.14000009745</v>
-      </c>
-      <c r="E40" s="13">
+        <v>-816758.14000009745</v>
+      </c>
+      <c r="E40" s="12">
         <f t="shared" si="1"/>
-        <v>2.1279773539092578E-2</v>
-      </c>
-      <c r="F40" s="19">
+        <v>-2.1279773539092578E-2</v>
+      </c>
+      <c r="F40" s="18">
+        <f>RANK(E40,E:E)</f>
+        <v>29</v>
+      </c>
+      <c r="G40" s="23">
+        <v>39964900</v>
+      </c>
+      <c r="H40" s="13">
+        <v>38095240.189999901</v>
+      </c>
+      <c r="I40" s="34">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="G40" s="25">
-        <v>39964900</v>
-      </c>
-      <c r="H40" s="14">
-        <v>38095240.189999901</v>
-      </c>
-      <c r="I40" s="14">
+        <v>-1869659.8100000992</v>
+      </c>
+      <c r="J40" s="14">
         <f t="shared" si="3"/>
-        <v>1869659.8100000992</v>
-      </c>
-      <c r="J40" s="15">
-        <f t="shared" si="4"/>
-        <v>4.6782546934937892E-2</v>
-      </c>
-      <c r="K40" s="26">
+        <v>-4.6782546934937892E-2</v>
+      </c>
+      <c r="K40" s="77">
+        <f>RANK(J40,J40:J90)</f>
+        <v>11</v>
+      </c>
+      <c r="L40" s="44">
+        <v>40216700</v>
+      </c>
+      <c r="M40" s="45">
+        <v>39606263.709999897</v>
+      </c>
+      <c r="N40" s="45">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L40" s="51">
-        <v>40216700</v>
-      </c>
-      <c r="M40" s="59">
-        <v>39606263.709999897</v>
-      </c>
-      <c r="N40" s="52">
+        <v>-610436.29000010341</v>
+      </c>
+      <c r="O40" s="46">
         <f t="shared" si="6"/>
-        <v>610436.29000010341</v>
-      </c>
-      <c r="O40" s="53">
-        <f t="shared" si="7"/>
-        <v>1.5178676768608648E-2</v>
-      </c>
-      <c r="P40" s="54">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <v>-1.5178676768608648E-2</v>
+      </c>
+      <c r="P40" s="47">
+        <f>RANK(O40,O40:O90)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="17">
         <v>4593300</v>
       </c>
       <c r="C41" s="11">
         <v>4409060.2099999897</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="30">
         <f t="shared" si="0"/>
-        <v>184239.79000001028</v>
-      </c>
-      <c r="E41" s="13">
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="E41" s="12">
         <f t="shared" si="1"/>
-        <v>4.0110550149132493E-2</v>
-      </c>
-      <c r="F41" s="19">
+        <v>-4.0110550149132493E-2</v>
+      </c>
+      <c r="F41" s="18">
+        <f>RANK(E41,E:E)</f>
+        <v>35</v>
+      </c>
+      <c r="G41" s="23">
+        <v>5089500</v>
+      </c>
+      <c r="H41" s="13">
+        <v>4956043.6699999897</v>
+      </c>
+      <c r="I41" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="G41" s="25">
-        <v>5089500</v>
-      </c>
-      <c r="H41" s="14">
-        <v>4956043.6699999897</v>
-      </c>
-      <c r="I41" s="14">
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="J41" s="14">
         <f t="shared" si="3"/>
-        <v>133456.33000001032</v>
-      </c>
-      <c r="J41" s="15">
-        <f t="shared" si="4"/>
-        <v>2.6221894095689226E-2</v>
-      </c>
-      <c r="K41" s="26">
+        <v>-2.6221894095689226E-2</v>
+      </c>
+      <c r="K41" s="77">
+        <f>RANK(J41,J41:J91)</f>
+        <v>5</v>
+      </c>
+      <c r="L41" s="44">
+        <v>4799900</v>
+      </c>
+      <c r="M41" s="45">
+        <v>4717822.6500000004</v>
+      </c>
+      <c r="N41" s="45">
         <f t="shared" si="5"/>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="O41" s="46">
+        <f t="shared" si="6"/>
+        <v>-1.7099804162586642E-2</v>
+      </c>
+      <c r="P41" s="47">
+        <f>RANK(O41,O41:O91)</f>
         <v>8</v>
       </c>
-      <c r="L41" s="51">
-        <v>4799900</v>
-      </c>
-      <c r="M41" s="59">
-        <v>4717822.6500000004</v>
-      </c>
-      <c r="N41" s="52">
-        <f t="shared" si="6"/>
-        <v>82077.349999999627</v>
-      </c>
-      <c r="O41" s="53">
-        <f t="shared" si="7"/>
-        <v>1.7099804162586642E-2</v>
-      </c>
-      <c r="P41" s="54">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="17">
         <v>188593300</v>
       </c>
       <c r="C42" s="11">
         <v>188551675.67999899</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="30">
         <f t="shared" si="0"/>
-        <v>41624.320001006126</v>
-      </c>
-      <c r="E42" s="13">
+        <v>-41624.320001006126</v>
+      </c>
+      <c r="E42" s="12">
         <f t="shared" si="1"/>
-        <v>2.2070943135841053E-4</v>
-      </c>
-      <c r="F42" s="19">
+        <v>-2.2070943135841053E-4</v>
+      </c>
+      <c r="F42" s="18">
+        <f>RANK(E42,E:E)</f>
+        <v>8</v>
+      </c>
+      <c r="G42" s="23">
+        <v>199130300</v>
+      </c>
+      <c r="H42" s="13">
+        <v>196755033.31</v>
+      </c>
+      <c r="I42" s="34">
         <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="G42" s="25">
-        <v>199130300</v>
-      </c>
-      <c r="H42" s="14">
-        <v>196755033.31</v>
-      </c>
-      <c r="I42" s="14">
+        <v>-2375266.6899999976</v>
+      </c>
+      <c r="J42" s="14">
         <f t="shared" si="3"/>
-        <v>2375266.6899999976</v>
-      </c>
-      <c r="J42" s="15">
-        <f t="shared" si="4"/>
-        <v>1.1928203241796942E-2</v>
-      </c>
-      <c r="K42" s="26">
+        <v>-1.1928203241796942E-2</v>
+      </c>
+      <c r="K42" s="77">
+        <f>RANK(J42,J42:J92)</f>
+        <v>4</v>
+      </c>
+      <c r="L42" s="44">
+        <v>199954600</v>
+      </c>
+      <c r="M42" s="45">
+        <v>199954563.74999899</v>
+      </c>
+      <c r="N42" s="45">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="L42" s="51">
-        <v>199954600</v>
-      </c>
-      <c r="M42" s="59">
-        <v>199954563.74999899</v>
-      </c>
-      <c r="N42" s="52">
+        <v>-36.250001013278961</v>
+      </c>
+      <c r="O42" s="46">
         <f t="shared" si="6"/>
-        <v>36.250001013278961</v>
-      </c>
-      <c r="O42" s="53">
-        <f t="shared" si="7"/>
-        <v>1.8129115815929696E-7</v>
-      </c>
-      <c r="P42" s="54">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <v>-1.8129115815929696E-7</v>
+      </c>
+      <c r="P42" s="47">
+        <f>RANK(O42,O42:O92)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="17">
         <v>8135400</v>
       </c>
       <c r="C43" s="11">
         <v>7968645.8300000001</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="30">
         <f t="shared" si="0"/>
-        <v>166754.16999999993</v>
-      </c>
-      <c r="E43" s="13">
+        <v>-166754.16999999993</v>
+      </c>
+      <c r="E43" s="12">
         <f t="shared" si="1"/>
-        <v>2.0497353541313264E-2</v>
-      </c>
-      <c r="F43" s="19">
+        <v>-2.0497353541313264E-2</v>
+      </c>
+      <c r="F43" s="18">
+        <f>RANK(E43,E:E)</f>
+        <v>28</v>
+      </c>
+      <c r="G43" s="23">
+        <v>8560800</v>
+      </c>
+      <c r="H43" s="13">
+        <v>8171472.0199999996</v>
+      </c>
+      <c r="I43" s="34">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="G43" s="25">
-        <v>8560800</v>
-      </c>
-      <c r="H43" s="14">
-        <v>8171472.0199999996</v>
-      </c>
-      <c r="I43" s="14">
+        <v>-389327.98000000045</v>
+      </c>
+      <c r="J43" s="14">
         <f t="shared" si="3"/>
-        <v>389327.98000000045</v>
-      </c>
-      <c r="J43" s="15">
-        <f t="shared" si="4"/>
-        <v>4.5477990374731388E-2</v>
-      </c>
-      <c r="K43" s="26">
+        <v>-4.5477990374731388E-2</v>
+      </c>
+      <c r="K43" s="77">
+        <f>RANK(J43,J43:J93)</f>
+        <v>8</v>
+      </c>
+      <c r="L43" s="44">
+        <v>8497500</v>
+      </c>
+      <c r="M43" s="45">
+        <v>8150982.5699999901</v>
+      </c>
+      <c r="N43" s="45">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L43" s="51">
-        <v>8497500</v>
-      </c>
-      <c r="M43" s="59">
-        <v>8150982.5699999901</v>
-      </c>
-      <c r="N43" s="52">
+        <v>-346517.43000000995</v>
+      </c>
+      <c r="O43" s="46">
         <f t="shared" si="6"/>
-        <v>346517.43000000995</v>
-      </c>
-      <c r="O43" s="53">
-        <f t="shared" si="7"/>
-        <v>4.0778750220654303E-2</v>
-      </c>
-      <c r="P43" s="54">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>-4.0778750220654303E-2</v>
+      </c>
+      <c r="P43" s="47">
+        <f>RANK(O43,O43:O93)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="17">
         <v>30083200</v>
       </c>
       <c r="C44" s="11">
         <v>29789104.379999999</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="30">
         <f t="shared" si="0"/>
-        <v>294095.62000000104</v>
-      </c>
-      <c r="E44" s="13">
+        <v>-294095.62000000104</v>
+      </c>
+      <c r="E44" s="12">
         <f t="shared" si="1"/>
-        <v>9.7760750186150751E-3</v>
-      </c>
-      <c r="F44" s="19">
+        <v>-9.7760750186150751E-3</v>
+      </c>
+      <c r="F44" s="18">
+        <f>RANK(E44,E:E)</f>
+        <v>13</v>
+      </c>
+      <c r="G44" s="23">
+        <v>31040700</v>
+      </c>
+      <c r="H44" s="13">
+        <v>30793711.48</v>
+      </c>
+      <c r="I44" s="34">
         <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="G44" s="25">
-        <v>31040700</v>
-      </c>
-      <c r="H44" s="14">
-        <v>30793711.48</v>
-      </c>
-      <c r="I44" s="14">
+        <v>-246988.51999999955</v>
+      </c>
+      <c r="J44" s="14">
         <f t="shared" si="3"/>
-        <v>246988.51999999955</v>
-      </c>
-      <c r="J44" s="15">
-        <f t="shared" si="4"/>
-        <v>7.9569249404813532E-3</v>
-      </c>
-      <c r="K44" s="26">
+        <v>-7.9569249404813532E-3</v>
+      </c>
+      <c r="K44" s="77">
+        <f>RANK(J44,J44:J94)</f>
+        <v>3</v>
+      </c>
+      <c r="L44" s="44">
+        <v>31282200</v>
+      </c>
+      <c r="M44" s="45">
+        <v>31282141.25</v>
+      </c>
+      <c r="N44" s="45">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="L44" s="51">
-        <v>31282200</v>
-      </c>
-      <c r="M44" s="59">
-        <v>31282141.25</v>
-      </c>
-      <c r="N44" s="52">
+        <v>-58.75</v>
+      </c>
+      <c r="O44" s="46">
         <f t="shared" si="6"/>
-        <v>58.75</v>
-      </c>
-      <c r="O44" s="53">
-        <f t="shared" si="7"/>
-        <v>1.8780648419868168E-6</v>
-      </c>
-      <c r="P44" s="54">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <v>-1.8780648419868168E-6</v>
+      </c>
+      <c r="P44" s="47">
+        <f>RANK(O44,O44:O94)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="17">
         <v>55301600</v>
       </c>
       <c r="C45" s="11">
         <v>54589584.0499999</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="30">
         <f t="shared" si="0"/>
-        <v>712015.95000009984</v>
-      </c>
-      <c r="E45" s="13">
+        <v>-712015.95000009984</v>
+      </c>
+      <c r="E45" s="12">
         <f t="shared" si="1"/>
-        <v>1.287514194887851E-2</v>
-      </c>
-      <c r="F45" s="19">
+        <v>-1.287514194887851E-2</v>
+      </c>
+      <c r="F45" s="18">
+        <f>RANK(E45,E:E)</f>
+        <v>18</v>
+      </c>
+      <c r="G45" s="23">
+        <v>56792200</v>
+      </c>
+      <c r="H45" s="13">
+        <v>54594953.959999897</v>
+      </c>
+      <c r="I45" s="34">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="G45" s="25">
-        <v>56792200</v>
-      </c>
-      <c r="H45" s="14">
-        <v>54594953.959999897</v>
-      </c>
-      <c r="I45" s="14">
+        <v>-2197246.0400001034</v>
+      </c>
+      <c r="J45" s="14">
         <f t="shared" si="3"/>
-        <v>2197246.0400001034</v>
-      </c>
-      <c r="J45" s="15">
-        <f t="shared" si="4"/>
-        <v>3.8689222111488959E-2</v>
-      </c>
-      <c r="K45" s="26">
+        <v>-3.8689222111488959E-2</v>
+      </c>
+      <c r="K45" s="77">
+        <f>RANK(J45,J45:J95)</f>
+        <v>5</v>
+      </c>
+      <c r="L45" s="44">
+        <v>56027100</v>
+      </c>
+      <c r="M45" s="45">
+        <v>55386549.6599999</v>
+      </c>
+      <c r="N45" s="45">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="L45" s="51">
-        <v>56027100</v>
-      </c>
-      <c r="M45" s="59">
-        <v>55386549.6599999</v>
-      </c>
-      <c r="N45" s="52">
+        <v>-640550.34000010043</v>
+      </c>
+      <c r="O45" s="46">
         <f t="shared" si="6"/>
-        <v>640550.34000010043</v>
-      </c>
-      <c r="O45" s="53">
-        <f t="shared" si="7"/>
-        <v>1.1432866237947358E-2</v>
-      </c>
-      <c r="P45" s="54">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>-1.1432866237947358E-2</v>
+      </c>
+      <c r="P45" s="47">
+        <f>RANK(O45,O45:O95)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="17">
         <v>259100</v>
       </c>
       <c r="C46" s="11">
         <v>258322.43</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="30">
         <f t="shared" si="0"/>
-        <v>777.57000000000698</v>
-      </c>
-      <c r="E46" s="13">
+        <v>-777.57000000000698</v>
+      </c>
+      <c r="E46" s="12">
         <f t="shared" si="1"/>
-        <v>3.0010420686993711E-3</v>
-      </c>
-      <c r="F46" s="19">
+        <v>-3.0010420686993711E-3</v>
+      </c>
+      <c r="F46" s="18">
+        <f>RANK(E46,E:E)</f>
+        <v>9</v>
+      </c>
+      <c r="G46" s="23">
+        <v>266000</v>
+      </c>
+      <c r="H46" s="13">
+        <v>257402.90999999901</v>
+      </c>
+      <c r="I46" s="34">
         <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="G46" s="25">
-        <v>266000</v>
-      </c>
-      <c r="H46" s="14">
-        <v>257402.90999999901</v>
-      </c>
-      <c r="I46" s="14">
+        <v>-8597.090000000986</v>
+      </c>
+      <c r="J46" s="14">
         <f t="shared" si="3"/>
-        <v>8597.090000000986</v>
-      </c>
-      <c r="J46" s="15">
-        <f t="shared" si="4"/>
-        <v>3.2319887218048821E-2</v>
-      </c>
-      <c r="K46" s="26">
+        <v>-3.2319887218048821E-2</v>
+      </c>
+      <c r="K46" s="77">
+        <f>RANK(J46,J46:J96)</f>
+        <v>3</v>
+      </c>
+      <c r="L46" s="44">
+        <v>267100</v>
+      </c>
+      <c r="M46" s="45">
+        <v>254753.15999999901</v>
+      </c>
+      <c r="N46" s="45">
         <f t="shared" si="5"/>
+        <v>-12346.840000000986</v>
+      </c>
+      <c r="O46" s="46">
+        <f t="shared" si="6"/>
+        <v>-4.6225533508053113E-2</v>
+      </c>
+      <c r="P46" s="47">
+        <f>RANK(O46,O46:O96)</f>
         <v>5</v>
       </c>
-      <c r="L46" s="51">
-        <v>267100</v>
-      </c>
-      <c r="M46" s="59">
-        <v>254753.15999999901</v>
-      </c>
-      <c r="N46" s="52">
-        <f t="shared" si="6"/>
-        <v>12346.840000000986</v>
-      </c>
-      <c r="O46" s="53">
-        <f t="shared" si="7"/>
-        <v>4.6225533508053113E-2</v>
-      </c>
-      <c r="P46" s="54">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="17">
         <v>70390700</v>
       </c>
       <c r="C47" s="11">
         <v>70378426.719999999</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="30">
         <f t="shared" si="0"/>
-        <v>12273.280000001192</v>
-      </c>
-      <c r="E47" s="13">
+        <v>-12273.280000001192</v>
+      </c>
+      <c r="E47" s="12">
         <f t="shared" si="1"/>
-        <v>1.7435939690898361E-4</v>
-      </c>
-      <c r="F47" s="19">
+        <v>-1.7435939690898361E-4</v>
+      </c>
+      <c r="F47" s="18">
+        <f>RANK(E47,E:E)</f>
+        <v>7</v>
+      </c>
+      <c r="G47" s="23">
+        <v>73467000</v>
+      </c>
+      <c r="H47" s="13">
+        <v>73442541.659999996</v>
+      </c>
+      <c r="I47" s="34">
         <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="G47" s="25">
-        <v>73467000</v>
-      </c>
-      <c r="H47" s="14">
-        <v>73442541.659999996</v>
-      </c>
-      <c r="I47" s="14">
+        <v>-24458.340000003576</v>
+      </c>
+      <c r="J47" s="14">
         <f t="shared" si="3"/>
-        <v>24458.340000003576</v>
-      </c>
-      <c r="J47" s="15">
-        <f t="shared" si="4"/>
-        <v>3.3291600310348285E-4</v>
-      </c>
-      <c r="K47" s="26">
+        <v>-3.3291600310348285E-4</v>
+      </c>
+      <c r="K47" s="77">
+        <f>RANK(J47,J47:J97)</f>
+        <v>2</v>
+      </c>
+      <c r="L47" s="44">
+        <v>75072800</v>
+      </c>
+      <c r="M47" s="45">
+        <v>75050829.179999903</v>
+      </c>
+      <c r="N47" s="45">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L47" s="51">
-        <v>75072800</v>
-      </c>
-      <c r="M47" s="59">
-        <v>75050829.179999903</v>
-      </c>
-      <c r="N47" s="52">
+        <v>-21970.820000097156</v>
+      </c>
+      <c r="O47" s="46">
         <f t="shared" si="6"/>
-        <v>21970.820000097156</v>
-      </c>
-      <c r="O47" s="53">
-        <f t="shared" si="7"/>
-        <v>2.9266019117572752E-4</v>
-      </c>
-      <c r="P47" s="54">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>-2.9266019117572752E-4</v>
+      </c>
+      <c r="P47" s="47">
+        <f>RANK(O47,O47:O97)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="17">
         <v>6737100</v>
       </c>
       <c r="C48" s="11">
         <v>6527352.5699999901</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="30">
         <f t="shared" si="0"/>
-        <v>209747.43000000995</v>
-      </c>
-      <c r="E48" s="13">
+        <v>-209747.43000000995</v>
+      </c>
+      <c r="E48" s="12">
         <f t="shared" si="1"/>
-        <v>3.1133192323107857E-2</v>
-      </c>
-      <c r="F48" s="19">
+        <v>-3.1133192323107857E-2</v>
+      </c>
+      <c r="F48" s="18">
+        <f>RANK(E48,E:E)</f>
+        <v>32</v>
+      </c>
+      <c r="G48" s="23">
+        <v>7214700</v>
+      </c>
+      <c r="H48" s="13">
+        <v>6922072.5599999996</v>
+      </c>
+      <c r="I48" s="34">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G48" s="25">
-        <v>7214700</v>
-      </c>
-      <c r="H48" s="14">
-        <v>6922072.5599999996</v>
-      </c>
-      <c r="I48" s="14">
+        <v>-292627.44000000041</v>
+      </c>
+      <c r="J48" s="14">
         <f t="shared" si="3"/>
-        <v>292627.44000000041</v>
-      </c>
-      <c r="J48" s="15">
-        <f t="shared" si="4"/>
-        <v>4.0559890224125802E-2</v>
-      </c>
-      <c r="K48" s="26">
+        <v>-4.0559890224125802E-2</v>
+      </c>
+      <c r="K48" s="77">
+        <f>RANK(J48,J48:J98)</f>
+        <v>3</v>
+      </c>
+      <c r="L48" s="44">
+        <v>7289800</v>
+      </c>
+      <c r="M48" s="45">
+        <v>6882350.23999999</v>
+      </c>
+      <c r="N48" s="45">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L48" s="51">
-        <v>7289800</v>
-      </c>
-      <c r="M48" s="59">
-        <v>6882350.23999999</v>
-      </c>
-      <c r="N48" s="52">
+        <v>-407449.76000001002</v>
+      </c>
+      <c r="O48" s="46">
         <f t="shared" si="6"/>
-        <v>407449.76000001002</v>
-      </c>
-      <c r="O48" s="53">
-        <f t="shared" si="7"/>
-        <v>5.5893132870587676E-2</v>
-      </c>
-      <c r="P48" s="54">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>-5.5893132870587676E-2</v>
+      </c>
+      <c r="P48" s="47">
+        <f>RANK(O48,O48:O98)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="17">
         <v>92200</v>
       </c>
       <c r="C49" s="11">
         <v>90499.43</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="30">
         <f t="shared" si="0"/>
-        <v>1700.570000000007</v>
-      </c>
-      <c r="E49" s="13">
+        <v>-1700.570000000007</v>
+      </c>
+      <c r="E49" s="12">
         <f t="shared" si="1"/>
-        <v>1.8444360086767971E-2</v>
-      </c>
-      <c r="F49" s="19">
+        <v>-1.8444360086767971E-2</v>
+      </c>
+      <c r="F49" s="18">
+        <f>RANK(E49,E:E)</f>
+        <v>25</v>
+      </c>
+      <c r="G49" s="23">
+        <v>102600</v>
+      </c>
+      <c r="H49" s="13">
+        <v>95466.880000000005</v>
+      </c>
+      <c r="I49" s="34">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="G49" s="25">
-        <v>102600</v>
-      </c>
-      <c r="H49" s="14">
-        <v>95466.880000000005</v>
-      </c>
-      <c r="I49" s="14">
+        <v>-7133.1199999999953</v>
+      </c>
+      <c r="J49" s="14">
         <f t="shared" si="3"/>
-        <v>7133.1199999999953</v>
-      </c>
-      <c r="J49" s="15">
-        <f t="shared" si="4"/>
-        <v>6.9523586744639335E-2</v>
-      </c>
-      <c r="K49" s="26">
+        <v>-6.9523586744639335E-2</v>
+      </c>
+      <c r="K49" s="77">
+        <f>RANK(J49,J49:J99)</f>
+        <v>3</v>
+      </c>
+      <c r="L49" s="44">
+        <v>0</v>
+      </c>
+      <c r="M49" s="45">
+        <v>0</v>
+      </c>
+      <c r="N49" s="45">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L49" s="51">
-        <v>0</v>
-      </c>
-      <c r="M49" s="59">
-        <v>0</v>
-      </c>
-      <c r="N49" s="52">
+        <v>0</v>
+      </c>
+      <c r="O49" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O49" s="53">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="54">
-        <f t="shared" si="8"/>
-        <v>3</v>
+      <c r="P49" s="47">
+        <f>RANK(O49,O49:O99)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="17">
         <v>832600</v>
       </c>
       <c r="C50" s="11">
         <v>832600</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="18">
+        <f>RANK(E50,E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="G50" s="23">
+        <v>859100</v>
+      </c>
+      <c r="H50" s="13">
+        <v>859100</v>
+      </c>
+      <c r="I50" s="34">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="G50" s="25">
-        <v>859100</v>
-      </c>
-      <c r="H50" s="14">
-        <v>859100</v>
-      </c>
-      <c r="I50" s="14">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J50" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="26">
+      <c r="K50" s="77">
+        <f>RANK(J50,J50:J100)</f>
+        <v>1</v>
+      </c>
+      <c r="L50" s="44">
+        <v>843200</v>
+      </c>
+      <c r="M50" s="45">
+        <v>843200</v>
+      </c>
+      <c r="N50" s="45">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L50" s="51">
-        <v>843200</v>
-      </c>
-      <c r="M50" s="59">
-        <v>843200</v>
-      </c>
-      <c r="N50" s="52">
+        <v>0</v>
+      </c>
+      <c r="O50" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O50" s="53">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="54">
-        <f t="shared" si="8"/>
-        <v>3</v>
+      <c r="P50" s="47">
+        <f>RANK(O50,O50:O100)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="17">
         <v>8609500</v>
       </c>
       <c r="C51" s="11">
         <v>8499425.3399999905</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="30">
         <f t="shared" si="0"/>
-        <v>110074.66000000946</v>
-      </c>
-      <c r="E51" s="13">
+        <v>-110074.66000000946</v>
+      </c>
+      <c r="E51" s="12">
         <f t="shared" si="1"/>
-        <v>1.2785255822058129E-2</v>
-      </c>
-      <c r="F51" s="19">
+        <v>-1.2785255822058129E-2</v>
+      </c>
+      <c r="F51" s="18">
+        <f>RANK(E51,E:E)</f>
+        <v>17</v>
+      </c>
+      <c r="G51" s="23">
+        <v>8925500</v>
+      </c>
+      <c r="H51" s="13">
+        <v>8599059.6199999992</v>
+      </c>
+      <c r="I51" s="34">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="G51" s="25">
-        <v>8925500</v>
-      </c>
-      <c r="H51" s="14">
-        <v>8599059.6199999992</v>
-      </c>
-      <c r="I51" s="14">
+        <v>-326440.38000000082</v>
+      </c>
+      <c r="J51" s="14">
         <f t="shared" si="3"/>
-        <v>326440.38000000082</v>
-      </c>
-      <c r="J51" s="15">
-        <f t="shared" si="4"/>
-        <v>3.6573903982970231E-2</v>
-      </c>
-      <c r="K51" s="26">
+        <v>-3.6573903982970231E-2</v>
+      </c>
+      <c r="K51" s="77">
+        <f>RANK(J51,J51:J101)</f>
+        <v>1</v>
+      </c>
+      <c r="L51" s="44">
+        <v>8833900</v>
+      </c>
+      <c r="M51" s="45">
+        <v>8735843.3100000005</v>
+      </c>
+      <c r="N51" s="45">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L51" s="51">
-        <v>8833900</v>
-      </c>
-      <c r="M51" s="59">
-        <v>8735843.3100000005</v>
-      </c>
-      <c r="N51" s="52">
+        <v>-98056.689999999478</v>
+      </c>
+      <c r="O51" s="46">
         <f t="shared" si="6"/>
-        <v>98056.689999999478</v>
-      </c>
-      <c r="O51" s="53">
-        <f t="shared" si="7"/>
-        <v>1.1100045280114048E-2</v>
-      </c>
-      <c r="P51" s="54">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>-1.1100045280114048E-2</v>
+      </c>
+      <c r="P51" s="47">
+        <f>RANK(O51,O51:O101)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>2451000</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>2254684.7999999998</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="30">
         <f t="shared" si="0"/>
-        <v>196315.20000000019</v>
-      </c>
-      <c r="E52" s="23">
+        <v>-196315.20000000019</v>
+      </c>
+      <c r="E52" s="21">
         <f t="shared" si="1"/>
-        <v>8.009596083231342E-2</v>
-      </c>
-      <c r="F52" s="24">
+        <v>-8.009596083231342E-2</v>
+      </c>
+      <c r="F52" s="22">
+        <f>RANK(E52,E:E)</f>
+        <v>45</v>
+      </c>
+      <c r="G52" s="24">
+        <v>2440700</v>
+      </c>
+      <c r="H52" s="25">
+        <v>2204672.88</v>
+      </c>
+      <c r="I52" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G52" s="27">
-        <v>2440700</v>
-      </c>
-      <c r="H52" s="28">
-        <v>2204672.88</v>
-      </c>
-      <c r="I52" s="28">
+        <v>-236027.12000000011</v>
+      </c>
+      <c r="J52" s="26">
         <f t="shared" si="3"/>
-        <v>236027.12000000011</v>
-      </c>
-      <c r="J52" s="29">
-        <f t="shared" si="4"/>
-        <v>9.6704683082722218E-2</v>
-      </c>
-      <c r="K52" s="30">
+        <v>-9.6704683082722218E-2</v>
+      </c>
+      <c r="K52" s="78">
+        <f>RANK(J52,J52:J102)</f>
+        <v>1</v>
+      </c>
+      <c r="L52" s="48">
+        <v>2321600</v>
+      </c>
+      <c r="M52" s="49">
+        <v>2056835.26</v>
+      </c>
+      <c r="N52" s="49">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L52" s="55">
-        <v>2321600</v>
-      </c>
-      <c r="M52" s="60">
-        <v>2056835.26</v>
-      </c>
-      <c r="N52" s="56">
+        <v>-264764.74</v>
+      </c>
+      <c r="O52" s="50">
         <f t="shared" si="6"/>
-        <v>264764.74</v>
-      </c>
-      <c r="O52" s="57">
-        <f t="shared" si="7"/>
-        <v>0.11404408166781529</v>
-      </c>
-      <c r="P52" s="58">
-        <f t="shared" si="8"/>
+        <v>-0.11404408166781529</v>
+      </c>
+      <c r="P52" s="51">
+        <f>RANK(O52,O52:O102)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="60"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="64" t="s">
+      <c r="A55" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="11">
-        <f>VLOOKUP($A56,$A$2:$D$52,4,TRUE)</f>
-        <v>36209.630000000005</v>
-      </c>
-      <c r="C56" s="14">
-        <f>VLOOKUP($A56,$A$2:$K$52,9,TRUE)</f>
-        <v>27292.159999999974</v>
-      </c>
-      <c r="D56" s="54">
-        <f>VLOOKUP($A56,A2:N52,14,TRUE)</f>
-        <v>9181.0800000000163</v>
+        <f>VLOOKUP($A56,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C56" s="13">
+        <f t="shared" ref="C56:D61" si="8">VLOOKUP($A56,$A$2:$P$52,MATCH(C$55,$A$1:$P$1,0),0)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D56" s="47">
+        <f t="shared" si="8"/>
+        <v>-9181.0800000000163</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B57" s="11">
-        <f t="shared" ref="B57:B61" si="9">VLOOKUP($A57,$A$2:$D$52,4,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="14">
-        <f t="shared" ref="C57:C61" si="10">VLOOKUP($A57,$A$2:$K$52,9,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="54">
-        <f t="shared" ref="D57:D61" si="11">VLOOKUP($A57,A3:N53,14,TRUE)</f>
-        <v>311228.08999999997</v>
+        <f t="shared" ref="B57:B61" si="9">VLOOKUP($A57,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="47">
+        <f t="shared" si="8"/>
+        <v>-311228.08999999997</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="11">
         <f t="shared" si="9"/>
-        <v>149396.10000000987</v>
-      </c>
-      <c r="C58" s="14">
-        <f t="shared" si="10"/>
-        <v>189254.06000000006</v>
-      </c>
-      <c r="D58" s="54">
-        <f t="shared" si="11"/>
-        <v>374962.91000000015</v>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58" s="13">
+        <f t="shared" si="8"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D58" s="47">
+        <f t="shared" si="8"/>
+        <v>-374962.91000000015</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="40" t="s">
         <v>38</v>
       </c>
       <c r="B59" s="11">
         <f t="shared" si="9"/>
-        <v>12230.810000000056</v>
-      </c>
-      <c r="C59" s="14">
-        <f t="shared" si="10"/>
-        <v>45485.580000000075</v>
-      </c>
-      <c r="D59" s="54">
-        <f t="shared" si="11"/>
-        <v>72.879999999888241</v>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C59" s="13">
+        <f t="shared" si="8"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D59" s="47">
+        <f t="shared" si="8"/>
+        <v>-72.879999999888241</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B60" s="11">
         <f t="shared" si="9"/>
-        <v>4950.4699999999721</v>
-      </c>
-      <c r="C60" s="14">
-        <f t="shared" si="10"/>
-        <v>8005.7900000010268</v>
-      </c>
-      <c r="D60" s="54">
-        <f t="shared" si="11"/>
-        <v>1724.9000000000233</v>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C60" s="13">
+        <f t="shared" si="8"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D60" s="47">
+        <f t="shared" si="8"/>
+        <v>-1724.9000000000233</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="20">
         <f t="shared" si="9"/>
-        <v>184239.79000001028</v>
-      </c>
-      <c r="C61" s="28">
-        <f t="shared" si="10"/>
-        <v>133456.33000001032</v>
-      </c>
-      <c r="D61" s="58">
-        <f t="shared" si="11"/>
-        <v>82077.349999999627</v>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C61" s="25">
+        <f t="shared" si="8"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D61" s="51">
+        <f t="shared" si="8"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="60"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="64" t="s">
+      <c r="A64" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="66" t="s">
+      <c r="D64" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="11">
         <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
-        <v>36209.630000000005</v>
-      </c>
-      <c r="C65" s="14">
-        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$I$2:$I$52,"Not Found",0)</f>
-        <v>27292.159999999974</v>
-      </c>
-      <c r="D65" s="54">
-        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$N$2:$N$52,"Not Found",0)</f>
-        <v>9181.0800000000163</v>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65" s="11" t="e" cm="1">
+        <f t="array" ref="C65">_xlfn.XLOOKUP($A65,$A$2:$A$52,MATCH(C64,A1:P1,0),$D$2:$P$52,"Not Found",0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D65" s="11">
+        <f t="shared" ref="C65:D65" si="10">_xlfn.XLOOKUP($A65,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
+        <v>-36209.630000000005</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B66" s="11">
-        <f t="shared" ref="B66:B70" si="12">_xlfn.XLOOKUP($A66,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="14">
-        <f t="shared" ref="C66:C70" si="13">_xlfn.XLOOKUP($A66,$A$2:$A$52,$I$2:$I$52,"Not Found",0)</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="54">
-        <f t="shared" ref="D66:D70" si="14">_xlfn.XLOOKUP($A66,$A$2:$A$52,$N$2:$N$52,"Not Found",0)</f>
-        <v>311228.08999999997</v>
+        <f t="shared" ref="B66:B70" si="11">_xlfn.XLOOKUP($A66,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="13">
+        <f t="shared" ref="C66:C70" si="12">_xlfn.XLOOKUP($A66,$A$2:$A$52,$I$2:$I$52,"Not Found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="47">
+        <f t="shared" ref="D66:D70" si="13">_xlfn.XLOOKUP($A66,$A$2:$A$52,$N$2:$N$52,"Not Found",0)</f>
+        <v>-311228.08999999997</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="11">
+        <f t="shared" si="11"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67" s="11">
+        <f t="shared" ref="B65:D70" si="14">_xlfn.XLOOKUP($A67,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="D67" s="11">
+        <f t="shared" si="14"/>
+        <v>-149396.10000000987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="11">
+        <f t="shared" si="11"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68" s="13">
         <f t="shared" si="12"/>
-        <v>149396.10000000987</v>
-      </c>
-      <c r="C67" s="14">
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68" s="47">
         <f t="shared" si="13"/>
-        <v>189254.06000000006</v>
-      </c>
-      <c r="D67" s="54">
-        <f t="shared" si="14"/>
-        <v>374962.91000000015</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="11">
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="11">
+        <f t="shared" si="11"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69" s="13">
         <f t="shared" si="12"/>
-        <v>12230.810000000056</v>
-      </c>
-      <c r="C68" s="14">
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69" s="47">
         <f t="shared" si="13"/>
-        <v>45485.580000000075</v>
-      </c>
-      <c r="D68" s="54">
-        <f t="shared" si="14"/>
-        <v>72.879999999888241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="11">
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="11">
+        <f t="shared" si="11"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70" s="25">
         <f t="shared" si="12"/>
-        <v>4950.4699999999721</v>
-      </c>
-      <c r="C69" s="14">
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70" s="51">
         <f t="shared" si="13"/>
-        <v>8005.7900000010268</v>
-      </c>
-      <c r="D69" s="54">
-        <f t="shared" si="14"/>
-        <v>1724.9000000000233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="21">
-        <f t="shared" si="12"/>
-        <v>184239.79000001028</v>
-      </c>
-      <c r="C70" s="28">
-        <f t="shared" si="13"/>
-        <v>133456.33000001032</v>
-      </c>
-      <c r="D70" s="58">
-        <f t="shared" si="14"/>
-        <v>82077.349999999627</v>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="68"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="69"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="60"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="64" t="s">
+      <c r="A73" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="66" t="s">
+      <c r="D73" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B74" s="11">
-        <f>INDEX($D$2:$D$52,(MATCH($A74,$A$2:$A$52,0)))</f>
-        <v>36209.630000000005</v>
-      </c>
-      <c r="C74" s="14">
-        <f>INDEX($I$2:$I$52,MATCH(A74,$A$2:$A$52,0))</f>
-        <v>27292.159999999974</v>
-      </c>
-      <c r="D74" s="54">
-        <f>INDEX($N$2:$N$52,MATCH(A74,$A$2:$A$52,0))</f>
-        <v>9181.0800000000163</v>
+        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74" s="13">
+        <f t="shared" ref="C74:D79" si="15">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D74" s="47">
+        <f t="shared" si="15"/>
+        <v>-9181.0800000000163</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B75" s="11">
-        <f t="shared" ref="B75:B79" si="15">INDEX($D$2:$D$52,(MATCH($A75,$A$2:$A$52,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="14">
-        <f t="shared" ref="C75:C79" si="16">INDEX($I$2:$I$52,MATCH(A75,$A$2:$A$52,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="54">
-        <f t="shared" ref="D75:D79" si="17">INDEX($N$2:$N$52,MATCH(A75,$A$2:$A$52,0))</f>
-        <v>311228.08999999997</v>
+        <f t="shared" ref="B75:B79" si="16">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="47">
+        <f t="shared" si="15"/>
+        <v>-311228.08999999997</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B76" s="11">
+        <f t="shared" si="16"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76" s="13">
         <f t="shared" si="15"/>
-        <v>149396.10000000987</v>
-      </c>
-      <c r="C76" s="14">
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76" s="47">
+        <f t="shared" si="15"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="11">
         <f t="shared" si="16"/>
-        <v>189254.06000000006</v>
-      </c>
-      <c r="D76" s="54">
-        <f t="shared" si="17"/>
-        <v>374962.91000000015</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="11">
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77" s="13">
         <f t="shared" si="15"/>
-        <v>12230.810000000056</v>
-      </c>
-      <c r="C77" s="14">
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77" s="47">
+        <f t="shared" si="15"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="11">
         <f t="shared" si="16"/>
-        <v>45485.580000000075</v>
-      </c>
-      <c r="D77" s="54">
-        <f t="shared" si="17"/>
-        <v>72.879999999888241</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="11">
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78" s="13">
         <f t="shared" si="15"/>
-        <v>4950.4699999999721</v>
-      </c>
-      <c r="C78" s="14">
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78" s="47">
+        <f t="shared" si="15"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="20">
         <f t="shared" si="16"/>
-        <v>8005.7900000010268</v>
-      </c>
-      <c r="D78" s="54">
-        <f t="shared" si="17"/>
-        <v>1724.9000000000233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="21">
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79" s="13">
         <f t="shared" si="15"/>
-        <v>184239.79000001028</v>
-      </c>
-      <c r="C79" s="28">
-        <f t="shared" si="16"/>
-        <v>133456.33000001032</v>
-      </c>
-      <c r="D79" s="58">
-        <f t="shared" si="17"/>
-        <v>82077.349999999627</v>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79" s="47">
+        <f t="shared" si="15"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="74" t="s">
+      <c r="A81" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="75"/>
-      <c r="C81" s="76"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="64"/>
-      <c r="C82" s="66"/>
+      <c r="A82" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="57"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="45"/>
-      <c r="B83" s="64" t="s">
+      <c r="A83" s="40"/>
+      <c r="B83" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="66" t="s">
+      <c r="C83" s="57" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="45" t="s">
+      <c r="A84" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="70"/>
-      <c r="C84" s="71"/>
+      <c r="B84" s="61">
+        <f>SUMIF(B2:B52,B82)</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="62"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="71"/>
+      <c r="B85" s="61">
+        <f t="shared" ref="B85:B86" si="17">SUMIF(B3:B53,B83)</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="62"/>
     </row>
     <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="72"/>
-      <c r="C86" s="73"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="B86" s="61">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="63"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="74"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="76"/>
+    </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="74" t="s">
+      <c r="A88" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="B88" s="75"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="75"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="76"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="66"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="77">
+      <c r="B89" s="67">
         <v>1</v>
       </c>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77">
+      <c r="C89" s="67"/>
+      <c r="D89" s="67">
         <v>2</v>
       </c>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77">
+      <c r="E89" s="67"/>
+      <c r="F89" s="67">
         <v>3</v>
       </c>
-      <c r="G89" s="79"/>
+      <c r="G89" s="69"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="65"/>
-      <c r="B90" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="82" t="s">
+      <c r="A90" s="56"/>
+      <c r="B90" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="82" t="s">
+      <c r="D90" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="F90" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="G90" s="83" t="s">
+      <c r="F90" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="73" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="45" t="s">
+      <c r="A91" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B91" s="8"/>
@@ -5373,10 +5480,10 @@
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
       <c r="F91" s="8"/>
-      <c r="G91" s="80"/>
+      <c r="G91" s="70"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="45" t="s">
+      <c r="A92" s="40" t="s">
         <v>74</v>
       </c>
       <c r="B92" s="8"/>
@@ -5384,71 +5491,71 @@
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="80"/>
+      <c r="G92" s="70"/>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="46" t="s">
+      <c r="A93" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="47"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="81"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="71"/>
     </row>
     <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="74" t="s">
+      <c r="A95" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="75"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="75"/>
-      <c r="G95" s="76"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="66"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="78" t="s">
+      <c r="A96" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="77">
+      <c r="B96" s="67">
         <v>1</v>
       </c>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77">
+      <c r="C96" s="67"/>
+      <c r="D96" s="67">
         <v>2</v>
       </c>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77">
+      <c r="E96" s="67"/>
+      <c r="F96" s="67">
         <v>3</v>
       </c>
-      <c r="G96" s="79"/>
+      <c r="G96" s="69"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="65"/>
-      <c r="B97" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="82" t="s">
+      <c r="A97" s="56"/>
+      <c r="B97" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="D97" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="82" t="s">
+      <c r="D97" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" s="83" t="s">
+      <c r="F97" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="73" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="45" t="s">
+      <c r="A98" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B98" s="8"/>
@@ -5456,11 +5563,11 @@
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="80"/>
+      <c r="G98" s="70"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="45" t="s">
+      <c r="A99" s="40" t="s">
         <v>74</v>
       </c>
       <c r="B99" s="8"/>
@@ -5468,27 +5575,27 @@
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
       <c r="F99" s="8"/>
-      <c r="G99" s="80"/>
+      <c r="G99" s="70"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="47"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="81"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="71"/>
       <c r="I100" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83 B87 B82" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/483805976292d47c/Documents/NSS/excel/da16-lookups-exercise-janvimehendale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0F939FB-CE2D-46F9-AF00-18282B97C9C2}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A79D9B-5CD8-41C2-B082-B730ED393E8C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1331,7 +1331,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1428,6 +1428,7 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1866,7 +1867,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1902,15 +1903,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
@@ -1996,7 +1997,7 @@
         <v>-4.3170750765267295E-2</v>
       </c>
       <c r="F2" s="32">
-        <f>RANK(E2,E:E)</f>
+        <f t="shared" ref="F2:F33" si="0">RANK(E2,E:E)</f>
         <v>38</v>
       </c>
       <c r="G2" s="33">
@@ -2047,15 +2048,15 @@
         <v>321214.59000000003</v>
       </c>
       <c r="D3" s="30">
-        <f t="shared" ref="D3:D52" si="0">(C3-B3)</f>
+        <f t="shared" ref="D3:D52" si="1">(C3-B3)</f>
         <v>-7585.4099999999744</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E52" si="1">IFERROR(D3/B3,0)</f>
+        <f t="shared" ref="E3:E52" si="2">IFERROR(D3/B3,0)</f>
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F3" s="18">
-        <f>RANK(E3,E:E)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G3" s="23">
@@ -2065,15 +2066,15 @@
         <v>312433.70999999897</v>
       </c>
       <c r="I3" s="34">
-        <f t="shared" ref="I3:I52" si="2">(H3-G3)</f>
+        <f t="shared" ref="I3:I52" si="3">(H3-G3)</f>
         <v>-22366.290000001027</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J52" si="3">IFERROR(I3/G3,0)</f>
+        <f t="shared" ref="J3:J52" si="4">IFERROR(I3/G3,0)</f>
         <v>-6.6804928315415249E-2</v>
       </c>
       <c r="K3" s="77">
-        <f t="shared" ref="K3:K35" si="4">RANK(J3,J3:J53)</f>
+        <f t="shared" ref="K3:K35" si="5">RANK(J3,J3:J53)</f>
         <v>38</v>
       </c>
       <c r="L3" s="44">
@@ -2083,15 +2084,15 @@
         <v>322263.03999999998</v>
       </c>
       <c r="N3" s="45">
-        <f t="shared" ref="N3:N52" si="5">(M3-L3)</f>
+        <f t="shared" ref="N3:N52" si="6">(M3-L3)</f>
         <v>-436.96000000002095</v>
       </c>
       <c r="O3" s="46">
-        <f t="shared" ref="O3:O52" si="6">IFERROR(N3/L3,0)</f>
+        <f t="shared" ref="O3:O52" si="7">IFERROR(N3/L3,0)</f>
         <v>-1.3540749922529313E-3</v>
       </c>
       <c r="P3" s="47">
-        <f t="shared" ref="P3:P35" si="7">RANK(O3,O3:O53)</f>
+        <f t="shared" ref="P3:P35" si="8">RANK(O3,O3:O53)</f>
         <v>15</v>
       </c>
     </row>
@@ -2106,15 +2107,15 @@
         <v>3115157.5599999898</v>
       </c>
       <c r="D4" s="30">
+        <f t="shared" si="1"/>
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="2"/>
+        <v>-4.9327413275443007E-3</v>
+      </c>
+      <c r="F4" s="18">
         <f t="shared" si="0"/>
-        <v>-15442.440000010189</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" si="1"/>
-        <v>-4.9327413275443007E-3</v>
-      </c>
-      <c r="F4" s="18">
-        <f>RANK(E4,E:E)</f>
         <v>10</v>
       </c>
       <c r="G4" s="23">
@@ -2124,15 +2125,15 @@
         <v>3589693.2099999902</v>
       </c>
       <c r="I4" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-62606.790000009816</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.7141743558856015E-2</v>
       </c>
       <c r="K4" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="L4" s="44">
@@ -2142,15 +2143,15 @@
         <v>3564983.04999999</v>
       </c>
       <c r="N4" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-97416.950000009965</v>
       </c>
       <c r="O4" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.6599210899959033E-2</v>
       </c>
       <c r="P4" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -2165,15 +2166,15 @@
         <v>6947552.6699999999</v>
       </c>
       <c r="D5" s="30">
+        <f t="shared" si="1"/>
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="2"/>
+        <v>-9.4273968477453174E-2</v>
+      </c>
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
-        <v>-723147.33000000007</v>
-      </c>
-      <c r="E5" s="12">
-        <f t="shared" si="1"/>
-        <v>-9.4273968477453174E-2</v>
-      </c>
-      <c r="F5" s="18">
-        <f>RANK(E5,E:E)</f>
         <v>48</v>
       </c>
       <c r="G5" s="23">
@@ -2183,15 +2184,15 @@
         <v>7020609.3200000003</v>
       </c>
       <c r="I5" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-947690.6799999997</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.118932605449092</v>
       </c>
       <c r="K5" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="L5" s="44">
@@ -2201,15 +2202,15 @@
         <v>7497322.9100000001</v>
       </c>
       <c r="N5" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-262277.08999999985</v>
       </c>
       <c r="O5" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.3800336357544182E-2</v>
       </c>
       <c r="P5" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
@@ -2224,15 +2225,15 @@
         <v>385908.52</v>
       </c>
       <c r="D6" s="30">
+        <f t="shared" si="1"/>
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="2"/>
+        <v>-5.7149963352064452E-2</v>
+      </c>
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
-        <v>-23391.479999999981</v>
-      </c>
-      <c r="E6" s="12">
-        <f t="shared" si="1"/>
-        <v>-5.7149963352064452E-2</v>
-      </c>
-      <c r="F6" s="18">
-        <f>RANK(E6,E:E)</f>
         <v>41</v>
       </c>
       <c r="G6" s="23">
@@ -2242,15 +2243,15 @@
         <v>427758.64</v>
       </c>
       <c r="I6" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-741.35999999998603</v>
       </c>
       <c r="J6" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.7301283547257551E-3</v>
       </c>
       <c r="K6" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="L6" s="44">
@@ -2260,15 +2261,15 @@
         <v>445114.28999999899</v>
       </c>
       <c r="N6" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-85.710000001010485</v>
       </c>
       <c r="O6" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.925202156356929E-4</v>
       </c>
       <c r="P6" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
@@ -2283,15 +2284,15 @@
         <v>2946071.21</v>
       </c>
       <c r="D7" s="30">
+        <f t="shared" si="1"/>
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
-        <v>-382928.79000000004</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" si="1"/>
-        <v>-0.11502817362571344</v>
-      </c>
-      <c r="F7" s="18">
-        <f>RANK(E7,E:E)</f>
         <v>50</v>
       </c>
       <c r="G7" s="23">
@@ -2301,15 +2302,15 @@
         <v>3051483.41</v>
       </c>
       <c r="I7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-339416.58999999985</v>
       </c>
       <c r="J7" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.10009631366303927</v>
       </c>
       <c r="K7" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L7" s="44">
@@ -2319,15 +2320,15 @@
         <v>2946440.08</v>
       </c>
       <c r="N7" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-398759.91999999993</v>
       </c>
       <c r="O7" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.11920361114432618</v>
       </c>
       <c r="P7" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
     </row>
@@ -2342,15 +2343,15 @@
         <v>1315623.30999999</v>
       </c>
       <c r="D8" s="30">
+        <f t="shared" si="1"/>
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
-        <v>-236476.69000000996</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="1"/>
-        <v>-0.15235918433091292</v>
-      </c>
-      <c r="F8" s="18">
-        <f>RANK(E8,E:E)</f>
         <v>51</v>
       </c>
       <c r="G8" s="23">
@@ -2360,15 +2361,15 @@
         <v>1383905.98999999</v>
       </c>
       <c r="I8" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-206794.01000001002</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.13000189224870184</v>
       </c>
       <c r="K8" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="L8" s="44">
@@ -2378,15 +2379,15 @@
         <v>1337735.3199999901</v>
       </c>
       <c r="N8" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-241564.68000000995</v>
       </c>
       <c r="O8" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.15295680364719175</v>
       </c>
       <c r="P8" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
     </row>
@@ -2401,15 +2402,15 @@
         <v>8952825.2799999993</v>
       </c>
       <c r="D9" s="30">
+        <f t="shared" si="1"/>
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="2"/>
+        <v>-4.2417130511048909E-2</v>
+      </c>
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
-        <v>-396574.72000000067</v>
-      </c>
-      <c r="E9" s="12">
-        <f t="shared" si="1"/>
-        <v>-4.2417130511048909E-2</v>
-      </c>
-      <c r="F9" s="18">
-        <f>RANK(E9,E:E)</f>
         <v>36</v>
       </c>
       <c r="G9" s="23">
@@ -2419,15 +2420,15 @@
         <v>9929059.5199999996</v>
       </c>
       <c r="I9" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1144640.4800000004</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.10336567542917005</v>
       </c>
       <c r="K9" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L9" s="44">
@@ -2437,15 +2438,15 @@
         <v>9993599.52999999</v>
       </c>
       <c r="N9" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-796900.47000000998</v>
       </c>
       <c r="O9" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.3852043000788653E-2</v>
       </c>
       <c r="P9" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
     </row>
@@ -2460,15 +2461,15 @@
         <v>407090.37</v>
       </c>
       <c r="D10" s="30">
+        <f t="shared" si="1"/>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="2"/>
+        <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="F10" s="18">
         <f t="shared" si="0"/>
-        <v>-36209.630000000005</v>
-      </c>
-      <c r="E10" s="12">
-        <f t="shared" si="1"/>
-        <v>-8.1681998646514792E-2</v>
-      </c>
-      <c r="F10" s="18">
-        <f>RANK(E10,E:E)</f>
         <v>46</v>
       </c>
       <c r="G10" s="23">
@@ -2478,15 +2479,15 @@
         <v>467907.84000000003</v>
       </c>
       <c r="I10" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-27292.159999999974</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.5113408723747932E-2</v>
       </c>
       <c r="K10" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="L10" s="44">
@@ -2496,15 +2497,15 @@
         <v>478318.92</v>
       </c>
       <c r="N10" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9181.0800000000163</v>
       </c>
       <c r="O10" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.883298461538465E-2</v>
       </c>
       <c r="P10" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
@@ -2519,15 +2520,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <f>RANK(E11,E:E)</f>
         <v>2</v>
       </c>
       <c r="G11" s="23">
@@ -2537,15 +2538,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L11" s="44">
@@ -2555,15 +2556,15 @@
         <v>63771.91</v>
       </c>
       <c r="N11" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-311228.08999999997</v>
       </c>
       <c r="O11" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.82994157333333329</v>
       </c>
       <c r="P11" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
@@ -2578,15 +2579,15 @@
         <v>4066595.33</v>
       </c>
       <c r="D12" s="30">
+        <f t="shared" si="1"/>
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="2"/>
+        <v>-5.0060657805601608E-2</v>
+      </c>
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
-        <v>-214304.66999999993</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="1"/>
-        <v>-5.0060657805601608E-2</v>
-      </c>
-      <c r="F12" s="18">
-        <f>RANK(E12,E:E)</f>
         <v>39</v>
       </c>
       <c r="G12" s="23">
@@ -2596,15 +2597,15 @@
         <v>4205555.5999999996</v>
       </c>
       <c r="I12" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-494844.40000000037</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.10527708280146378</v>
       </c>
       <c r="K12" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="L12" s="44">
@@ -2614,15 +2615,15 @@
         <v>4371713.1399999997</v>
       </c>
       <c r="N12" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-306086.86000000034</v>
       </c>
       <c r="O12" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-6.5433934755654441E-2</v>
       </c>
       <c r="P12" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
@@ -2637,15 +2638,15 @@
         <v>5772288.3300000001</v>
       </c>
       <c r="D13" s="30">
+        <f t="shared" si="1"/>
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.2912833886247806E-2</v>
+      </c>
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
-        <v>-75511.669999999925</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.2912833886247806E-2</v>
-      </c>
-      <c r="F13" s="18">
-        <f>RANK(E13,E:E)</f>
         <v>19</v>
       </c>
       <c r="G13" s="23">
@@ -2655,15 +2656,15 @@
         <v>5909077.9399999902</v>
       </c>
       <c r="I13" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-314622.06000000983</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.0552253482656594E-2</v>
       </c>
       <c r="K13" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="L13" s="44">
@@ -2673,15 +2674,15 @@
         <v>6056976.6699999999</v>
       </c>
       <c r="N13" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-150323.33000000007</v>
       </c>
       <c r="O13" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.4217184605222895E-2</v>
       </c>
       <c r="P13" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
@@ -2696,15 +2697,15 @@
         <v>505017.37</v>
       </c>
       <c r="D14" s="30">
+        <f t="shared" si="1"/>
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.3637949218750009E-2</v>
+      </c>
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
-        <v>-6982.6300000000047</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.3637949218750009E-2</v>
-      </c>
-      <c r="F14" s="18">
-        <f>RANK(E14,E:E)</f>
         <v>22</v>
       </c>
       <c r="G14" s="23">
@@ -2714,15 +2715,15 @@
         <v>524402.98</v>
       </c>
       <c r="I14" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6097.0200000000186</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.1492968897266765E-2</v>
       </c>
       <c r="K14" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="L14" s="44">
@@ -2732,15 +2733,15 @@
         <v>504989.88</v>
       </c>
       <c r="N14" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-21210.119999999995</v>
       </c>
       <c r="O14" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.0308095781071827E-2</v>
       </c>
       <c r="P14" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
     </row>
@@ -2755,15 +2756,15 @@
         <v>156545919.90000001</v>
       </c>
       <c r="D15" s="30">
+        <f t="shared" si="1"/>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="2"/>
+        <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="F15" s="18">
         <f t="shared" si="0"/>
-        <v>496819.90000000596</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="1"/>
-        <v>3.1837408866824991E-3</v>
-      </c>
-      <c r="F15" s="18">
-        <f>RANK(E15,E:E)</f>
         <v>1</v>
       </c>
       <c r="G15" s="23">
@@ -2773,15 +2774,15 @@
         <v>175966389.24999899</v>
       </c>
       <c r="I15" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8201410.7500010133</v>
       </c>
       <c r="J15" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.4532273014072019E-2</v>
       </c>
       <c r="K15" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L15" s="44">
@@ -2791,15 +2792,15 @@
         <v>184450910.84999901</v>
       </c>
       <c r="N15" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4502589.1500009894</v>
       </c>
       <c r="O15" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.3829085727446114E-2</v>
       </c>
       <c r="P15" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
@@ -2814,15 +2815,15 @@
         <v>6522480.4599999897</v>
       </c>
       <c r="D16" s="30">
+        <f t="shared" si="1"/>
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.1850188616360429E-2</v>
+      </c>
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
-        <v>-78219.540000010282</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.1850188616360429E-2</v>
-      </c>
-      <c r="F16" s="18">
-        <f>RANK(E16,E:E)</f>
         <v>15</v>
       </c>
       <c r="G16" s="23">
@@ -2832,15 +2833,15 @@
         <v>7350464.0800000001</v>
       </c>
       <c r="I16" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2035.9199999999255</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.769017341040361E-4</v>
       </c>
       <c r="K16" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="L16" s="44">
@@ -2850,15 +2851,15 @@
         <v>7397093</v>
       </c>
       <c r="N16" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-107</v>
       </c>
       <c r="O16" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.4464932677229222E-5</v>
       </c>
       <c r="P16" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -2873,15 +2874,15 @@
         <v>14439480.050000001</v>
       </c>
       <c r="D17" s="30">
+        <f t="shared" si="1"/>
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="2"/>
+        <v>-2.8351094826658003E-2</v>
+      </c>
+      <c r="F17" s="18">
         <f t="shared" si="0"/>
-        <v>-421319.94999999925</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.8351094826658003E-2</v>
-      </c>
-      <c r="F17" s="18">
-        <f>RANK(E17,E:E)</f>
         <v>31</v>
       </c>
       <c r="G17" s="23">
@@ -2891,15 +2892,15 @@
         <v>14645233.51</v>
       </c>
       <c r="I17" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-664466.49000000022</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.3401666263871937E-2</v>
       </c>
       <c r="K17" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="L17" s="44">
@@ -2909,15 +2910,15 @@
         <v>14346057.039999999</v>
       </c>
       <c r="N17" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-965742.96000000089</v>
       </c>
       <c r="O17" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-6.3071811282801551E-2</v>
       </c>
       <c r="P17" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
     </row>
@@ -2932,15 +2933,15 @@
         <v>2615303.8999999901</v>
       </c>
       <c r="D18" s="30">
+        <f t="shared" si="1"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="2"/>
+        <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="F18" s="18">
         <f t="shared" si="0"/>
-        <v>-149396.10000000987</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="1"/>
-        <v>-5.4037002206391245E-2</v>
-      </c>
-      <c r="F18" s="18">
-        <f>RANK(E18,E:E)</f>
         <v>40</v>
       </c>
       <c r="G18" s="23">
@@ -2950,15 +2951,15 @@
         <v>2671745.94</v>
       </c>
       <c r="I18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="J18" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.6149619014330668E-2</v>
       </c>
       <c r="K18" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="L18" s="44">
@@ -2968,15 +2969,15 @@
         <v>2535637.09</v>
       </c>
       <c r="N18" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-374962.91000000015</v>
       </c>
       <c r="O18" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12882667147667154</v>
       </c>
       <c r="P18" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
@@ -2991,15 +2992,15 @@
         <v>8460963.1999999899</v>
       </c>
       <c r="D19" s="30">
+        <f t="shared" si="1"/>
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="2"/>
+        <v>-4.258504294298146E-2</v>
+      </c>
+      <c r="F19" s="18">
         <f t="shared" si="0"/>
-        <v>-376336.80000001006</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" si="1"/>
-        <v>-4.258504294298146E-2</v>
-      </c>
-      <c r="F19" s="18">
-        <f>RANK(E19,E:E)</f>
         <v>37</v>
       </c>
       <c r="G19" s="23">
@@ -3009,15 +3010,15 @@
         <v>8991707.2399999909</v>
       </c>
       <c r="I19" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-721592.76000000909</v>
       </c>
       <c r="J19" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.4289145810384635E-2</v>
       </c>
       <c r="K19" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="L19" s="44">
@@ -3027,15 +3028,15 @@
         <v>8766655.9100000001</v>
       </c>
       <c r="N19" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-576344.08999999985</v>
       </c>
       <c r="O19" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-6.1687262121374278E-2</v>
       </c>
       <c r="P19" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -3050,15 +3051,15 @@
         <v>124384360.159999</v>
       </c>
       <c r="D20" s="30">
+        <f t="shared" si="1"/>
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.2379538203300809E-5</v>
+      </c>
+      <c r="F20" s="18">
         <f t="shared" si="0"/>
-        <v>-1539.8400010019541</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.2379538203300809E-5</v>
-      </c>
-      <c r="F20" s="18">
-        <f>RANK(E20,E:E)</f>
         <v>6</v>
       </c>
       <c r="G20" s="23">
@@ -3068,15 +3069,15 @@
         <v>131839624.37</v>
       </c>
       <c r="I20" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9775.6299999952316</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.4142392760188761E-5</v>
       </c>
       <c r="K20" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="L20" s="44">
@@ -3086,15 +3087,15 @@
         <v>130621283.53999899</v>
       </c>
       <c r="N20" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-116.46000100672245</v>
       </c>
       <c r="O20" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.9158438821450736E-7</v>
       </c>
       <c r="P20" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -3109,15 +3110,15 @@
         <v>22408587.5499999</v>
       </c>
       <c r="D21" s="30">
+        <f t="shared" si="1"/>
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="2"/>
+        <v>-7.9052463618023094E-2</v>
+      </c>
+      <c r="F21" s="18">
         <f t="shared" si="0"/>
-        <v>-1923512.4500000998</v>
-      </c>
-      <c r="E21" s="12">
-        <f t="shared" si="1"/>
-        <v>-7.9052463618023094E-2</v>
-      </c>
-      <c r="F21" s="18">
-        <f>RANK(E21,E:E)</f>
         <v>43</v>
       </c>
       <c r="G21" s="23">
@@ -3127,15 +3128,15 @@
         <v>22655993.629999999</v>
       </c>
       <c r="I21" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1841406.370000001</v>
       </c>
       <c r="J21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.5167420624229556E-2</v>
       </c>
       <c r="K21" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="L21" s="44">
@@ -3145,15 +3146,15 @@
         <v>23434073.089999899</v>
       </c>
       <c r="N21" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-888926.91000010073</v>
       </c>
       <c r="O21" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6546762734864152E-2</v>
       </c>
       <c r="P21" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
@@ -3168,15 +3169,15 @@
         <v>11412339.8799999</v>
       </c>
       <c r="D22" s="30">
+        <f t="shared" si="1"/>
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.3285502334437123E-2</v>
+      </c>
+      <c r="F22" s="18">
         <f t="shared" si="0"/>
-        <v>-153660.12000009976</v>
-      </c>
-      <c r="E22" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.3285502334437123E-2</v>
-      </c>
-      <c r="F22" s="18">
-        <f>RANK(E22,E:E)</f>
         <v>20</v>
       </c>
       <c r="G22" s="23">
@@ -3186,15 +3187,15 @@
         <v>11791977.9699999</v>
       </c>
       <c r="I22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-188722.03000009991</v>
       </c>
       <c r="J22" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.5752170574348738E-2</v>
       </c>
       <c r="K22" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="L22" s="44">
@@ -3204,15 +3205,15 @@
         <v>11934454.77</v>
       </c>
       <c r="N22" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-745.23000000044703</v>
       </c>
       <c r="O22" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-6.2439674240938325E-5</v>
       </c>
       <c r="P22" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -3227,15 +3228,15 @@
         <v>20036743.4099999</v>
       </c>
       <c r="D23" s="30">
+        <f t="shared" si="1"/>
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.9590110100806722E-2</v>
+      </c>
+      <c r="F23" s="18">
         <f t="shared" si="0"/>
-        <v>-825956.59000010043</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="1"/>
-        <v>-3.9590110100806722E-2</v>
-      </c>
-      <c r="F23" s="18">
-        <f>RANK(E23,E:E)</f>
         <v>34</v>
       </c>
       <c r="G23" s="23">
@@ -3245,15 +3246,15 @@
         <v>21722126.219999898</v>
       </c>
       <c r="I23" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-961673.78000010177</v>
       </c>
       <c r="J23" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.2394738976719144E-2</v>
       </c>
       <c r="K23" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="L23" s="44">
@@ -3263,15 +3264,15 @@
         <v>22619057.440000001</v>
       </c>
       <c r="N23" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-601242.55999999866</v>
       </c>
       <c r="O23" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5892971236375011E-2</v>
       </c>
       <c r="P23" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -3286,15 +3287,15 @@
         <v>904969.19</v>
       </c>
       <c r="D24" s="30">
+        <f t="shared" si="1"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="F24" s="18">
         <f t="shared" si="0"/>
-        <v>-12230.810000000056</v>
-      </c>
-      <c r="E24" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.3334943305713101E-2</v>
-      </c>
-      <c r="F24" s="18">
-        <f>RANK(E24,E:E)</f>
         <v>21</v>
       </c>
       <c r="G24" s="23">
@@ -3304,15 +3305,15 @@
         <v>1067214.42</v>
       </c>
       <c r="I24" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.087856565111897E-2</v>
       </c>
       <c r="K24" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="L24" s="44">
@@ -3322,15 +3323,15 @@
         <v>1112527.1200000001</v>
       </c>
       <c r="N24" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-72.879999999888241</v>
       </c>
       <c r="O24" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-6.5504224339284781E-5</v>
       </c>
       <c r="P24" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -3345,15 +3346,15 @@
         <v>479149.53</v>
       </c>
       <c r="D25" s="30">
+        <f t="shared" si="1"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="F25" s="18">
         <f t="shared" si="0"/>
-        <v>-4950.4699999999721</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.0226130964676661E-2</v>
-      </c>
-      <c r="F25" s="18">
-        <f>RANK(E25,E:E)</f>
         <v>14</v>
       </c>
       <c r="G25" s="23">
@@ -3363,15 +3364,15 @@
         <v>497194.20999999897</v>
       </c>
       <c r="I25" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.5846773555029746E-2</v>
       </c>
       <c r="K25" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="L25" s="44">
@@ -3381,15 +3382,15 @@
         <v>494775.1</v>
       </c>
       <c r="N25" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1724.9000000000233</v>
       </c>
       <c r="O25" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.4741188318228064E-3</v>
       </c>
       <c r="P25" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -3404,15 +3405,15 @@
         <v>4801960.08</v>
       </c>
       <c r="D26" s="30">
+        <f t="shared" si="1"/>
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="2"/>
+        <v>-8.5306091660634673E-2</v>
+      </c>
+      <c r="F26" s="18">
         <f t="shared" si="0"/>
-        <v>-447839.91999999993</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" si="1"/>
-        <v>-8.5306091660634673E-2</v>
-      </c>
-      <c r="F26" s="18">
-        <f>RANK(E26,E:E)</f>
         <v>47</v>
       </c>
       <c r="G26" s="23">
@@ -3422,15 +3423,15 @@
         <v>5122329.02999999</v>
       </c>
       <c r="I26" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-319870.97000000998</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.8776040939327839E-2</v>
       </c>
       <c r="K26" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="L26" s="44">
@@ -3440,15 +3441,15 @@
         <v>5117235.21</v>
       </c>
       <c r="N26" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-313464.79000000004</v>
       </c>
       <c r="O26" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.7720881286022069E-2</v>
       </c>
       <c r="P26" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
     </row>
@@ -3463,15 +3464,15 @@
         <v>0</v>
       </c>
       <c r="D27" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <f>RANK(E27,E:E)</f>
         <v>2</v>
       </c>
       <c r="G27" s="23">
@@ -3481,15 +3482,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K27" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L27" s="44">
@@ -3499,15 +3500,15 @@
         <v>0</v>
       </c>
       <c r="N27" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O27" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P27" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3522,15 +3523,15 @@
         <v>1250442.02</v>
       </c>
       <c r="D28" s="30">
+        <f t="shared" si="1"/>
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="2"/>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="F28" s="18">
         <f t="shared" si="0"/>
-        <v>-132457.97999999998</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="1"/>
-        <v>-9.5782760864849215E-2</v>
-      </c>
-      <c r="F28" s="18">
-        <f>RANK(E28,E:E)</f>
         <v>49</v>
       </c>
       <c r="G28" s="23">
@@ -3540,15 +3541,15 @@
         <v>1281335.23</v>
       </c>
       <c r="I28" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-264364.77</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.17103239309050916</v>
       </c>
       <c r="K28" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L28" s="44">
@@ -3558,15 +3559,15 @@
         <v>1393285.06</v>
       </c>
       <c r="N28" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-132614.93999999994</v>
       </c>
       <c r="O28" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.6909325643882263E-2</v>
       </c>
       <c r="P28" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
     </row>
@@ -3581,15 +3582,15 @@
         <v>2523884.71</v>
       </c>
       <c r="D29" s="30">
+        <f t="shared" si="1"/>
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.4800253727847622E-2</v>
+      </c>
+      <c r="F29" s="18">
         <f t="shared" si="0"/>
-        <v>-37915.290000000037</v>
-      </c>
-      <c r="E29" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.4800253727847622E-2</v>
-      </c>
-      <c r="F29" s="18">
-        <f>RANK(E29,E:E)</f>
         <v>24</v>
       </c>
       <c r="G29" s="23">
@@ -3599,15 +3600,15 @@
         <v>2665264.4399999902</v>
       </c>
       <c r="I29" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-114235.56000000983</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.1099320021590155E-2</v>
       </c>
       <c r="K29" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="L29" s="44">
@@ -3617,15 +3618,15 @@
         <v>2889864.67</v>
       </c>
       <c r="N29" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-35.330000000074506</v>
       </c>
       <c r="O29" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.2225336516860273E-5</v>
       </c>
       <c r="P29" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -3640,15 +3641,15 @@
         <v>12030494.1</v>
       </c>
       <c r="D30" s="30">
+        <f t="shared" si="1"/>
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="2"/>
+        <v>-8.3831374359143746E-3</v>
+      </c>
+      <c r="F30" s="18">
         <f t="shared" si="0"/>
-        <v>-101705.90000000037</v>
-      </c>
-      <c r="E30" s="12">
-        <f t="shared" si="1"/>
-        <v>-8.3831374359143746E-3</v>
-      </c>
-      <c r="F30" s="18">
-        <f>RANK(E30,E:E)</f>
         <v>12</v>
       </c>
       <c r="G30" s="23">
@@ -3658,15 +3659,15 @@
         <v>12685514.279999901</v>
       </c>
       <c r="I30" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-50385.720000099391</v>
       </c>
       <c r="J30" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.9561962641116366E-3</v>
       </c>
       <c r="K30" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="L30" s="44">
@@ -3676,15 +3677,15 @@
         <v>12826009.609999999</v>
       </c>
       <c r="N30" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-35290.390000000596</v>
       </c>
       <c r="O30" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.7439209100169185E-3</v>
       </c>
       <c r="P30" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -3699,15 +3700,15 @@
         <v>1740827.69</v>
       </c>
       <c r="D31" s="30">
+        <f t="shared" si="1"/>
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.4030533529678329E-2</v>
+      </c>
+      <c r="F31" s="18">
         <f t="shared" si="0"/>
-        <v>-24772.310000000056</v>
-      </c>
-      <c r="E31" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.4030533529678329E-2</v>
-      </c>
-      <c r="F31" s="18">
-        <f>RANK(E31,E:E)</f>
         <v>23</v>
       </c>
       <c r="G31" s="23">
@@ -3717,15 +3718,15 @@
         <v>1762676.85</v>
       </c>
       <c r="I31" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-60623.149999999907</v>
       </c>
       <c r="J31" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.3249136181648611E-2</v>
       </c>
       <c r="K31" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="L31" s="44">
@@ -3735,15 +3736,15 @@
         <v>1801391.34</v>
       </c>
       <c r="N31" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-69308.659999999916</v>
       </c>
       <c r="O31" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.7049585716576634E-2</v>
       </c>
       <c r="P31" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
@@ -3758,15 +3759,15 @@
         <v>5925637.7199999904</v>
       </c>
       <c r="D32" s="30">
+        <f t="shared" si="1"/>
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.2294942827617691E-2</v>
+      </c>
+      <c r="F32" s="18">
         <f t="shared" si="0"/>
-        <v>-73762.280000009574</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" si="1"/>
-        <v>-1.2294942827617691E-2</v>
-      </c>
-      <c r="F32" s="18">
-        <f>RANK(E32,E:E)</f>
         <v>16</v>
       </c>
       <c r="G32" s="23">
@@ -3776,15 +3777,15 @@
         <v>6084985.4699999997</v>
       </c>
       <c r="I32" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-110514.53000000026</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.7837871035428981E-2</v>
       </c>
       <c r="K32" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="L32" s="44">
@@ -3794,15 +3795,15 @@
         <v>5987572.0199999996</v>
       </c>
       <c r="N32" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-169827.98000000045</v>
       </c>
       <c r="O32" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.7581118653977402E-2</v>
       </c>
       <c r="P32" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -3817,15 +3818,15 @@
         <v>920284264.73000002</v>
       </c>
       <c r="D33" s="30">
+        <f t="shared" si="1"/>
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="2"/>
+        <v>-7.9969930789269058E-3</v>
+      </c>
+      <c r="F33" s="18">
         <f t="shared" si="0"/>
-        <v>-7418835.2699990273</v>
-      </c>
-      <c r="E33" s="12">
-        <f t="shared" si="1"/>
-        <v>-7.9969930789269058E-3</v>
-      </c>
-      <c r="F33" s="18">
-        <f>RANK(E33,E:E)</f>
         <v>11</v>
       </c>
       <c r="G33" s="23">
@@ -3835,15 +3836,15 @@
         <v>977068513.48000002</v>
       </c>
       <c r="I33" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2602486.5199999809</v>
       </c>
       <c r="J33" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.6564903115433454E-3</v>
       </c>
       <c r="K33" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="L33" s="44">
@@ -3853,15 +3854,15 @@
         <v>984116289.40999901</v>
       </c>
       <c r="N33" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5456610.5900000334</v>
       </c>
       <c r="O33" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.5141067323084929E-3</v>
       </c>
       <c r="P33" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -3876,15 +3877,15 @@
         <v>4109958.22</v>
       </c>
       <c r="D34" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-79341.779999999795</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8939149738619768E-2</v>
       </c>
       <c r="F34" s="18">
-        <f>RANK(E34,E:E)</f>
+        <f t="shared" ref="F34:F65" si="9">RANK(E34,E:E)</f>
         <v>26</v>
       </c>
       <c r="G34" s="23">
@@ -3894,15 +3895,15 @@
         <v>4137588.7699999898</v>
       </c>
       <c r="I34" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-213011.23000001023</v>
       </c>
       <c r="J34" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.8961345561534093E-2</v>
       </c>
       <c r="K34" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="L34" s="44">
@@ -3912,15 +3913,15 @@
         <v>4229801.51</v>
       </c>
       <c r="N34" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-115798.49000000022</v>
       </c>
       <c r="O34" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.6647296115611244E-2</v>
       </c>
       <c r="P34" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -3935,15 +3936,15 @@
         <v>0</v>
       </c>
       <c r="D35" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F35" s="18">
-        <f>RANK(E35,E:E)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G35" s="23">
@@ -3953,15 +3954,15 @@
         <v>0</v>
       </c>
       <c r="I35" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J35" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K35" s="77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L35" s="44">
@@ -3971,15 +3972,15 @@
         <v>0</v>
       </c>
       <c r="N35" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O35" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P35" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3994,15 +3995,15 @@
         <v>735423.27999999898</v>
       </c>
       <c r="D36" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-62776.72000000102</v>
       </c>
       <c r="E36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.8647857679780775E-2</v>
       </c>
       <c r="F36" s="18">
-        <f>RANK(E36,E:E)</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="G36" s="23">
@@ -4012,15 +4013,15 @@
         <v>740966.94999999902</v>
       </c>
       <c r="I36" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-157733.05000000098</v>
       </c>
       <c r="J36" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.17551246244575608</v>
       </c>
       <c r="K36" s="77">
-        <f>RANK(J36,J36:J86)</f>
+        <f t="shared" ref="K36:K52" si="10">RANK(J36,J36:J86)</f>
         <v>17</v>
       </c>
       <c r="L36" s="44">
@@ -4030,15 +4031,15 @@
         <v>777215.28999999899</v>
       </c>
       <c r="N36" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-101084.71000000101</v>
       </c>
       <c r="O36" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.11509132414892521</v>
       </c>
       <c r="P36" s="47">
-        <f>RANK(O36,O36:O86)</f>
+        <f t="shared" ref="P36:P52" si="11">RANK(O36,O36:O86)</f>
         <v>17</v>
       </c>
     </row>
@@ -4053,15 +4054,15 @@
         <v>2005447.73999999</v>
       </c>
       <c r="D37" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-82352.260000010021</v>
       </c>
       <c r="E37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.9444515758219188E-2</v>
       </c>
       <c r="F37" s="18">
-        <f>RANK(E37,E:E)</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="G37" s="23">
@@ -4071,15 +4072,15 @@
         <v>2118943.21</v>
       </c>
       <c r="I37" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-110256.79000000004</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.9460250314014013E-2</v>
       </c>
       <c r="K37" s="77">
-        <f>RANK(J37,J37:J87)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L37" s="44">
@@ -4089,15 +4090,15 @@
         <v>2108718.34</v>
       </c>
       <c r="N37" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-188181.66000000015</v>
       </c>
       <c r="O37" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.1928538464887526E-2</v>
       </c>
       <c r="P37" s="47">
-        <f>RANK(O37,O37:O87)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
@@ -4112,15 +4113,15 @@
         <v>838669.82</v>
       </c>
       <c r="D38" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-16630.180000000051</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.9443680579913542E-2</v>
       </c>
       <c r="F38" s="18">
-        <f>RANK(E38,E:E)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="G38" s="23">
@@ -4130,15 +4131,15 @@
         <v>753451.96</v>
       </c>
       <c r="I38" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-39348.040000000037</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.9631735620585316E-2</v>
       </c>
       <c r="K38" s="77">
-        <f>RANK(J38,J38:J88)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L38" s="44">
@@ -4148,15 +4149,15 @@
         <v>777663.26</v>
       </c>
       <c r="N38" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-136.73999999999069</v>
       </c>
       <c r="O38" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.7580354847003174E-4</v>
       </c>
       <c r="P38" s="47">
-        <f>RANK(O38,O38:O88)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -4171,15 +4172,15 @@
         <v>813108.87</v>
       </c>
       <c r="D39" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-70791.13</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.008952370177623E-2</v>
       </c>
       <c r="F39" s="18">
-        <f>RANK(E39,E:E)</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="G39" s="23">
@@ -4189,15 +4190,15 @@
         <v>1114242.27999999</v>
       </c>
       <c r="I39" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-180157.72000000998</v>
       </c>
       <c r="J39" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.13918241656366656</v>
       </c>
       <c r="K39" s="77">
-        <f>RANK(J39,J39:J89)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="L39" s="44">
@@ -4207,15 +4208,15 @@
         <v>1680463.8699999901</v>
       </c>
       <c r="N39" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-79036.1300000099</v>
       </c>
       <c r="O39" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.4919653310605226E-2</v>
       </c>
       <c r="P39" s="47">
-        <f>RANK(O39,O39:O89)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
@@ -4230,15 +4231,15 @@
         <v>37565141.859999903</v>
       </c>
       <c r="D40" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-816758.14000009745</v>
       </c>
       <c r="E40" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.1279773539092578E-2</v>
       </c>
       <c r="F40" s="18">
-        <f>RANK(E40,E:E)</f>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="G40" s="23">
@@ -4248,15 +4249,15 @@
         <v>38095240.189999901</v>
       </c>
       <c r="I40" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1869659.8100000992</v>
       </c>
       <c r="J40" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.6782546934937892E-2</v>
       </c>
       <c r="K40" s="77">
-        <f>RANK(J40,J40:J90)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="L40" s="44">
@@ -4266,15 +4267,15 @@
         <v>39606263.709999897</v>
       </c>
       <c r="N40" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-610436.29000010341</v>
       </c>
       <c r="O40" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.5178676768608648E-2</v>
       </c>
       <c r="P40" s="47">
-        <f>RANK(O40,O40:O90)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
@@ -4289,15 +4290,15 @@
         <v>4409060.2099999897</v>
       </c>
       <c r="D41" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="E41" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.0110550149132493E-2</v>
       </c>
       <c r="F41" s="18">
-        <f>RANK(E41,E:E)</f>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="G41" s="23">
@@ -4307,15 +4308,15 @@
         <v>4956043.6699999897</v>
       </c>
       <c r="I41" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.6221894095689226E-2</v>
       </c>
       <c r="K41" s="77">
-        <f>RANK(J41,J41:J91)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L41" s="44">
@@ -4325,15 +4326,15 @@
         <v>4717822.6500000004</v>
       </c>
       <c r="N41" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-82077.349999999627</v>
       </c>
       <c r="O41" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.7099804162586642E-2</v>
       </c>
       <c r="P41" s="47">
-        <f>RANK(O41,O41:O91)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
@@ -4348,15 +4349,15 @@
         <v>188551675.67999899</v>
       </c>
       <c r="D42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-41624.320001006126</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.2070943135841053E-4</v>
       </c>
       <c r="F42" s="18">
-        <f>RANK(E42,E:E)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G42" s="23">
@@ -4366,15 +4367,15 @@
         <v>196755033.31</v>
       </c>
       <c r="I42" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2375266.6899999976</v>
       </c>
       <c r="J42" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.1928203241796942E-2</v>
       </c>
       <c r="K42" s="77">
-        <f>RANK(J42,J42:J92)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="L42" s="44">
@@ -4384,15 +4385,15 @@
         <v>199954563.74999899</v>
       </c>
       <c r="N42" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-36.250001013278961</v>
       </c>
       <c r="O42" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.8129115815929696E-7</v>
       </c>
       <c r="P42" s="47">
-        <f>RANK(O42,O42:O92)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -4407,15 +4408,15 @@
         <v>7968645.8300000001</v>
       </c>
       <c r="D43" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-166754.16999999993</v>
       </c>
       <c r="E43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.0497353541313264E-2</v>
       </c>
       <c r="F43" s="18">
-        <f>RANK(E43,E:E)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="G43" s="23">
@@ -4425,15 +4426,15 @@
         <v>8171472.0199999996</v>
       </c>
       <c r="I43" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-389327.98000000045</v>
       </c>
       <c r="J43" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.5477990374731388E-2</v>
       </c>
       <c r="K43" s="77">
-        <f>RANK(J43,J43:J93)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L43" s="44">
@@ -4443,15 +4444,15 @@
         <v>8150982.5699999901</v>
       </c>
       <c r="N43" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-346517.43000000995</v>
       </c>
       <c r="O43" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.0778750220654303E-2</v>
       </c>
       <c r="P43" s="47">
-        <f>RANK(O43,O43:O93)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
@@ -4466,15 +4467,15 @@
         <v>29789104.379999999</v>
       </c>
       <c r="D44" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-294095.62000000104</v>
       </c>
       <c r="E44" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.7760750186150751E-3</v>
       </c>
       <c r="F44" s="18">
-        <f>RANK(E44,E:E)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="G44" s="23">
@@ -4484,15 +4485,15 @@
         <v>30793711.48</v>
       </c>
       <c r="I44" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-246988.51999999955</v>
       </c>
       <c r="J44" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.9569249404813532E-3</v>
       </c>
       <c r="K44" s="77">
-        <f>RANK(J44,J44:J94)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="L44" s="44">
@@ -4502,15 +4503,15 @@
         <v>31282141.25</v>
       </c>
       <c r="N44" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-58.75</v>
       </c>
       <c r="O44" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.8780648419868168E-6</v>
       </c>
       <c r="P44" s="47">
-        <f>RANK(O44,O44:O94)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -4525,15 +4526,15 @@
         <v>54589584.0499999</v>
       </c>
       <c r="D45" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-712015.95000009984</v>
       </c>
       <c r="E45" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.287514194887851E-2</v>
       </c>
       <c r="F45" s="18">
-        <f>RANK(E45,E:E)</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="G45" s="23">
@@ -4543,15 +4544,15 @@
         <v>54594953.959999897</v>
       </c>
       <c r="I45" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2197246.0400001034</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.8689222111488959E-2</v>
       </c>
       <c r="K45" s="77">
-        <f>RANK(J45,J45:J95)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L45" s="44">
@@ -4561,15 +4562,15 @@
         <v>55386549.6599999</v>
       </c>
       <c r="N45" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-640550.34000010043</v>
       </c>
       <c r="O45" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.1432866237947358E-2</v>
       </c>
       <c r="P45" s="47">
-        <f>RANK(O45,O45:O95)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -4584,15 +4585,15 @@
         <v>258322.43</v>
       </c>
       <c r="D46" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-777.57000000000698</v>
       </c>
       <c r="E46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.0010420686993711E-3</v>
       </c>
       <c r="F46" s="18">
-        <f>RANK(E46,E:E)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="G46" s="23">
@@ -4602,15 +4603,15 @@
         <v>257402.90999999901</v>
       </c>
       <c r="I46" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8597.090000000986</v>
       </c>
       <c r="J46" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.2319887218048821E-2</v>
       </c>
       <c r="K46" s="77">
-        <f>RANK(J46,J46:J96)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="L46" s="44">
@@ -4620,15 +4621,15 @@
         <v>254753.15999999901</v>
       </c>
       <c r="N46" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-12346.840000000986</v>
       </c>
       <c r="O46" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.6225533508053113E-2</v>
       </c>
       <c r="P46" s="47">
-        <f>RANK(O46,O46:O96)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -4643,15 +4644,15 @@
         <v>70378426.719999999</v>
       </c>
       <c r="D47" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-12273.280000001192</v>
       </c>
       <c r="E47" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7435939690898361E-4</v>
       </c>
       <c r="F47" s="18">
-        <f>RANK(E47,E:E)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G47" s="23">
@@ -4661,15 +4662,15 @@
         <v>73442541.659999996</v>
       </c>
       <c r="I47" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-24458.340000003576</v>
       </c>
       <c r="J47" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.3291600310348285E-4</v>
       </c>
       <c r="K47" s="77">
-        <f>RANK(J47,J47:J97)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="L47" s="44">
@@ -4679,15 +4680,15 @@
         <v>75050829.179999903</v>
       </c>
       <c r="N47" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-21970.820000097156</v>
       </c>
       <c r="O47" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.9266019117572752E-4</v>
       </c>
       <c r="P47" s="47">
-        <f>RANK(O47,O47:O97)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -4702,15 +4703,15 @@
         <v>6527352.5699999901</v>
       </c>
       <c r="D48" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-209747.43000000995</v>
       </c>
       <c r="E48" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.1133192323107857E-2</v>
       </c>
       <c r="F48" s="18">
-        <f>RANK(E48,E:E)</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="G48" s="23">
@@ -4720,15 +4721,15 @@
         <v>6922072.5599999996</v>
       </c>
       <c r="I48" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-292627.44000000041</v>
       </c>
       <c r="J48" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.0559890224125802E-2</v>
       </c>
       <c r="K48" s="77">
-        <f>RANK(J48,J48:J98)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="L48" s="44">
@@ -4738,15 +4739,15 @@
         <v>6882350.23999999</v>
       </c>
       <c r="N48" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-407449.76000001002</v>
       </c>
       <c r="O48" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.5893132870587676E-2</v>
       </c>
       <c r="P48" s="47">
-        <f>RANK(O48,O48:O98)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -4761,15 +4762,15 @@
         <v>90499.43</v>
       </c>
       <c r="D49" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1700.570000000007</v>
       </c>
       <c r="E49" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8444360086767971E-2</v>
       </c>
       <c r="F49" s="18">
-        <f>RANK(E49,E:E)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="G49" s="23">
@@ -4779,15 +4780,15 @@
         <v>95466.880000000005</v>
       </c>
       <c r="I49" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7133.1199999999953</v>
       </c>
       <c r="J49" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.9523586744639335E-2</v>
       </c>
       <c r="K49" s="77">
-        <f>RANK(J49,J49:J99)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="L49" s="44">
@@ -4797,15 +4798,15 @@
         <v>0</v>
       </c>
       <c r="N49" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O49" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P49" s="47">
-        <f>RANK(O49,O49:O99)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4820,15 +4821,15 @@
         <v>832600</v>
       </c>
       <c r="D50" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E50" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F50" s="18">
-        <f>RANK(E50,E:E)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G50" s="23">
@@ -4838,15 +4839,15 @@
         <v>859100</v>
       </c>
       <c r="I50" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J50" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K50" s="77">
-        <f>RANK(J50,J50:J100)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L50" s="44">
@@ -4856,15 +4857,15 @@
         <v>843200</v>
       </c>
       <c r="N50" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O50" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P50" s="47">
-        <f>RANK(O50,O50:O100)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4879,15 +4880,15 @@
         <v>8499425.3399999905</v>
       </c>
       <c r="D51" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-110074.66000000946</v>
       </c>
       <c r="E51" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2785255822058129E-2</v>
       </c>
       <c r="F51" s="18">
-        <f>RANK(E51,E:E)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="G51" s="23">
@@ -4897,15 +4898,15 @@
         <v>8599059.6199999992</v>
       </c>
       <c r="I51" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-326440.38000000082</v>
       </c>
       <c r="J51" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.6573903982970231E-2</v>
       </c>
       <c r="K51" s="77">
-        <f>RANK(J51,J51:J101)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L51" s="44">
@@ -4915,15 +4916,15 @@
         <v>8735843.3100000005</v>
       </c>
       <c r="N51" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-98056.689999999478</v>
       </c>
       <c r="O51" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.1100045280114048E-2</v>
       </c>
       <c r="P51" s="47">
-        <f>RANK(O51,O51:O101)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4938,15 +4939,15 @@
         <v>2254684.7999999998</v>
       </c>
       <c r="D52" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-196315.20000000019</v>
       </c>
       <c r="E52" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.009596083231342E-2</v>
       </c>
       <c r="F52" s="22">
-        <f>RANK(E52,E:E)</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="G52" s="24">
@@ -4956,15 +4957,15 @@
         <v>2204672.88</v>
       </c>
       <c r="I52" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-236027.12000000011</v>
       </c>
       <c r="J52" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9.6704683082722218E-2</v>
       </c>
       <c r="K52" s="78">
-        <f>RANK(J52,J52:J102)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L52" s="48">
@@ -4974,15 +4975,15 @@
         <v>2056835.26</v>
       </c>
       <c r="N52" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-264764.74</v>
       </c>
       <c r="O52" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.11404408166781529</v>
       </c>
       <c r="P52" s="51">
-        <f>RANK(O52,O52:O102)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5018,11 +5019,11 @@
         <v>-36209.630000000005</v>
       </c>
       <c r="C56" s="13">
-        <f t="shared" ref="C56:D61" si="8">VLOOKUP($A56,$A$2:$P$52,MATCH(C$55,$A$1:$P$1,0),0)</f>
+        <f t="shared" ref="C56:D61" si="12">VLOOKUP($A56,$A$2:$P$52,MATCH(C$55,$A$1:$P$1,0),0)</f>
         <v>-27292.159999999974</v>
       </c>
       <c r="D56" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -5031,15 +5032,15 @@
         <v>25</v>
       </c>
       <c r="B57" s="11">
-        <f t="shared" ref="B57:B61" si="9">VLOOKUP($A57,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
+        <f t="shared" ref="B57:B61" si="13">VLOOKUP($A57,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
         <v>0</v>
       </c>
       <c r="C57" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D57" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -5048,15 +5049,15 @@
         <v>32</v>
       </c>
       <c r="B58" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C58" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="D58" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -5065,15 +5066,15 @@
         <v>38</v>
       </c>
       <c r="B59" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C59" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="D59" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -5082,15 +5083,15 @@
         <v>39</v>
       </c>
       <c r="B60" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C60" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D60" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -5099,15 +5100,15 @@
         <v>55</v>
       </c>
       <c r="B61" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C61" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="D61" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -5134,110 +5135,111 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="11">
-        <f>_xlfn.XLOOKUP($A65,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
+      <c r="B65" s="11" cm="1">
+        <f t="array" ref="B65">_xlfn.XLOOKUP($A65,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C65" s="11" t="e" cm="1">
-        <f t="array" ref="C65">_xlfn.XLOOKUP($A65,$A$2:$A$52,MATCH(C64,A1:P1,0),$D$2:$P$52,"Not Found",0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D65" s="11">
-        <f t="shared" ref="C65:D65" si="10">_xlfn.XLOOKUP($A65,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
-        <v>-36209.630000000005</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C65" s="13" cm="1">
+        <f t="array" ref="C65">_xlfn.XLOOKUP($A65,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65" s="47" cm="1">
+        <f t="array" ref="D65">_xlfn.XLOOKUP($A65,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="11">
-        <f t="shared" ref="B66:B70" si="11">_xlfn.XLOOKUP($A66,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="13">
-        <f t="shared" ref="C66:C70" si="12">_xlfn.XLOOKUP($A66,$A$2:$A$52,$I$2:$I$52,"Not Found",0)</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="47">
-        <f t="shared" ref="D66:D70" si="13">_xlfn.XLOOKUP($A66,$A$2:$A$52,$N$2:$N$52,"Not Found",0)</f>
+      <c r="B66" s="11" cm="1">
+        <f t="array" ref="B66">_xlfn.XLOOKUP($A66,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="13" cm="1">
+        <f t="array" ref="C66">_xlfn.XLOOKUP($A66,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="47" cm="1">
+        <f t="array" ref="D66">_xlfn.XLOOKUP($A66,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-311228.08999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="11">
-        <f t="shared" si="11"/>
+      <c r="B67" s="11" cm="1">
+        <f t="array" ref="B67">_xlfn.XLOOKUP($A67,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C67" s="11">
-        <f t="shared" ref="B65:D70" si="14">_xlfn.XLOOKUP($A67,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
-        <v>-149396.10000000987</v>
-      </c>
-      <c r="D67" s="11">
-        <f t="shared" si="14"/>
-        <v>-149396.10000000987</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C67" s="13" cm="1">
+        <f t="array" ref="C67">_xlfn.XLOOKUP($A67,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67" s="47" cm="1">
+        <f t="array" ref="D67">_xlfn.XLOOKUP($A67,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="11">
-        <f t="shared" si="11"/>
+      <c r="B68" s="11" cm="1">
+        <f t="array" ref="B68">_xlfn.XLOOKUP($A68,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C68" s="13">
-        <f t="shared" si="12"/>
+      <c r="C68" s="13" cm="1">
+        <f t="array" ref="C68">_xlfn.XLOOKUP($A68,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D68" s="47">
-        <f t="shared" si="13"/>
+      <c r="D68" s="47" cm="1">
+        <f t="array" ref="D68">_xlfn.XLOOKUP($A68,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-72.879999999888241</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="11">
-        <f t="shared" si="11"/>
+      <c r="B69" s="11" cm="1">
+        <f t="array" ref="B69">_xlfn.XLOOKUP($A69,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C69" s="13">
-        <f t="shared" si="12"/>
+      <c r="C69" s="13" cm="1">
+        <f t="array" ref="C69">_xlfn.XLOOKUP($A69,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D69" s="47">
-        <f t="shared" si="13"/>
+      <c r="D69" s="47" cm="1">
+        <f t="array" ref="D69">_xlfn.XLOOKUP($A69,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-1724.9000000000233</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="11">
-        <f t="shared" si="11"/>
+      <c r="B70" s="20" cm="1">
+        <f t="array" ref="B70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C70" s="25">
-        <f t="shared" si="12"/>
+      <c r="C70" s="25" cm="1">
+        <f t="array" ref="C70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D70" s="51">
-        <f t="shared" si="13"/>
+      <c r="D70" s="51" cm="1">
+        <f t="array" ref="D70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-82077.349999999627</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="58" t="s">
         <v>69</v>
       </c>
@@ -5245,7 +5247,7 @@
       <c r="C72" s="59"/>
       <c r="D72" s="60"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
         <v>0</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="40" t="s">
         <v>24</v>
       </c>
@@ -5268,100 +5270,100 @@
         <v>-36209.630000000005</v>
       </c>
       <c r="C74" s="13">
-        <f t="shared" ref="C74:D79" si="15">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
+        <f t="shared" ref="C74:D79" si="14">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
         <v>-27292.159999999974</v>
       </c>
       <c r="D74" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-9181.0800000000163</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B75" s="11">
-        <f t="shared" ref="B75:B79" si="16">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
+        <f t="shared" ref="B75:B79" si="15">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
         <v>0</v>
       </c>
       <c r="C75" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D75" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-311228.08999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B76" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C76" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="D76" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="40" t="s">
         <v>38</v>
       </c>
       <c r="B77" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C77" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="D77" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B78" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C78" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D78" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="41" t="s">
         <v>55</v>
       </c>
       <c r="B79" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C79" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="D79" s="47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="64" t="s">
         <v>70</v>
@@ -5374,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C82" s="57"/>
     </row>
@@ -5392,30 +5394,39 @@
         <v>73</v>
       </c>
       <c r="B84" s="61">
-        <f>SUMIF(B2:B52,B82)</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="62"/>
+        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",B$83),$A$1:$P$1,0))</f>
+        <v>6737100</v>
+      </c>
+      <c r="C84" s="62">
+        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",C$83),$A$1:$P$1,0))</f>
+        <v>6527352.5699999901</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="40" t="s">
         <v>74</v>
       </c>
       <c r="B85" s="61">
-        <f t="shared" ref="B85:B86" si="17">SUMIF(B3:B53,B83)</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="62"/>
+        <f t="shared" ref="B85:C86" si="16">INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A85,"_",B$83),$A$1:$P$1,0))</f>
+        <v>7214700</v>
+      </c>
+      <c r="C85" s="62">
+        <f t="shared" si="16"/>
+        <v>6922072.5599999996</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="61">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="C86" s="63"/>
+      <c r="B86" s="82">
+        <f t="shared" si="16"/>
+        <v>7289800</v>
+      </c>
+      <c r="C86" s="63">
+        <f t="shared" si="16"/>
+        <v>6882350.23999999</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="74"/>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/483805976292d47c/Documents/NSS/excel/da16-lookups-exercise-janvimehendale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A79D9B-5CD8-41C2-B082-B730ED393E8C}"/>
+  <xr:revisionPtr revIDLastSave="635" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A08BA3C-D3BD-4513-A16B-F01ED8A3B520}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="metro_budget" sheetId="1" r:id="rId2"/>
     <sheet name="data_dictionary" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metro_budget!$A$1:$P$52</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,8 +39,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -48,11 +52,25 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
@@ -1331,7 +1349,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1360,11 +1378,9 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1429,6 +1445,9 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1493,8 +1512,1255 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Department wise Budget vs Actual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$B$82:$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sheriff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$B$84:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70390700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73467000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75072800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7385-4700-B322-91FE038C8965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$C$82:$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sheriff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$C$84:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70378426.719999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73442541.659999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75050829.179999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7385-4700-B322-91FE038C8965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="1291355807"/>
+        <c:axId val="1291358687"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1291355807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1291358687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1291358687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1291355807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>841375</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786864AB-B429-599D-3FC4-48D921E90ACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>50</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1880,7 +3146,7 @@
       <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="10" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1903,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1929,110 +3195,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>356640100</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="27">
         <v>341243679.13</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="28">
         <f>(C2-B2)</f>
         <v>-15396420.870000005</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="29">
         <f>IFERROR(D2/B2,0)</f>
         <v>-4.3170750765267295E-2</v>
       </c>
-      <c r="F2" s="32">
-        <f t="shared" ref="F2:F33" si="0">RANK(E2,E:E)</f>
+      <c r="F2" s="30">
+        <f>RANK(E2,E2:E52)</f>
         <v>38</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="31">
         <v>382685200</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="32">
         <v>346340810.81999999</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="32">
         <f>(H2-G2)</f>
         <v>-36344389.180000007</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="33">
         <f>IFERROR(I2/G2,0)</f>
         <v>-9.4972027086493035E-2</v>
       </c>
-      <c r="K2" s="81">
+      <c r="K2" s="79">
         <f>RANK(J2,J2:J52)</f>
         <v>42</v>
       </c>
-      <c r="L2" s="79">
+      <c r="L2" s="77">
         <v>376548600</v>
       </c>
-      <c r="M2" s="52">
+      <c r="M2" s="50">
         <v>355279492.22999901</v>
       </c>
-      <c r="N2" s="52">
+      <c r="N2" s="50">
         <f>(M2-L2)</f>
         <v>-21269107.770000994</v>
       </c>
-      <c r="O2" s="53">
+      <c r="O2" s="51">
         <f>IFERROR(N2/L2,0)</f>
         <v>-5.6484362894991494E-2</v>
       </c>
-      <c r="P2" s="54">
+      <c r="P2" s="52">
         <f>RANK(O2,O2:O52)</f>
         <v>38</v>
       </c>
@@ -2047,25 +3313,25 @@
       <c r="C3" s="11">
         <v>321214.59000000003</v>
       </c>
-      <c r="D3" s="30">
-        <f t="shared" ref="D3:D52" si="1">(C3-B3)</f>
+      <c r="D3" s="28">
+        <f t="shared" ref="D3:D52" si="0">(C3-B3)</f>
         <v>-7585.4099999999744</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E52" si="2">IFERROR(D3/B3,0)</f>
+        <f t="shared" ref="E3:E52" si="1">IFERROR(D3/B3,0)</f>
         <v>-2.3069981751824741E-2</v>
       </c>
-      <c r="F3" s="18">
-        <f t="shared" si="0"/>
+      <c r="F3" s="30">
+        <f t="shared" ref="F3:F52" si="2">RANK(E3,E3:E53)</f>
         <v>30</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>334800</v>
       </c>
       <c r="H3" s="13">
         <v>312433.70999999897</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="32">
         <f t="shared" ref="I3:I52" si="3">(H3-G3)</f>
         <v>-22366.290000001027</v>
       </c>
@@ -2073,25 +3339,25 @@
         <f t="shared" ref="J3:J52" si="4">IFERROR(I3/G3,0)</f>
         <v>-6.6804928315415249E-2</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="75">
         <f t="shared" ref="K3:K35" si="5">RANK(J3,J3:J53)</f>
         <v>38</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="42">
         <v>322700</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="43">
         <v>322263.03999999998</v>
       </c>
-      <c r="N3" s="45">
+      <c r="N3" s="43">
         <f t="shared" ref="N3:N52" si="6">(M3-L3)</f>
         <v>-436.96000000002095</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="44">
         <f t="shared" ref="O3:O52" si="7">IFERROR(N3/L3,0)</f>
         <v>-1.3540749922529313E-3</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="45">
         <f t="shared" ref="P3:P35" si="8">RANK(O3,O3:O53)</f>
         <v>15</v>
       </c>
@@ -2106,25 +3372,25 @@
       <c r="C4" s="11">
         <v>3115157.5599999898</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="28">
+        <f t="shared" si="0"/>
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>-15442.440000010189</v>
-      </c>
-      <c r="E4" s="12">
+        <v>-4.9327413275443007E-3</v>
+      </c>
+      <c r="F4" s="30">
         <f t="shared" si="2"/>
-        <v>-4.9327413275443007E-3</v>
-      </c>
-      <c r="F4" s="18">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>3652300</v>
       </c>
       <c r="H4" s="13">
         <v>3589693.2099999902</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="32">
         <f t="shared" si="3"/>
         <v>-62606.790000009816</v>
       </c>
@@ -2132,25 +3398,25 @@
         <f t="shared" si="4"/>
         <v>-1.7141743558856015E-2</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="75">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="42">
         <v>3662400</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="43">
         <v>3564983.04999999</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="43">
         <f t="shared" si="6"/>
         <v>-97416.950000009965</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="44">
         <f t="shared" si="7"/>
         <v>-2.6599210899959033E-2</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="45">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
@@ -2165,25 +3431,25 @@
       <c r="C5" s="11">
         <v>6947552.6699999999</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
+        <f t="shared" si="0"/>
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>-723147.33000000007</v>
-      </c>
-      <c r="E5" s="12">
+        <v>-9.4273968477453174E-2</v>
+      </c>
+      <c r="F5" s="30">
         <f t="shared" si="2"/>
-        <v>-9.4273968477453174E-2</v>
-      </c>
-      <c r="F5" s="18">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G5" s="23">
+        <v>45</v>
+      </c>
+      <c r="G5" s="21">
         <v>7968300</v>
       </c>
       <c r="H5" s="13">
         <v>7020609.3200000003</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="32">
         <f t="shared" si="3"/>
         <v>-947690.6799999997</v>
       </c>
@@ -2191,25 +3457,25 @@
         <f t="shared" si="4"/>
         <v>-0.118932605449092</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="75">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="42">
         <v>7759600</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="43">
         <v>7497322.9100000001</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="43">
         <f t="shared" si="6"/>
         <v>-262277.08999999985</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="44">
         <f t="shared" si="7"/>
         <v>-3.3800336357544182E-2</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="45">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
@@ -2224,25 +3490,25 @@
       <c r="C6" s="11">
         <v>385908.52</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="28">
+        <f t="shared" si="0"/>
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
-        <v>-23391.479999999981</v>
-      </c>
-      <c r="E6" s="12">
+        <v>-5.7149963352064452E-2</v>
+      </c>
+      <c r="F6" s="30">
         <f t="shared" si="2"/>
-        <v>-5.7149963352064452E-2</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="G6" s="23">
+        <v>38</v>
+      </c>
+      <c r="G6" s="21">
         <v>428500</v>
       </c>
       <c r="H6" s="13">
         <v>427758.64</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="32">
         <f t="shared" si="3"/>
         <v>-741.35999999998603</v>
       </c>
@@ -2250,25 +3516,25 @@
         <f t="shared" si="4"/>
         <v>-1.7301283547257551E-3</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="75">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="42">
         <v>445200</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="43">
         <v>445114.28999999899</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="43">
         <f t="shared" si="6"/>
         <v>-85.710000001010485</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="44">
         <f t="shared" si="7"/>
         <v>-1.925202156356929E-4</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="45">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
@@ -2283,25 +3549,25 @@
       <c r="C7" s="11">
         <v>2946071.21</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="28">
+        <f t="shared" si="0"/>
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
-        <v>-382928.79000000004</v>
-      </c>
-      <c r="E7" s="12">
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F7" s="30">
         <f t="shared" si="2"/>
-        <v>-0.11502817362571344</v>
-      </c>
-      <c r="F7" s="18">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G7" s="23">
+        <v>45</v>
+      </c>
+      <c r="G7" s="21">
         <v>3390900</v>
       </c>
       <c r="H7" s="13">
         <v>3051483.41</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="32">
         <f t="shared" si="3"/>
         <v>-339416.58999999985</v>
       </c>
@@ -2309,25 +3575,25 @@
         <f t="shared" si="4"/>
         <v>-0.10009631366303927</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="75">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="42">
         <v>3345200</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="43">
         <v>2946440.08</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="43">
         <f t="shared" si="6"/>
         <v>-398759.91999999993</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="44">
         <f t="shared" si="7"/>
         <v>-0.11920361114432618</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="45">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
@@ -2342,25 +3608,25 @@
       <c r="C8" s="11">
         <v>1315623.30999999</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="28">
+        <f t="shared" si="0"/>
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
-        <v>-236476.69000000996</v>
-      </c>
-      <c r="E8" s="12">
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>-0.15235918433091292</v>
-      </c>
-      <c r="F8" s="18">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="G8" s="23">
+        <v>45</v>
+      </c>
+      <c r="G8" s="21">
         <v>1590700</v>
       </c>
       <c r="H8" s="13">
         <v>1383905.98999999</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="32">
         <f t="shared" si="3"/>
         <v>-206794.01000001002</v>
       </c>
@@ -2368,25 +3634,25 @@
         <f t="shared" si="4"/>
         <v>-0.13000189224870184</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="75">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="42">
         <v>1579300</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="43">
         <v>1337735.3199999901</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="43">
         <f t="shared" si="6"/>
         <v>-241564.68000000995</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="44">
         <f t="shared" si="7"/>
         <v>-0.15295680364719175</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="45">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
@@ -2401,25 +3667,25 @@
       <c r="C9" s="11">
         <v>8952825.2799999993</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="28">
+        <f t="shared" si="0"/>
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
-        <v>-396574.72000000067</v>
-      </c>
-      <c r="E9" s="12">
+        <v>-4.2417130511048909E-2</v>
+      </c>
+      <c r="F9" s="30">
         <f t="shared" si="2"/>
-        <v>-4.2417130511048909E-2</v>
-      </c>
-      <c r="F9" s="18">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="G9" s="23">
+        <v>34</v>
+      </c>
+      <c r="G9" s="21">
         <v>11073700</v>
       </c>
       <c r="H9" s="13">
         <v>9929059.5199999996</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="32">
         <f t="shared" si="3"/>
         <v>-1144640.4800000004</v>
       </c>
@@ -2427,25 +3693,25 @@
         <f t="shared" si="4"/>
         <v>-0.10336567542917005</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="75">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="42">
         <v>10790500</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="43">
         <v>9993599.52999999</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="43">
         <f t="shared" si="6"/>
         <v>-796900.47000000998</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="44">
         <f t="shared" si="7"/>
         <v>-7.3852043000788653E-2</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="45">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
@@ -2460,25 +3726,25 @@
       <c r="C10" s="11">
         <v>407090.37</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="28">
+        <f t="shared" si="0"/>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
-        <v>-36209.630000000005</v>
-      </c>
-      <c r="E10" s="12">
+        <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="F10" s="30">
         <f t="shared" si="2"/>
-        <v>-8.1681998646514792E-2</v>
-      </c>
-      <c r="F10" s="18">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="G10" s="23">
+        <v>41</v>
+      </c>
+      <c r="G10" s="21">
         <v>495200</v>
       </c>
       <c r="H10" s="13">
         <v>467907.84000000003</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="32">
         <f t="shared" si="3"/>
         <v>-27292.159999999974</v>
       </c>
@@ -2486,25 +3752,25 @@
         <f t="shared" si="4"/>
         <v>-5.5113408723747932E-2</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="75">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="42">
         <v>487500</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="43">
         <v>478318.92</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="43">
         <f t="shared" si="6"/>
         <v>-9181.0800000000163</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="44">
         <f t="shared" si="7"/>
         <v>-1.883298461538465E-2</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="45">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
@@ -2519,25 +3785,25 @@
       <c r="C11" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="F11" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>0</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2545,25 +3811,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="75">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="42">
         <v>375000</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="43">
         <v>63771.91</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="43">
         <f t="shared" si="6"/>
         <v>-311228.08999999997</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="44">
         <f t="shared" si="7"/>
         <v>-0.82994157333333329</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="45">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
@@ -2578,25 +3844,25 @@
       <c r="C12" s="11">
         <v>4066595.33</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="28">
+        <f t="shared" si="0"/>
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E12" s="12">
         <f t="shared" si="1"/>
-        <v>-214304.66999999993</v>
-      </c>
-      <c r="E12" s="12">
+        <v>-5.0060657805601608E-2</v>
+      </c>
+      <c r="F12" s="30">
         <f t="shared" si="2"/>
-        <v>-5.0060657805601608E-2</v>
-      </c>
-      <c r="F12" s="18">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="G12" s="23">
+        <v>34</v>
+      </c>
+      <c r="G12" s="21">
         <v>4700400</v>
       </c>
       <c r="H12" s="13">
         <v>4205555.5999999996</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="32">
         <f t="shared" si="3"/>
         <v>-494844.40000000037</v>
       </c>
@@ -2604,25 +3870,25 @@
         <f t="shared" si="4"/>
         <v>-0.10527708280146378</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="75">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="42">
         <v>4677800</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="43">
         <v>4371713.1399999997</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="43">
         <f t="shared" si="6"/>
         <v>-306086.86000000034</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="44">
         <f t="shared" si="7"/>
         <v>-6.5433934755654441E-2</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="45">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
@@ -2637,25 +3903,25 @@
       <c r="C13" s="11">
         <v>5772288.3300000001</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="28">
+        <f t="shared" si="0"/>
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E13" s="12">
         <f t="shared" si="1"/>
-        <v>-75511.669999999925</v>
-      </c>
-      <c r="E13" s="12">
+        <v>-1.2912833886247806E-2</v>
+      </c>
+      <c r="F13" s="30">
         <f t="shared" si="2"/>
-        <v>-1.2912833886247806E-2</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G13" s="23">
+        <v>17</v>
+      </c>
+      <c r="G13" s="21">
         <v>6223700</v>
       </c>
       <c r="H13" s="13">
         <v>5909077.9399999902</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="32">
         <f t="shared" si="3"/>
         <v>-314622.06000000983</v>
       </c>
@@ -2663,25 +3929,25 @@
         <f t="shared" si="4"/>
         <v>-5.0552253482656594E-2</v>
       </c>
-      <c r="K13" s="77">
+      <c r="K13" s="75">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="42">
         <v>6207300</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="43">
         <v>6056976.6699999999</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="43">
         <f t="shared" si="6"/>
         <v>-150323.33000000007</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="44">
         <f t="shared" si="7"/>
         <v>-2.4217184605222895E-2</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="45">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
@@ -2696,25 +3962,25 @@
       <c r="C14" s="11">
         <v>505017.37</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="28">
+        <f t="shared" si="0"/>
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E14" s="12">
         <f t="shared" si="1"/>
-        <v>-6982.6300000000047</v>
-      </c>
-      <c r="E14" s="12">
+        <v>-1.3637949218750009E-2</v>
+      </c>
+      <c r="F14" s="30">
         <f t="shared" si="2"/>
-        <v>-1.3637949218750009E-2</v>
-      </c>
-      <c r="F14" s="18">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="G14" s="23">
+        <v>19</v>
+      </c>
+      <c r="G14" s="21">
         <v>530500</v>
       </c>
       <c r="H14" s="13">
         <v>524402.98</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="32">
         <f t="shared" si="3"/>
         <v>-6097.0200000000186</v>
       </c>
@@ -2722,25 +3988,25 @@
         <f t="shared" si="4"/>
         <v>-1.1492968897266765E-2</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="75">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="42">
         <v>526200</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="43">
         <v>504989.88</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="43">
         <f t="shared" si="6"/>
         <v>-21210.119999999995</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14" s="44">
         <f t="shared" si="7"/>
         <v>-4.0308095781071827E-2</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="45">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
@@ -2755,25 +4021,25 @@
       <c r="C15" s="11">
         <v>156545919.90000001</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="28">
+        <f t="shared" si="0"/>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E15" s="12">
         <f t="shared" si="1"/>
-        <v>496819.90000000596</v>
-      </c>
-      <c r="E15" s="12">
+        <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="F15" s="30">
         <f t="shared" si="2"/>
-        <v>3.1837408866824991E-3</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <v>184167800</v>
       </c>
       <c r="H15" s="13">
         <v>175966389.24999899</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="32">
         <f t="shared" si="3"/>
         <v>-8201410.7500010133</v>
       </c>
@@ -2781,25 +4047,25 @@
         <f t="shared" si="4"/>
         <v>-4.4532273014072019E-2</v>
       </c>
-      <c r="K15" s="77">
+      <c r="K15" s="75">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="42">
         <v>188953500</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="43">
         <v>184450910.84999901</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="43">
         <f t="shared" si="6"/>
         <v>-4502589.1500009894</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="44">
         <f t="shared" si="7"/>
         <v>-2.3829085727446114E-2</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="45">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
@@ -2814,25 +4080,25 @@
       <c r="C16" s="11">
         <v>6522480.4599999897</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="28">
+        <f t="shared" si="0"/>
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E16" s="12">
         <f t="shared" si="1"/>
-        <v>-78219.540000010282</v>
-      </c>
-      <c r="E16" s="12">
+        <v>-1.1850188616360429E-2</v>
+      </c>
+      <c r="F16" s="30">
         <f t="shared" si="2"/>
-        <v>-1.1850188616360429E-2</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G16" s="23">
+        <v>12</v>
+      </c>
+      <c r="G16" s="21">
         <v>7352500</v>
       </c>
       <c r="H16" s="13">
         <v>7350464.0800000001</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="32">
         <f t="shared" si="3"/>
         <v>-2035.9199999999255</v>
       </c>
@@ -2840,25 +4106,25 @@
         <f t="shared" si="4"/>
         <v>-2.769017341040361E-4</v>
       </c>
-      <c r="K16" s="77">
+      <c r="K16" s="75">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="42">
         <v>7397200</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="43">
         <v>7397093</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="43">
         <f t="shared" si="6"/>
         <v>-107</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="44">
         <f t="shared" si="7"/>
         <v>-1.4464932677229222E-5</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="45">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
@@ -2873,25 +4139,25 @@
       <c r="C17" s="11">
         <v>14439480.050000001</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="28">
+        <f t="shared" si="0"/>
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E17" s="12">
         <f t="shared" si="1"/>
-        <v>-421319.94999999925</v>
-      </c>
-      <c r="E17" s="12">
+        <v>-2.8351094826658003E-2</v>
+      </c>
+      <c r="F17" s="30">
         <f t="shared" si="2"/>
-        <v>-2.8351094826658003E-2</v>
-      </c>
-      <c r="F17" s="18">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="G17" s="23">
+        <v>24</v>
+      </c>
+      <c r="G17" s="21">
         <v>15309700</v>
       </c>
       <c r="H17" s="13">
         <v>14645233.51</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="32">
         <f t="shared" si="3"/>
         <v>-664466.49000000022</v>
       </c>
@@ -2899,25 +4165,25 @@
         <f t="shared" si="4"/>
         <v>-4.3401666263871937E-2</v>
       </c>
-      <c r="K17" s="77">
+      <c r="K17" s="75">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="42">
         <v>15311800</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="43">
         <v>14346057.039999999</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="43">
         <f t="shared" si="6"/>
         <v>-965742.96000000089</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17" s="44">
         <f t="shared" si="7"/>
         <v>-6.3071811282801551E-2</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="45">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
@@ -2932,25 +4198,25 @@
       <c r="C18" s="11">
         <v>2615303.8999999901</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="28">
+        <f t="shared" si="0"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E18" s="12">
         <f t="shared" si="1"/>
-        <v>-149396.10000000987</v>
-      </c>
-      <c r="E18" s="12">
+        <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="F18" s="30">
         <f t="shared" si="2"/>
-        <v>-5.4037002206391245E-2</v>
-      </c>
-      <c r="F18" s="18">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G18" s="23">
+        <v>29</v>
+      </c>
+      <c r="G18" s="21">
         <v>2861000</v>
       </c>
       <c r="H18" s="13">
         <v>2671745.94</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="32">
         <f t="shared" si="3"/>
         <v>-189254.06000000006</v>
       </c>
@@ -2958,25 +4224,25 @@
         <f t="shared" si="4"/>
         <v>-6.6149619014330668E-2</v>
       </c>
-      <c r="K18" s="77">
+      <c r="K18" s="75">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="42">
         <v>2910600</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="43">
         <v>2535637.09</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="43">
         <f t="shared" si="6"/>
         <v>-374962.91000000015</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O18" s="44">
         <f t="shared" si="7"/>
         <v>-0.12882667147667154</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="45">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
@@ -2991,25 +4257,25 @@
       <c r="C19" s="11">
         <v>8460963.1999999899</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="28">
+        <f t="shared" si="0"/>
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E19" s="12">
         <f t="shared" si="1"/>
-        <v>-376336.80000001006</v>
-      </c>
-      <c r="E19" s="12">
+        <v>-4.258504294298146E-2</v>
+      </c>
+      <c r="F19" s="30">
         <f t="shared" si="2"/>
-        <v>-4.258504294298146E-2</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="G19" s="23">
+        <v>28</v>
+      </c>
+      <c r="G19" s="21">
         <v>9713300</v>
       </c>
       <c r="H19" s="13">
         <v>8991707.2399999909</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="32">
         <f t="shared" si="3"/>
         <v>-721592.76000000909</v>
       </c>
@@ -3017,25 +4283,25 @@
         <f t="shared" si="4"/>
         <v>-7.4289145810384635E-2</v>
       </c>
-      <c r="K19" s="77">
+      <c r="K19" s="75">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="42">
         <v>9343000</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="43">
         <v>8766655.9100000001</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="43">
         <f t="shared" si="6"/>
         <v>-576344.08999999985</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="44">
         <f t="shared" si="7"/>
         <v>-6.1687262121374278E-2</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="45">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -3050,25 +4316,25 @@
       <c r="C20" s="11">
         <v>124384360.159999</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="28">
+        <f t="shared" si="0"/>
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E20" s="12">
         <f t="shared" si="1"/>
-        <v>-1539.8400010019541</v>
-      </c>
-      <c r="E20" s="12">
+        <v>-1.2379538203300809E-5</v>
+      </c>
+      <c r="F20" s="30">
         <f t="shared" si="2"/>
-        <v>-1.2379538203300809E-5</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G20" s="23">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
         <v>131849400</v>
       </c>
       <c r="H20" s="13">
         <v>131839624.37</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="32">
         <f t="shared" si="3"/>
         <v>-9775.6299999952316</v>
       </c>
@@ -3076,25 +4342,25 @@
         <f t="shared" si="4"/>
         <v>-7.4142392760188761E-5</v>
       </c>
-      <c r="K20" s="77">
+      <c r="K20" s="75">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="42">
         <v>130621400</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="43">
         <v>130621283.53999899</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="43">
         <f t="shared" si="6"/>
         <v>-116.46000100672245</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="44">
         <f t="shared" si="7"/>
         <v>-8.9158438821450736E-7</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="45">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -3109,25 +4375,25 @@
       <c r="C21" s="11">
         <v>22408587.5499999</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="28">
+        <f t="shared" si="0"/>
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E21" s="12">
         <f t="shared" si="1"/>
-        <v>-1923512.4500000998</v>
-      </c>
-      <c r="E21" s="12">
+        <v>-7.9052463618023094E-2</v>
+      </c>
+      <c r="F21" s="30">
         <f t="shared" si="2"/>
-        <v>-7.9052463618023094E-2</v>
-      </c>
-      <c r="F21" s="18">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="G21" s="23">
+        <v>28</v>
+      </c>
+      <c r="G21" s="21">
         <v>24497400</v>
       </c>
       <c r="H21" s="13">
         <v>22655993.629999999</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="32">
         <f t="shared" si="3"/>
         <v>-1841406.370000001</v>
       </c>
@@ -3135,25 +4401,25 @@
         <f t="shared" si="4"/>
         <v>-7.5167420624229556E-2</v>
       </c>
-      <c r="K21" s="77">
+      <c r="K21" s="75">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="42">
         <v>24323000</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="43">
         <v>23434073.089999899</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N21" s="43">
         <f t="shared" si="6"/>
         <v>-888926.91000010073</v>
       </c>
-      <c r="O21" s="46">
+      <c r="O21" s="44">
         <f t="shared" si="7"/>
         <v>-3.6546762734864152E-2</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="45">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
@@ -3168,25 +4434,25 @@
       <c r="C22" s="11">
         <v>11412339.8799999</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="28">
+        <f t="shared" si="0"/>
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E22" s="12">
         <f t="shared" si="1"/>
-        <v>-153660.12000009976</v>
-      </c>
-      <c r="E22" s="12">
+        <v>-1.3285502334437123E-2</v>
+      </c>
+      <c r="F22" s="30">
         <f t="shared" si="2"/>
-        <v>-1.3285502334437123E-2</v>
-      </c>
-      <c r="F22" s="18">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G22" s="23">
+        <v>14</v>
+      </c>
+      <c r="G22" s="21">
         <v>11980700</v>
       </c>
       <c r="H22" s="13">
         <v>11791977.9699999</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="32">
         <f t="shared" si="3"/>
         <v>-188722.03000009991</v>
       </c>
@@ -3194,25 +4460,25 @@
         <f t="shared" si="4"/>
         <v>-1.5752170574348738E-2</v>
       </c>
-      <c r="K22" s="77">
+      <c r="K22" s="75">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="42">
         <v>11935200</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="43">
         <v>11934454.77</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="43">
         <f t="shared" si="6"/>
         <v>-745.23000000044703</v>
       </c>
-      <c r="O22" s="46">
+      <c r="O22" s="44">
         <f t="shared" si="7"/>
         <v>-6.2439674240938325E-5</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="45">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -3227,25 +4493,25 @@
       <c r="C23" s="11">
         <v>20036743.4099999</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="28">
+        <f t="shared" si="0"/>
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E23" s="12">
         <f t="shared" si="1"/>
-        <v>-825956.59000010043</v>
-      </c>
-      <c r="E23" s="12">
+        <v>-3.9590110100806722E-2</v>
+      </c>
+      <c r="F23" s="30">
         <f t="shared" si="2"/>
-        <v>-3.9590110100806722E-2</v>
-      </c>
-      <c r="F23" s="18">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="G23" s="23">
+        <v>24</v>
+      </c>
+      <c r="G23" s="21">
         <v>22683800</v>
       </c>
       <c r="H23" s="13">
         <v>21722126.219999898</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="32">
         <f t="shared" si="3"/>
         <v>-961673.78000010177</v>
       </c>
@@ -3253,25 +4519,25 @@
         <f t="shared" si="4"/>
         <v>-4.2394738976719144E-2</v>
       </c>
-      <c r="K23" s="77">
+      <c r="K23" s="75">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="42">
         <v>23220300</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="43">
         <v>22619057.440000001</v>
       </c>
-      <c r="N23" s="45">
+      <c r="N23" s="43">
         <f t="shared" si="6"/>
         <v>-601242.55999999866</v>
       </c>
-      <c r="O23" s="46">
+      <c r="O23" s="44">
         <f t="shared" si="7"/>
         <v>-2.5892971236375011E-2</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="45">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
@@ -3286,25 +4552,25 @@
       <c r="C24" s="11">
         <v>904969.19</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="28">
+        <f t="shared" si="0"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E24" s="12">
         <f t="shared" si="1"/>
-        <v>-12230.810000000056</v>
-      </c>
-      <c r="E24" s="12">
+        <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="F24" s="30">
         <f t="shared" si="2"/>
-        <v>-1.3334943305713101E-2</v>
-      </c>
-      <c r="F24" s="18">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="G24" s="23">
+        <v>14</v>
+      </c>
+      <c r="G24" s="21">
         <v>1112700</v>
       </c>
       <c r="H24" s="13">
         <v>1067214.42</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="32">
         <f t="shared" si="3"/>
         <v>-45485.580000000075</v>
       </c>
@@ -3312,25 +4578,25 @@
         <f t="shared" si="4"/>
         <v>-4.087856565111897E-2</v>
       </c>
-      <c r="K24" s="77">
+      <c r="K24" s="75">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="L24" s="44">
+      <c r="L24" s="42">
         <v>1112600</v>
       </c>
-      <c r="M24" s="45">
+      <c r="M24" s="43">
         <v>1112527.1200000001</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="43">
         <f t="shared" si="6"/>
         <v>-72.879999999888241</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24" s="44">
         <f t="shared" si="7"/>
         <v>-6.5504224339284781E-5</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="45">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -3345,25 +4611,25 @@
       <c r="C25" s="11">
         <v>479149.53</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="28">
+        <f t="shared" si="0"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E25" s="12">
         <f t="shared" si="1"/>
-        <v>-4950.4699999999721</v>
-      </c>
-      <c r="E25" s="12">
+        <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="F25" s="30">
         <f t="shared" si="2"/>
-        <v>-1.0226130964676661E-2</v>
-      </c>
-      <c r="F25" s="18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G25" s="23">
+        <v>10</v>
+      </c>
+      <c r="G25" s="21">
         <v>505200</v>
       </c>
       <c r="H25" s="13">
         <v>497194.20999999897</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="32">
         <f t="shared" si="3"/>
         <v>-8005.7900000010268</v>
       </c>
@@ -3371,25 +4637,25 @@
         <f t="shared" si="4"/>
         <v>-1.5846773555029746E-2</v>
       </c>
-      <c r="K25" s="77">
+      <c r="K25" s="75">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="42">
         <v>496500</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="43">
         <v>494775.1</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="43">
         <f t="shared" si="6"/>
         <v>-1724.9000000000233</v>
       </c>
-      <c r="O25" s="46">
+      <c r="O25" s="44">
         <f t="shared" si="7"/>
         <v>-3.4741188318228064E-3</v>
       </c>
-      <c r="P25" s="47">
+      <c r="P25" s="45">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
@@ -3404,25 +4670,25 @@
       <c r="C26" s="11">
         <v>4801960.08</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="28">
+        <f t="shared" si="0"/>
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E26" s="12">
         <f t="shared" si="1"/>
-        <v>-447839.91999999993</v>
-      </c>
-      <c r="E26" s="12">
+        <v>-8.5306091660634673E-2</v>
+      </c>
+      <c r="F26" s="30">
         <f t="shared" si="2"/>
-        <v>-8.5306091660634673E-2</v>
-      </c>
-      <c r="F26" s="18">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="G26" s="23">
+        <v>26</v>
+      </c>
+      <c r="G26" s="21">
         <v>5442200</v>
       </c>
       <c r="H26" s="13">
         <v>5122329.02999999</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="32">
         <f t="shared" si="3"/>
         <v>-319870.97000000998</v>
       </c>
@@ -3430,25 +4696,25 @@
         <f t="shared" si="4"/>
         <v>-5.8776040939327839E-2</v>
       </c>
-      <c r="K26" s="77">
+      <c r="K26" s="75">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="42">
         <v>5430700</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="43">
         <v>5117235.21</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="43">
         <f t="shared" si="6"/>
         <v>-313464.79000000004</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O26" s="44">
         <f t="shared" si="7"/>
         <v>-5.7720881286022069E-2</v>
       </c>
-      <c r="P26" s="47">
+      <c r="P26" s="45">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
@@ -3463,25 +4729,25 @@
       <c r="C27" s="11">
         <v>0</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="12">
+      <c r="F27" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G27" s="23">
+        <v>1</v>
+      </c>
+      <c r="G27" s="21">
         <v>0</v>
       </c>
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3489,25 +4755,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K27" s="77">
+      <c r="K27" s="75">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="42">
         <v>0</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="43">
         <v>0</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O27" s="46">
+      <c r="O27" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P27" s="47">
+      <c r="P27" s="45">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3522,25 +4788,25 @@
       <c r="C28" s="11">
         <v>1250442.02</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="28">
+        <f t="shared" si="0"/>
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E28" s="12">
         <f t="shared" si="1"/>
-        <v>-132457.97999999998</v>
-      </c>
-      <c r="E28" s="12">
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="F28" s="30">
         <f t="shared" si="2"/>
-        <v>-9.5782760864849215E-2</v>
-      </c>
-      <c r="F28" s="18">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="G28" s="23">
+        <v>25</v>
+      </c>
+      <c r="G28" s="21">
         <v>1545700</v>
       </c>
       <c r="H28" s="13">
         <v>1281335.23</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="32">
         <f t="shared" si="3"/>
         <v>-264364.77</v>
       </c>
@@ -3548,25 +4814,25 @@
         <f t="shared" si="4"/>
         <v>-0.17103239309050916</v>
       </c>
-      <c r="K28" s="77">
+      <c r="K28" s="75">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="42">
         <v>1525900</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="43">
         <v>1393285.06</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="43">
         <f t="shared" si="6"/>
         <v>-132614.93999999994</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="44">
         <f t="shared" si="7"/>
         <v>-8.6909325643882263E-2</v>
       </c>
-      <c r="P28" s="47">
+      <c r="P28" s="45">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
@@ -3581,25 +4847,25 @@
       <c r="C29" s="11">
         <v>2523884.71</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="28">
+        <f t="shared" si="0"/>
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E29" s="12">
         <f t="shared" si="1"/>
-        <v>-37915.290000000037</v>
-      </c>
-      <c r="E29" s="12">
+        <v>-1.4800253727847622E-2</v>
+      </c>
+      <c r="F29" s="30">
         <f t="shared" si="2"/>
-        <v>-1.4800253727847622E-2</v>
-      </c>
-      <c r="F29" s="18">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G29" s="23">
+        <v>13</v>
+      </c>
+      <c r="G29" s="21">
         <v>2779500</v>
       </c>
       <c r="H29" s="13">
         <v>2665264.4399999902</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="32">
         <f t="shared" si="3"/>
         <v>-114235.56000000983</v>
       </c>
@@ -3607,25 +4873,25 @@
         <f t="shared" si="4"/>
         <v>-4.1099320021590155E-2</v>
       </c>
-      <c r="K29" s="77">
+      <c r="K29" s="75">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="L29" s="44">
+      <c r="L29" s="42">
         <v>2889900</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="43">
         <v>2889864.67</v>
       </c>
-      <c r="N29" s="45">
+      <c r="N29" s="43">
         <f t="shared" si="6"/>
         <v>-35.330000000074506</v>
       </c>
-      <c r="O29" s="46">
+      <c r="O29" s="44">
         <f t="shared" si="7"/>
         <v>-1.2225336516860273E-5</v>
       </c>
-      <c r="P29" s="47">
+      <c r="P29" s="45">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -3640,25 +4906,25 @@
       <c r="C30" s="11">
         <v>12030494.1</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="28">
+        <f t="shared" si="0"/>
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E30" s="12">
         <f t="shared" si="1"/>
-        <v>-101705.90000000037</v>
-      </c>
-      <c r="E30" s="12">
+        <v>-8.3831374359143746E-3</v>
+      </c>
+      <c r="F30" s="30">
         <f t="shared" si="2"/>
-        <v>-8.3831374359143746E-3</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G30" s="23">
+        <v>7</v>
+      </c>
+      <c r="G30" s="21">
         <v>12735900</v>
       </c>
       <c r="H30" s="13">
         <v>12685514.279999901</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="32">
         <f t="shared" si="3"/>
         <v>-50385.720000099391</v>
       </c>
@@ -3666,25 +4932,25 @@
         <f t="shared" si="4"/>
         <v>-3.9561962641116366E-3</v>
       </c>
-      <c r="K30" s="77">
+      <c r="K30" s="75">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L30" s="44">
+      <c r="L30" s="42">
         <v>12861300</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="43">
         <v>12826009.609999999</v>
       </c>
-      <c r="N30" s="45">
+      <c r="N30" s="43">
         <f t="shared" si="6"/>
         <v>-35290.390000000596</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30" s="44">
         <f t="shared" si="7"/>
         <v>-2.7439209100169185E-3</v>
       </c>
-      <c r="P30" s="47">
+      <c r="P30" s="45">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -3699,25 +4965,25 @@
       <c r="C31" s="11">
         <v>1740827.69</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="28">
+        <f t="shared" si="0"/>
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E31" s="12">
         <f t="shared" si="1"/>
-        <v>-24772.310000000056</v>
-      </c>
-      <c r="E31" s="12">
+        <v>-1.4030533529678329E-2</v>
+      </c>
+      <c r="F31" s="30">
         <f t="shared" si="2"/>
-        <v>-1.4030533529678329E-2</v>
-      </c>
-      <c r="F31" s="18">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G31" s="23">
+        <v>11</v>
+      </c>
+      <c r="G31" s="21">
         <v>1823300</v>
       </c>
       <c r="H31" s="13">
         <v>1762676.85</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="32">
         <f t="shared" si="3"/>
         <v>-60623.149999999907</v>
       </c>
@@ -3725,25 +4991,25 @@
         <f t="shared" si="4"/>
         <v>-3.3249136181648611E-2</v>
       </c>
-      <c r="K31" s="77">
+      <c r="K31" s="75">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L31" s="44">
+      <c r="L31" s="42">
         <v>1870700</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="43">
         <v>1801391.34</v>
       </c>
-      <c r="N31" s="45">
+      <c r="N31" s="43">
         <f t="shared" si="6"/>
         <v>-69308.659999999916</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="44">
         <f t="shared" si="7"/>
         <v>-3.7049585716576634E-2</v>
       </c>
-      <c r="P31" s="47">
+      <c r="P31" s="45">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
@@ -3758,25 +5024,25 @@
       <c r="C32" s="11">
         <v>5925637.7199999904</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="28">
+        <f t="shared" si="0"/>
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E32" s="12">
         <f t="shared" si="1"/>
-        <v>-73762.280000009574</v>
-      </c>
-      <c r="E32" s="12">
+        <v>-1.2294942827617691E-2</v>
+      </c>
+      <c r="F32" s="30">
         <f t="shared" si="2"/>
-        <v>-1.2294942827617691E-2</v>
-      </c>
-      <c r="F32" s="18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G32" s="23">
+        <v>8</v>
+      </c>
+      <c r="G32" s="21">
         <v>6195500</v>
       </c>
       <c r="H32" s="13">
         <v>6084985.4699999997</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="32">
         <f t="shared" si="3"/>
         <v>-110514.53000000026</v>
       </c>
@@ -3784,25 +5050,25 @@
         <f t="shared" si="4"/>
         <v>-1.7837871035428981E-2</v>
       </c>
-      <c r="K32" s="77">
+      <c r="K32" s="75">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="42">
         <v>6157400</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="43">
         <v>5987572.0199999996</v>
       </c>
-      <c r="N32" s="45">
+      <c r="N32" s="43">
         <f t="shared" si="6"/>
         <v>-169827.98000000045</v>
       </c>
-      <c r="O32" s="46">
+      <c r="O32" s="44">
         <f t="shared" si="7"/>
         <v>-2.7581118653977402E-2</v>
       </c>
-      <c r="P32" s="47">
+      <c r="P32" s="45">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
@@ -3817,25 +5083,25 @@
       <c r="C33" s="11">
         <v>920284264.73000002</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="28">
+        <f t="shared" si="0"/>
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E33" s="12">
         <f t="shared" si="1"/>
-        <v>-7418835.2699990273</v>
-      </c>
-      <c r="E33" s="12">
+        <v>-7.9969930789269058E-3</v>
+      </c>
+      <c r="F33" s="30">
         <f t="shared" si="2"/>
-        <v>-7.9969930789269058E-3</v>
-      </c>
-      <c r="F33" s="18">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G33" s="23">
+        <v>6</v>
+      </c>
+      <c r="G33" s="21">
         <v>979671000</v>
       </c>
       <c r="H33" s="13">
         <v>977068513.48000002</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="32">
         <f t="shared" si="3"/>
         <v>-2602486.5199999809</v>
       </c>
@@ -3843,25 +5109,25 @@
         <f t="shared" si="4"/>
         <v>-2.6564903115433454E-3</v>
       </c>
-      <c r="K33" s="77">
+      <c r="K33" s="75">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="42">
         <v>989572899.99999905</v>
       </c>
-      <c r="M33" s="45">
+      <c r="M33" s="43">
         <v>984116289.40999901</v>
       </c>
-      <c r="N33" s="45">
+      <c r="N33" s="43">
         <f t="shared" si="6"/>
         <v>-5456610.5900000334</v>
       </c>
-      <c r="O33" s="46">
+      <c r="O33" s="44">
         <f t="shared" si="7"/>
         <v>-5.5141067323084929E-3</v>
       </c>
-      <c r="P33" s="47">
+      <c r="P33" s="45">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -3876,25 +5142,25 @@
       <c r="C34" s="11">
         <v>4109958.22</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="28">
+        <f t="shared" si="0"/>
+        <v>-79341.779999999795</v>
+      </c>
+      <c r="E34" s="12">
         <f t="shared" si="1"/>
-        <v>-79341.779999999795</v>
-      </c>
-      <c r="E34" s="12">
+        <v>-1.8939149738619768E-2</v>
+      </c>
+      <c r="F34" s="30">
         <f t="shared" si="2"/>
-        <v>-1.8939149738619768E-2</v>
-      </c>
-      <c r="F34" s="18">
-        <f t="shared" ref="F34:F65" si="9">RANK(E34,E:E)</f>
-        <v>26</v>
-      </c>
-      <c r="G34" s="23">
+        <v>10</v>
+      </c>
+      <c r="G34" s="21">
         <v>4350600</v>
       </c>
       <c r="H34" s="13">
         <v>4137588.7699999898</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="32">
         <f t="shared" si="3"/>
         <v>-213011.23000001023</v>
       </c>
@@ -3902,25 +5168,25 @@
         <f t="shared" si="4"/>
         <v>-4.8961345561534093E-2</v>
       </c>
-      <c r="K34" s="77">
+      <c r="K34" s="75">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="L34" s="44">
+      <c r="L34" s="42">
         <v>4345600</v>
       </c>
-      <c r="M34" s="45">
+      <c r="M34" s="43">
         <v>4229801.51</v>
       </c>
-      <c r="N34" s="45">
+      <c r="N34" s="43">
         <f t="shared" si="6"/>
         <v>-115798.49000000022</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="44">
         <f t="shared" si="7"/>
         <v>-2.6647296115611244E-2</v>
       </c>
-      <c r="P34" s="47">
+      <c r="P34" s="45">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
@@ -3935,25 +5201,25 @@
       <c r="C35" s="11">
         <v>0</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" s="12">
+      <c r="F35" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="18">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G35" s="23">
+        <v>1</v>
+      </c>
+      <c r="G35" s="21">
         <v>0</v>
       </c>
       <c r="H35" s="13">
         <v>0</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3961,25 +5227,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K35" s="77">
+      <c r="K35" s="75">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L35" s="44">
+      <c r="L35" s="42">
         <v>0</v>
       </c>
-      <c r="M35" s="45">
+      <c r="M35" s="43">
         <v>0</v>
       </c>
-      <c r="N35" s="45">
+      <c r="N35" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P35" s="47">
+      <c r="P35" s="45">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3994,25 +5260,25 @@
       <c r="C36" s="11">
         <v>735423.27999999898</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="28">
+        <f t="shared" si="0"/>
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E36" s="12">
         <f t="shared" si="1"/>
-        <v>-62776.72000000102</v>
-      </c>
-      <c r="E36" s="12">
+        <v>-7.8647857679780775E-2</v>
+      </c>
+      <c r="F36" s="30">
         <f t="shared" si="2"/>
-        <v>-7.8647857679780775E-2</v>
-      </c>
-      <c r="F36" s="18">
-        <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-      <c r="G36" s="23">
+        <v>15</v>
+      </c>
+      <c r="G36" s="21">
         <v>898700</v>
       </c>
       <c r="H36" s="13">
         <v>740966.94999999902</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="32">
         <f t="shared" si="3"/>
         <v>-157733.05000000098</v>
       </c>
@@ -4020,26 +5286,26 @@
         <f t="shared" si="4"/>
         <v>-0.17551246244575608</v>
       </c>
-      <c r="K36" s="77">
-        <f t="shared" ref="K36:K52" si="10">RANK(J36,J36:J86)</f>
+      <c r="K36" s="75">
+        <f t="shared" ref="K36:K52" si="9">RANK(J36,J36:J86)</f>
         <v>17</v>
       </c>
-      <c r="L36" s="44">
+      <c r="L36" s="42">
         <v>878300</v>
       </c>
-      <c r="M36" s="45">
+      <c r="M36" s="43">
         <v>777215.28999999899</v>
       </c>
-      <c r="N36" s="45">
+      <c r="N36" s="43">
         <f t="shared" si="6"/>
         <v>-101084.71000000101</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="44">
         <f t="shared" si="7"/>
         <v>-0.11509132414892521</v>
       </c>
-      <c r="P36" s="47">
-        <f t="shared" ref="P36:P52" si="11">RANK(O36,O36:O86)</f>
+      <c r="P36" s="45">
+        <f t="shared" ref="P36:P52" si="10">RANK(O36,O36:O86)</f>
         <v>17</v>
       </c>
     </row>
@@ -4053,25 +5319,25 @@
       <c r="C37" s="11">
         <v>2005447.73999999</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="28">
+        <f t="shared" si="0"/>
+        <v>-82352.260000010021</v>
+      </c>
+      <c r="E37" s="12">
         <f t="shared" si="1"/>
-        <v>-82352.260000010021</v>
-      </c>
-      <c r="E37" s="12">
+        <v>-3.9444515758219188E-2</v>
+      </c>
+      <c r="F37" s="30">
         <f t="shared" si="2"/>
-        <v>-3.9444515758219188E-2</v>
-      </c>
-      <c r="F37" s="18">
-        <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="G37" s="23">
+        <v>13</v>
+      </c>
+      <c r="G37" s="21">
         <v>2229200</v>
       </c>
       <c r="H37" s="13">
         <v>2118943.21</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="32">
         <f t="shared" si="3"/>
         <v>-110256.79000000004</v>
       </c>
@@ -4079,26 +5345,26 @@
         <f t="shared" si="4"/>
         <v>-4.9460250314014013E-2</v>
       </c>
-      <c r="K37" s="77">
-        <f t="shared" si="10"/>
+      <c r="K37" s="75">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="L37" s="44">
+      <c r="L37" s="42">
         <v>2296900</v>
       </c>
-      <c r="M37" s="45">
+      <c r="M37" s="43">
         <v>2108718.34</v>
       </c>
-      <c r="N37" s="45">
+      <c r="N37" s="43">
         <f t="shared" si="6"/>
         <v>-188181.66000000015</v>
       </c>
-      <c r="O37" s="46">
+      <c r="O37" s="44">
         <f t="shared" si="7"/>
         <v>-8.1928538464887526E-2</v>
       </c>
-      <c r="P37" s="47">
-        <f t="shared" si="11"/>
+      <c r="P37" s="45">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
@@ -4112,25 +5378,25 @@
       <c r="C38" s="11">
         <v>838669.82</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="28">
+        <f t="shared" si="0"/>
+        <v>-16630.180000000051</v>
+      </c>
+      <c r="E38" s="12">
         <f t="shared" si="1"/>
-        <v>-16630.180000000051</v>
-      </c>
-      <c r="E38" s="12">
+        <v>-1.9443680579913542E-2</v>
+      </c>
+      <c r="F38" s="30">
         <f t="shared" si="2"/>
-        <v>-1.9443680579913542E-2</v>
-      </c>
-      <c r="F38" s="18">
-        <f t="shared" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="G38" s="23">
+        <v>9</v>
+      </c>
+      <c r="G38" s="21">
         <v>792800</v>
       </c>
       <c r="H38" s="13">
         <v>753451.96</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="32">
         <f t="shared" si="3"/>
         <v>-39348.040000000037</v>
       </c>
@@ -4138,26 +5404,26 @@
         <f t="shared" si="4"/>
         <v>-4.9631735620585316E-2</v>
       </c>
-      <c r="K38" s="77">
-        <f t="shared" si="10"/>
+      <c r="K38" s="75">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="L38" s="44">
+      <c r="L38" s="42">
         <v>777800</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M38" s="43">
         <v>777663.26</v>
       </c>
-      <c r="N38" s="45">
+      <c r="N38" s="43">
         <f t="shared" si="6"/>
         <v>-136.73999999999069</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="44">
         <f t="shared" si="7"/>
         <v>-1.7580354847003174E-4</v>
       </c>
-      <c r="P38" s="47">
-        <f t="shared" si="11"/>
+      <c r="P38" s="45">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -4171,25 +5437,25 @@
       <c r="C39" s="11">
         <v>813108.87</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="28">
+        <f t="shared" si="0"/>
+        <v>-70791.13</v>
+      </c>
+      <c r="E39" s="12">
         <f t="shared" si="1"/>
-        <v>-70791.13</v>
-      </c>
-      <c r="E39" s="12">
+        <v>-8.008952370177623E-2</v>
+      </c>
+      <c r="F39" s="30">
         <f t="shared" si="2"/>
-        <v>-8.008952370177623E-2</v>
-      </c>
-      <c r="F39" s="18">
-        <f t="shared" si="9"/>
-        <v>44</v>
-      </c>
-      <c r="G39" s="23">
+        <v>13</v>
+      </c>
+      <c r="G39" s="21">
         <v>1294400</v>
       </c>
       <c r="H39" s="13">
         <v>1114242.27999999</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="32">
         <f t="shared" si="3"/>
         <v>-180157.72000000998</v>
       </c>
@@ -4197,26 +5463,26 @@
         <f t="shared" si="4"/>
         <v>-0.13918241656366656</v>
       </c>
-      <c r="K39" s="77">
-        <f t="shared" si="10"/>
+      <c r="K39" s="75">
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L39" s="44">
+      <c r="L39" s="42">
         <v>1759500</v>
       </c>
-      <c r="M39" s="45">
+      <c r="M39" s="43">
         <v>1680463.8699999901</v>
       </c>
-      <c r="N39" s="45">
+      <c r="N39" s="43">
         <f t="shared" si="6"/>
         <v>-79036.1300000099</v>
       </c>
-      <c r="O39" s="46">
+      <c r="O39" s="44">
         <f t="shared" si="7"/>
         <v>-4.4919653310605226E-2</v>
       </c>
-      <c r="P39" s="47">
-        <f t="shared" si="11"/>
+      <c r="P39" s="45">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
@@ -4230,25 +5496,25 @@
       <c r="C40" s="11">
         <v>37565141.859999903</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="28">
+        <f t="shared" si="0"/>
+        <v>-816758.14000009745</v>
+      </c>
+      <c r="E40" s="12">
         <f t="shared" si="1"/>
-        <v>-816758.14000009745</v>
-      </c>
-      <c r="E40" s="12">
+        <v>-2.1279773539092578E-2</v>
+      </c>
+      <c r="F40" s="30">
         <f t="shared" si="2"/>
-        <v>-2.1279773539092578E-2</v>
-      </c>
-      <c r="F40" s="18">
-        <f t="shared" si="9"/>
-        <v>29</v>
-      </c>
-      <c r="G40" s="23">
+        <v>10</v>
+      </c>
+      <c r="G40" s="21">
         <v>39964900</v>
       </c>
       <c r="H40" s="13">
         <v>38095240.189999901</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40" s="32">
         <f t="shared" si="3"/>
         <v>-1869659.8100000992</v>
       </c>
@@ -4256,26 +5522,26 @@
         <f t="shared" si="4"/>
         <v>-4.6782546934937892E-2</v>
       </c>
-      <c r="K40" s="77">
-        <f t="shared" si="10"/>
+      <c r="K40" s="75">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="L40" s="44">
+      <c r="L40" s="42">
         <v>40216700</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M40" s="43">
         <v>39606263.709999897</v>
       </c>
-      <c r="N40" s="45">
+      <c r="N40" s="43">
         <f t="shared" si="6"/>
         <v>-610436.29000010341</v>
       </c>
-      <c r="O40" s="46">
+      <c r="O40" s="44">
         <f t="shared" si="7"/>
         <v>-1.5178676768608648E-2</v>
       </c>
-      <c r="P40" s="47">
-        <f t="shared" si="11"/>
+      <c r="P40" s="45">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
@@ -4289,25 +5555,25 @@
       <c r="C41" s="11">
         <v>4409060.2099999897</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="28">
+        <f t="shared" si="0"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="E41" s="12">
         <f t="shared" si="1"/>
-        <v>-184239.79000001028</v>
-      </c>
-      <c r="E41" s="12">
+        <v>-4.0110550149132493E-2</v>
+      </c>
+      <c r="F41" s="30">
         <f t="shared" si="2"/>
-        <v>-4.0110550149132493E-2</v>
-      </c>
-      <c r="F41" s="18">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="G41" s="23">
+        <v>12</v>
+      </c>
+      <c r="G41" s="21">
         <v>5089500</v>
       </c>
       <c r="H41" s="13">
         <v>4956043.6699999897</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="32">
         <f t="shared" si="3"/>
         <v>-133456.33000001032</v>
       </c>
@@ -4315,26 +5581,26 @@
         <f t="shared" si="4"/>
         <v>-2.6221894095689226E-2</v>
       </c>
-      <c r="K41" s="77">
-        <f t="shared" si="10"/>
+      <c r="K41" s="75">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="L41" s="44">
+      <c r="L41" s="42">
         <v>4799900</v>
       </c>
-      <c r="M41" s="45">
+      <c r="M41" s="43">
         <v>4717822.6500000004</v>
       </c>
-      <c r="N41" s="45">
+      <c r="N41" s="43">
         <f t="shared" si="6"/>
         <v>-82077.349999999627</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="44">
         <f t="shared" si="7"/>
         <v>-1.7099804162586642E-2</v>
       </c>
-      <c r="P41" s="47">
-        <f t="shared" si="11"/>
+      <c r="P41" s="45">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
@@ -4348,25 +5614,25 @@
       <c r="C42" s="11">
         <v>188551675.67999899</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="28">
+        <f t="shared" si="0"/>
+        <v>-41624.320001006126</v>
+      </c>
+      <c r="E42" s="12">
         <f t="shared" si="1"/>
-        <v>-41624.320001006126</v>
-      </c>
-      <c r="E42" s="12">
+        <v>-2.2070943135841053E-4</v>
+      </c>
+      <c r="F42" s="30">
         <f t="shared" si="2"/>
-        <v>-2.2070943135841053E-4</v>
-      </c>
-      <c r="F42" s="18">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="G42" s="23">
+        <v>4</v>
+      </c>
+      <c r="G42" s="21">
         <v>199130300</v>
       </c>
       <c r="H42" s="13">
         <v>196755033.31</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="32">
         <f t="shared" si="3"/>
         <v>-2375266.6899999976</v>
       </c>
@@ -4374,26 +5640,26 @@
         <f t="shared" si="4"/>
         <v>-1.1928203241796942E-2</v>
       </c>
-      <c r="K42" s="77">
-        <f t="shared" si="10"/>
+      <c r="K42" s="75">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="L42" s="44">
+      <c r="L42" s="42">
         <v>199954600</v>
       </c>
-      <c r="M42" s="45">
+      <c r="M42" s="43">
         <v>199954563.74999899</v>
       </c>
-      <c r="N42" s="45">
+      <c r="N42" s="43">
         <f t="shared" si="6"/>
         <v>-36.250001013278961</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="44">
         <f t="shared" si="7"/>
         <v>-1.8129115815929696E-7</v>
       </c>
-      <c r="P42" s="47">
-        <f t="shared" si="11"/>
+      <c r="P42" s="45">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -4407,25 +5673,25 @@
       <c r="C43" s="11">
         <v>7968645.8300000001</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="28">
+        <f t="shared" si="0"/>
+        <v>-166754.16999999993</v>
+      </c>
+      <c r="E43" s="12">
         <f t="shared" si="1"/>
-        <v>-166754.16999999993</v>
-      </c>
-      <c r="E43" s="12">
+        <v>-2.0497353541313264E-2</v>
+      </c>
+      <c r="F43" s="30">
         <f t="shared" si="2"/>
-        <v>-2.0497353541313264E-2</v>
-      </c>
-      <c r="F43" s="18">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="G43" s="23">
+        <v>9</v>
+      </c>
+      <c r="G43" s="21">
         <v>8560800</v>
       </c>
       <c r="H43" s="13">
         <v>8171472.0199999996</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="32">
         <f t="shared" si="3"/>
         <v>-389327.98000000045</v>
       </c>
@@ -4433,26 +5699,26 @@
         <f t="shared" si="4"/>
         <v>-4.5477990374731388E-2</v>
       </c>
-      <c r="K43" s="77">
-        <f t="shared" si="10"/>
+      <c r="K43" s="75">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="L43" s="44">
+      <c r="L43" s="42">
         <v>8497500</v>
       </c>
-      <c r="M43" s="45">
+      <c r="M43" s="43">
         <v>8150982.5699999901</v>
       </c>
-      <c r="N43" s="45">
+      <c r="N43" s="43">
         <f t="shared" si="6"/>
         <v>-346517.43000000995</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="44">
         <f t="shared" si="7"/>
         <v>-4.0778750220654303E-2</v>
       </c>
-      <c r="P43" s="47">
-        <f t="shared" si="11"/>
+      <c r="P43" s="45">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -4466,25 +5732,25 @@
       <c r="C44" s="11">
         <v>29789104.379999999</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="28">
+        <f t="shared" si="0"/>
+        <v>-294095.62000000104</v>
+      </c>
+      <c r="E44" s="12">
         <f t="shared" si="1"/>
-        <v>-294095.62000000104</v>
-      </c>
-      <c r="E44" s="12">
+        <v>-9.7760750186150751E-3</v>
+      </c>
+      <c r="F44" s="30">
         <f t="shared" si="2"/>
-        <v>-9.7760750186150751E-3</v>
-      </c>
-      <c r="F44" s="18">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="G44" s="23">
+        <v>5</v>
+      </c>
+      <c r="G44" s="21">
         <v>31040700</v>
       </c>
       <c r="H44" s="13">
         <v>30793711.48</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="32">
         <f t="shared" si="3"/>
         <v>-246988.51999999955</v>
       </c>
@@ -4492,26 +5758,26 @@
         <f t="shared" si="4"/>
         <v>-7.9569249404813532E-3</v>
       </c>
-      <c r="K44" s="77">
-        <f t="shared" si="10"/>
+      <c r="K44" s="75">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="L44" s="44">
+      <c r="L44" s="42">
         <v>31282200</v>
       </c>
-      <c r="M44" s="45">
+      <c r="M44" s="43">
         <v>31282141.25</v>
       </c>
-      <c r="N44" s="45">
+      <c r="N44" s="43">
         <f t="shared" si="6"/>
         <v>-58.75</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="44">
         <f t="shared" si="7"/>
         <v>-1.8780648419868168E-6</v>
       </c>
-      <c r="P44" s="47">
-        <f t="shared" si="11"/>
+      <c r="P44" s="45">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -4525,25 +5791,25 @@
       <c r="C45" s="11">
         <v>54589584.0499999</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="28">
+        <f t="shared" si="0"/>
+        <v>-712015.95000009984</v>
+      </c>
+      <c r="E45" s="12">
         <f t="shared" si="1"/>
-        <v>-712015.95000009984</v>
-      </c>
-      <c r="E45" s="12">
+        <v>-1.287514194887851E-2</v>
+      </c>
+      <c r="F45" s="30">
         <f t="shared" si="2"/>
-        <v>-1.287514194887851E-2</v>
-      </c>
-      <c r="F45" s="18">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="G45" s="23">
+        <v>6</v>
+      </c>
+      <c r="G45" s="21">
         <v>56792200</v>
       </c>
       <c r="H45" s="13">
         <v>54594953.959999897</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="32">
         <f t="shared" si="3"/>
         <v>-2197246.0400001034</v>
       </c>
@@ -4551,26 +5817,26 @@
         <f t="shared" si="4"/>
         <v>-3.8689222111488959E-2</v>
       </c>
-      <c r="K45" s="77">
-        <f t="shared" si="10"/>
+      <c r="K45" s="75">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="L45" s="44">
+      <c r="L45" s="42">
         <v>56027100</v>
       </c>
-      <c r="M45" s="45">
+      <c r="M45" s="43">
         <v>55386549.6599999</v>
       </c>
-      <c r="N45" s="45">
+      <c r="N45" s="43">
         <f t="shared" si="6"/>
         <v>-640550.34000010043</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="44">
         <f t="shared" si="7"/>
         <v>-1.1432866237947358E-2</v>
       </c>
-      <c r="P45" s="47">
-        <f t="shared" si="11"/>
+      <c r="P45" s="45">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -4584,25 +5850,25 @@
       <c r="C46" s="11">
         <v>258322.43</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="28">
+        <f t="shared" si="0"/>
+        <v>-777.57000000000698</v>
+      </c>
+      <c r="E46" s="12">
         <f t="shared" si="1"/>
-        <v>-777.57000000000698</v>
-      </c>
-      <c r="E46" s="12">
+        <v>-3.0010420686993711E-3</v>
+      </c>
+      <c r="F46" s="30">
         <f t="shared" si="2"/>
-        <v>-3.0010420686993711E-3</v>
-      </c>
-      <c r="F46" s="18">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="G46" s="23">
+        <v>4</v>
+      </c>
+      <c r="G46" s="21">
         <v>266000</v>
       </c>
       <c r="H46" s="13">
         <v>257402.90999999901</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="32">
         <f t="shared" si="3"/>
         <v>-8597.090000000986</v>
       </c>
@@ -4610,26 +5876,26 @@
         <f t="shared" si="4"/>
         <v>-3.2319887218048821E-2</v>
       </c>
-      <c r="K46" s="77">
-        <f t="shared" si="10"/>
+      <c r="K46" s="75">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="L46" s="44">
+      <c r="L46" s="42">
         <v>267100</v>
       </c>
-      <c r="M46" s="45">
+      <c r="M46" s="43">
         <v>254753.15999999901</v>
       </c>
-      <c r="N46" s="45">
+      <c r="N46" s="43">
         <f t="shared" si="6"/>
         <v>-12346.840000000986</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="44">
         <f t="shared" si="7"/>
         <v>-4.6225533508053113E-2</v>
       </c>
-      <c r="P46" s="47">
-        <f t="shared" si="11"/>
+      <c r="P46" s="45">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -4643,25 +5909,25 @@
       <c r="C47" s="11">
         <v>70378426.719999999</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="28">
+        <f t="shared" si="0"/>
+        <v>-12273.280000001192</v>
+      </c>
+      <c r="E47" s="12">
         <f t="shared" si="1"/>
-        <v>-12273.280000001192</v>
-      </c>
-      <c r="E47" s="12">
+        <v>-1.7435939690898361E-4</v>
+      </c>
+      <c r="F47" s="30">
         <f t="shared" si="2"/>
-        <v>-1.7435939690898361E-4</v>
-      </c>
-      <c r="F47" s="18">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="G47" s="23">
+        <v>3</v>
+      </c>
+      <c r="G47" s="21">
         <v>73467000</v>
       </c>
       <c r="H47" s="13">
         <v>73442541.659999996</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="32">
         <f t="shared" si="3"/>
         <v>-24458.340000003576</v>
       </c>
@@ -4669,26 +5935,26 @@
         <f t="shared" si="4"/>
         <v>-3.3291600310348285E-4</v>
       </c>
-      <c r="K47" s="77">
-        <f t="shared" si="10"/>
+      <c r="K47" s="75">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="L47" s="44">
+      <c r="L47" s="42">
         <v>75072800</v>
       </c>
-      <c r="M47" s="45">
+      <c r="M47" s="43">
         <v>75050829.179999903</v>
       </c>
-      <c r="N47" s="45">
+      <c r="N47" s="43">
         <f t="shared" si="6"/>
         <v>-21970.820000097156</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="44">
         <f t="shared" si="7"/>
         <v>-2.9266019117572752E-4</v>
       </c>
-      <c r="P47" s="47">
-        <f t="shared" si="11"/>
+      <c r="P47" s="45">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -4702,25 +5968,25 @@
       <c r="C48" s="11">
         <v>6527352.5699999901</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="28">
+        <f t="shared" si="0"/>
+        <v>-209747.43000000995</v>
+      </c>
+      <c r="E48" s="12">
         <f t="shared" si="1"/>
-        <v>-209747.43000000995</v>
-      </c>
-      <c r="E48" s="12">
+        <v>-3.1133192323107857E-2</v>
+      </c>
+      <c r="F48" s="30">
         <f t="shared" si="2"/>
-        <v>-3.1133192323107857E-2</v>
-      </c>
-      <c r="F48" s="18">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="G48" s="23">
+        <v>6</v>
+      </c>
+      <c r="G48" s="21">
         <v>7214700</v>
       </c>
       <c r="H48" s="13">
         <v>6922072.5599999996</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="32">
         <f t="shared" si="3"/>
         <v>-292627.44000000041</v>
       </c>
@@ -4728,26 +5994,26 @@
         <f t="shared" si="4"/>
         <v>-4.0559890224125802E-2</v>
       </c>
-      <c r="K48" s="77">
-        <f t="shared" si="10"/>
+      <c r="K48" s="75">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="L48" s="44">
+      <c r="L48" s="42">
         <v>7289800</v>
       </c>
-      <c r="M48" s="45">
+      <c r="M48" s="43">
         <v>6882350.23999999</v>
       </c>
-      <c r="N48" s="45">
+      <c r="N48" s="43">
         <f t="shared" si="6"/>
         <v>-407449.76000001002</v>
       </c>
-      <c r="O48" s="46">
+      <c r="O48" s="44">
         <f t="shared" si="7"/>
         <v>-5.5893132870587676E-2</v>
       </c>
-      <c r="P48" s="47">
-        <f t="shared" si="11"/>
+      <c r="P48" s="45">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -4761,25 +6027,25 @@
       <c r="C49" s="11">
         <v>90499.43</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="28">
+        <f t="shared" si="0"/>
+        <v>-1700.570000000007</v>
+      </c>
+      <c r="E49" s="12">
         <f t="shared" si="1"/>
-        <v>-1700.570000000007</v>
-      </c>
-      <c r="E49" s="12">
+        <v>-1.8444360086767971E-2</v>
+      </c>
+      <c r="F49" s="30">
         <f t="shared" si="2"/>
-        <v>-1.8444360086767971E-2</v>
-      </c>
-      <c r="F49" s="18">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="G49" s="23">
+        <v>4</v>
+      </c>
+      <c r="G49" s="21">
         <v>102600</v>
       </c>
       <c r="H49" s="13">
         <v>95466.880000000005</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="32">
         <f t="shared" si="3"/>
         <v>-7133.1199999999953</v>
       </c>
@@ -4787,26 +6053,26 @@
         <f t="shared" si="4"/>
         <v>-6.9523586744639335E-2</v>
       </c>
-      <c r="K49" s="77">
-        <f t="shared" si="10"/>
+      <c r="K49" s="75">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="L49" s="44">
+      <c r="L49" s="42">
         <v>0</v>
       </c>
-      <c r="M49" s="45">
+      <c r="M49" s="43">
         <v>0</v>
       </c>
-      <c r="N49" s="45">
+      <c r="N49" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P49" s="47">
-        <f t="shared" si="11"/>
+      <c r="P49" s="45">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -4820,25 +6086,25 @@
       <c r="C50" s="11">
         <v>832600</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E50" s="12">
+      <c r="F50" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="18">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G50" s="23">
+        <v>1</v>
+      </c>
+      <c r="G50" s="21">
         <v>859100</v>
       </c>
       <c r="H50" s="13">
         <v>859100</v>
       </c>
-      <c r="I50" s="34">
+      <c r="I50" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4846,26 +6112,26 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K50" s="77">
-        <f t="shared" si="10"/>
+      <c r="K50" s="75">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L50" s="44">
+      <c r="L50" s="42">
         <v>843200</v>
       </c>
-      <c r="M50" s="45">
+      <c r="M50" s="43">
         <v>843200</v>
       </c>
-      <c r="N50" s="45">
+      <c r="N50" s="43">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O50" s="46">
+      <c r="O50" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P50" s="47">
-        <f t="shared" si="11"/>
+      <c r="P50" s="45">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -4879,25 +6145,25 @@
       <c r="C51" s="11">
         <v>8499425.3399999905</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="28">
+        <f t="shared" si="0"/>
+        <v>-110074.66000000946</v>
+      </c>
+      <c r="E51" s="12">
         <f t="shared" si="1"/>
-        <v>-110074.66000000946</v>
-      </c>
-      <c r="E51" s="12">
+        <v>-1.2785255822058129E-2</v>
+      </c>
+      <c r="F51" s="30">
         <f t="shared" si="2"/>
-        <v>-1.2785255822058129E-2</v>
-      </c>
-      <c r="F51" s="18">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="G51" s="23">
+        <v>2</v>
+      </c>
+      <c r="G51" s="21">
         <v>8925500</v>
       </c>
       <c r="H51" s="13">
         <v>8599059.6199999992</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="32">
         <f t="shared" si="3"/>
         <v>-326440.38000000082</v>
       </c>
@@ -4905,26 +6171,26 @@
         <f t="shared" si="4"/>
         <v>-3.6573903982970231E-2</v>
       </c>
-      <c r="K51" s="77">
-        <f t="shared" si="10"/>
+      <c r="K51" s="75">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L51" s="44">
+      <c r="L51" s="42">
         <v>8833900</v>
       </c>
-      <c r="M51" s="45">
+      <c r="M51" s="43">
         <v>8735843.3100000005</v>
       </c>
-      <c r="N51" s="45">
+      <c r="N51" s="43">
         <f t="shared" si="6"/>
         <v>-98056.689999999478</v>
       </c>
-      <c r="O51" s="46">
+      <c r="O51" s="44">
         <f t="shared" si="7"/>
         <v>-1.1100045280114048E-2</v>
       </c>
-      <c r="P51" s="47">
-        <f t="shared" si="11"/>
+      <c r="P51" s="45">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -4932,86 +6198,86 @@
       <c r="A52" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="18">
         <v>2451000</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="19">
         <v>2254684.7999999998</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="28">
+        <f t="shared" si="0"/>
+        <v>-196315.20000000019</v>
+      </c>
+      <c r="E52" s="20">
         <f t="shared" si="1"/>
-        <v>-196315.20000000019</v>
-      </c>
-      <c r="E52" s="21">
+        <v>-8.009596083231342E-2</v>
+      </c>
+      <c r="F52" s="30">
         <f t="shared" si="2"/>
-        <v>-8.009596083231342E-2</v>
-      </c>
-      <c r="F52" s="22">
-        <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="G52" s="24">
+        <v>4</v>
+      </c>
+      <c r="G52" s="22">
         <v>2440700</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="23">
         <v>2204672.88</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="32">
         <f t="shared" si="3"/>
         <v>-236027.12000000011</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J52" s="24">
         <f t="shared" si="4"/>
         <v>-9.6704683082722218E-2</v>
       </c>
-      <c r="K52" s="78">
+      <c r="K52" s="76">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L52" s="46">
+        <v>2321600</v>
+      </c>
+      <c r="M52" s="47">
+        <v>2056835.26</v>
+      </c>
+      <c r="N52" s="47">
+        <f t="shared" si="6"/>
+        <v>-264764.74</v>
+      </c>
+      <c r="O52" s="48">
+        <f t="shared" si="7"/>
+        <v>-0.11404408166781529</v>
+      </c>
+      <c r="P52" s="49">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L52" s="48">
-        <v>2321600</v>
-      </c>
-      <c r="M52" s="49">
-        <v>2056835.26</v>
-      </c>
-      <c r="N52" s="49">
-        <f t="shared" si="6"/>
-        <v>-264764.74</v>
-      </c>
-      <c r="O52" s="50">
-        <f t="shared" si="7"/>
-        <v>-0.11404408166781529</v>
-      </c>
-      <c r="P52" s="51">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="60"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="58"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="D55" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="11">
@@ -5019,124 +6285,124 @@
         <v>-36209.630000000005</v>
       </c>
       <c r="C56" s="13">
-        <f t="shared" ref="C56:D61" si="12">VLOOKUP($A56,$A$2:$P$52,MATCH(C$55,$A$1:$P$1,0),0)</f>
+        <f t="shared" ref="C56:D61" si="11">VLOOKUP($A56,$A$2:$P$52,MATCH(C$55,$A$1:$P$1,0),0)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="45">
+        <f t="shared" si="11"/>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="11">
+        <f t="shared" ref="B57:B61" si="12">VLOOKUP($A57,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="45">
+        <f t="shared" si="11"/>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="11">
         <f t="shared" si="12"/>
-        <v>-9181.0800000000163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="11">
-        <f t="shared" ref="B57:B61" si="13">VLOOKUP($A57,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="13">
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58" s="13">
+        <f t="shared" si="11"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D58" s="45">
+        <f t="shared" si="11"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="47">
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C59" s="13">
+        <f t="shared" si="11"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D59" s="45">
+        <f t="shared" si="11"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="11">
         <f t="shared" si="12"/>
-        <v>-311228.08999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="11">
-        <f t="shared" si="13"/>
-        <v>-149396.10000000987</v>
-      </c>
-      <c r="C58" s="13">
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C60" s="13">
+        <f t="shared" si="11"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D60" s="45">
+        <f t="shared" si="11"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="19">
         <f t="shared" si="12"/>
-        <v>-189254.06000000006</v>
-      </c>
-      <c r="D58" s="47">
-        <f t="shared" si="12"/>
-        <v>-374962.91000000015</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="11">
-        <f t="shared" si="13"/>
-        <v>-12230.810000000056</v>
-      </c>
-      <c r="C59" s="13">
-        <f t="shared" si="12"/>
-        <v>-45485.580000000075</v>
-      </c>
-      <c r="D59" s="47">
-        <f t="shared" si="12"/>
-        <v>-72.879999999888241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="11">
-        <f t="shared" si="13"/>
-        <v>-4950.4699999999721</v>
-      </c>
-      <c r="C60" s="13">
-        <f t="shared" si="12"/>
-        <v>-8005.7900000010268</v>
-      </c>
-      <c r="D60" s="47">
-        <f t="shared" si="12"/>
-        <v>-1724.9000000000233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="20">
-        <f t="shared" si="13"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C61" s="25">
-        <f t="shared" si="12"/>
+      <c r="C61" s="23">
+        <f t="shared" si="11"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D61" s="51">
-        <f t="shared" si="12"/>
+      <c r="D61" s="49">
+        <f t="shared" si="11"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="60"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="58"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="57" t="s">
+      <c r="D64" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="40" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="11" cm="1">
@@ -5147,14 +6413,13 @@
         <f t="array" ref="C65">_xlfn.XLOOKUP($A65,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D65" s="47" cm="1">
+      <c r="D65" s="45" cm="1">
         <f t="array" ref="D65">_xlfn.XLOOKUP($A65,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-9181.0800000000163</v>
       </c>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="40" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B66" s="11" cm="1">
@@ -5165,13 +6430,13 @@
         <f t="array" ref="C66">_xlfn.XLOOKUP($A66,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="47" cm="1">
+      <c r="D66" s="45" cm="1">
         <f t="array" ref="D66">_xlfn.XLOOKUP($A66,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-311228.08999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="40" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="11" cm="1">
@@ -5182,13 +6447,13 @@
         <f t="array" ref="C67">_xlfn.XLOOKUP($A67,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D67" s="47" cm="1">
+      <c r="D67" s="45" cm="1">
         <f t="array" ref="D67">_xlfn.XLOOKUP($A67,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-374962.91000000015</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="40" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="38" t="s">
         <v>38</v>
       </c>
       <c r="B68" s="11" cm="1">
@@ -5199,13 +6464,13 @@
         <f t="array" ref="C68">_xlfn.XLOOKUP($A68,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D68" s="47" cm="1">
+      <c r="D68" s="45" cm="1">
         <f t="array" ref="D68">_xlfn.XLOOKUP($A68,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-72.879999999888241</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="40" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="38" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="11" cm="1">
@@ -5216,53 +6481,53 @@
         <f t="array" ref="C69">_xlfn.XLOOKUP($A69,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D69" s="47" cm="1">
+      <c r="D69" s="45" cm="1">
         <f t="array" ref="D69">_xlfn.XLOOKUP($A69,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-1724.9000000000233</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="41" t="s">
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="20" cm="1">
+      <c r="B70" s="19" cm="1">
         <f t="array" ref="B70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C70" s="25" cm="1">
+      <c r="C70" s="23" cm="1">
         <f t="array" ref="C70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D70" s="51" cm="1">
+      <c r="D70" s="49" cm="1">
         <f t="array" ref="D70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-82077.349999999627</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="58" t="s">
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="60"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="56" t="s">
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="58"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="40" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B74" s="11">
@@ -5270,315 +6535,357 @@
         <v>-36209.630000000005</v>
       </c>
       <c r="C74" s="13">
-        <f t="shared" ref="C74:D79" si="14">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
+        <f t="shared" ref="C74:D79" si="13">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D74" s="47">
+      <c r="D74" s="45">
+        <f t="shared" si="13"/>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="11">
+        <f t="shared" ref="B75:B79" si="14">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="45">
+        <f t="shared" si="13"/>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="11">
         <f t="shared" si="14"/>
-        <v>-9181.0800000000163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="11">
-        <f t="shared" ref="B75:B79" si="15">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76" s="13">
+        <f t="shared" si="13"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76" s="45">
+        <f t="shared" si="13"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="11">
+        <f t="shared" si="14"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77" s="13">
+        <f t="shared" si="13"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77" s="45">
+        <f t="shared" si="13"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="11">
+        <f t="shared" si="14"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78" s="13">
+        <f t="shared" si="13"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78" s="45">
+        <f t="shared" si="13"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="19">
+        <f t="shared" si="14"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79" s="13">
+        <f t="shared" si="13"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79" s="45">
+        <f t="shared" si="13"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="63"/>
+      <c r="C81" s="64"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="13">
-        <f t="shared" si="14"/>
+      <c r="B82" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="55"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="38"/>
+      <c r="B83" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="59">
+        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",B$83),$A$1:$P$1,0))</f>
+        <v>70390700</v>
+      </c>
+      <c r="C84" s="60">
+        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",C$83),$A$1:$P$1,0))</f>
+        <v>70378426.719999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="59">
+        <f t="shared" ref="B85:C86" si="15">INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A85,"_",B$83),$A$1:$P$1,0))</f>
+        <v>73467000</v>
+      </c>
+      <c r="C85" s="60">
+        <f t="shared" si="15"/>
+        <v>73442541.659999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="80">
+        <f t="shared" si="15"/>
+        <v>75072800</v>
+      </c>
+      <c r="C86" s="61">
+        <f t="shared" si="15"/>
+        <v>75050829.179999903</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="72"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="74"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="64"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="65">
+        <v>1</v>
+      </c>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65">
+        <v>2</v>
+      </c>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65">
+        <v>3</v>
+      </c>
+      <c r="G89" s="67"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="54"/>
+      <c r="B90" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="47">
-        <f t="shared" si="14"/>
-        <v>-311228.08999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="11">
-        <f t="shared" si="15"/>
-        <v>-149396.10000000987</v>
-      </c>
-      <c r="C76" s="13">
-        <f t="shared" si="14"/>
-        <v>-189254.06000000006</v>
-      </c>
-      <c r="D76" s="47">
-        <f t="shared" si="14"/>
-        <v>-374962.91000000015</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="11">
-        <f t="shared" si="15"/>
-        <v>-12230.810000000056</v>
-      </c>
-      <c r="C77" s="13">
-        <f t="shared" si="14"/>
-        <v>-45485.580000000075</v>
-      </c>
-      <c r="D77" s="47">
-        <f t="shared" si="14"/>
-        <v>-72.879999999888241</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="11">
-        <f t="shared" si="15"/>
-        <v>-4950.4699999999721</v>
-      </c>
-      <c r="C78" s="13">
-        <f t="shared" si="14"/>
-        <v>-8005.7900000010268</v>
-      </c>
-      <c r="D78" s="47">
-        <f t="shared" si="14"/>
-        <v>-1724.9000000000233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="20">
-        <f t="shared" si="15"/>
-        <v>-184239.79000001028</v>
-      </c>
-      <c r="C79" s="13">
-        <f t="shared" si="14"/>
-        <v>-133456.33000001032</v>
-      </c>
-      <c r="D79" s="47">
-        <f t="shared" si="14"/>
-        <v>-82077.349999999627</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="66"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="56" t="s">
+      <c r="C90" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="57"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="40"/>
-      <c r="B83" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="40" t="s">
+      <c r="E90" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="61">
-        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",B$83),$A$1:$P$1,0))</f>
-        <v>6737100</v>
-      </c>
-      <c r="C84" s="62">
-        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",C$83),$A$1:$P$1,0))</f>
-        <v>6527352.5699999901</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="40" t="s">
+      <c r="B91" s="81" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="B91" ca="1">_xlfn.XLOOKUP(INDEX(_xleta.MAX,(MATCH(_xlfn.CONCAT(A91,"_","rank"),A1:P1,0)),F2:F52,A2:A52),"not found",0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C91" s="9">
+        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$E$2:$E$52)</f>
+        <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="D91" s="81" t="str">
+        <f>_xlfn.XLOOKUP(D$89,$F$2:$F$52,$A$2:$A$52)</f>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="E91" s="9">
+        <f>_xlfn.XLOOKUP(D$89,$F$2:$F$52,$E$2:$E$52)</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="8" t="str">
+        <f>_xlfn.XLOOKUP(F$89,$F$2:$F$52,$A$2:$A$52)</f>
+        <v>Sheriff</v>
+      </c>
+      <c r="G91" s="82">
+        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$E$2:$E$52)</f>
+        <v>3.1837408866824991E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="61">
-        <f t="shared" ref="B85:C86" si="16">INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A85,"_",B$83),$A$1:$P$1,0))</f>
-        <v>7214700</v>
-      </c>
-      <c r="C85" s="62">
-        <f t="shared" si="16"/>
-        <v>6922072.5599999996</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="41" t="s">
+      <c r="B92" s="81" t="str">
+        <f>_xlfn.XLOOKUP(B$89,$K$2:$K$52,$A$2:$A$52)</f>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C92" s="9">
+        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$J$2:$J$52)</f>
+        <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="D92" s="81" t="str">
+        <f>_xlfn.XLOOKUP(D$89,$K$2:$K$52,$A$2:$A$52)</f>
+        <v>Sheriff</v>
+      </c>
+      <c r="E92" s="9">
+        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$J$2:$J$52)</f>
+        <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="68"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="82">
-        <f t="shared" si="16"/>
-        <v>7289800</v>
-      </c>
-      <c r="C86" s="63">
-        <f t="shared" si="16"/>
-        <v>6882350.23999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="74"/>
-      <c r="B87" s="75"/>
-      <c r="C87" s="76"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="66"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B89" s="67">
-        <v>1</v>
-      </c>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67">
-        <v>2</v>
-      </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67">
-        <v>3</v>
-      </c>
-      <c r="G89" s="69"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="56"/>
-      <c r="B90" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="F90" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="G90" s="73" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="70"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="70"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="71"/>
+      <c r="B93" s="83" t="str">
+        <f>_xlfn.XLOOKUP(B$89,$P$2:$P$52,$A$2:$A$52)</f>
+        <v>Information Technology Service</v>
+      </c>
+      <c r="C93" s="41">
+        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$O$2:$O$52)</f>
+        <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="D93" s="83" t="e">
+        <f>_xlfn.XLOOKUP(D$89,$P$2:$P$52,$A$2:$A$52)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E93" s="41">
+        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$O$2:$O$52)</f>
+        <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="F93" s="40"/>
+      <c r="G93" s="69"/>
     </row>
     <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="64" t="s">
+      <c r="A95" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="66"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="64"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="68" t="s">
+      <c r="A96" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="67">
+      <c r="B96" s="65">
         <v>1</v>
       </c>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67">
+      <c r="C96" s="65"/>
+      <c r="D96" s="65">
         <v>2</v>
       </c>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67">
+      <c r="E96" s="65"/>
+      <c r="F96" s="65">
         <v>3</v>
       </c>
-      <c r="G96" s="69"/>
+      <c r="G96" s="67"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="56"/>
-      <c r="B97" s="72" t="s">
+      <c r="A97" s="54"/>
+      <c r="B97" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="72" t="s">
+      <c r="C97" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D97" s="72" t="s">
+      <c r="D97" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="72" t="s">
+      <c r="E97" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="72" t="s">
+      <c r="F97" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G97" s="73" t="s">
+      <c r="G97" s="71" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="40" t="s">
+      <c r="A98" s="38" t="s">
         <v>73</v>
       </c>
       <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
+      <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="70"/>
+      <c r="G98" s="68"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="38" t="s">
         <v>74</v>
       </c>
       <c r="B99" s="8"/>
@@ -5586,19 +6893,19 @@
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
       <c r="F99" s="8"/>
-      <c r="G99" s="70"/>
+      <c r="G99" s="68"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="41" t="s">
+      <c r="A100" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="71"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="69"/>
       <c r="I100" s="3"/>
     </row>
   </sheetData>
@@ -5609,6 +6916,10 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E91" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/483805976292d47c/Documents/NSS/excel/da16-lookups-exercise-janvimehendale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="635" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A08BA3C-D3BD-4513-A16B-F01ED8A3B520}"/>
+  <xr:revisionPtr revIDLastSave="732" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D520A7CD-A4A3-4FB9-88FC-CDDB54A32572}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -52,25 +51,11 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
@@ -543,11 +528,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1349,7 +1336,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1445,9 +1432,6 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1597,7 +1581,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Sheriff</c:v>
+                  <c:v>Metropolitan Clerk</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Budget</c:v>
@@ -1701,13 +1685,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>70390700</c:v>
+                  <c:v>798200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73467000</c:v>
+                  <c:v>898700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75072800</c:v>
+                  <c:v>878300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,7 +1711,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Sheriff</c:v>
+                  <c:v>Metropolitan Clerk</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Actual</c:v>
@@ -1831,13 +1815,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>70378426.719999999</c:v>
+                  <c:v>735423.27999999898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73442541.659999996</c:v>
+                  <c:v>740966.94999999902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75050829.179999903</c:v>
+                  <c:v>777215.28999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2701,66 +2685,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>8</v>
-    <v>50</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3169,15 +3095,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
@@ -3322,7 +3248,7 @@
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F52" si="2">RANK(E3,E3:E53)</f>
+        <f t="shared" ref="F3:F51" si="2">RANK(E3,E3:E53)</f>
         <v>30</v>
       </c>
       <c r="G3" s="21">
@@ -5287,7 +5213,7 @@
         <v>-0.17551246244575608</v>
       </c>
       <c r="K36" s="75">
-        <f t="shared" ref="K36:K52" si="9">RANK(J36,J36:J86)</f>
+        <f t="shared" ref="K36:K51" si="9">RANK(J36,J36:J86)</f>
         <v>17</v>
       </c>
       <c r="L36" s="42">
@@ -5305,7 +5231,7 @@
         <v>-0.11509132414892521</v>
       </c>
       <c r="P36" s="45">
-        <f t="shared" ref="P36:P52" si="10">RANK(O36,O36:O86)</f>
+        <f t="shared" ref="P36:P51" si="10">RANK(O36,O36:O86)</f>
         <v>17</v>
       </c>
     </row>
@@ -5565,7 +5491,7 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="21">
         <v>5089500</v>
@@ -5624,7 +5550,7 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42" s="21">
         <v>199130300</v>
@@ -5683,7 +5609,7 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="21">
         <v>8560800</v>
@@ -5742,7 +5668,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="21">
         <v>31040700</v>
@@ -5801,7 +5727,7 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G45" s="21">
         <v>56792200</v>
@@ -5860,7 +5786,7 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G46" s="21">
         <v>266000</v>
@@ -5919,7 +5845,7 @@
       </c>
       <c r="F47" s="30">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="21">
         <v>73467000</v>
@@ -5978,7 +5904,7 @@
       </c>
       <c r="F48" s="30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G48" s="21">
         <v>7214700</v>
@@ -6037,7 +5963,7 @@
       </c>
       <c r="F49" s="30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G49" s="21">
         <v>102600</v>
@@ -6155,7 +6081,7 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="21">
         <v>8925500</v>
@@ -6213,8 +6139,8 @@
         <v>-8.009596083231342E-2</v>
       </c>
       <c r="F52" s="30">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>RANK(E52,E52:E101)</f>
+        <v>1</v>
       </c>
       <c r="G52" s="22">
         <v>2440700</v>
@@ -6231,7 +6157,7 @@
         <v>-9.6704683082722218E-2</v>
       </c>
       <c r="K52" s="76">
-        <f t="shared" si="9"/>
+        <f>RANK(J52,J52:J101)</f>
         <v>1</v>
       </c>
       <c r="L52" s="46">
@@ -6249,7 +6175,7 @@
         <v>-0.11404408166781529</v>
       </c>
       <c r="P52" s="49">
-        <f t="shared" si="10"/>
+        <f>RANK(O52,O52:O101)</f>
         <v>1</v>
       </c>
     </row>
@@ -6641,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C82" s="55"/>
     </row>
@@ -6660,11 +6586,11 @@
       </c>
       <c r="B84" s="59">
         <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",B$83),$A$1:$P$1,0))</f>
-        <v>70390700</v>
+        <v>798200</v>
       </c>
       <c r="C84" s="60">
         <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",C$83),$A$1:$P$1,0))</f>
-        <v>70378426.719999999</v>
+        <v>735423.27999999898</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -6673,11 +6599,11 @@
       </c>
       <c r="B85" s="59">
         <f t="shared" ref="B85:C86" si="15">INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A85,"_",B$83),$A$1:$P$1,0))</f>
-        <v>73467000</v>
+        <v>898700</v>
       </c>
       <c r="C85" s="60">
         <f t="shared" si="15"/>
-        <v>73442541.659999996</v>
+        <v>740966.94999999902</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6686,11 +6612,11 @@
       </c>
       <c r="B86" s="80">
         <f t="shared" si="15"/>
-        <v>75072800</v>
+        <v>878300</v>
       </c>
       <c r="C86" s="61">
         <f t="shared" si="15"/>
-        <v>75050829.179999903</v>
+        <v>777215.28999999899</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6751,51 +6677,30 @@
       <c r="A91" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="81" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="B91" ca="1">_xlfn.XLOOKUP(INDEX(_xleta.MAX,(MATCH(_xlfn.CONCAT(A91,"_","rank"),A1:P1,0)),F2:F52,A2:A52),"not found",0)</f>
-        <v>#VALUE!</v>
+      <c r="B91" s="8" t="str">
+        <f>_xlfn.XLOOKUP(MIN(E2:E52),E2:E52,A2:A52)</f>
+        <v>Clerk and Master - Chancery</v>
       </c>
       <c r="C91" s="9">
-        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$E$2:$E$52)</f>
-        <v>3.1837408866824991E-3</v>
-      </c>
-      <c r="D91" s="81" t="str">
-        <f>_xlfn.XLOOKUP(D$89,$F$2:$F$52,$A$2:$A$52)</f>
-        <v>Community Oversight Board</v>
-      </c>
-      <c r="E91" s="9">
-        <f>_xlfn.XLOOKUP(D$89,$F$2:$F$52,$E$2:$E$52)</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="8" t="str">
-        <f>_xlfn.XLOOKUP(F$89,$F$2:$F$52,$A$2:$A$52)</f>
-        <v>Sheriff</v>
-      </c>
-      <c r="G91" s="82">
-        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$E$2:$E$52)</f>
-        <v>3.1837408866824991E-3</v>
-      </c>
+        <f>MIN(E2:E52)</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="81" t="str">
-        <f>_xlfn.XLOOKUP(B$89,$K$2:$K$52,$A$2:$A$52)</f>
-        <v>Community Oversight Board</v>
-      </c>
-      <c r="C92" s="9">
-        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$J$2:$J$52)</f>
-        <v>-4.4532273014072019E-2</v>
-      </c>
-      <c r="D92" s="81" t="str">
-        <f>_xlfn.XLOOKUP(D$89,$K$2:$K$52,$A$2:$A$52)</f>
-        <v>Sheriff</v>
-      </c>
-      <c r="E92" s="9">
-        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$J$2:$J$52)</f>
-        <v>-4.4532273014072019E-2</v>
-      </c>
+      <c r="B92" s="8" t="e" cm="1">
+        <f t="array" ref="B92">_xlfn.XLOOKUP(C92,A2:P52,A2:A52)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="8"/>
       <c r="G92" s="68"/>
     </row>
@@ -6803,22 +6708,10 @@
       <c r="A93" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="83" t="str">
-        <f>_xlfn.XLOOKUP(B$89,$P$2:$P$52,$A$2:$A$52)</f>
-        <v>Information Technology Service</v>
-      </c>
-      <c r="C93" s="41">
-        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$O$2:$O$52)</f>
-        <v>-2.3829085727446114E-2</v>
-      </c>
-      <c r="D93" s="83" t="e">
-        <f>_xlfn.XLOOKUP(D$89,$P$2:$P$52,$A$2:$A$52)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E93" s="41">
-        <f>_xlfn.XLOOKUP($B$89,$F$2:$F$52,$O$2:$O$52)</f>
-        <v>-2.3829085727446114E-2</v>
-      </c>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="41"/>
       <c r="F93" s="40"/>
       <c r="G93" s="69"/>
     </row>
@@ -6876,7 +6769,10 @@
       <c r="A98" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B98" s="8"/>
+      <c r="B98" s="8" t="e">
+        <f>INDEX($A$2:$A$52,MATCH(MIN(_xlfn.CONCAT($A$98,"_","rank",$A$2:$P$52,0)),$A$1:$P$1,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
@@ -6888,7 +6784,10 @@
       <c r="A99" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="8"/>
+      <c r="B99" s="8" t="e">
+        <f>MATCH(MIN(_xlfn.CONCAT($A$98,"pct"),$A$2:$A$52,0),$A$1:$P$1,0)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="C99" s="9"/>
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
@@ -6916,9 +6815,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E91" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/483805976292d47c/Documents/NSS/excel/da16-lookups-exercise-janvimehendale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="732" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D520A7CD-A4A3-4FB9-88FC-CDDB54A32572}"/>
+  <xr:revisionPtr revIDLastSave="755" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A4EB9A5-9C86-4041-9265-CF262669AD8D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3095,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6694,10 +6694,7 @@
       <c r="A92" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="8" t="e" cm="1">
-        <f t="array" ref="B92">_xlfn.XLOOKUP(C92,A2:P52,A2:A52)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="B92" s="8"/>
       <c r="C92" s="9"/>
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
@@ -6769,9 +6766,9 @@
       <c r="A98" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B98" s="8" t="e">
-        <f>INDEX($A$2:$A$52,MATCH(MIN(_xlfn.CONCAT($A$98,"_","rank",$A$2:$P$52,0)),$A$1:$P$1,0))</f>
-        <v>#N/A</v>
+      <c r="B98" t="str" cm="1">
+        <f t="array" ref="B98">INDEX(A2:A52,MATCH(_xlfn.CONCAT($A$98,"*_pct"),$A$1:$P$1,0),0)</f>
+        <v>Beer Board</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -6784,10 +6781,7 @@
       <c r="A99" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="8" t="e">
-        <f>MATCH(MIN(_xlfn.CONCAT($A$98,"pct"),$A$2:$A$52,0),$A$1:$P$1,0)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="B99" s="8"/>
       <c r="C99" s="9"/>
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/483805976292d47c/Documents/NSS/excel/da16-lookups-exercise-janvimehendale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A4EB9A5-9C86-4041-9265-CF262669AD8D}"/>
+  <xr:revisionPtr revIDLastSave="853" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A5FFCF1-5AE4-495D-A8F7-31158A40F294}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
   <si>
     <t>Department</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>9. Do the same as above, but using only INDEX and MATCH.</t>
+  </si>
+  <si>
+    <t>=INDEX($A$2:$P$52,MATCH(,$A$2:$A$52,0)),MATCH(CONCAT($A99,"*_pct"),$A$1:$P$1,0),0)</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1175,46 +1178,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1387,8 +1351,6 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1397,9 +1359,8 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="38" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="38" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="38" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1415,23 +1376,28 @@
     <xf numFmtId="0" fontId="16" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2988,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C48D45-1BE3-4B33-A856-F38C2E92A17A}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3095,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3107,7 +3073,7 @@
     <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
@@ -3116,7 +3082,7 @@
     <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3151,7 +3117,7 @@
       <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="69" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="35" t="s">
@@ -3166,7 +3132,7 @@
       <c r="O1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3189,8 +3155,8 @@
         <v>-4.3170750765267295E-2</v>
       </c>
       <c r="F2" s="30">
-        <f>RANK(E2,E2:E52)</f>
-        <v>38</v>
+        <f>RANK(E2,$E$2:$E$52,1)</f>
+        <v>14</v>
       </c>
       <c r="G2" s="31">
         <v>382685200</v>
@@ -3206,27 +3172,27 @@
         <f>IFERROR(I2/G2,0)</f>
         <v>-9.4972027086493035E-2</v>
       </c>
-      <c r="K2" s="79">
-        <f>RANK(J2,J2:J52)</f>
-        <v>42</v>
-      </c>
-      <c r="L2" s="77">
+      <c r="K2" s="70">
+        <f>RANK(J2,$J$2:$J$52,1)</f>
+        <v>10</v>
+      </c>
+      <c r="L2" s="68">
         <v>376548600</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="48">
         <v>355279492.22999901</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="48">
         <f>(M2-L2)</f>
         <v>-21269107.770000994</v>
       </c>
-      <c r="O2" s="51">
+      <c r="O2" s="49">
         <f>IFERROR(N2/L2,0)</f>
         <v>-5.6484362894991494E-2</v>
       </c>
-      <c r="P2" s="52">
-        <f>RANK(O2,O2:O52)</f>
-        <v>38</v>
+      <c r="P2" s="48">
+        <f>RANK(O2,$O$2:$O$52,1)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -3248,8 +3214,8 @@
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F51" si="2">RANK(E3,E3:E53)</f>
-        <v>30</v>
+        <f t="shared" ref="F3:F52" si="2">RANK(E3,$E$2:$E$52,1)</f>
+        <v>22</v>
       </c>
       <c r="G3" s="21">
         <v>334800</v>
@@ -3265,27 +3231,27 @@
         <f t="shared" ref="J3:J52" si="4">IFERROR(I3/G3,0)</f>
         <v>-6.6804928315415249E-2</v>
       </c>
-      <c r="K3" s="75">
-        <f t="shared" ref="K3:K35" si="5">RANK(J3,J3:J53)</f>
-        <v>38</v>
-      </c>
-      <c r="L3" s="42">
+      <c r="K3" s="70">
+        <f t="shared" ref="K3:K52" si="5">RANK(J3,$J$2:$J$52,1)</f>
+        <v>14</v>
+      </c>
+      <c r="L3" s="40">
         <v>322700</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>322263.03999999998</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="41">
         <f t="shared" ref="N3:N52" si="6">(M3-L3)</f>
         <v>-436.96000000002095</v>
       </c>
-      <c r="O3" s="44">
+      <c r="O3" s="42">
         <f t="shared" ref="O3:O52" si="7">IFERROR(N3/L3,0)</f>
         <v>-1.3540749922529313E-3</v>
       </c>
-      <c r="P3" s="45">
-        <f t="shared" ref="P3:P35" si="8">RANK(O3,O3:O53)</f>
-        <v>15</v>
+      <c r="P3" s="41">
+        <f t="shared" ref="P3:P52" si="8">RANK(O3,$O$2:$O$52,1)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -3308,7 +3274,7 @@
       </c>
       <c r="F4" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G4" s="21">
         <v>3652300</v>
@@ -3324,27 +3290,27 @@
         <f t="shared" si="4"/>
         <v>-1.7141743558856015E-2</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="70">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="L4" s="42">
+        <v>36</v>
+      </c>
+      <c r="L4" s="40">
         <v>3662400</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>3564983.04999999</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="41">
         <f t="shared" si="6"/>
         <v>-97416.950000009965</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="42">
         <f t="shared" si="7"/>
         <v>-2.6599210899959033E-2</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="41">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -3367,7 +3333,7 @@
       </c>
       <c r="F5" s="30">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G5" s="21">
         <v>7968300</v>
@@ -3383,27 +3349,27 @@
         <f t="shared" si="4"/>
         <v>-0.118932605449092</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="70">
         <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="L5" s="42">
+        <v>5</v>
+      </c>
+      <c r="L5" s="40">
         <v>7759600</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>7497322.9100000001</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="41">
         <f t="shared" si="6"/>
         <v>-262277.08999999985</v>
       </c>
-      <c r="O5" s="44">
+      <c r="O5" s="42">
         <f t="shared" si="7"/>
         <v>-3.3800336357544182E-2</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="41">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -3426,7 +3392,7 @@
       </c>
       <c r="F6" s="30">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G6" s="21">
         <v>428500</v>
@@ -3442,27 +3408,27 @@
         <f t="shared" si="4"/>
         <v>-1.7301283547257551E-3</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="70">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="L6" s="42">
+        <v>44</v>
+      </c>
+      <c r="L6" s="40">
         <v>445200</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>445114.28999999899</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="41">
         <f t="shared" si="6"/>
         <v>-85.710000001010485</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="42">
         <f t="shared" si="7"/>
         <v>-1.925202156356929E-4</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="41">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -3485,7 +3451,7 @@
       </c>
       <c r="F7" s="30">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G7" s="21">
         <v>3390900</v>
@@ -3501,27 +3467,27 @@
         <f t="shared" si="4"/>
         <v>-0.10009631366303927</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="70">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="L7" s="42">
+        <v>8</v>
+      </c>
+      <c r="L7" s="40">
         <v>3345200</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>2946440.08</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="41">
         <f t="shared" si="6"/>
         <v>-398759.91999999993</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="42">
         <f t="shared" si="7"/>
         <v>-0.11920361114432618</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="41">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -3544,7 +3510,7 @@
       </c>
       <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G8" s="21">
         <v>1590700</v>
@@ -3560,27 +3526,27 @@
         <f t="shared" si="4"/>
         <v>-0.13000189224870184</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="70">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="L8" s="42">
+        <v>4</v>
+      </c>
+      <c r="L8" s="40">
         <v>1579300</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>1337735.3199999901</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="41">
         <f t="shared" si="6"/>
         <v>-241564.68000000995</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="42">
         <f t="shared" si="7"/>
         <v>-0.15295680364719175</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="41">
         <f t="shared" si="8"/>
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -3603,7 +3569,7 @@
       </c>
       <c r="F9" s="30">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G9" s="21">
         <v>11073700</v>
@@ -3619,27 +3585,27 @@
         <f t="shared" si="4"/>
         <v>-0.10336567542917005</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="70">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="L9" s="42">
+        <v>7</v>
+      </c>
+      <c r="L9" s="40">
         <v>10790500</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>9993599.52999999</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="41">
         <f t="shared" si="6"/>
         <v>-796900.47000000998</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="42">
         <f t="shared" si="7"/>
         <v>-7.3852043000788653E-2</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="41">
         <f t="shared" si="8"/>
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -3662,7 +3628,7 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="G10" s="21">
         <v>495200</v>
@@ -3678,27 +3644,27 @@
         <f t="shared" si="4"/>
         <v>-5.5113408723747932E-2</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="70">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="L10" s="42">
+        <v>17</v>
+      </c>
+      <c r="L10" s="40">
         <v>487500</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>478318.92</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="41">
         <f t="shared" si="6"/>
         <v>-9181.0800000000163</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="42">
         <f t="shared" si="7"/>
         <v>-1.883298461538465E-2</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="41">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -3721,7 +3687,7 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="G11" s="21">
         <v>0</v>
@@ -3737,27 +3703,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="70">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="42">
+        <v>48</v>
+      </c>
+      <c r="L11" s="40">
         <v>375000</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>63771.91</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="41">
         <f t="shared" si="6"/>
         <v>-311228.08999999997</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="42">
         <f t="shared" si="7"/>
         <v>-0.82994157333333329</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="41">
         <f t="shared" si="8"/>
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -3780,7 +3746,7 @@
       </c>
       <c r="F12" s="30">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G12" s="21">
         <v>4700400</v>
@@ -3796,27 +3762,27 @@
         <f t="shared" si="4"/>
         <v>-0.10527708280146378</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="70">
         <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="L12" s="42">
+        <v>6</v>
+      </c>
+      <c r="L12" s="40">
         <v>4677800</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>4371713.1399999997</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="41">
         <f t="shared" si="6"/>
         <v>-306086.86000000034</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="42">
         <f t="shared" si="7"/>
         <v>-6.5433934755654441E-2</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="41">
         <f t="shared" si="8"/>
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -3839,7 +3805,7 @@
       </c>
       <c r="F13" s="30">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G13" s="21">
         <v>6223700</v>
@@ -3855,27 +3821,27 @@
         <f t="shared" si="4"/>
         <v>-5.0552253482656594E-2</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="70">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="L13" s="42">
+        <v>18</v>
+      </c>
+      <c r="L13" s="40">
         <v>6207300</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>6056976.6699999999</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="41">
         <f t="shared" si="6"/>
         <v>-150323.33000000007</v>
       </c>
-      <c r="O13" s="44">
+      <c r="O13" s="42">
         <f t="shared" si="7"/>
         <v>-2.4217184605222895E-2</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="41">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -3898,7 +3864,7 @@
       </c>
       <c r="F14" s="30">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G14" s="21">
         <v>530500</v>
@@ -3914,27 +3880,27 @@
         <f t="shared" si="4"/>
         <v>-1.1492968897266765E-2</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="70">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L14" s="42">
+        <v>40</v>
+      </c>
+      <c r="L14" s="40">
         <v>526200</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>504989.88</v>
       </c>
-      <c r="N14" s="43">
+      <c r="N14" s="41">
         <f t="shared" si="6"/>
         <v>-21210.119999999995</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="42">
         <f t="shared" si="7"/>
         <v>-4.0308095781071827E-2</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="41">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -3957,7 +3923,7 @@
       </c>
       <c r="F15" s="30">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G15" s="21">
         <v>184167800</v>
@@ -3973,27 +3939,27 @@
         <f t="shared" si="4"/>
         <v>-4.4532273014072019E-2</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="70">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="40">
         <v>188953500</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>184450910.84999901</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="41">
         <f t="shared" si="6"/>
         <v>-4502589.1500009894</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="42">
         <f t="shared" si="7"/>
         <v>-2.3829085727446114E-2</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="41">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -4016,7 +3982,7 @@
       </c>
       <c r="F16" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G16" s="21">
         <v>7352500</v>
@@ -4032,27 +3998,27 @@
         <f t="shared" si="4"/>
         <v>-2.769017341040361E-4</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="70">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L16" s="42">
+        <v>46</v>
+      </c>
+      <c r="L16" s="40">
         <v>7397200</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="41">
         <v>7397093</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="41">
         <f t="shared" si="6"/>
         <v>-107</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="42">
         <f t="shared" si="7"/>
         <v>-1.4464932677229222E-5</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="41">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -4075,7 +4041,7 @@
       </c>
       <c r="F17" s="30">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G17" s="21">
         <v>15309700</v>
@@ -4091,27 +4057,27 @@
         <f t="shared" si="4"/>
         <v>-4.3401666263871937E-2</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="70">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="L17" s="42">
+        <v>25</v>
+      </c>
+      <c r="L17" s="40">
         <v>15311800</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="41">
         <v>14346057.039999999</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="41">
         <f t="shared" si="6"/>
         <v>-965742.96000000089</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="42">
         <f t="shared" si="7"/>
         <v>-6.3071811282801551E-2</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="41">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -4134,7 +4100,7 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G18" s="21">
         <v>2861000</v>
@@ -4150,27 +4116,27 @@
         <f t="shared" si="4"/>
         <v>-6.6149619014330668E-2</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K18" s="70">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="L18" s="42">
+        <v>15</v>
+      </c>
+      <c r="L18" s="40">
         <v>2910600</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="41">
         <v>2535637.09</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="41">
         <f t="shared" si="6"/>
         <v>-374962.91000000015</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="42">
         <f t="shared" si="7"/>
         <v>-0.12882667147667154</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="41">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -4193,7 +4159,7 @@
       </c>
       <c r="F19" s="30">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G19" s="21">
         <v>9713300</v>
@@ -4209,27 +4175,27 @@
         <f t="shared" si="4"/>
         <v>-7.4289145810384635E-2</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="70">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="L19" s="42">
+        <v>12</v>
+      </c>
+      <c r="L19" s="40">
         <v>9343000</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="41">
         <v>8766655.9100000001</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="41">
         <f t="shared" si="6"/>
         <v>-576344.08999999985</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="42">
         <f t="shared" si="7"/>
         <v>-6.1687262121374278E-2</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="41">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -4252,7 +4218,7 @@
       </c>
       <c r="F20" s="30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G20" s="21">
         <v>131849400</v>
@@ -4268,27 +4234,27 @@
         <f t="shared" si="4"/>
         <v>-7.4142392760188761E-5</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="70">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="L20" s="42">
+        <v>47</v>
+      </c>
+      <c r="L20" s="40">
         <v>130621400</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="41">
         <v>130621283.53999899</v>
       </c>
-      <c r="N20" s="43">
+      <c r="N20" s="41">
         <f t="shared" si="6"/>
         <v>-116.46000100672245</v>
       </c>
-      <c r="O20" s="44">
+      <c r="O20" s="42">
         <f t="shared" si="7"/>
         <v>-8.9158438821450736E-7</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="41">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -4311,7 +4277,7 @@
       </c>
       <c r="F21" s="30">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G21" s="21">
         <v>24497400</v>
@@ -4327,27 +4293,27 @@
         <f t="shared" si="4"/>
         <v>-7.5167420624229556E-2</v>
       </c>
-      <c r="K21" s="75">
+      <c r="K21" s="70">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="L21" s="42">
+        <v>11</v>
+      </c>
+      <c r="L21" s="40">
         <v>24323000</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="41">
         <v>23434073.089999899</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="41">
         <f t="shared" si="6"/>
         <v>-888926.91000010073</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="42">
         <f t="shared" si="7"/>
         <v>-3.6546762734864152E-2</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="41">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -4370,7 +4336,7 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G22" s="21">
         <v>11980700</v>
@@ -4386,27 +4352,27 @@
         <f t="shared" si="4"/>
         <v>-1.5752170574348738E-2</v>
       </c>
-      <c r="K22" s="75">
+      <c r="K22" s="70">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="L22" s="42">
+        <v>38</v>
+      </c>
+      <c r="L22" s="40">
         <v>11935200</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="41">
         <v>11934454.77</v>
       </c>
-      <c r="N22" s="43">
+      <c r="N22" s="41">
         <f t="shared" si="6"/>
         <v>-745.23000000044703</v>
       </c>
-      <c r="O22" s="44">
+      <c r="O22" s="42">
         <f t="shared" si="7"/>
         <v>-6.2439674240938325E-5</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="41">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -4429,7 +4395,7 @@
       </c>
       <c r="F23" s="30">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G23" s="21">
         <v>22683800</v>
@@ -4445,27 +4411,27 @@
         <f t="shared" si="4"/>
         <v>-4.2394738976719144E-2</v>
       </c>
-      <c r="K23" s="75">
+      <c r="K23" s="70">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="L23" s="42">
+        <v>26</v>
+      </c>
+      <c r="L23" s="40">
         <v>23220300</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="41">
         <v>22619057.440000001</v>
       </c>
-      <c r="N23" s="43">
+      <c r="N23" s="41">
         <f t="shared" si="6"/>
         <v>-601242.55999999866</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O23" s="42">
         <f t="shared" si="7"/>
         <v>-2.5892971236375011E-2</v>
       </c>
-      <c r="P23" s="45">
+      <c r="P23" s="41">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -4488,7 +4454,7 @@
       </c>
       <c r="F24" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G24" s="21">
         <v>1112700</v>
@@ -4504,27 +4470,27 @@
         <f t="shared" si="4"/>
         <v>-4.087856565111897E-2</v>
       </c>
-      <c r="K24" s="75">
+      <c r="K24" s="70">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="L24" s="42">
+        <v>28</v>
+      </c>
+      <c r="L24" s="40">
         <v>1112600</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="41">
         <v>1112527.1200000001</v>
       </c>
-      <c r="N24" s="43">
+      <c r="N24" s="41">
         <f t="shared" si="6"/>
         <v>-72.879999999888241</v>
       </c>
-      <c r="O24" s="44">
+      <c r="O24" s="42">
         <f t="shared" si="7"/>
         <v>-6.5504224339284781E-5</v>
       </c>
-      <c r="P24" s="45">
+      <c r="P24" s="41">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -4547,7 +4513,7 @@
       </c>
       <c r="F25" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G25" s="21">
         <v>505200</v>
@@ -4563,27 +4529,27 @@
         <f t="shared" si="4"/>
         <v>-1.5846773555029746E-2</v>
       </c>
-      <c r="K25" s="75">
+      <c r="K25" s="70">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="L25" s="42">
+        <v>37</v>
+      </c>
+      <c r="L25" s="40">
         <v>496500</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="41">
         <v>494775.1</v>
       </c>
-      <c r="N25" s="43">
+      <c r="N25" s="41">
         <f t="shared" si="6"/>
         <v>-1724.9000000000233</v>
       </c>
-      <c r="O25" s="44">
+      <c r="O25" s="42">
         <f t="shared" si="7"/>
         <v>-3.4741188318228064E-3</v>
       </c>
-      <c r="P25" s="45">
+      <c r="P25" s="41">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
@@ -4606,7 +4572,7 @@
       </c>
       <c r="F26" s="30">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G26" s="21">
         <v>5442200</v>
@@ -4622,27 +4588,27 @@
         <f t="shared" si="4"/>
         <v>-5.8776040939327839E-2</v>
       </c>
-      <c r="K26" s="75">
+      <c r="K26" s="70">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="L26" s="42">
+        <v>16</v>
+      </c>
+      <c r="L26" s="40">
         <v>5430700</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="41">
         <v>5117235.21</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="41">
         <f t="shared" si="6"/>
         <v>-313464.79000000004</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="42">
         <f t="shared" si="7"/>
         <v>-5.7720881286022069E-2</v>
       </c>
-      <c r="P26" s="45">
+      <c r="P26" s="41">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
@@ -4665,7 +4631,7 @@
       </c>
       <c r="F27" s="30">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G27" s="21">
         <v>0</v>
@@ -4681,27 +4647,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K27" s="75">
+      <c r="K27" s="70">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="42">
+        <v>48</v>
+      </c>
+      <c r="L27" s="40">
         <v>0</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="41">
         <v>0</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O27" s="44">
+      <c r="O27" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P27" s="45">
+      <c r="P27" s="41">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -4724,7 +4690,7 @@
       </c>
       <c r="F28" s="30">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G28" s="21">
         <v>1545700</v>
@@ -4740,27 +4706,27 @@
         <f t="shared" si="4"/>
         <v>-0.17103239309050916</v>
       </c>
-      <c r="K28" s="75">
+      <c r="K28" s="70">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="L28" s="42">
+        <v>2</v>
+      </c>
+      <c r="L28" s="40">
         <v>1525900</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="41">
         <v>1393285.06</v>
       </c>
-      <c r="N28" s="43">
+      <c r="N28" s="41">
         <f t="shared" si="6"/>
         <v>-132614.93999999994</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="42">
         <f t="shared" si="7"/>
         <v>-8.6909325643882263E-2</v>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="41">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -4783,7 +4749,7 @@
       </c>
       <c r="F29" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G29" s="21">
         <v>2779500</v>
@@ -4799,27 +4765,27 @@
         <f t="shared" si="4"/>
         <v>-4.1099320021590155E-2</v>
       </c>
-      <c r="K29" s="75">
+      <c r="K29" s="70">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="L29" s="42">
+        <v>27</v>
+      </c>
+      <c r="L29" s="40">
         <v>2889900</v>
       </c>
-      <c r="M29" s="43">
+      <c r="M29" s="41">
         <v>2889864.67</v>
       </c>
-      <c r="N29" s="43">
+      <c r="N29" s="41">
         <f t="shared" si="6"/>
         <v>-35.330000000074506</v>
       </c>
-      <c r="O29" s="44">
+      <c r="O29" s="42">
         <f t="shared" si="7"/>
         <v>-1.2225336516860273E-5</v>
       </c>
-      <c r="P29" s="45">
+      <c r="P29" s="41">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
@@ -4842,7 +4808,7 @@
       </c>
       <c r="F30" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G30" s="21">
         <v>12735900</v>
@@ -4858,27 +4824,27 @@
         <f t="shared" si="4"/>
         <v>-3.9561962641116366E-3</v>
       </c>
-      <c r="K30" s="75">
+      <c r="K30" s="70">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L30" s="42">
+        <v>42</v>
+      </c>
+      <c r="L30" s="40">
         <v>12861300</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="41">
         <v>12826009.609999999</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="41">
         <f t="shared" si="6"/>
         <v>-35290.390000000596</v>
       </c>
-      <c r="O30" s="44">
+      <c r="O30" s="42">
         <f t="shared" si="7"/>
         <v>-2.7439209100169185E-3</v>
       </c>
-      <c r="P30" s="45">
+      <c r="P30" s="41">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -4901,7 +4867,7 @@
       </c>
       <c r="F31" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G31" s="21">
         <v>1823300</v>
@@ -4917,27 +4883,27 @@
         <f t="shared" si="4"/>
         <v>-3.3249136181648611E-2</v>
       </c>
-      <c r="K31" s="75">
+      <c r="K31" s="70">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L31" s="42">
+        <v>32</v>
+      </c>
+      <c r="L31" s="40">
         <v>1870700</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="41">
         <v>1801391.34</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="41">
         <f t="shared" si="6"/>
         <v>-69308.659999999916</v>
       </c>
-      <c r="O31" s="44">
+      <c r="O31" s="42">
         <f t="shared" si="7"/>
         <v>-3.7049585716576634E-2</v>
       </c>
-      <c r="P31" s="45">
+      <c r="P31" s="41">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -4960,7 +4926,7 @@
       </c>
       <c r="F32" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G32" s="21">
         <v>6195500</v>
@@ -4976,27 +4942,27 @@
         <f t="shared" si="4"/>
         <v>-1.7837871035428981E-2</v>
       </c>
-      <c r="K32" s="75">
+      <c r="K32" s="70">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="L32" s="42">
+        <v>35</v>
+      </c>
+      <c r="L32" s="40">
         <v>6157400</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="41">
         <v>5987572.0199999996</v>
       </c>
-      <c r="N32" s="43">
+      <c r="N32" s="41">
         <f t="shared" si="6"/>
         <v>-169827.98000000045</v>
       </c>
-      <c r="O32" s="44">
+      <c r="O32" s="42">
         <f t="shared" si="7"/>
         <v>-2.7581118653977402E-2</v>
       </c>
-      <c r="P32" s="45">
+      <c r="P32" s="41">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -5019,7 +4985,7 @@
       </c>
       <c r="F33" s="30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G33" s="21">
         <v>979671000</v>
@@ -5035,27 +5001,27 @@
         <f t="shared" si="4"/>
         <v>-2.6564903115433454E-3</v>
       </c>
-      <c r="K33" s="75">
+      <c r="K33" s="70">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="L33" s="42">
+        <v>43</v>
+      </c>
+      <c r="L33" s="40">
         <v>989572899.99999905</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="41">
         <v>984116289.40999901</v>
       </c>
-      <c r="N33" s="43">
+      <c r="N33" s="41">
         <f t="shared" si="6"/>
         <v>-5456610.5900000334</v>
       </c>
-      <c r="O33" s="44">
+      <c r="O33" s="42">
         <f t="shared" si="7"/>
         <v>-5.5141067323084929E-3</v>
       </c>
-      <c r="P33" s="45">
+      <c r="P33" s="41">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -5078,7 +5044,7 @@
       </c>
       <c r="F34" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G34" s="21">
         <v>4350600</v>
@@ -5094,27 +5060,27 @@
         <f t="shared" si="4"/>
         <v>-4.8961345561534093E-2</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="70">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="L34" s="42">
+        <v>21</v>
+      </c>
+      <c r="L34" s="40">
         <v>4345600</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="41">
         <v>4229801.51</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="41">
         <f t="shared" si="6"/>
         <v>-115798.49000000022</v>
       </c>
-      <c r="O34" s="44">
+      <c r="O34" s="42">
         <f t="shared" si="7"/>
         <v>-2.6647296115611244E-2</v>
       </c>
-      <c r="P34" s="45">
+      <c r="P34" s="41">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -5137,7 +5103,7 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G35" s="21">
         <v>0</v>
@@ -5153,27 +5119,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="70">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="42">
+        <v>48</v>
+      </c>
+      <c r="L35" s="40">
         <v>0</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="41">
         <v>0</v>
       </c>
-      <c r="N35" s="43">
+      <c r="N35" s="41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O35" s="44">
+      <c r="O35" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P35" s="45">
+      <c r="P35" s="41">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
@@ -5196,7 +5162,7 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="21">
         <v>898700</v>
@@ -5212,27 +5178,27 @@
         <f t="shared" si="4"/>
         <v>-0.17551246244575608</v>
       </c>
-      <c r="K36" s="75">
-        <f t="shared" ref="K36:K51" si="9">RANK(J36,J36:J86)</f>
-        <v>17</v>
-      </c>
-      <c r="L36" s="42">
+      <c r="K36" s="70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="40">
         <v>878300</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="41">
         <v>777215.28999999899</v>
       </c>
-      <c r="N36" s="43">
+      <c r="N36" s="41">
         <f t="shared" si="6"/>
         <v>-101084.71000000101</v>
       </c>
-      <c r="O36" s="44">
+      <c r="O36" s="42">
         <f t="shared" si="7"/>
         <v>-0.11509132414892521</v>
       </c>
-      <c r="P36" s="45">
-        <f t="shared" ref="P36:P51" si="10">RANK(O36,O36:O86)</f>
-        <v>17</v>
+      <c r="P36" s="41">
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -5255,7 +5221,7 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G37" s="21">
         <v>2229200</v>
@@ -5271,27 +5237,27 @@
         <f t="shared" si="4"/>
         <v>-4.9460250314014013E-2</v>
       </c>
-      <c r="K37" s="75">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="L37" s="42">
+      <c r="K37" s="70">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="L37" s="40">
         <v>2296900</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="41">
         <v>2108718.34</v>
       </c>
-      <c r="N37" s="43">
+      <c r="N37" s="41">
         <f t="shared" si="6"/>
         <v>-188181.66000000015</v>
       </c>
-      <c r="O37" s="44">
+      <c r="O37" s="42">
         <f t="shared" si="7"/>
         <v>-8.1928538464887526E-2</v>
       </c>
-      <c r="P37" s="45">
-        <f t="shared" si="10"/>
-        <v>15</v>
+      <c r="P37" s="41">
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -5314,7 +5280,7 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G38" s="21">
         <v>792800</v>
@@ -5330,27 +5296,27 @@
         <f t="shared" si="4"/>
         <v>-4.9631735620585316E-2</v>
       </c>
-      <c r="K38" s="75">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="L38" s="42">
+      <c r="K38" s="70">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="L38" s="40">
         <v>777800</v>
       </c>
-      <c r="M38" s="43">
+      <c r="M38" s="41">
         <v>777663.26</v>
       </c>
-      <c r="N38" s="43">
+      <c r="N38" s="41">
         <f t="shared" si="6"/>
         <v>-136.73999999999069</v>
       </c>
-      <c r="O38" s="44">
+      <c r="O38" s="42">
         <f t="shared" si="7"/>
         <v>-1.7580354847003174E-4</v>
       </c>
-      <c r="P38" s="45">
-        <f t="shared" si="10"/>
-        <v>5</v>
+      <c r="P38" s="41">
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
@@ -5373,7 +5339,7 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G39" s="21">
         <v>1294400</v>
@@ -5389,27 +5355,27 @@
         <f t="shared" si="4"/>
         <v>-0.13918241656366656</v>
       </c>
-      <c r="K39" s="75">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="L39" s="42">
+      <c r="K39" s="70">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L39" s="40">
         <v>1759500</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="41">
         <v>1680463.8699999901</v>
       </c>
-      <c r="N39" s="43">
+      <c r="N39" s="41">
         <f t="shared" si="6"/>
         <v>-79036.1300000099</v>
       </c>
-      <c r="O39" s="44">
+      <c r="O39" s="42">
         <f t="shared" si="7"/>
         <v>-4.4919653310605226E-2</v>
       </c>
-      <c r="P39" s="45">
-        <f t="shared" si="10"/>
-        <v>11</v>
+      <c r="P39" s="41">
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
@@ -5432,7 +5398,7 @@
       </c>
       <c r="F40" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G40" s="21">
         <v>39964900</v>
@@ -5448,27 +5414,27 @@
         <f t="shared" si="4"/>
         <v>-4.6782546934937892E-2</v>
       </c>
-      <c r="K40" s="75">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="L40" s="42">
+      <c r="K40" s="70">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="L40" s="40">
         <v>40216700</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="41">
         <v>39606263.709999897</v>
       </c>
-      <c r="N40" s="43">
+      <c r="N40" s="41">
         <f t="shared" si="6"/>
         <v>-610436.29000010341</v>
       </c>
-      <c r="O40" s="44">
+      <c r="O40" s="42">
         <f t="shared" si="7"/>
         <v>-1.5178676768608648E-2</v>
       </c>
-      <c r="P40" s="45">
-        <f t="shared" si="10"/>
-        <v>8</v>
+      <c r="P40" s="41">
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -5491,7 +5457,7 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G41" s="21">
         <v>5089500</v>
@@ -5507,27 +5473,27 @@
         <f t="shared" si="4"/>
         <v>-2.6221894095689226E-2</v>
       </c>
-      <c r="K41" s="75">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="L41" s="42">
+      <c r="K41" s="70">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="L41" s="40">
         <v>4799900</v>
       </c>
-      <c r="M41" s="43">
+      <c r="M41" s="41">
         <v>4717822.6500000004</v>
       </c>
-      <c r="N41" s="43">
+      <c r="N41" s="41">
         <f t="shared" si="6"/>
         <v>-82077.349999999627</v>
       </c>
-      <c r="O41" s="44">
+      <c r="O41" s="42">
         <f t="shared" si="7"/>
         <v>-1.7099804162586642E-2</v>
       </c>
-      <c r="P41" s="45">
-        <f t="shared" si="10"/>
-        <v>8</v>
+      <c r="P41" s="41">
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -5550,7 +5516,7 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G42" s="21">
         <v>199130300</v>
@@ -5566,27 +5532,27 @@
         <f t="shared" si="4"/>
         <v>-1.1928203241796942E-2</v>
       </c>
-      <c r="K42" s="75">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="L42" s="42">
+      <c r="K42" s="70">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="L42" s="40">
         <v>199954600</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="41">
         <v>199954563.74999899</v>
       </c>
-      <c r="N42" s="43">
+      <c r="N42" s="41">
         <f t="shared" si="6"/>
         <v>-36.250001013278961</v>
       </c>
-      <c r="O42" s="44">
+      <c r="O42" s="42">
         <f t="shared" si="7"/>
         <v>-1.8129115815929696E-7</v>
       </c>
-      <c r="P42" s="45">
-        <f t="shared" si="10"/>
-        <v>3</v>
+      <c r="P42" s="41">
+        <f t="shared" si="8"/>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -5609,7 +5575,7 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G43" s="21">
         <v>8560800</v>
@@ -5625,27 +5591,27 @@
         <f t="shared" si="4"/>
         <v>-4.5477990374731388E-2</v>
       </c>
-      <c r="K43" s="75">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="L43" s="42">
+      <c r="K43" s="70">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="L43" s="40">
         <v>8497500</v>
       </c>
-      <c r="M43" s="43">
+      <c r="M43" s="41">
         <v>8150982.5699999901</v>
       </c>
-      <c r="N43" s="43">
+      <c r="N43" s="41">
         <f t="shared" si="6"/>
         <v>-346517.43000000995</v>
       </c>
-      <c r="O43" s="44">
+      <c r="O43" s="42">
         <f t="shared" si="7"/>
         <v>-4.0778750220654303E-2</v>
       </c>
-      <c r="P43" s="45">
-        <f t="shared" si="10"/>
-        <v>7</v>
+      <c r="P43" s="41">
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -5668,7 +5634,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G44" s="21">
         <v>31040700</v>
@@ -5684,27 +5650,27 @@
         <f t="shared" si="4"/>
         <v>-7.9569249404813532E-3</v>
       </c>
-      <c r="K44" s="75">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="L44" s="42">
+      <c r="K44" s="70">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="L44" s="40">
         <v>31282200</v>
       </c>
-      <c r="M44" s="43">
+      <c r="M44" s="41">
         <v>31282141.25</v>
       </c>
-      <c r="N44" s="43">
+      <c r="N44" s="41">
         <f t="shared" si="6"/>
         <v>-58.75</v>
       </c>
-      <c r="O44" s="44">
+      <c r="O44" s="42">
         <f t="shared" si="7"/>
         <v>-1.8780648419868168E-6</v>
       </c>
-      <c r="P44" s="45">
-        <f t="shared" si="10"/>
-        <v>3</v>
+      <c r="P44" s="41">
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
@@ -5727,7 +5693,7 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G45" s="21">
         <v>56792200</v>
@@ -5743,27 +5709,27 @@
         <f t="shared" si="4"/>
         <v>-3.8689222111488959E-2</v>
       </c>
-      <c r="K45" s="75">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="L45" s="42">
+      <c r="K45" s="70">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L45" s="40">
         <v>56027100</v>
       </c>
-      <c r="M45" s="43">
+      <c r="M45" s="41">
         <v>55386549.6599999</v>
       </c>
-      <c r="N45" s="43">
+      <c r="N45" s="41">
         <f t="shared" si="6"/>
         <v>-640550.34000010043</v>
       </c>
-      <c r="O45" s="44">
+      <c r="O45" s="42">
         <f t="shared" si="7"/>
         <v>-1.1432866237947358E-2</v>
       </c>
-      <c r="P45" s="45">
-        <f t="shared" si="10"/>
-        <v>5</v>
+      <c r="P45" s="41">
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -5786,7 +5752,7 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G46" s="21">
         <v>266000</v>
@@ -5802,27 +5768,27 @@
         <f t="shared" si="4"/>
         <v>-3.2319887218048821E-2</v>
       </c>
-      <c r="K46" s="75">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="L46" s="42">
+      <c r="K46" s="70">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L46" s="40">
         <v>267100</v>
       </c>
-      <c r="M46" s="43">
+      <c r="M46" s="41">
         <v>254753.15999999901</v>
       </c>
-      <c r="N46" s="43">
+      <c r="N46" s="41">
         <f t="shared" si="6"/>
         <v>-12346.840000000986</v>
       </c>
-      <c r="O46" s="44">
+      <c r="O46" s="42">
         <f t="shared" si="7"/>
         <v>-4.6225533508053113E-2</v>
       </c>
-      <c r="P46" s="45">
-        <f t="shared" si="10"/>
-        <v>5</v>
+      <c r="P46" s="41">
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
@@ -5845,7 +5811,7 @@
       </c>
       <c r="F47" s="30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G47" s="21">
         <v>73467000</v>
@@ -5861,27 +5827,27 @@
         <f t="shared" si="4"/>
         <v>-3.3291600310348285E-4</v>
       </c>
-      <c r="K47" s="75">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="L47" s="42">
+      <c r="K47" s="70">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="L47" s="40">
         <v>75072800</v>
       </c>
-      <c r="M47" s="43">
+      <c r="M47" s="41">
         <v>75050829.179999903</v>
       </c>
-      <c r="N47" s="43">
+      <c r="N47" s="41">
         <f t="shared" si="6"/>
         <v>-21970.820000097156</v>
       </c>
-      <c r="O47" s="44">
+      <c r="O47" s="42">
         <f t="shared" si="7"/>
         <v>-2.9266019117572752E-4</v>
       </c>
-      <c r="P47" s="45">
-        <f t="shared" si="10"/>
-        <v>3</v>
+      <c r="P47" s="41">
+        <f t="shared" si="8"/>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
@@ -5904,7 +5870,7 @@
       </c>
       <c r="F48" s="30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G48" s="21">
         <v>7214700</v>
@@ -5920,27 +5886,27 @@
         <f t="shared" si="4"/>
         <v>-4.0559890224125802E-2</v>
       </c>
-      <c r="K48" s="75">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="L48" s="42">
+      <c r="K48" s="70">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="L48" s="40">
         <v>7289800</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="41">
         <v>6882350.23999999</v>
       </c>
-      <c r="N48" s="43">
+      <c r="N48" s="41">
         <f t="shared" si="6"/>
         <v>-407449.76000001002</v>
       </c>
-      <c r="O48" s="44">
+      <c r="O48" s="42">
         <f t="shared" si="7"/>
         <v>-5.5893132870587676E-2</v>
       </c>
-      <c r="P48" s="45">
-        <f t="shared" si="10"/>
-        <v>4</v>
+      <c r="P48" s="41">
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -5963,7 +5929,7 @@
       </c>
       <c r="F49" s="30">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G49" s="21">
         <v>102600</v>
@@ -5979,27 +5945,27 @@
         <f t="shared" si="4"/>
         <v>-6.9523586744639335E-2</v>
       </c>
-      <c r="K49" s="75">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="L49" s="42">
+      <c r="K49" s="70">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="L49" s="40">
         <v>0</v>
       </c>
-      <c r="M49" s="43">
+      <c r="M49" s="41">
         <v>0</v>
       </c>
-      <c r="N49" s="43">
+      <c r="N49" s="41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O49" s="44">
+      <c r="O49" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P49" s="45">
-        <f t="shared" si="10"/>
-        <v>1</v>
+      <c r="P49" s="41">
+        <f t="shared" si="8"/>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -6022,7 +5988,7 @@
       </c>
       <c r="F50" s="30">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G50" s="21">
         <v>859100</v>
@@ -6038,27 +6004,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K50" s="75">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L50" s="42">
+      <c r="K50" s="70">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="L50" s="40">
         <v>843200</v>
       </c>
-      <c r="M50" s="43">
+      <c r="M50" s="41">
         <v>843200</v>
       </c>
-      <c r="N50" s="43">
+      <c r="N50" s="41">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O50" s="44">
+      <c r="O50" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P50" s="45">
-        <f t="shared" si="10"/>
-        <v>1</v>
+      <c r="P50" s="41">
+        <f t="shared" si="8"/>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
@@ -6081,7 +6047,7 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G51" s="21">
         <v>8925500</v>
@@ -6097,27 +6063,27 @@
         <f t="shared" si="4"/>
         <v>-3.6573903982970231E-2</v>
       </c>
-      <c r="K51" s="75">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L51" s="42">
+      <c r="K51" s="70">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="L51" s="40">
         <v>8833900</v>
       </c>
-      <c r="M51" s="43">
+      <c r="M51" s="41">
         <v>8735843.3100000005</v>
       </c>
-      <c r="N51" s="43">
+      <c r="N51" s="41">
         <f t="shared" si="6"/>
         <v>-98056.689999999478</v>
       </c>
-      <c r="O51" s="44">
+      <c r="O51" s="42">
         <f t="shared" si="7"/>
         <v>-1.1100045280114048E-2</v>
       </c>
-      <c r="P51" s="45">
-        <f t="shared" si="10"/>
-        <v>1</v>
+      <c r="P51" s="41">
+        <f t="shared" si="8"/>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6139,8 +6105,8 @@
         <v>-8.009596083231342E-2</v>
       </c>
       <c r="F52" s="30">
-        <f>RANK(E52,E52:E101)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G52" s="22">
         <v>2440700</v>
@@ -6156,49 +6122,49 @@
         <f t="shared" si="4"/>
         <v>-9.6704683082722218E-2</v>
       </c>
-      <c r="K52" s="76">
-        <f>RANK(J52,J52:J101)</f>
-        <v>1</v>
-      </c>
-      <c r="L52" s="46">
+      <c r="K52" s="70">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="L52" s="44">
         <v>2321600</v>
       </c>
-      <c r="M52" s="47">
+      <c r="M52" s="45">
         <v>2056835.26</v>
       </c>
-      <c r="N52" s="47">
+      <c r="N52" s="45">
         <f t="shared" si="6"/>
         <v>-264764.74</v>
       </c>
-      <c r="O52" s="48">
+      <c r="O52" s="46">
         <f t="shared" si="7"/>
         <v>-0.11404408166781529</v>
       </c>
-      <c r="P52" s="49">
-        <f>RANK(O52,O52:O101)</f>
-        <v>1</v>
+      <c r="P52" s="45">
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="58"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="52" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6211,11 +6177,11 @@
         <v>-36209.630000000005</v>
       </c>
       <c r="C56" s="13">
-        <f t="shared" ref="C56:D61" si="11">VLOOKUP($A56,$A$2:$P$52,MATCH(C$55,$A$1:$P$1,0),0)</f>
+        <f t="shared" ref="C56:D61" si="9">VLOOKUP($A56,$A$2:$P$52,MATCH(C$55,$A$1:$P$1,0),0)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D56" s="45">
-        <f t="shared" si="11"/>
+      <c r="D56" s="43">
+        <f t="shared" si="9"/>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -6224,15 +6190,15 @@
         <v>25</v>
       </c>
       <c r="B57" s="11">
-        <f t="shared" ref="B57:B61" si="12">VLOOKUP($A57,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
+        <f t="shared" ref="B57:B61" si="10">VLOOKUP($A57,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
         <v>0</v>
       </c>
       <c r="C57" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D57" s="45">
-        <f t="shared" si="11"/>
+      <c r="D57" s="43">
+        <f t="shared" si="9"/>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -6241,15 +6207,15 @@
         <v>32</v>
       </c>
       <c r="B58" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C58" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D58" s="45">
-        <f t="shared" si="11"/>
+      <c r="D58" s="43">
+        <f t="shared" si="9"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -6258,15 +6224,15 @@
         <v>38</v>
       </c>
       <c r="B59" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C59" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D59" s="45">
-        <f t="shared" si="11"/>
+      <c r="D59" s="43">
+        <f t="shared" si="9"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -6275,15 +6241,15 @@
         <v>39</v>
       </c>
       <c r="B60" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C60" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D60" s="45">
-        <f t="shared" si="11"/>
+      <c r="D60" s="43">
+        <f t="shared" si="9"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -6292,38 +6258,38 @@
         <v>55</v>
       </c>
       <c r="B61" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C61" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D61" s="49">
-        <f t="shared" si="11"/>
+      <c r="D61" s="47">
+        <f t="shared" si="9"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="58"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="55"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="52" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6339,7 +6305,7 @@
         <f t="array" ref="C65">_xlfn.XLOOKUP($A65,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D65" s="45" cm="1">
+      <c r="D65" s="43" cm="1">
         <f t="array" ref="D65">_xlfn.XLOOKUP($A65,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-9181.0800000000163</v>
       </c>
@@ -6356,7 +6322,7 @@
         <f t="array" ref="C66">_xlfn.XLOOKUP($A66,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="45" cm="1">
+      <c r="D66" s="43" cm="1">
         <f t="array" ref="D66">_xlfn.XLOOKUP($A66,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-311228.08999999997</v>
       </c>
@@ -6373,7 +6339,7 @@
         <f t="array" ref="C67">_xlfn.XLOOKUP($A67,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D67" s="45" cm="1">
+      <c r="D67" s="43" cm="1">
         <f t="array" ref="D67">_xlfn.XLOOKUP($A67,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-374962.91000000015</v>
       </c>
@@ -6390,7 +6356,7 @@
         <f t="array" ref="C68">_xlfn.XLOOKUP($A68,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D68" s="45" cm="1">
+      <c r="D68" s="43" cm="1">
         <f t="array" ref="D68">_xlfn.XLOOKUP($A68,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-72.879999999888241</v>
       </c>
@@ -6407,7 +6373,7 @@
         <f t="array" ref="C69">_xlfn.XLOOKUP($A69,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D69" s="45" cm="1">
+      <c r="D69" s="43" cm="1">
         <f t="array" ref="D69">_xlfn.XLOOKUP($A69,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-1724.9000000000233</v>
       </c>
@@ -6424,31 +6390,31 @@
         <f t="array" ref="C70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D70" s="49" cm="1">
+      <c r="D70" s="47" cm="1">
         <f t="array" ref="D70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
         <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="58"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="55"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="D73" s="52" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6461,11 +6427,11 @@
         <v>-36209.630000000005</v>
       </c>
       <c r="C74" s="13">
-        <f t="shared" ref="C74:D79" si="13">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
+        <f t="shared" ref="C74:D79" si="11">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D74" s="45">
-        <f t="shared" si="13"/>
+      <c r="D74" s="43">
+        <f t="shared" si="11"/>
         <v>-9181.0800000000163</v>
       </c>
     </row>
@@ -6474,15 +6440,15 @@
         <v>25</v>
       </c>
       <c r="B75" s="11">
-        <f t="shared" ref="B75:B79" si="14">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
+        <f t="shared" ref="B75:B79" si="12">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
         <v>0</v>
       </c>
       <c r="C75" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D75" s="45">
-        <f t="shared" si="13"/>
+      <c r="D75" s="43">
+        <f t="shared" si="11"/>
         <v>-311228.08999999997</v>
       </c>
     </row>
@@ -6491,15 +6457,15 @@
         <v>32</v>
       </c>
       <c r="B76" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C76" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D76" s="45">
-        <f t="shared" si="13"/>
+      <c r="D76" s="43">
+        <f t="shared" si="11"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -6508,15 +6474,15 @@
         <v>38</v>
       </c>
       <c r="B77" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C77" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D77" s="45">
-        <f t="shared" si="13"/>
+      <c r="D77" s="43">
+        <f t="shared" si="11"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -6525,15 +6491,15 @@
         <v>39</v>
       </c>
       <c r="B78" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C78" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D78" s="45">
-        <f t="shared" si="13"/>
+      <c r="D78" s="43">
+        <f t="shared" si="11"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -6542,267 +6508,313 @@
         <v>55</v>
       </c>
       <c r="B79" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C79" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D79" s="45">
-        <f t="shared" si="13"/>
+      <c r="D79" s="43">
+        <f t="shared" si="11"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="62" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="63"/>
-      <c r="C81" s="64"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="54" t="s">
+      <c r="B81" s="60"/>
+      <c r="C81" s="61"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="55"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C82" s="52"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="38"/>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="52" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="59">
+      <c r="B84" s="56">
         <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",B$83),$A$1:$P$1,0))</f>
         <v>798200</v>
       </c>
-      <c r="C84" s="60">
+      <c r="C84" s="57">
         <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",C$83),$A$1:$P$1,0))</f>
         <v>735423.27999999898</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="59">
-        <f t="shared" ref="B85:C86" si="15">INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A85,"_",B$83),$A$1:$P$1,0))</f>
+      <c r="B85" s="56">
+        <f t="shared" ref="B85:C86" si="13">INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A85,"_",B$83),$A$1:$P$1,0))</f>
         <v>898700</v>
       </c>
-      <c r="C85" s="60">
-        <f t="shared" si="15"/>
+      <c r="C85" s="57">
+        <f t="shared" si="13"/>
         <v>740966.94999999902</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="80">
-        <f t="shared" si="15"/>
+      <c r="B86" s="71">
+        <f t="shared" si="13"/>
         <v>878300</v>
       </c>
-      <c r="C86" s="61">
-        <f t="shared" si="15"/>
+      <c r="C86" s="58">
+        <f t="shared" si="13"/>
         <v>777215.28999999899</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="72"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="74"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="62" t="s">
+    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="65"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="67"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="64"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="66" t="s">
+      <c r="B88" s="60"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="61"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="65">
+      <c r="B89" s="62">
         <v>1</v>
       </c>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65">
+      <c r="C89" s="62"/>
+      <c r="D89" s="62">
         <v>2</v>
       </c>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65">
+      <c r="E89" s="62"/>
+      <c r="F89" s="62">
         <v>3</v>
       </c>
-      <c r="G89" s="67"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="54"/>
-      <c r="B90" s="70" t="s">
+      <c r="G89" s="64"/>
+    </row>
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="75"/>
+      <c r="B90" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="70" t="s">
+      <c r="C90" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="70" t="s">
+      <c r="D90" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="70" t="s">
+      <c r="E90" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="F90" s="70" t="s">
+      <c r="F90" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="G90" s="71" t="s">
+      <c r="G90" s="77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="38" t="s">
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="8" t="str">
-        <f>_xlfn.XLOOKUP(MIN(E2:E52),E2:E52,A2:A52)</f>
+      <c r="B91" s="73" t="str">
+        <f>_xlfn.XLOOKUP(MIN(E$2:E$52),E$2:E$52,A$2:A$52)</f>
         <v>Clerk and Master - Chancery</v>
       </c>
-      <c r="C91" s="9">
-        <f>MIN(E2:E52)</f>
+      <c r="C91" s="74">
+        <f>MIN(E$2:E$52)</f>
         <v>-0.15235918433091292</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="38" t="s">
+      <c r="D91" s="73">
+        <f t="shared" ref="D91" si="14">_xlfn.XLOOKUP(MIN(G$2:G$52),G$2:G$52,C$2:C$52)</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="74">
+        <f t="shared" ref="E91" si="15">MIN(G$2:G$52)</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="73">
+        <f t="shared" ref="F91" si="16">_xlfn.XLOOKUP(MIN(I$2:I$52),I$2:I$52,E$2:E$52)</f>
+        <v>-4.3170750765267295E-2</v>
+      </c>
+      <c r="G91" s="74">
+        <f t="shared" ref="G91" si="17">MIN(I$2:I$52)</f>
+        <v>-36344389.180000007</v>
+      </c>
+      <c r="I91" s="79"/>
+      <c r="J91" s="80"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
+      <c r="B92" s="8" t="str">
+        <f>_xlfn.XLOOKUP(MIN(J$2:J$52),J$2:J$52,A$2:A$52)</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="C92" s="9">
+        <f>MIN(J$2:J$52)</f>
+        <v>-0.17551246244575608</v>
+      </c>
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="68"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="39" t="s">
+      <c r="G92" s="9"/>
+      <c r="I92" s="79"/>
+      <c r="J92" s="80"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="69"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="62" t="s">
+      <c r="B93" s="8" t="str">
+        <f>_xlfn.XLOOKUP(MIN(O$2:O$52),O$2:O$52,A$2:A$52)</f>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C93" s="9">
+        <f>MIN(O$2:O$52)</f>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="9"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="79"/>
+    </row>
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I94" s="79"/>
+      <c r="J94" s="79"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="63"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="64"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="66" t="s">
+      <c r="B95" s="60"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="61"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="65">
+      <c r="B96" s="62">
         <v>1</v>
       </c>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65">
+      <c r="C96" s="62"/>
+      <c r="D96" s="62">
         <v>2</v>
       </c>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65">
+      <c r="E96" s="62"/>
+      <c r="F96" s="62">
         <v>3</v>
       </c>
-      <c r="G96" s="67"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="54"/>
-      <c r="B97" s="70" t="s">
+      <c r="G96" s="64"/>
+    </row>
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="75"/>
+      <c r="B97" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="70" t="s">
+      <c r="C97" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="D97" s="70" t="s">
+      <c r="D97" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="70" t="s">
+      <c r="E97" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="70" t="s">
+      <c r="F97" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="G97" s="71" t="s">
+      <c r="G97" s="77" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B98" t="str" cm="1">
-        <f t="array" ref="B98">INDEX(A2:A52,MATCH(_xlfn.CONCAT($A$98,"*_pct"),$A$1:$P$1,0),0)</f>
+      <c r="B98" s="73" t="str" cm="1">
+        <f t="array" ref="B98">INDEX($A$2:$A$52,MATCH(_xlfn.CONCAT($A98,"*_pct"),$A$1:$P$1,0),0)</f>
         <v>Beer Board</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="68"/>
+      <c r="C98" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" s="73" t="e">
+        <f>MATCH(MATCH(_xlfn.CONCAT($A99,"*_pct"),$A$1:$P$1,0),$A$2:$A$52,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E98" s="74"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="74"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="8"/>
+      <c r="B99" s="8" t="e">
+        <f>INDEX($A$2:$P$52,MATCH(MATCH(_xlfn.CONCAT($A99,"*_pct"),$A$1:$P$1,0),$A$2:$A$52,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="C99" s="9"/>
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
       <c r="F99" s="8"/>
-      <c r="G99" s="68"/>
+      <c r="G99" s="9"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="39" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="40"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="69"/>
+      <c r="B100" s="8" t="str" cm="1">
+        <f t="array" ref="B100">INDEX($A$2:$A$52,MATCH(_xlfn.CONCAT($A100,"*_pct"),$A$1:$P$1,0),0)</f>
+        <v>District Attorney</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="9"/>
       <c r="I100" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83 B87 B82" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/483805976292d47c/Documents/NSS/excel/da16-lookups-exercise-janvimehendale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="853" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A5FFCF1-5AE4-495D-A8F7-31158A40F294}"/>
+  <xr:revisionPtr revIDLastSave="944" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A3123F-65DB-4DDB-80E9-8B168726564D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,7 +782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1255,6 +1255,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1300,7 +1350,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1393,11 +1443,15 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3059,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3132,7 +3186,7 @@
       <c r="O1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3190,7 +3244,7 @@
         <f>IFERROR(N2/L2,0)</f>
         <v>-5.6484362894991494E-2</v>
       </c>
-      <c r="P2" s="48">
+      <c r="P2" s="80">
         <f>RANK(O2,$O$2:$O$52,1)</f>
         <v>14</v>
       </c>
@@ -3249,7 +3303,7 @@
         <f t="shared" ref="O3:O52" si="7">IFERROR(N3/L3,0)</f>
         <v>-1.3540749922529313E-3</v>
       </c>
-      <c r="P3" s="41">
+      <c r="P3" s="43">
         <f t="shared" ref="P3:P52" si="8">RANK(O3,$O$2:$O$52,1)</f>
         <v>37</v>
       </c>
@@ -3308,7 +3362,7 @@
         <f t="shared" si="7"/>
         <v>-2.6599210899959033E-2</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="43">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
@@ -3367,7 +3421,7 @@
         <f t="shared" si="7"/>
         <v>-3.3800336357544182E-2</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="43">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
@@ -3426,7 +3480,7 @@
         <f t="shared" si="7"/>
         <v>-1.925202156356929E-4</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="43">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
@@ -3485,7 +3539,7 @@
         <f t="shared" si="7"/>
         <v>-0.11920361114432618</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="43">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
@@ -3544,7 +3598,7 @@
         <f t="shared" si="7"/>
         <v>-0.15295680364719175</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="43">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -3603,7 +3657,7 @@
         <f t="shared" si="7"/>
         <v>-7.3852043000788653E-2</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="43">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
@@ -3662,7 +3716,7 @@
         <f t="shared" si="7"/>
         <v>-1.883298461538465E-2</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="43">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
@@ -3721,7 +3775,7 @@
         <f t="shared" si="7"/>
         <v>-0.82994157333333329</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="43">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3780,7 +3834,7 @@
         <f t="shared" si="7"/>
         <v>-6.5433934755654441E-2</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="43">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -3839,7 +3893,7 @@
         <f t="shared" si="7"/>
         <v>-2.4217184605222895E-2</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="43">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
@@ -3898,7 +3952,7 @@
         <f t="shared" si="7"/>
         <v>-4.0308095781071827E-2</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="43">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
@@ -3957,7 +4011,7 @@
         <f t="shared" si="7"/>
         <v>-2.3829085727446114E-2</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="43">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
@@ -4016,7 +4070,7 @@
         <f t="shared" si="7"/>
         <v>-1.4464932677229222E-5</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="43">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
@@ -4075,7 +4129,7 @@
         <f t="shared" si="7"/>
         <v>-6.3071811282801551E-2</v>
       </c>
-      <c r="P17" s="41">
+      <c r="P17" s="43">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
@@ -4134,7 +4188,7 @@
         <f t="shared" si="7"/>
         <v>-0.12882667147667154</v>
       </c>
-      <c r="P18" s="41">
+      <c r="P18" s="43">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
@@ -4193,7 +4247,7 @@
         <f t="shared" si="7"/>
         <v>-6.1687262121374278E-2</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="43">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
@@ -4252,7 +4306,7 @@
         <f t="shared" si="7"/>
         <v>-8.9158438821450736E-7</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="43">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
@@ -4311,7 +4365,7 @@
         <f t="shared" si="7"/>
         <v>-3.6546762734864152E-2</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="43">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
@@ -4370,7 +4424,7 @@
         <f t="shared" si="7"/>
         <v>-6.2439674240938325E-5</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="43">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
@@ -4429,7 +4483,7 @@
         <f t="shared" si="7"/>
         <v>-2.5892971236375011E-2</v>
       </c>
-      <c r="P23" s="41">
+      <c r="P23" s="43">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
@@ -4488,7 +4542,7 @@
         <f t="shared" si="7"/>
         <v>-6.5504224339284781E-5</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="43">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
@@ -4547,7 +4601,7 @@
         <f t="shared" si="7"/>
         <v>-3.4741188318228064E-3</v>
       </c>
-      <c r="P25" s="41">
+      <c r="P25" s="43">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
@@ -4606,7 +4660,7 @@
         <f t="shared" si="7"/>
         <v>-5.7720881286022069E-2</v>
       </c>
-      <c r="P26" s="41">
+      <c r="P26" s="43">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
@@ -4665,7 +4719,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P27" s="41">
+      <c r="P27" s="43">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4724,7 +4778,7 @@
         <f t="shared" si="7"/>
         <v>-8.6909325643882263E-2</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="43">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -4783,7 +4837,7 @@
         <f t="shared" si="7"/>
         <v>-1.2225336516860273E-5</v>
       </c>
-      <c r="P29" s="41">
+      <c r="P29" s="43">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
@@ -4842,7 +4896,7 @@
         <f t="shared" si="7"/>
         <v>-2.7439209100169185E-3</v>
       </c>
-      <c r="P30" s="41">
+      <c r="P30" s="43">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
@@ -4901,7 +4955,7 @@
         <f t="shared" si="7"/>
         <v>-3.7049585716576634E-2</v>
       </c>
-      <c r="P31" s="41">
+      <c r="P31" s="43">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
@@ -4960,7 +5014,7 @@
         <f t="shared" si="7"/>
         <v>-2.7581118653977402E-2</v>
       </c>
-      <c r="P32" s="41">
+      <c r="P32" s="43">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
@@ -5019,7 +5073,7 @@
         <f t="shared" si="7"/>
         <v>-5.5141067323084929E-3</v>
       </c>
-      <c r="P33" s="41">
+      <c r="P33" s="43">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
@@ -5078,7 +5132,7 @@
         <f t="shared" si="7"/>
         <v>-2.6647296115611244E-2</v>
       </c>
-      <c r="P34" s="41">
+      <c r="P34" s="43">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
@@ -5137,7 +5191,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P35" s="41">
+      <c r="P35" s="43">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -5196,7 +5250,7 @@
         <f t="shared" si="7"/>
         <v>-0.11509132414892521</v>
       </c>
-      <c r="P36" s="41">
+      <c r="P36" s="43">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
@@ -5255,7 +5309,7 @@
         <f t="shared" si="7"/>
         <v>-8.1928538464887526E-2</v>
       </c>
-      <c r="P37" s="41">
+      <c r="P37" s="43">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -5314,7 +5368,7 @@
         <f t="shared" si="7"/>
         <v>-1.7580354847003174E-4</v>
       </c>
-      <c r="P38" s="41">
+      <c r="P38" s="43">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
@@ -5373,7 +5427,7 @@
         <f t="shared" si="7"/>
         <v>-4.4919653310605226E-2</v>
       </c>
-      <c r="P39" s="41">
+      <c r="P39" s="43">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
@@ -5432,7 +5486,7 @@
         <f t="shared" si="7"/>
         <v>-1.5178676768608648E-2</v>
       </c>
-      <c r="P40" s="41">
+      <c r="P40" s="43">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
@@ -5491,7 +5545,7 @@
         <f t="shared" si="7"/>
         <v>-1.7099804162586642E-2</v>
       </c>
-      <c r="P41" s="41">
+      <c r="P41" s="43">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -5550,7 +5604,7 @@
         <f t="shared" si="7"/>
         <v>-1.8129115815929696E-7</v>
       </c>
-      <c r="P42" s="41">
+      <c r="P42" s="43">
         <f t="shared" si="8"/>
         <v>47</v>
       </c>
@@ -5609,7 +5663,7 @@
         <f t="shared" si="7"/>
         <v>-4.0778750220654303E-2</v>
       </c>
-      <c r="P43" s="41">
+      <c r="P43" s="43">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
@@ -5668,7 +5722,7 @@
         <f t="shared" si="7"/>
         <v>-1.8780648419868168E-6</v>
       </c>
-      <c r="P44" s="41">
+      <c r="P44" s="43">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
@@ -5727,7 +5781,7 @@
         <f t="shared" si="7"/>
         <v>-1.1432866237947358E-2</v>
       </c>
-      <c r="P45" s="41">
+      <c r="P45" s="43">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
@@ -5786,7 +5840,7 @@
         <f t="shared" si="7"/>
         <v>-4.6225533508053113E-2</v>
       </c>
-      <c r="P46" s="41">
+      <c r="P46" s="43">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
@@ -5845,7 +5899,7 @@
         <f t="shared" si="7"/>
         <v>-2.9266019117572752E-4</v>
       </c>
-      <c r="P47" s="41">
+      <c r="P47" s="43">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
@@ -5904,7 +5958,7 @@
         <f t="shared" si="7"/>
         <v>-5.5893132870587676E-2</v>
       </c>
-      <c r="P48" s="41">
+      <c r="P48" s="43">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
@@ -5963,7 +6017,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P49" s="41">
+      <c r="P49" s="43">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -6022,7 +6076,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P50" s="41">
+      <c r="P50" s="43">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -6081,7 +6135,7 @@
         <f t="shared" si="7"/>
         <v>-1.1100045280114048E-2</v>
       </c>
-      <c r="P51" s="41">
+      <c r="P51" s="43">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
@@ -6096,7 +6150,7 @@
       <c r="C52" s="19">
         <v>2254684.7999999998</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="81">
         <f t="shared" si="0"/>
         <v>-196315.20000000019</v>
       </c>
@@ -6104,7 +6158,7 @@
         <f t="shared" si="1"/>
         <v>-8.009596083231342E-2</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="82">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -6114,7 +6168,7 @@
       <c r="H52" s="23">
         <v>2204672.88</v>
       </c>
-      <c r="I52" s="32">
+      <c r="I52" s="83">
         <f t="shared" si="3"/>
         <v>-236027.12000000011</v>
       </c>
@@ -6122,7 +6176,7 @@
         <f t="shared" si="4"/>
         <v>-9.6704683082722218E-2</v>
       </c>
-      <c r="K52" s="70">
+      <c r="K52" s="84">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -6140,7 +6194,7 @@
         <f t="shared" si="7"/>
         <v>-0.11404408166781529</v>
       </c>
-      <c r="P52" s="45">
+      <c r="P52" s="47">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -6646,74 +6700,49 @@
         <v>73</v>
       </c>
       <c r="B91" s="73" t="str">
-        <f>_xlfn.XLOOKUP(MIN(E$2:E$52),E$2:E$52,A$2:A$52)</f>
+        <f>_xlfn.XLOOKUP(B$89,$F$2:$F$52,$A$2:$A$52)</f>
         <v>Clerk and Master - Chancery</v>
       </c>
       <c r="C91" s="74">
-        <f>MIN(E$2:E$52)</f>
+        <f>_xlfn.XLOOKUP(B$89,$F$2:$F$52,$E$2:$E$52)</f>
         <v>-0.15235918433091292</v>
       </c>
-      <c r="D91" s="73">
-        <f t="shared" ref="D91" si="14">_xlfn.XLOOKUP(MIN(G$2:G$52),G$2:G$52,C$2:C$52)</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="74">
-        <f t="shared" ref="E91" si="15">MIN(G$2:G$52)</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="73">
-        <f t="shared" ref="F91" si="16">_xlfn.XLOOKUP(MIN(I$2:I$52),I$2:I$52,E$2:E$52)</f>
-        <v>-4.3170750765267295E-2</v>
-      </c>
-      <c r="G91" s="74">
-        <f t="shared" ref="G91" si="17">MIN(I$2:I$52)</f>
-        <v>-36344389.180000007</v>
-      </c>
-      <c r="I91" s="79"/>
-      <c r="J91" s="80"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="74"/>
+      <c r="J91" s="79"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="8" t="str">
-        <f>_xlfn.XLOOKUP(MIN(J$2:J$52),J$2:J$52,A$2:A$52)</f>
-        <v>Metropolitan Clerk</v>
-      </c>
-      <c r="C92" s="9">
-        <f>MIN(J$2:J$52)</f>
-        <v>-0.17551246244575608</v>
-      </c>
+      <c r="B92" s="73" t="str" cm="1">
+        <f t="array" ref="B92">_xlfn.XLOOKUP(B$89,INDEX(A2:A52,MATCH(_xlfn.CONCAT(A92,"_","rank"),$A$1:$P$1,0)),$A$2:$A$52,"NOT FOUND",0)</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="C92" s="9"/>
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
-      <c r="I92" s="79"/>
-      <c r="J92" s="80"/>
+      <c r="J92" s="79"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="8" t="str">
-        <f>_xlfn.XLOOKUP(MIN(O$2:O$52),O$2:O$52,A$2:A$52)</f>
-        <v>Community Oversight Board</v>
-      </c>
-      <c r="C93" s="9">
-        <f>MIN(O$2:O$52)</f>
-        <v>-0.82994157333333329</v>
-      </c>
+      <c r="B93" s="73" t="str" cm="1">
+        <f t="array" ref="B93">_xlfn.XLOOKUP(B$89,MATCH(_xlfn.CONCAT(A93,"_","rank"),$A$1:$P$1,0),$A$2:$A$52,"NOT FOUND",0)</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="C93" s="9"/>
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
       <c r="F93" s="8"/>
       <c r="G93" s="9"/>
-      <c r="I93" s="79"/>
-      <c r="J93" s="79"/>
-    </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I94" s="79"/>
-      <c r="J94" s="79"/>
-    </row>
+    </row>
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="59" t="s">
         <v>79</v>
@@ -6767,9 +6796,9 @@
       <c r="A98" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B98" s="73" t="str" cm="1">
-        <f t="array" ref="B98">INDEX($A$2:$A$52,MATCH(_xlfn.CONCAT($A98,"*_pct"),$A$1:$P$1,0),0)</f>
-        <v>Beer Board</v>
+      <c r="B98" s="73" t="e">
+        <f>INDEX($A$2:$A$52,MATCH(B96,MATCH(_xlfn.CONCAT(A98,"_","rank"),$A$1:$P$1,0),0))</f>
+        <v>#N/A</v>
       </c>
       <c r="C98" s="74" t="s">
         <v>106</v>
@@ -6812,6 +6841,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
       <c r="I100" s="3"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C102" t="str">
+        <f>(_xlfn.CONCAT(A92,"_","rank"))</f>
+        <v>FY18_rank</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C103">
+        <f>MATCH(_xlfn.CONCAT(A92,"_","rank"),$A$1:$P$1,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C104" t="str">
+        <f>INDEX(A2:A52,MATCH(_xlfn.CONCAT(A92,"_","rank"),$A$1:$P$1,0))</f>
+        <v>County Clerk</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="2">

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/483805976292d47c/Documents/NSS/excel/da16-lookups-exercise-janvimehendale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="944" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A3123F-65DB-4DDB-80E9-8B168726564D}"/>
+  <xr:revisionPtr revIDLastSave="952" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25F8A7E-E084-4CA2-BD7E-70C00D4A41D8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1538,6 +1538,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -1570,6 +1573,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -1636,13 +1642,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -1766,13 +1773,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -1895,6 +1903,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -1966,6 +1977,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -2013,6 +2027,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -2043,28 +2060,36 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
         </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
+      <a:lin ang="5400000" scaled="1"/>
       <a:tileRect/>
     </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2075,7 +2100,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3115,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6565,11 +6594,11 @@
         <f t="shared" si="12"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="23">
         <f t="shared" si="11"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D79" s="43">
+      <c r="D79" s="47">
         <f t="shared" si="11"/>
         <v>-82077.349999999627</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/483805976292d47c/Documents/NSS/excel/da16-lookups-exercise-janvimehendale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="952" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25F8A7E-E084-4CA2-BD7E-70C00D4A41D8}"/>
+  <xr:revisionPtr revIDLastSave="1200" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB408766-797E-4918-A772-E613329CBFE0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">metro_budget!$A$1:$P$52</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">metro_budget!$A$111:$A$113</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">metro_budget!$B$109:$B$110</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">metro_budget!$B$111:$B$113</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">metro_budget!$C$109:$C$110</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">metro_budget!$C$111:$C$113</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">metro_budget!$A$111:$A$113</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">metro_budget!$B$109:$B$110</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">metro_budget!$B$111:$B$113</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">metro_budget!$C$109:$C$110</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">metro_budget!$C$111:$C$113</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="109">
   <si>
     <t>Department</t>
   </si>
@@ -380,7 +390,13 @@
     <t>9. Do the same as above, but using only INDEX and MATCH.</t>
   </si>
   <si>
-    <t>=INDEX($A$2:$P$52,MATCH(,$A$2:$A$52,0)),MATCH(CONCAT($A99,"*_pct"),$A$1:$P$1,0),0)</t>
+    <t>Question 3 - Challenge Q7</t>
+  </si>
+  <si>
+    <t>Question 4 - Challenge Q7</t>
+  </si>
+  <si>
+    <t>Question 5  - Challenge Q7</t>
   </si>
 </sst>
 </file>
@@ -553,7 +569,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,8 +797,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1305,6 +1327,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1350,7 +1405,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1367,8 +1422,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,6 +1505,17 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1595,7 +1659,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1603,11 +1667,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>metro_budget!$B$82:$B$83</c:f>
+              <c:f>metro_budget!$B$109:$B$110</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Metropolitan Clerk</c:v>
+                  <c:v>Codes Administration</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Budget</c:v>
@@ -1690,7 +1754,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:f>metro_budget!$A$111:$A$113</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1707,18 +1771,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metro_budget!$B$84:$B$86</c:f>
+              <c:f>metro_budget!$B$111:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>798200</c:v>
+                  <c:v>9349400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>898700</c:v>
+                  <c:v>11073700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>878300</c:v>
+                  <c:v>10790500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,11 +1798,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>metro_budget!$C$82:$C$83</c:f>
+              <c:f>metro_budget!$C$109:$C$110</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Metropolitan Clerk</c:v>
+                  <c:v>Codes Administration</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Actual</c:v>
@@ -1821,7 +1885,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:f>metro_budget!$A$111:$A$113</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1838,18 +1902,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metro_budget!$C$84:$C$86</c:f>
+              <c:f>metro_budget!$C$111:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>735423.27999999898</c:v>
+                  <c:v>8952825.2799999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>740966.94999999902</c:v>
+                  <c:v>9929059.5199999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>777215.28999999899</c:v>
+                  <c:v>9993599.52999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,7 +1943,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1933,7 +1997,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2699,13 +2763,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>841375</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3037,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C48D45-1BE3-4B33-A856-F38C2E92A17A}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3083,32 +3147,32 @@
       <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3121,7 +3185,7 @@
       <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3142,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3170,3731 +3234,4193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="24">
         <v>356640100</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="25">
         <v>341243679.13</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="26">
         <f>(C2-B2)</f>
         <v>-15396420.870000005</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="27">
         <f>IFERROR(D2/B2,0)</f>
         <v>-4.3170750765267295E-2</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="28">
         <f>RANK(E2,$E$2:$E$52,1)</f>
         <v>14</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="29">
         <v>382685200</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="30">
         <v>346340810.81999999</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="30">
         <f>(H2-G2)</f>
         <v>-36344389.180000007</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="31">
         <f>IFERROR(I2/G2,0)</f>
         <v>-9.4972027086493035E-2</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="68">
         <f>RANK(J2,$J$2:$J$52,1)</f>
         <v>10</v>
       </c>
-      <c r="L2" s="68">
+      <c r="L2" s="66">
         <v>376548600</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="46">
         <v>355279492.22999901</v>
       </c>
-      <c r="N2" s="48">
+      <c r="N2" s="46">
         <f>(M2-L2)</f>
         <v>-21269107.770000994</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="47">
         <f>IFERROR(N2/L2,0)</f>
         <v>-5.6484362894991494E-2</v>
       </c>
-      <c r="P2" s="80">
+      <c r="P2" s="78">
         <f>RANK(O2,$O$2:$O$52,1)</f>
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>328800</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>321214.59000000003</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <f t="shared" ref="D3:D52" si="0">(C3-B3)</f>
         <v>-7585.4099999999744</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E52" si="1">IFERROR(D3/B3,0)</f>
         <v>-2.3069981751824741E-2</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="28">
         <f t="shared" ref="F3:F52" si="2">RANK(E3,$E$2:$E$52,1)</f>
         <v>22</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>334800</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>312433.70999999897</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="30">
         <f t="shared" ref="I3:I52" si="3">(H3-G3)</f>
         <v>-22366.290000001027</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <f t="shared" ref="J3:J52" si="4">IFERROR(I3/G3,0)</f>
         <v>-6.6804928315415249E-2</v>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="68">
         <f t="shared" ref="K3:K52" si="5">RANK(J3,$J$2:$J$52,1)</f>
         <v>14</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="38">
         <v>322700</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="39">
         <v>322263.03999999998</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="39">
         <f t="shared" ref="N3:N52" si="6">(M3-L3)</f>
         <v>-436.96000000002095</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="40">
         <f t="shared" ref="O3:O52" si="7">IFERROR(N3/L3,0)</f>
         <v>-1.3540749922529313E-3</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="41">
         <f t="shared" ref="P3:P52" si="8">RANK(O3,$O$2:$O$52,1)</f>
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>3130600</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>3115157.5599999898</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <f t="shared" si="0"/>
         <v>-15442.440000010189</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <f t="shared" si="1"/>
         <v>-4.9327413275443007E-3</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="28">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <v>3652300</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>3589693.2099999902</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="30">
         <f t="shared" si="3"/>
         <v>-62606.790000009816</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <f t="shared" si="4"/>
         <v>-1.7141743558856015E-2</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="68">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="38">
         <v>3662400</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="39">
         <v>3564983.04999999</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="39">
         <f t="shared" si="6"/>
         <v>-97416.950000009965</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="40">
         <f t="shared" si="7"/>
         <v>-2.6599210899959033E-2</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="41">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>7670700</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>6947552.6699999999</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <f t="shared" si="0"/>
         <v>-723147.33000000007</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <f t="shared" si="1"/>
         <v>-9.4273968477453174E-2</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <v>7968300</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>7020609.3200000003</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="30">
         <f t="shared" si="3"/>
         <v>-947690.6799999997</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="12">
         <f t="shared" si="4"/>
         <v>-0.118932605449092</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="68">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="38">
         <v>7759600</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="39">
         <v>7497322.9100000001</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="39">
         <f t="shared" si="6"/>
         <v>-262277.08999999985</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="40">
         <f t="shared" si="7"/>
         <v>-3.3800336357544182E-2</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="41">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>409300</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>385908.52</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <f t="shared" si="0"/>
         <v>-23391.479999999981</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <f t="shared" si="1"/>
         <v>-5.7149963352064452E-2</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="28">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>428500</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>427758.64</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="30">
         <f t="shared" si="3"/>
         <v>-741.35999999998603</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="12">
         <f t="shared" si="4"/>
         <v>-1.7301283547257551E-3</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="68">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="38">
         <v>445200</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="39">
         <v>445114.28999999899</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="39">
         <f t="shared" si="6"/>
         <v>-85.710000001010485</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="40">
         <f t="shared" si="7"/>
         <v>-1.925202156356929E-4</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="41">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>3329000</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>2946071.21</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <f t="shared" si="0"/>
         <v>-382928.79000000004</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f t="shared" si="1"/>
         <v>-0.11502817362571344</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>3390900</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>3051483.41</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="30">
         <f t="shared" si="3"/>
         <v>-339416.58999999985</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <f t="shared" si="4"/>
         <v>-0.10009631366303927</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="68">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="38">
         <v>3345200</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="39">
         <v>2946440.08</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="39">
         <f t="shared" si="6"/>
         <v>-398759.91999999993</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="40">
         <f t="shared" si="7"/>
         <v>-0.11920361114432618</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="41">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>1552100</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>1315623.30999999</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <f t="shared" si="0"/>
         <v>-236476.69000000996</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <f t="shared" si="1"/>
         <v>-0.15235918433091292</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>1590700</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>1383905.98999999</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="30">
         <f t="shared" si="3"/>
         <v>-206794.01000001002</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <f t="shared" si="4"/>
         <v>-0.13000189224870184</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="68">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="38">
         <v>1579300</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="39">
         <v>1337735.3199999901</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="39">
         <f t="shared" si="6"/>
         <v>-241564.68000000995</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="40">
         <f t="shared" si="7"/>
         <v>-0.15295680364719175</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="41">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>9349400</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>8952825.2799999993</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <f t="shared" si="0"/>
         <v>-396574.72000000067</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <f t="shared" si="1"/>
         <v>-4.2417130511048909E-2</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="28">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>11073700</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>9929059.5199999996</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="30">
         <f t="shared" si="3"/>
         <v>-1144640.4800000004</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="12">
         <f t="shared" si="4"/>
         <v>-0.10336567542917005</v>
       </c>
-      <c r="K9" s="70">
+      <c r="K9" s="68">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="38">
         <v>10790500</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="39">
         <v>9993599.52999999</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="39">
         <f t="shared" si="6"/>
         <v>-796900.47000000998</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="40">
         <f t="shared" si="7"/>
         <v>-7.3852043000788653E-2</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="41">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>443300</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>407090.37</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <f t="shared" si="0"/>
         <v>-36209.630000000005</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <f t="shared" si="1"/>
         <v>-8.1681998646514792E-2</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>495200</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>467907.84000000003</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="30">
         <f t="shared" si="3"/>
         <v>-27292.159999999974</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <f t="shared" si="4"/>
         <v>-5.5113408723747932E-2</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="68">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="38">
         <v>487500</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="39">
         <v>478318.92</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="39">
         <f t="shared" si="6"/>
         <v>-9181.0800000000163</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="40">
         <f t="shared" si="7"/>
         <v>-1.883298461538465E-2</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="41">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>0</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>0</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="28">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <v>0</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <v>0</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="68">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="38">
         <v>375000</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="39">
         <v>63771.91</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="39">
         <f t="shared" si="6"/>
         <v>-311228.08999999997</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="40">
         <f t="shared" si="7"/>
         <v>-0.82994157333333329</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="41">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>4280900</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>4066595.33</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <f t="shared" si="0"/>
         <v>-214304.66999999993</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <f t="shared" si="1"/>
         <v>-5.0060657805601608E-2</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="28">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>4700400</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <v>4205555.5999999996</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="30">
         <f t="shared" si="3"/>
         <v>-494844.40000000037</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <f t="shared" si="4"/>
         <v>-0.10527708280146378</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="68">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="38">
         <v>4677800</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="39">
         <v>4371713.1399999997</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="39">
         <f t="shared" si="6"/>
         <v>-306086.86000000034</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="40">
         <f t="shared" si="7"/>
         <v>-6.5433934755654441E-2</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="41">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>5847800</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>5772288.3300000001</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <f t="shared" si="0"/>
         <v>-75511.669999999925</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
         <v>-1.2912833886247806E-2</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="28">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>6223700</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <v>5909077.9399999902</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="30">
         <f t="shared" si="3"/>
         <v>-314622.06000000983</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <f t="shared" si="4"/>
         <v>-5.0552253482656594E-2</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="68">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="38">
         <v>6207300</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="39">
         <v>6056976.6699999999</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="39">
         <f t="shared" si="6"/>
         <v>-150323.33000000007</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="40">
         <f t="shared" si="7"/>
         <v>-2.4217184605222895E-2</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="41">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>512000</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>505017.37</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <f t="shared" si="0"/>
         <v>-6982.6300000000047</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
         <v>-1.3637949218750009E-2</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="28">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <v>530500</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <v>524402.98</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="30">
         <f t="shared" si="3"/>
         <v>-6097.0200000000186</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <f t="shared" si="4"/>
         <v>-1.1492968897266765E-2</v>
       </c>
-      <c r="K14" s="70">
+      <c r="K14" s="68">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="38">
         <v>526200</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="39">
         <v>504989.88</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="39">
         <f t="shared" si="6"/>
         <v>-21210.119999999995</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="40">
         <f t="shared" si="7"/>
         <v>-4.0308095781071827E-2</v>
       </c>
-      <c r="P14" s="43">
+      <c r="P14" s="41">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>156049100</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>156545919.90000001</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="26">
         <f t="shared" si="0"/>
         <v>496819.90000000596</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <f t="shared" si="1"/>
         <v>3.1837408866824991E-3</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="28">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <v>184167800</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <v>175966389.24999899</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="30">
         <f t="shared" si="3"/>
         <v>-8201410.7500010133</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <f t="shared" si="4"/>
         <v>-4.4532273014072019E-2</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="68">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="38">
         <v>188953500</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="39">
         <v>184450910.84999901</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="39">
         <f t="shared" si="6"/>
         <v>-4502589.1500009894</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="40">
         <f t="shared" si="7"/>
         <v>-2.3829085727446114E-2</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="41">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>6600700</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>6522480.4599999897</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="26">
         <f t="shared" si="0"/>
         <v>-78219.540000010282</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <f t="shared" si="1"/>
         <v>-1.1850188616360429E-2</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="28">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>7352500</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <v>7350464.0800000001</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="30">
         <f t="shared" si="3"/>
         <v>-2035.9199999999255</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <f t="shared" si="4"/>
         <v>-2.769017341040361E-4</v>
       </c>
-      <c r="K16" s="70">
+      <c r="K16" s="68">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="38">
         <v>7397200</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="39">
         <v>7397093</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="39">
         <f t="shared" si="6"/>
         <v>-107</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="40">
         <f t="shared" si="7"/>
         <v>-1.4464932677229222E-5</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="41">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>14860800</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>14439480.050000001</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="26">
         <f t="shared" si="0"/>
         <v>-421319.94999999925</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
         <v>-2.8351094826658003E-2</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="28">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>15309700</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <v>14645233.51</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="30">
         <f t="shared" si="3"/>
         <v>-664466.49000000022</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <f t="shared" si="4"/>
         <v>-4.3401666263871937E-2</v>
       </c>
-      <c r="K17" s="70">
+      <c r="K17" s="68">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="38">
         <v>15311800</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="39">
         <v>14346057.039999999</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="39">
         <f t="shared" si="6"/>
         <v>-965742.96000000089</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="40">
         <f t="shared" si="7"/>
         <v>-6.3071811282801551E-2</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="41">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>2764700</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>2615303.8999999901</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="26">
         <f t="shared" si="0"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <f t="shared" si="1"/>
         <v>-5.4037002206391245E-2</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="28">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="19">
         <v>2861000</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <v>2671745.94</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="30">
         <f t="shared" si="3"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <f t="shared" si="4"/>
         <v>-6.6149619014330668E-2</v>
       </c>
-      <c r="K18" s="70">
+      <c r="K18" s="68">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="38">
         <v>2910600</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="39">
         <v>2535637.09</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="39">
         <f t="shared" si="6"/>
         <v>-374962.91000000015</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="40">
         <f t="shared" si="7"/>
         <v>-0.12882667147667154</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="41">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>8837300</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>8460963.1999999899</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="26">
         <f t="shared" si="0"/>
         <v>-376336.80000001006</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <f t="shared" si="1"/>
         <v>-4.258504294298146E-2</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="28">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="19">
         <v>9713300</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <v>8991707.2399999909</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="30">
         <f t="shared" si="3"/>
         <v>-721592.76000000909</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <f t="shared" si="4"/>
         <v>-7.4289145810384635E-2</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="68">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="38">
         <v>9343000</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="39">
         <v>8766655.9100000001</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="39">
         <f t="shared" si="6"/>
         <v>-576344.08999999985</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="40">
         <f t="shared" si="7"/>
         <v>-6.1687262121374278E-2</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="41">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>124385900</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>124384360.159999</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="26">
         <f t="shared" si="0"/>
         <v>-1539.8400010019541</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>-1.2379538203300809E-5</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="28">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="19">
         <v>131849400</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <v>131839624.37</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="30">
         <f t="shared" si="3"/>
         <v>-9775.6299999952316</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="12">
         <f t="shared" si="4"/>
         <v>-7.4142392760188761E-5</v>
       </c>
-      <c r="K20" s="70">
+      <c r="K20" s="68">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="38">
         <v>130621400</v>
       </c>
-      <c r="M20" s="41">
+      <c r="M20" s="39">
         <v>130621283.53999899</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="39">
         <f t="shared" si="6"/>
         <v>-116.46000100672245</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="40">
         <f t="shared" si="7"/>
         <v>-8.9158438821450736E-7</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="41">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>24332100</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>22408587.5499999</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="26">
         <f t="shared" si="0"/>
         <v>-1923512.4500000998</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f t="shared" si="1"/>
         <v>-7.9052463618023094E-2</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="19">
         <v>24497400</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <v>22655993.629999999</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="30">
         <f t="shared" si="3"/>
         <v>-1841406.370000001</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="12">
         <f t="shared" si="4"/>
         <v>-7.5167420624229556E-2</v>
       </c>
-      <c r="K21" s="70">
+      <c r="K21" s="68">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="38">
         <v>24323000</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="39">
         <v>23434073.089999899</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="39">
         <f t="shared" si="6"/>
         <v>-888926.91000010073</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="40">
         <f t="shared" si="7"/>
         <v>-3.6546762734864152E-2</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="41">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>11566000</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>11412339.8799999</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="26">
         <f t="shared" si="0"/>
         <v>-153660.12000009976</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <f t="shared" si="1"/>
         <v>-1.3285502334437123E-2</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="28">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="19">
         <v>11980700</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="11">
         <v>11791977.9699999</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="30">
         <f t="shared" si="3"/>
         <v>-188722.03000009991</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="12">
         <f t="shared" si="4"/>
         <v>-1.5752170574348738E-2</v>
       </c>
-      <c r="K22" s="70">
+      <c r="K22" s="68">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="38">
         <v>11935200</v>
       </c>
-      <c r="M22" s="41">
+      <c r="M22" s="39">
         <v>11934454.77</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="39">
         <f t="shared" si="6"/>
         <v>-745.23000000044703</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="40">
         <f t="shared" si="7"/>
         <v>-6.2439674240938325E-5</v>
       </c>
-      <c r="P22" s="43">
+      <c r="P22" s="41">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="15">
         <v>20862700</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>20036743.4099999</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="26">
         <f t="shared" si="0"/>
         <v>-825956.59000010043</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <f t="shared" si="1"/>
         <v>-3.9590110100806722E-2</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="28">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="19">
         <v>22683800</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <v>21722126.219999898</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="30">
         <f t="shared" si="3"/>
         <v>-961673.78000010177</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="12">
         <f t="shared" si="4"/>
         <v>-4.2394738976719144E-2</v>
       </c>
-      <c r="K23" s="70">
+      <c r="K23" s="68">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="38">
         <v>23220300</v>
       </c>
-      <c r="M23" s="41">
+      <c r="M23" s="39">
         <v>22619057.440000001</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="39">
         <f t="shared" si="6"/>
         <v>-601242.55999999866</v>
       </c>
-      <c r="O23" s="42">
+      <c r="O23" s="40">
         <f t="shared" si="7"/>
         <v>-2.5892971236375011E-2</v>
       </c>
-      <c r="P23" s="43">
+      <c r="P23" s="41">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>917200</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>904969.19</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="26">
         <f t="shared" si="0"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <f t="shared" si="1"/>
         <v>-1.3334943305713101E-2</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="28">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="19">
         <v>1112700</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <v>1067214.42</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="30">
         <f t="shared" si="3"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="12">
         <f t="shared" si="4"/>
         <v>-4.087856565111897E-2</v>
       </c>
-      <c r="K24" s="70">
+      <c r="K24" s="68">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="38">
         <v>1112600</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="39">
         <v>1112527.1200000001</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="39">
         <f t="shared" si="6"/>
         <v>-72.879999999888241</v>
       </c>
-      <c r="O24" s="42">
+      <c r="O24" s="40">
         <f t="shared" si="7"/>
         <v>-6.5504224339284781E-5</v>
       </c>
-      <c r="P24" s="43">
+      <c r="P24" s="41">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>484100</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>479149.53</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="26">
         <f t="shared" si="0"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <f t="shared" si="1"/>
         <v>-1.0226130964676661E-2</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="28">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="19">
         <v>505200</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <v>497194.20999999897</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="30">
         <f t="shared" si="3"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="12">
         <f t="shared" si="4"/>
         <v>-1.5846773555029746E-2</v>
       </c>
-      <c r="K25" s="70">
+      <c r="K25" s="68">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="38">
         <v>496500</v>
       </c>
-      <c r="M25" s="41">
+      <c r="M25" s="39">
         <v>494775.1</v>
       </c>
-      <c r="N25" s="41">
+      <c r="N25" s="39">
         <f t="shared" si="6"/>
         <v>-1724.9000000000233</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="40">
         <f t="shared" si="7"/>
         <v>-3.4741188318228064E-3</v>
       </c>
-      <c r="P25" s="43">
+      <c r="P25" s="41">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>5249800</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <v>4801960.08</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="26">
         <f t="shared" si="0"/>
         <v>-447839.91999999993</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <f t="shared" si="1"/>
         <v>-8.5306091660634673E-2</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="19">
         <v>5442200</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="11">
         <v>5122329.02999999</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="30">
         <f t="shared" si="3"/>
         <v>-319870.97000000998</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="12">
         <f t="shared" si="4"/>
         <v>-5.8776040939327839E-2</v>
       </c>
-      <c r="K26" s="70">
+      <c r="K26" s="68">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="38">
         <v>5430700</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="39">
         <v>5117235.21</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="39">
         <f t="shared" si="6"/>
         <v>-313464.79000000004</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="40">
         <f t="shared" si="7"/>
         <v>-5.7720881286022069E-2</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="41">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="15">
         <v>0</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <v>0</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="28">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="19">
         <v>0</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <v>0</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K27" s="70">
+      <c r="K27" s="68">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="38">
         <v>0</v>
       </c>
-      <c r="M27" s="41">
+      <c r="M27" s="39">
         <v>0</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O27" s="42">
+      <c r="O27" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="41">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>1382900</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="9">
         <v>1250442.02</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="26">
         <f t="shared" si="0"/>
         <v>-132457.97999999998</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <f t="shared" si="1"/>
         <v>-9.5782760864849215E-2</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="19">
         <v>1545700</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <v>1281335.23</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="30">
         <f t="shared" si="3"/>
         <v>-264364.77</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="12">
         <f t="shared" si="4"/>
         <v>-0.17103239309050916</v>
       </c>
-      <c r="K28" s="70">
+      <c r="K28" s="68">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="38">
         <v>1525900</v>
       </c>
-      <c r="M28" s="41">
+      <c r="M28" s="39">
         <v>1393285.06</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="39">
         <f t="shared" si="6"/>
         <v>-132614.93999999994</v>
       </c>
-      <c r="O28" s="42">
+      <c r="O28" s="40">
         <f t="shared" si="7"/>
         <v>-8.6909325643882263E-2</v>
       </c>
-      <c r="P28" s="43">
+      <c r="P28" s="41">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="15">
         <v>2561800</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>2523884.71</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="26">
         <f t="shared" si="0"/>
         <v>-37915.290000000037</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <f t="shared" si="1"/>
         <v>-1.4800253727847622E-2</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="28">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="19">
         <v>2779500</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <v>2665264.4399999902</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="30">
         <f t="shared" si="3"/>
         <v>-114235.56000000983</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="12">
         <f t="shared" si="4"/>
         <v>-4.1099320021590155E-2</v>
       </c>
-      <c r="K29" s="70">
+      <c r="K29" s="68">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="38">
         <v>2889900</v>
       </c>
-      <c r="M29" s="41">
+      <c r="M29" s="39">
         <v>2889864.67</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="39">
         <f t="shared" si="6"/>
         <v>-35.330000000074506</v>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="40">
         <f t="shared" si="7"/>
         <v>-1.2225336516860273E-5</v>
       </c>
-      <c r="P29" s="43">
+      <c r="P29" s="41">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="15">
         <v>12132200</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <v>12030494.1</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="26">
         <f t="shared" si="0"/>
         <v>-101705.90000000037</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <f t="shared" si="1"/>
         <v>-8.3831374359143746E-3</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="28">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="19">
         <v>12735900</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <v>12685514.279999901</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="30">
         <f t="shared" si="3"/>
         <v>-50385.720000099391</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="12">
         <f t="shared" si="4"/>
         <v>-3.9561962641116366E-3</v>
       </c>
-      <c r="K30" s="70">
+      <c r="K30" s="68">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="38">
         <v>12861300</v>
       </c>
-      <c r="M30" s="41">
+      <c r="M30" s="39">
         <v>12826009.609999999</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="39">
         <f t="shared" si="6"/>
         <v>-35290.390000000596</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="40">
         <f t="shared" si="7"/>
         <v>-2.7439209100169185E-3</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="41">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="15">
         <v>1765600</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="9">
         <v>1740827.69</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="26">
         <f t="shared" si="0"/>
         <v>-24772.310000000056</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <f t="shared" si="1"/>
         <v>-1.4030533529678329E-2</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="28">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="19">
         <v>1823300</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <v>1762676.85</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="30">
         <f t="shared" si="3"/>
         <v>-60623.149999999907</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="12">
         <f t="shared" si="4"/>
         <v>-3.3249136181648611E-2</v>
       </c>
-      <c r="K31" s="70">
+      <c r="K31" s="68">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="38">
         <v>1870700</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M31" s="39">
         <v>1801391.34</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="39">
         <f t="shared" si="6"/>
         <v>-69308.659999999916</v>
       </c>
-      <c r="O31" s="42">
+      <c r="O31" s="40">
         <f t="shared" si="7"/>
         <v>-3.7049585716576634E-2</v>
       </c>
-      <c r="P31" s="43">
+      <c r="P31" s="41">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="15">
         <v>5999400</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="9">
         <v>5925637.7199999904</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="26">
         <f t="shared" si="0"/>
         <v>-73762.280000009574</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <f t="shared" si="1"/>
         <v>-1.2294942827617691E-2</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="28">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="19">
         <v>6195500</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <v>6084985.4699999997</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="30">
         <f t="shared" si="3"/>
         <v>-110514.53000000026</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="12">
         <f t="shared" si="4"/>
         <v>-1.7837871035428981E-2</v>
       </c>
-      <c r="K32" s="70">
+      <c r="K32" s="68">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="38">
         <v>6157400</v>
       </c>
-      <c r="M32" s="41">
+      <c r="M32" s="39">
         <v>5987572.0199999996</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="39">
         <f t="shared" si="6"/>
         <v>-169827.98000000045</v>
       </c>
-      <c r="O32" s="42">
+      <c r="O32" s="40">
         <f t="shared" si="7"/>
         <v>-2.7581118653977402E-2</v>
       </c>
-      <c r="P32" s="43">
+      <c r="P32" s="41">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="15">
         <v>927703099.99999905</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="9">
         <v>920284264.73000002</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="26">
         <f t="shared" si="0"/>
         <v>-7418835.2699990273</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="10">
         <f t="shared" si="1"/>
         <v>-7.9969930789269058E-3</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="28">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="19">
         <v>979671000</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <v>977068513.48000002</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="30">
         <f t="shared" si="3"/>
         <v>-2602486.5199999809</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="12">
         <f t="shared" si="4"/>
         <v>-2.6564903115433454E-3</v>
       </c>
-      <c r="K33" s="70">
+      <c r="K33" s="68">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="L33" s="40">
+      <c r="L33" s="38">
         <v>989572899.99999905</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="39">
         <v>984116289.40999901</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="39">
         <f t="shared" si="6"/>
         <v>-5456610.5900000334</v>
       </c>
-      <c r="O33" s="42">
+      <c r="O33" s="40">
         <f t="shared" si="7"/>
         <v>-5.5141067323084929E-3</v>
       </c>
-      <c r="P33" s="43">
+      <c r="P33" s="41">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="15">
         <v>4189300</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="9">
         <v>4109958.22</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="26">
         <f t="shared" si="0"/>
         <v>-79341.779999999795</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="10">
         <f t="shared" si="1"/>
         <v>-1.8939149738619768E-2</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="28">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="19">
         <v>4350600</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <v>4137588.7699999898</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="30">
         <f t="shared" si="3"/>
         <v>-213011.23000001023</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="12">
         <f t="shared" si="4"/>
         <v>-4.8961345561534093E-2</v>
       </c>
-      <c r="K34" s="70">
+      <c r="K34" s="68">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="38">
         <v>4345600</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="39">
         <v>4229801.51</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="39">
         <f t="shared" si="6"/>
         <v>-115798.49000000022</v>
       </c>
-      <c r="O34" s="42">
+      <c r="O34" s="40">
         <f t="shared" si="7"/>
         <v>-2.6647296115611244E-2</v>
       </c>
-      <c r="P34" s="43">
+      <c r="P34" s="41">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="15">
         <v>0</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="9">
         <v>0</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="28">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="19">
         <v>0</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <v>0</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K35" s="70">
+      <c r="K35" s="68">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="38">
         <v>0</v>
       </c>
-      <c r="M35" s="41">
+      <c r="M35" s="39">
         <v>0</v>
       </c>
-      <c r="N35" s="41">
+      <c r="N35" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O35" s="42">
+      <c r="O35" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P35" s="43">
+      <c r="P35" s="41">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="15">
         <v>798200</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="9">
         <v>735423.27999999898</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="26">
         <f t="shared" si="0"/>
         <v>-62776.72000000102</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <f t="shared" si="1"/>
         <v>-7.8647857679780775E-2</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="28">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="19">
         <v>898700</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <v>740966.94999999902</v>
       </c>
-      <c r="I36" s="32">
+      <c r="I36" s="30">
         <f t="shared" si="3"/>
         <v>-157733.05000000098</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="12">
         <f t="shared" si="4"/>
         <v>-0.17551246244575608</v>
       </c>
-      <c r="K36" s="70">
+      <c r="K36" s="68">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="38">
         <v>878300</v>
       </c>
-      <c r="M36" s="41">
+      <c r="M36" s="39">
         <v>777215.28999999899</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N36" s="39">
         <f t="shared" si="6"/>
         <v>-101084.71000000101</v>
       </c>
-      <c r="O36" s="42">
+      <c r="O36" s="40">
         <f t="shared" si="7"/>
         <v>-0.11509132414892521</v>
       </c>
-      <c r="P36" s="43">
+      <c r="P36" s="41">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="15">
         <v>2087800</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="9">
         <v>2005447.73999999</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="26">
         <f t="shared" si="0"/>
         <v>-82352.260000010021</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <f t="shared" si="1"/>
         <v>-3.9444515758219188E-2</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="28">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="19">
         <v>2229200</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <v>2118943.21</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="30">
         <f t="shared" si="3"/>
         <v>-110256.79000000004</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="12">
         <f t="shared" si="4"/>
         <v>-4.9460250314014013E-2</v>
       </c>
-      <c r="K37" s="70">
+      <c r="K37" s="68">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="38">
         <v>2296900</v>
       </c>
-      <c r="M37" s="41">
+      <c r="M37" s="39">
         <v>2108718.34</v>
       </c>
-      <c r="N37" s="41">
+      <c r="N37" s="39">
         <f t="shared" si="6"/>
         <v>-188181.66000000015</v>
       </c>
-      <c r="O37" s="42">
+      <c r="O37" s="40">
         <f t="shared" si="7"/>
         <v>-8.1928538464887526E-2</v>
       </c>
-      <c r="P37" s="43">
+      <c r="P37" s="41">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="15">
         <v>855300</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="9">
         <v>838669.82</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="26">
         <f t="shared" si="0"/>
         <v>-16630.180000000051</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <f t="shared" si="1"/>
         <v>-1.9443680579913542E-2</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="28">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="19">
         <v>792800</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <v>753451.96</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="30">
         <f t="shared" si="3"/>
         <v>-39348.040000000037</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="12">
         <f t="shared" si="4"/>
         <v>-4.9631735620585316E-2</v>
       </c>
-      <c r="K38" s="70">
+      <c r="K38" s="68">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="L38" s="40">
+      <c r="L38" s="38">
         <v>777800</v>
       </c>
-      <c r="M38" s="41">
+      <c r="M38" s="39">
         <v>777663.26</v>
       </c>
-      <c r="N38" s="41">
+      <c r="N38" s="39">
         <f t="shared" si="6"/>
         <v>-136.73999999999069</v>
       </c>
-      <c r="O38" s="42">
+      <c r="O38" s="40">
         <f t="shared" si="7"/>
         <v>-1.7580354847003174E-4</v>
       </c>
-      <c r="P38" s="43">
+      <c r="P38" s="41">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="15">
         <v>883900</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="9">
         <v>813108.87</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="26">
         <f t="shared" si="0"/>
         <v>-70791.13</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <f t="shared" si="1"/>
         <v>-8.008952370177623E-2</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="28">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="19">
         <v>1294400</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <v>1114242.27999999</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="30">
         <f t="shared" si="3"/>
         <v>-180157.72000000998</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="12">
         <f t="shared" si="4"/>
         <v>-0.13918241656366656</v>
       </c>
-      <c r="K39" s="70">
+      <c r="K39" s="68">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="L39" s="40">
+      <c r="L39" s="38">
         <v>1759500</v>
       </c>
-      <c r="M39" s="41">
+      <c r="M39" s="39">
         <v>1680463.8699999901</v>
       </c>
-      <c r="N39" s="41">
+      <c r="N39" s="39">
         <f t="shared" si="6"/>
         <v>-79036.1300000099</v>
       </c>
-      <c r="O39" s="42">
+      <c r="O39" s="40">
         <f t="shared" si="7"/>
         <v>-4.4919653310605226E-2</v>
       </c>
-      <c r="P39" s="43">
+      <c r="P39" s="41">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="15">
         <v>38381900</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="9">
         <v>37565141.859999903</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="26">
         <f t="shared" si="0"/>
         <v>-816758.14000009745</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <f t="shared" si="1"/>
         <v>-2.1279773539092578E-2</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="28">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="19">
         <v>39964900</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>38095240.189999901</v>
       </c>
-      <c r="I40" s="32">
+      <c r="I40" s="30">
         <f t="shared" si="3"/>
         <v>-1869659.8100000992</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="12">
         <f t="shared" si="4"/>
         <v>-4.6782546934937892E-2</v>
       </c>
-      <c r="K40" s="70">
+      <c r="K40" s="68">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="38">
         <v>40216700</v>
       </c>
-      <c r="M40" s="41">
+      <c r="M40" s="39">
         <v>39606263.709999897</v>
       </c>
-      <c r="N40" s="41">
+      <c r="N40" s="39">
         <f t="shared" si="6"/>
         <v>-610436.29000010341</v>
       </c>
-      <c r="O40" s="42">
+      <c r="O40" s="40">
         <f t="shared" si="7"/>
         <v>-1.5178676768608648E-2</v>
       </c>
-      <c r="P40" s="43">
+      <c r="P40" s="41">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="15">
         <v>4593300</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="9">
         <v>4409060.2099999897</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="26">
         <f t="shared" si="0"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="10">
         <f t="shared" si="1"/>
         <v>-4.0110550149132493E-2</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="28">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="19">
         <v>5089500</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <v>4956043.6699999897</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="30">
         <f t="shared" si="3"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="12">
         <f t="shared" si="4"/>
         <v>-2.6221894095689226E-2</v>
       </c>
-      <c r="K41" s="70">
+      <c r="K41" s="68">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="L41" s="40">
+      <c r="L41" s="38">
         <v>4799900</v>
       </c>
-      <c r="M41" s="41">
+      <c r="M41" s="39">
         <v>4717822.6500000004</v>
       </c>
-      <c r="N41" s="41">
+      <c r="N41" s="39">
         <f t="shared" si="6"/>
         <v>-82077.349999999627</v>
       </c>
-      <c r="O41" s="42">
+      <c r="O41" s="40">
         <f t="shared" si="7"/>
         <v>-1.7099804162586642E-2</v>
       </c>
-      <c r="P41" s="43">
+      <c r="P41" s="41">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="15">
         <v>188593300</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="9">
         <v>188551675.67999899</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="26">
         <f t="shared" si="0"/>
         <v>-41624.320001006126</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="10">
         <f t="shared" si="1"/>
         <v>-2.2070943135841053E-4</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="28">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="19">
         <v>199130300</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <v>196755033.31</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="30">
         <f t="shared" si="3"/>
         <v>-2375266.6899999976</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="12">
         <f t="shared" si="4"/>
         <v>-1.1928203241796942E-2</v>
       </c>
-      <c r="K42" s="70">
+      <c r="K42" s="68">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="L42" s="40">
+      <c r="L42" s="38">
         <v>199954600</v>
       </c>
-      <c r="M42" s="41">
+      <c r="M42" s="39">
         <v>199954563.74999899</v>
       </c>
-      <c r="N42" s="41">
+      <c r="N42" s="39">
         <f t="shared" si="6"/>
         <v>-36.250001013278961</v>
       </c>
-      <c r="O42" s="42">
+      <c r="O42" s="40">
         <f t="shared" si="7"/>
         <v>-1.8129115815929696E-7</v>
       </c>
-      <c r="P42" s="43">
+      <c r="P42" s="41">
         <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="15">
         <v>8135400</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="9">
         <v>7968645.8300000001</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="26">
         <f t="shared" si="0"/>
         <v>-166754.16999999993</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="10">
         <f t="shared" si="1"/>
         <v>-2.0497353541313264E-2</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="28">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="19">
         <v>8560800</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="11">
         <v>8171472.0199999996</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="30">
         <f t="shared" si="3"/>
         <v>-389327.98000000045</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="12">
         <f t="shared" si="4"/>
         <v>-4.5477990374731388E-2</v>
       </c>
-      <c r="K43" s="70">
+      <c r="K43" s="68">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="L43" s="40">
+      <c r="L43" s="38">
         <v>8497500</v>
       </c>
-      <c r="M43" s="41">
+      <c r="M43" s="39">
         <v>8150982.5699999901</v>
       </c>
-      <c r="N43" s="41">
+      <c r="N43" s="39">
         <f t="shared" si="6"/>
         <v>-346517.43000000995</v>
       </c>
-      <c r="O43" s="42">
+      <c r="O43" s="40">
         <f t="shared" si="7"/>
         <v>-4.0778750220654303E-2</v>
       </c>
-      <c r="P43" s="43">
+      <c r="P43" s="41">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="15">
         <v>30083200</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="9">
         <v>29789104.379999999</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="26">
         <f t="shared" si="0"/>
         <v>-294095.62000000104</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="10">
         <f t="shared" si="1"/>
         <v>-9.7760750186150751E-3</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="28">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="19">
         <v>31040700</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="11">
         <v>30793711.48</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="30">
         <f t="shared" si="3"/>
         <v>-246988.51999999955</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="12">
         <f t="shared" si="4"/>
         <v>-7.9569249404813532E-3</v>
       </c>
-      <c r="K44" s="70">
+      <c r="K44" s="68">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="38">
         <v>31282200</v>
       </c>
-      <c r="M44" s="41">
+      <c r="M44" s="39">
         <v>31282141.25</v>
       </c>
-      <c r="N44" s="41">
+      <c r="N44" s="39">
         <f t="shared" si="6"/>
         <v>-58.75</v>
       </c>
-      <c r="O44" s="42">
+      <c r="O44" s="40">
         <f t="shared" si="7"/>
         <v>-1.8780648419868168E-6</v>
       </c>
-      <c r="P44" s="43">
+      <c r="P44" s="41">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="15">
         <v>55301600</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="9">
         <v>54589584.0499999</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="26">
         <f t="shared" si="0"/>
         <v>-712015.95000009984</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="10">
         <f t="shared" si="1"/>
         <v>-1.287514194887851E-2</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="28">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="19">
         <v>56792200</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="11">
         <v>54594953.959999897</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I45" s="30">
         <f t="shared" si="3"/>
         <v>-2197246.0400001034</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="12">
         <f t="shared" si="4"/>
         <v>-3.8689222111488959E-2</v>
       </c>
-      <c r="K45" s="70">
+      <c r="K45" s="68">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="L45" s="40">
+      <c r="L45" s="38">
         <v>56027100</v>
       </c>
-      <c r="M45" s="41">
+      <c r="M45" s="39">
         <v>55386549.6599999</v>
       </c>
-      <c r="N45" s="41">
+      <c r="N45" s="39">
         <f t="shared" si="6"/>
         <v>-640550.34000010043</v>
       </c>
-      <c r="O45" s="42">
+      <c r="O45" s="40">
         <f t="shared" si="7"/>
         <v>-1.1432866237947358E-2</v>
       </c>
-      <c r="P45" s="43">
+      <c r="P45" s="41">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="15">
         <v>259100</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>258322.43</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="26">
         <f t="shared" si="0"/>
         <v>-777.57000000000698</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="10">
         <f t="shared" si="1"/>
         <v>-3.0010420686993711E-3</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="28">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="19">
         <v>266000</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="11">
         <v>257402.90999999901</v>
       </c>
-      <c r="I46" s="32">
+      <c r="I46" s="30">
         <f t="shared" si="3"/>
         <v>-8597.090000000986</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="12">
         <f t="shared" si="4"/>
         <v>-3.2319887218048821E-2</v>
       </c>
-      <c r="K46" s="70">
+      <c r="K46" s="68">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="38">
         <v>267100</v>
       </c>
-      <c r="M46" s="41">
+      <c r="M46" s="39">
         <v>254753.15999999901</v>
       </c>
-      <c r="N46" s="41">
+      <c r="N46" s="39">
         <f t="shared" si="6"/>
         <v>-12346.840000000986</v>
       </c>
-      <c r="O46" s="42">
+      <c r="O46" s="40">
         <f t="shared" si="7"/>
         <v>-4.6225533508053113E-2</v>
       </c>
-      <c r="P46" s="43">
+      <c r="P46" s="41">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="15">
         <v>70390700</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="9">
         <v>70378426.719999999</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="26">
         <f t="shared" si="0"/>
         <v>-12273.280000001192</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="10">
         <f t="shared" si="1"/>
         <v>-1.7435939690898361E-4</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="28">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="19">
         <v>73467000</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="11">
         <v>73442541.659999996</v>
       </c>
-      <c r="I47" s="32">
+      <c r="I47" s="30">
         <f t="shared" si="3"/>
         <v>-24458.340000003576</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="12">
         <f t="shared" si="4"/>
         <v>-3.3291600310348285E-4</v>
       </c>
-      <c r="K47" s="70">
+      <c r="K47" s="68">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="L47" s="40">
+      <c r="L47" s="38">
         <v>75072800</v>
       </c>
-      <c r="M47" s="41">
+      <c r="M47" s="39">
         <v>75050829.179999903</v>
       </c>
-      <c r="N47" s="41">
+      <c r="N47" s="39">
         <f t="shared" si="6"/>
         <v>-21970.820000097156</v>
       </c>
-      <c r="O47" s="42">
+      <c r="O47" s="40">
         <f t="shared" si="7"/>
         <v>-2.9266019117572752E-4</v>
       </c>
-      <c r="P47" s="43">
+      <c r="P47" s="41">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="15">
         <v>6737100</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="9">
         <v>6527352.5699999901</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D48" s="26">
         <f t="shared" si="0"/>
         <v>-209747.43000000995</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="10">
         <f t="shared" si="1"/>
         <v>-3.1133192323107857E-2</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="28">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="19">
         <v>7214700</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="11">
         <v>6922072.5599999996</v>
       </c>
-      <c r="I48" s="32">
+      <c r="I48" s="30">
         <f t="shared" si="3"/>
         <v>-292627.44000000041</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="12">
         <f t="shared" si="4"/>
         <v>-4.0559890224125802E-2</v>
       </c>
-      <c r="K48" s="70">
+      <c r="K48" s="68">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="L48" s="40">
+      <c r="L48" s="38">
         <v>7289800</v>
       </c>
-      <c r="M48" s="41">
+      <c r="M48" s="39">
         <v>6882350.23999999</v>
       </c>
-      <c r="N48" s="41">
+      <c r="N48" s="39">
         <f t="shared" si="6"/>
         <v>-407449.76000001002</v>
       </c>
-      <c r="O48" s="42">
+      <c r="O48" s="40">
         <f t="shared" si="7"/>
         <v>-5.5893132870587676E-2</v>
       </c>
-      <c r="P48" s="43">
+      <c r="P48" s="41">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="15">
         <v>92200</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="9">
         <v>90499.43</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="26">
         <f t="shared" si="0"/>
         <v>-1700.570000000007</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="10">
         <f t="shared" si="1"/>
         <v>-1.8444360086767971E-2</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="28">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="19">
         <v>102600</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="11">
         <v>95466.880000000005</v>
       </c>
-      <c r="I49" s="32">
+      <c r="I49" s="30">
         <f t="shared" si="3"/>
         <v>-7133.1199999999953</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="12">
         <f t="shared" si="4"/>
         <v>-6.9523586744639335E-2</v>
       </c>
-      <c r="K49" s="70">
+      <c r="K49" s="68">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="L49" s="40">
+      <c r="L49" s="38">
         <v>0</v>
       </c>
-      <c r="M49" s="41">
+      <c r="M49" s="39">
         <v>0</v>
       </c>
-      <c r="N49" s="41">
+      <c r="N49" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O49" s="42">
+      <c r="O49" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P49" s="43">
+      <c r="P49" s="41">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="15">
         <v>832600</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="9">
         <v>832600</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D50" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="28">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="19">
         <v>859100</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="11">
         <v>859100</v>
       </c>
-      <c r="I50" s="32">
+      <c r="I50" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K50" s="70">
+      <c r="K50" s="68">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="L50" s="40">
+      <c r="L50" s="38">
         <v>843200</v>
       </c>
-      <c r="M50" s="41">
+      <c r="M50" s="39">
         <v>843200</v>
       </c>
-      <c r="N50" s="41">
+      <c r="N50" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O50" s="42">
+      <c r="O50" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P50" s="43">
+      <c r="P50" s="41">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="15">
         <v>8609500</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="9">
         <v>8499425.3399999905</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="26">
         <f t="shared" si="0"/>
         <v>-110074.66000000946</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="10">
         <f t="shared" si="1"/>
         <v>-1.2785255822058129E-2</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="28">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="19">
         <v>8925500</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="11">
         <v>8599059.6199999992</v>
       </c>
-      <c r="I51" s="32">
+      <c r="I51" s="30">
         <f t="shared" si="3"/>
         <v>-326440.38000000082</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="12">
         <f t="shared" si="4"/>
         <v>-3.6573903982970231E-2</v>
       </c>
-      <c r="K51" s="70">
+      <c r="K51" s="68">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="L51" s="40">
+      <c r="L51" s="38">
         <v>8833900</v>
       </c>
-      <c r="M51" s="41">
+      <c r="M51" s="39">
         <v>8735843.3100000005</v>
       </c>
-      <c r="N51" s="41">
+      <c r="N51" s="39">
         <f t="shared" si="6"/>
         <v>-98056.689999999478</v>
       </c>
-      <c r="O51" s="42">
+      <c r="O51" s="40">
         <f t="shared" si="7"/>
         <v>-1.1100045280114048E-2</v>
       </c>
-      <c r="P51" s="43">
+      <c r="P51" s="41">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="16">
         <v>2451000</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="17">
         <v>2254684.7999999998</v>
       </c>
-      <c r="D52" s="81">
+      <c r="D52" s="79">
         <f t="shared" si="0"/>
         <v>-196315.20000000019</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <f t="shared" si="1"/>
         <v>-8.009596083231342E-2</v>
       </c>
-      <c r="F52" s="82">
+      <c r="F52" s="80">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="20">
         <v>2440700</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="21">
         <v>2204672.88</v>
       </c>
-      <c r="I52" s="83">
+      <c r="I52" s="81">
         <f t="shared" si="3"/>
         <v>-236027.12000000011</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="22">
         <f t="shared" si="4"/>
         <v>-9.6704683082722218E-2</v>
       </c>
-      <c r="K52" s="84">
+      <c r="K52" s="82">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="L52" s="44">
+      <c r="L52" s="42">
         <v>2321600</v>
       </c>
-      <c r="M52" s="45">
+      <c r="M52" s="43">
         <v>2056835.26</v>
       </c>
-      <c r="N52" s="45">
+      <c r="N52" s="43">
         <f t="shared" si="6"/>
         <v>-264764.74</v>
       </c>
-      <c r="O52" s="46">
+      <c r="O52" s="44">
         <f t="shared" si="7"/>
         <v>-0.11404408166781529</v>
       </c>
-      <c r="P52" s="47">
+      <c r="P52" s="45">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="55"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="53"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="11">
-        <f>VLOOKUP($A56,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
+      <c r="B56" s="9">
+        <f>VLOOKUP($A56,$A$2:$P$52,4,0)</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C56" s="13">
-        <f t="shared" ref="C56:D61" si="9">VLOOKUP($A56,$A$2:$P$52,MATCH(C$55,$A$1:$P$1,0),0)</f>
+      <c r="C56" s="11">
+        <f>VLOOKUP($A56,$A$2:$P$52,9,0)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D56" s="41">
+        <f>VLOOKUP($A56,$A$2:$P$52,14,0)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="9">
+        <f t="shared" ref="B57:B61" si="9">VLOOKUP($A57,$A$2:$P$52,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" ref="C57:C61" si="10">VLOOKUP($A57,$A$2:$P$52,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="41">
+        <f t="shared" ref="D57:D61" si="11">VLOOKUP($A57,$A$2:$P$52,14,0)</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="9">
         <f t="shared" si="9"/>
-        <v>-9181.0800000000163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="11">
-        <f t="shared" ref="B57:B61" si="10">VLOOKUP($A57,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="43">
-        <f t="shared" si="9"/>
-        <v>-311228.08999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="11">
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58" s="11">
         <f t="shared" si="10"/>
-        <v>-149396.10000000987</v>
-      </c>
-      <c r="C58" s="13">
-        <f t="shared" si="9"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D58" s="43">
-        <f t="shared" si="9"/>
-        <v>-374962.91000000015</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="11">
-        <f t="shared" si="10"/>
-        <v>-12230.810000000056</v>
-      </c>
-      <c r="C59" s="13">
-        <f t="shared" si="9"/>
-        <v>-45485.580000000075</v>
-      </c>
-      <c r="D59" s="43">
-        <f t="shared" si="9"/>
-        <v>-72.879999999888241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="11">
-        <f t="shared" si="10"/>
-        <v>-4950.4699999999721</v>
-      </c>
-      <c r="C60" s="13">
-        <f t="shared" si="9"/>
-        <v>-8005.7900000010268</v>
-      </c>
-      <c r="D60" s="43">
-        <f t="shared" si="9"/>
-        <v>-1724.9000000000233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="19">
-        <f t="shared" si="10"/>
-        <v>-184239.79000001028</v>
-      </c>
-      <c r="C61" s="23">
-        <f t="shared" si="9"/>
-        <v>-133456.33000001032</v>
-      </c>
-      <c r="D61" s="47">
-        <f t="shared" si="9"/>
-        <v>-82077.349999999627</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="11" cm="1">
-        <f t="array" ref="B65">_xlfn.XLOOKUP($A65,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-36209.630000000005</v>
-      </c>
-      <c r="C65" s="13" cm="1">
-        <f t="array" ref="C65">_xlfn.XLOOKUP($A65,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-27292.159999999974</v>
-      </c>
-      <c r="D65" s="43" cm="1">
-        <f t="array" ref="D65">_xlfn.XLOOKUP($A65,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-9181.0800000000163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="11" cm="1">
-        <f t="array" ref="B66">_xlfn.XLOOKUP($A66,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="13" cm="1">
-        <f t="array" ref="C66">_xlfn.XLOOKUP($A66,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="43" cm="1">
-        <f t="array" ref="D66">_xlfn.XLOOKUP($A66,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-311228.08999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="11" cm="1">
-        <f t="array" ref="B67">_xlfn.XLOOKUP($A67,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-149396.10000000987</v>
-      </c>
-      <c r="C67" s="13" cm="1">
-        <f t="array" ref="C67">_xlfn.XLOOKUP($A67,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-189254.06000000006</v>
-      </c>
-      <c r="D67" s="43" cm="1">
-        <f t="array" ref="D67">_xlfn.XLOOKUP($A67,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-374962.91000000015</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="11" cm="1">
-        <f t="array" ref="B68">_xlfn.XLOOKUP($A68,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-12230.810000000056</v>
-      </c>
-      <c r="C68" s="13" cm="1">
-        <f t="array" ref="C68">_xlfn.XLOOKUP($A68,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-45485.580000000075</v>
-      </c>
-      <c r="D68" s="43" cm="1">
-        <f t="array" ref="D68">_xlfn.XLOOKUP($A68,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-72.879999999888241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="11" cm="1">
-        <f t="array" ref="B69">_xlfn.XLOOKUP($A69,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-4950.4699999999721</v>
-      </c>
-      <c r="C69" s="13" cm="1">
-        <f t="array" ref="C69">_xlfn.XLOOKUP($A69,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-8005.7900000010268</v>
-      </c>
-      <c r="D69" s="43" cm="1">
-        <f t="array" ref="D69">_xlfn.XLOOKUP($A69,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-1724.9000000000233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="19" cm="1">
-        <f t="array" ref="B70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(B$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-184239.79000001028</v>
-      </c>
-      <c r="C70" s="23" cm="1">
-        <f t="array" ref="C70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(C$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-133456.33000001032</v>
-      </c>
-      <c r="D70" s="47" cm="1">
-        <f t="array" ref="D70">_xlfn.XLOOKUP($A70,$A$2:$A$52,_xlfn.XLOOKUP(D$64,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
-        <v>-82077.349999999627</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="55"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="11">
-        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
-        <v>-36209.630000000005</v>
-      </c>
-      <c r="C74" s="13">
-        <f t="shared" ref="C74:D79" si="11">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
-        <v>-27292.159999999974</v>
-      </c>
-      <c r="D74" s="43">
-        <f t="shared" si="11"/>
-        <v>-9181.0800000000163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="11">
-        <f t="shared" ref="B75:B79" si="12">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D75" s="43">
-        <f t="shared" si="11"/>
-        <v>-311228.08999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="11">
-        <f t="shared" si="12"/>
-        <v>-149396.10000000987</v>
-      </c>
-      <c r="C76" s="13">
-        <f t="shared" si="11"/>
-        <v>-189254.06000000006</v>
-      </c>
-      <c r="D76" s="43">
+      <c r="D58" s="41">
         <f t="shared" si="11"/>
         <v>-374962.91000000015</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="11">
-        <f t="shared" si="12"/>
+      <c r="B59" s="9">
+        <f t="shared" si="9"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C77" s="13">
-        <f t="shared" si="11"/>
+      <c r="C59" s="11">
+        <f t="shared" si="10"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D77" s="43">
+      <c r="D59" s="41">
         <f t="shared" si="11"/>
         <v>-72.879999999888241</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="38" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="11">
-        <f t="shared" si="12"/>
+      <c r="B60" s="9">
+        <f t="shared" si="9"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C78" s="13">
-        <f t="shared" si="11"/>
+      <c r="C60" s="11">
+        <f t="shared" si="10"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D78" s="43">
+      <c r="D60" s="41">
         <f t="shared" si="11"/>
         <v>-1724.9000000000233</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="39" t="s">
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="19">
-        <f t="shared" si="12"/>
+      <c r="B61" s="17">
+        <f t="shared" si="9"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C79" s="23">
-        <f t="shared" si="11"/>
+      <c r="C61" s="21">
+        <f t="shared" si="10"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D79" s="47">
+      <c r="D61" s="45">
         <f t="shared" si="11"/>
         <v>-82077.349999999627</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="59" t="s">
+    <row r="62" spans="1:16" s="87" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="88"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="53"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A64" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="9">
+        <f>VLOOKUP($A65,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65" s="11">
+        <f t="shared" ref="C65:D70" si="12">VLOOKUP($A65,$A$2:$P$52,MATCH(C$55,$A$1:$P$1,0),0)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65" s="41">
+        <f t="shared" si="12"/>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="9">
+        <f t="shared" ref="B66:B70" si="13">VLOOKUP($A66,$A$2:$P$52,MATCH(B$55,$A$1:$P$1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="41">
+        <f t="shared" si="12"/>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="9">
+        <f t="shared" si="13"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67" s="11">
+        <f t="shared" si="12"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67" s="41">
+        <f t="shared" si="12"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="9">
+        <f t="shared" si="13"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68" s="11">
+        <f t="shared" si="12"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68" s="41">
+        <f t="shared" si="12"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="9">
+        <f t="shared" si="13"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69" s="11">
+        <f t="shared" si="12"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69" s="41">
+        <f t="shared" si="12"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="17">
+        <f t="shared" si="13"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70" s="21">
+        <f t="shared" si="12"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70" s="45">
+        <f t="shared" si="12"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="87" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="88"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="88"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="53"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="9">
+        <f>_xlfn.XLOOKUP($A74,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74" s="11">
+        <f>_xlfn.XLOOKUP($A74,$A$2:$A$52,$I$2:$I$52,"Not Found",0)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D74" s="41">
+        <f>_xlfn.XLOOKUP($A74,$A$2:$A$52,$N$2:$N$52,"Not Found",0)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="9">
+        <f t="shared" ref="B75:B79" si="14">_xlfn.XLOOKUP($A75,$A$2:$A$52,$D$2:$D$52,"Not Found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="11">
+        <f t="shared" ref="C75:C79" si="15">_xlfn.XLOOKUP($A75,$A$2:$A$52,$I$2:$I$52,"Not Found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="41">
+        <f t="shared" ref="D75:D79" si="16">_xlfn.XLOOKUP($A75,$A$2:$A$52,$N$2:$N$52,"Not Found",0)</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="9">
+        <f t="shared" si="14"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76" s="11">
+        <f t="shared" si="15"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76" s="41">
+        <f t="shared" si="16"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="9">
+        <f t="shared" si="14"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77" s="11">
+        <f t="shared" si="15"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77" s="41">
+        <f t="shared" si="16"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="9">
+        <f t="shared" si="14"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78" s="11">
+        <f t="shared" si="15"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78" s="41">
+        <f t="shared" si="16"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="17">
+        <f t="shared" si="14"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79" s="21">
+        <f t="shared" si="15"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79" s="45">
+        <f t="shared" si="16"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="87" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="84"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="86"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="53"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="9" cm="1">
+        <f t="array" ref="B83">_xlfn.XLOOKUP($A83,$A$2:$A$52,_xlfn.XLOOKUP(B$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C83" s="11" cm="1">
+        <f t="array" ref="C83">_xlfn.XLOOKUP($A83,$A$2:$A$52,_xlfn.XLOOKUP(C$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D83" s="41" cm="1">
+        <f t="array" ref="D83">_xlfn.XLOOKUP($A83,$A$2:$A$52,_xlfn.XLOOKUP(D$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="9" cm="1">
+        <f t="array" ref="B84">_xlfn.XLOOKUP($A84,$A$2:$A$52,_xlfn.XLOOKUP(B$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="11" cm="1">
+        <f t="array" ref="C84">_xlfn.XLOOKUP($A84,$A$2:$A$52,_xlfn.XLOOKUP(C$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="41" cm="1">
+        <f t="array" ref="D84">_xlfn.XLOOKUP($A84,$A$2:$A$52,_xlfn.XLOOKUP(D$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="9" cm="1">
+        <f t="array" ref="B85">_xlfn.XLOOKUP($A85,$A$2:$A$52,_xlfn.XLOOKUP(B$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C85" s="11" cm="1">
+        <f t="array" ref="C85">_xlfn.XLOOKUP($A85,$A$2:$A$52,_xlfn.XLOOKUP(C$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D85" s="41" cm="1">
+        <f t="array" ref="D85">_xlfn.XLOOKUP($A85,$A$2:$A$52,_xlfn.XLOOKUP(D$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="9" cm="1">
+        <f t="array" ref="B86">_xlfn.XLOOKUP($A86,$A$2:$A$52,_xlfn.XLOOKUP(B$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C86" s="11" cm="1">
+        <f t="array" ref="C86">_xlfn.XLOOKUP($A86,$A$2:$A$52,_xlfn.XLOOKUP(C$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D86" s="41" cm="1">
+        <f t="array" ref="D86">_xlfn.XLOOKUP($A86,$A$2:$A$52,_xlfn.XLOOKUP(D$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="9" cm="1">
+        <f t="array" ref="B87">_xlfn.XLOOKUP($A87,$A$2:$A$52,_xlfn.XLOOKUP(B$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C87" s="11" cm="1">
+        <f t="array" ref="C87">_xlfn.XLOOKUP($A87,$A$2:$A$52,_xlfn.XLOOKUP(C$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D87" s="41" cm="1">
+        <f t="array" ref="D87">_xlfn.XLOOKUP($A87,$A$2:$A$52,_xlfn.XLOOKUP(D$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="17" cm="1">
+        <f t="array" ref="B88">_xlfn.XLOOKUP($A88,$A$2:$A$52,_xlfn.XLOOKUP(B$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C88" s="21" cm="1">
+        <f t="array" ref="C88">_xlfn.XLOOKUP($A88,$A$2:$A$52,_xlfn.XLOOKUP(C$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D88" s="45" cm="1">
+        <f t="array" ref="D88">_xlfn.XLOOKUP($A88,$A$2:$A$52,_xlfn.XLOOKUP(D$82,$B$1:$P$1,$B$2:$P$52,"NOT THERE",0),"Not Found",0)</f>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="53"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="9">
+        <f>INDEX($A$2:$P$52,MATCH($A92,$A$2:$A$52,0),4)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C92" s="11">
+        <f>INDEX($A$2:$P$52,MATCH($A92,$A$2:$A$52,0),9)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D92" s="41">
+        <f>INDEX($A$2:$P$52,MATCH($A92,$A$2:$A$52,0),14)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="9">
+        <f t="shared" ref="B93:B97" si="17">INDEX($A$2:$P$52,MATCH($A93,$A$2:$A$52,0),4)</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="11">
+        <f t="shared" ref="C93:C97" si="18">INDEX($A$2:$P$52,MATCH($A93,$A$2:$A$52,0),9)</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="41">
+        <f t="shared" ref="D93:D97" si="19">INDEX($A$2:$P$52,MATCH($A93,$A$2:$A$52,0),14)</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="9">
+        <f t="shared" si="17"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C94" s="11">
+        <f t="shared" si="18"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D94" s="41">
+        <f t="shared" si="19"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="9">
+        <f t="shared" si="17"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C95" s="11">
+        <f t="shared" si="18"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D95" s="41">
+        <f t="shared" si="19"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="9">
+        <f t="shared" si="17"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C96" s="11">
+        <f t="shared" si="18"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D96" s="41">
+        <f t="shared" si="19"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" s="17">
+        <f t="shared" si="17"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C97" s="21">
+        <f t="shared" si="18"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D97" s="45">
+        <f t="shared" si="19"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="87" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="88"/>
+      <c r="B98" s="88"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="88"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="53"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="9">
+        <f>INDEX($A$2:$P$52,MATCH($A101,$A$2:$A$52,0),MATCH(B$91,$A$1:$P$1,0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C101" s="11">
+        <f>INDEX($A$2:$P$52,MATCH($A101,$A$2:$A$52,0),MATCH(C$91,$A$1:$P$1,0))</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D101" s="41">
+        <f>INDEX($A$2:$P$52,MATCH($A101,$A$2:$A$52,0),MATCH(D$91,$A$1:$P$1,0))</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="9">
+        <f>INDEX($A$2:$P$52,MATCH($A102,$A$2:$A$52,0),MATCH(B$91,$A$1:$P$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="11">
+        <f>INDEX($A$2:$P$52,MATCH($A102,$A$2:$A$52,0),MATCH(C$91,$A$1:$P$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="41">
+        <f>INDEX($A$2:$P$52,MATCH($A102,$A$2:$A$52,0),MATCH(D$91,$A$1:$P$1,0))</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="9">
+        <f>INDEX($A$2:$P$52,MATCH($A103,$A$2:$A$52,0),MATCH(B$91,$A$1:$P$1,0))</f>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C103" s="11">
+        <f>INDEX($A$2:$P$52,MATCH($A103,$A$2:$A$52,0),MATCH(C$91,$A$1:$P$1,0))</f>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D103" s="41">
+        <f>INDEX($A$2:$P$52,MATCH($A103,$A$2:$A$52,0),MATCH(D$91,$A$1:$P$1,0))</f>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" s="9">
+        <f>INDEX($A$2:$P$52,MATCH($A104,$A$2:$A$52,0),MATCH(B$91,$A$1:$P$1,0))</f>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C104" s="11">
+        <f>INDEX($A$2:$P$52,MATCH($A104,$A$2:$A$52,0),MATCH(C$91,$A$1:$P$1,0))</f>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D104" s="41">
+        <f>INDEX($A$2:$P$52,MATCH($A104,$A$2:$A$52,0),MATCH(D$91,$A$1:$P$1,0))</f>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="9">
+        <f>INDEX($A$2:$P$52,MATCH($A105,$A$2:$A$52,0),MATCH(B$91,$A$1:$P$1,0))</f>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C105" s="11">
+        <f>INDEX($A$2:$P$52,MATCH($A105,$A$2:$A$52,0),MATCH(C$91,$A$1:$P$1,0))</f>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D105" s="41">
+        <f>INDEX($A$2:$P$52,MATCH($A105,$A$2:$A$52,0),MATCH(D$91,$A$1:$P$1,0))</f>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106" s="17">
+        <f>INDEX($A$2:$P$52,MATCH($A106,$A$2:$A$52,0),MATCH(B$91,$A$1:$P$1,0))</f>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C106" s="21">
+        <f>INDEX($A$2:$P$52,MATCH($A106,$A$2:$A$52,0),MATCH(C$91,$A$1:$P$1,0))</f>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D106" s="45">
+        <f>INDEX($A$2:$P$52,MATCH($A106,$A$2:$A$52,0),MATCH(D$91,$A$1:$P$1,0))</f>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="60"/>
-      <c r="C81" s="61"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="51" t="s">
+      <c r="B108" s="58"/>
+      <c r="C108" s="59"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="52"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="38"/>
-      <c r="B83" s="50" t="s">
+      <c r="B109" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="50"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="36"/>
+      <c r="B110" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C110" s="50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="38" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="56">
-        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",B$83),$A$1:$P$1,0))</f>
-        <v>798200</v>
-      </c>
-      <c r="C84" s="57">
-        <f>INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A84,"_",C$83),$A$1:$P$1,0))</f>
-        <v>735423.27999999898</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="38" t="s">
+      <c r="B111" s="54">
+        <f>INDEX($A$2:$P$52,MATCH($B$109,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A111,"_",B$110),$A$1:$P$1,0))</f>
+        <v>9349400</v>
+      </c>
+      <c r="C111" s="55">
+        <f>INDEX($A$2:$P$52,MATCH($B$109,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A111,"_",C$110),$A$1:$P$1,0))</f>
+        <v>8952825.2799999993</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="56">
-        <f t="shared" ref="B85:C86" si="13">INDEX($A$2:$P$52,MATCH($B$82,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A85,"_",B$83),$A$1:$P$1,0))</f>
-        <v>898700</v>
-      </c>
-      <c r="C85" s="57">
-        <f t="shared" si="13"/>
-        <v>740966.94999999902</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="39" t="s">
+      <c r="B112" s="54">
+        <f>INDEX($A$2:$P$52,MATCH($B$109,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A112,"_",B$110),$A$1:$P$1,0))</f>
+        <v>11073700</v>
+      </c>
+      <c r="C112" s="55">
+        <f>INDEX($A$2:$P$52,MATCH($B$109,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A112,"_",C$110),$A$1:$P$1,0))</f>
+        <v>9929059.5199999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="71">
-        <f t="shared" si="13"/>
-        <v>878300</v>
-      </c>
-      <c r="C86" s="58">
-        <f t="shared" si="13"/>
-        <v>777215.28999999899</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="65"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="67"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="59" t="s">
+      <c r="B113" s="69">
+        <f>INDEX($A$2:$P$52,MATCH($B$109,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A113,"_",B$110),$A$1:$P$1,0))</f>
+        <v>10790500</v>
+      </c>
+      <c r="C113" s="56">
+        <f>INDEX($A$2:$P$52,MATCH($B$109,$A$2:$A$52,0),MATCH(_xlfn.CONCAT($A113,"_",C$110),$A$1:$P$1,0))</f>
+        <v>9993599.52999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="63"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="65"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B88" s="60"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="61"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="63" t="s">
+      <c r="B115" s="58"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="59"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="62">
+      <c r="B116" s="60">
         <v>1</v>
       </c>
-      <c r="C89" s="62"/>
-      <c r="D89" s="62">
+      <c r="C116" s="60"/>
+      <c r="D116" s="60">
         <v>2</v>
       </c>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62">
+      <c r="E116" s="60"/>
+      <c r="F116" s="60">
         <v>3</v>
       </c>
-      <c r="G89" s="64"/>
-    </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="75"/>
-      <c r="B90" s="76" t="s">
+      <c r="G116" s="62"/>
+    </row>
+    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="73"/>
+      <c r="B117" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="76" t="s">
+      <c r="C117" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="76" t="s">
+      <c r="D117" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="76" t="s">
+      <c r="E117" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="F90" s="76" t="s">
+      <c r="F117" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="G90" s="77" t="s">
+      <c r="G117" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="I90" s="78"/>
-      <c r="J90" s="78"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="72" t="s">
+      <c r="I117" s="76"/>
+      <c r="J117" s="76"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="73" t="str">
-        <f>_xlfn.XLOOKUP(B$89,$F$2:$F$52,$A$2:$A$52)</f>
+      <c r="B118" s="71" t="str" cm="1">
+        <f t="array" ref="B118">_xlfn.XLOOKUP(B$116,INDEX($A$1:$P$52,,MATCH($A118&amp;"_rank",$A$1:$P$1,0)),$A$1:$A$52,"Not Found",0)</f>
         <v>Clerk and Master - Chancery</v>
       </c>
-      <c r="C91" s="74">
-        <f>_xlfn.XLOOKUP(B$89,$F$2:$F$52,$E$2:$E$52)</f>
+      <c r="C118" s="72" cm="1">
+        <f t="array" ref="C118">_xlfn.XLOOKUP(B$116,INDEX($A$2:$P$52,,MATCH($A118&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A118&amp;"_diff_pct",$A$1:$P$1,0)),"NOT FOUND",0)</f>
         <v>-0.15235918433091292</v>
       </c>
-      <c r="D91" s="73"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="74"/>
-      <c r="J91" s="79"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
+      <c r="D118" s="71" t="str" cm="1">
+        <f t="array" ref="D118">_xlfn.XLOOKUP(D$116,INDEX($A$1:$P$52,,MATCH($A118&amp;"_rank",$A$1:$P$1,0)),$A$1:$A$52,"Not Found",0)</f>
+        <v>Circuit Court Clerk</v>
+      </c>
+      <c r="E118" s="72" cm="1">
+        <f t="array" ref="E118">_xlfn.XLOOKUP(D$116,INDEX($A$2:$P$52,,MATCH($A118&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A118&amp;"_diff_pct",$A$1:$P$1,0)),"NOT FOUND",0)</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F118" s="71" t="str" cm="1">
+        <f t="array" ref="F118">_xlfn.XLOOKUP(F$116,INDEX($A$1:$P$52,,MATCH($A118&amp;"_rank",$A$1:$P$1,0)),$A$1:$A$52,"Not Found",0)</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="G118" s="90" cm="1">
+        <f t="array" ref="G118">_xlfn.XLOOKUP(F$116,INDEX($A$2:$P$52,,MATCH($A118&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A118&amp;"_diff_pct",$A$1:$P$1,0)),"NOT FOUND",0)</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="J118" s="77"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="73" t="str" cm="1">
-        <f t="array" ref="B92">_xlfn.XLOOKUP(B$89,INDEX(A2:A52,MATCH(_xlfn.CONCAT(A92,"_","rank"),$A$1:$P$1,0)),$A$2:$A$52,"NOT FOUND",0)</f>
-        <v>NOT FOUND</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
-      <c r="J92" s="79"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="8" t="s">
+      <c r="B119" s="71" t="str" cm="1">
+        <f t="array" ref="B119">_xlfn.XLOOKUP(B$116,INDEX($A$1:$P$52,,MATCH($A119&amp;"_rank",$A$1:$P$1,0)),$A$1:$A$52,"Not Found",0)</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="C119" s="72" cm="1">
+        <f t="array" ref="C119">_xlfn.XLOOKUP(B$116,INDEX($A$2:$P$52,,MATCH($A119&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A119&amp;"_diff_pct",$A$1:$P$1,0)),"NOT FOUND",0)</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="D119" s="71" t="str" cm="1">
+        <f t="array" ref="D119">_xlfn.XLOOKUP(D$116,INDEX($A$1:$P$52,,MATCH($A119&amp;"_rank",$A$1:$P$1,0)),$A$1:$A$52,"Not Found",0)</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="E119" s="72" cm="1">
+        <f t="array" ref="E119">_xlfn.XLOOKUP(D$116,INDEX($A$2:$P$52,,MATCH($A119&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A119&amp;"_diff_pct",$A$1:$P$1,0)),"NOT FOUND",0)</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="F119" s="71" t="str" cm="1">
+        <f t="array" ref="F119">_xlfn.XLOOKUP(F$116,INDEX($A$1:$P$52,,MATCH($A119&amp;"_rank",$A$1:$P$1,0)),$A$1:$A$52,"Not Found",0)</f>
+        <v>Office of Family Safety</v>
+      </c>
+      <c r="G119" s="90" cm="1">
+        <f t="array" ref="G119">_xlfn.XLOOKUP(F$116,INDEX($A$2:$P$52,,MATCH($A119&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A119&amp;"_diff_pct",$A$1:$P$1,0)),"NOT FOUND",0)</f>
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="J119" s="77"/>
+    </row>
+    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="73" t="str" cm="1">
-        <f t="array" ref="B93">_xlfn.XLOOKUP(B$89,MATCH(_xlfn.CONCAT(A93,"_","rank"),$A$1:$P$1,0),$A$2:$A$52,"NOT FOUND",0)</f>
-        <v>NOT FOUND</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="59" t="s">
+      <c r="B120" s="91" t="str" cm="1">
+        <f t="array" ref="B120">_xlfn.XLOOKUP(B$116,INDEX($A$1:$P$52,,MATCH($A120&amp;"_rank",$A$1:$P$1,0)),$A$1:$A$52,"Not Found",0)</f>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C120" s="92" cm="1">
+        <f t="array" ref="C120">_xlfn.XLOOKUP(B$116,INDEX($A$2:$P$52,,MATCH($A120&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A120&amp;"_diff_pct",$A$1:$P$1,0)),"NOT FOUND",0)</f>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="D120" s="91" t="str" cm="1">
+        <f t="array" ref="D120">_xlfn.XLOOKUP(D$116,INDEX($A$1:$P$52,,MATCH($A120&amp;"_rank",$A$1:$P$1,0)),$A$1:$A$52,"Not Found",0)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="E120" s="92" cm="1">
+        <f t="array" ref="E120">_xlfn.XLOOKUP(D$116,INDEX($A$2:$P$52,,MATCH($A120&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A120&amp;"_diff_pct",$A$1:$P$1,0)),"NOT FOUND",0)</f>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="F120" s="91" t="str" cm="1">
+        <f t="array" ref="F120">_xlfn.XLOOKUP(F$116,INDEX($A$1:$P$52,,MATCH($A120&amp;"_rank",$A$1:$P$1,0)),$A$1:$A$52,"Not Found",0)</f>
+        <v>Election Commission</v>
+      </c>
+      <c r="G120" s="93" cm="1">
+        <f t="array" ref="G120">_xlfn.XLOOKUP(F$116,INDEX($A$2:$P$52,,MATCH($A120&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH($A120&amp;"_diff_pct",$A$1:$P$1,0)),"NOT FOUND",0)</f>
+        <v>-0.12882667147667154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="61"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" s="63" t="s">
+      <c r="B122" s="58"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="58"/>
+      <c r="F122" s="58"/>
+      <c r="G122" s="59"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="62">
+      <c r="B123" s="60">
         <v>1</v>
       </c>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62">
+      <c r="C123" s="60"/>
+      <c r="D123" s="60">
         <v>2</v>
       </c>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62">
+      <c r="E123" s="60"/>
+      <c r="F123" s="60">
         <v>3</v>
       </c>
-      <c r="G96" s="64"/>
-    </row>
-    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="75"/>
-      <c r="B97" s="76" t="s">
+      <c r="G123" s="62"/>
+    </row>
+    <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="73"/>
+      <c r="B124" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="76" t="s">
+      <c r="C124" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D97" s="76" t="s">
+      <c r="D124" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="76" t="s">
+      <c r="E124" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="76" t="s">
+      <c r="F124" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="G97" s="77" t="s">
+      <c r="G124" s="75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="72" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B98" s="73" t="e">
-        <f>INDEX($A$2:$A$52,MATCH(B96,MATCH(_xlfn.CONCAT(A98,"_","rank"),$A$1:$P$1,0),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C98" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" s="73" t="e">
-        <f>MATCH(MATCH(_xlfn.CONCAT($A99,"*_pct"),$A$1:$P$1,0),$A$2:$A$52,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E98" s="74"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="74"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="8" t="s">
+      <c r="B125" s="71" t="str">
+        <f>INDEX($A$1:$A$52,MATCH(B$123,INDEX($A$1:$P$52,,MATCH(_xlfn.CONCAT($A125,"_","rank"),$A$1:$P$1,0)),0))</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="C125" s="72">
+        <f>INDEX($A$1:$P$52,MATCH(B$123,INDEX($A$1:$P$52,,MATCH($A125&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A125&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="D125" s="71" t="str">
+        <f t="shared" ref="D125:G127" si="20">INDEX($A$1:$A$52,MATCH(D$123,INDEX($A$1:$P$52,,MATCH(_xlfn.CONCAT($A125,"_","rank"),$A$1:$P$1,0)),0))</f>
+        <v>Circuit Court Clerk</v>
+      </c>
+      <c r="E125" s="72">
+        <f t="shared" ref="E125:G125" si="21">INDEX($A$1:$P$52,MATCH(D$123,INDEX($A$1:$P$52,,MATCH($A125&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A125&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F125" s="71" t="str">
+        <f t="shared" ref="F125:G127" si="22">INDEX($A$1:$A$52,MATCH(F$123,INDEX($A$1:$P$52,,MATCH(_xlfn.CONCAT($A125,"_","rank"),$A$1:$P$1,0)),0))</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="G125" s="90">
+        <f t="shared" ref="G125:G127" si="23">INDEX($A$1:$P$52,MATCH(F$123,INDEX($A$1:$P$52,,MATCH($A125&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A125&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="8" t="e">
-        <f>INDEX($A$2:$P$52,MATCH(MATCH(_xlfn.CONCAT($A99,"*_pct"),$A$1:$P$1,0),$A$2:$A$52,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="8" t="s">
+      <c r="B126" s="71" t="str">
+        <f t="shared" ref="B126:B127" si="24">INDEX($A$1:$A$52,MATCH(B$123,INDEX($A$1:$P$52,,MATCH(_xlfn.CONCAT($A126,"_","rank"),$A$1:$P$1,0)),0))</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="C126" s="72">
+        <f t="shared" ref="C126:C127" si="25">INDEX($A$1:$P$52,MATCH(B$123,INDEX($A$1:$P$52,,MATCH($A126&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A126&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="D126" s="71" t="str">
+        <f t="shared" si="20"/>
+        <v>Internal Audit</v>
+      </c>
+      <c r="E126" s="72">
+        <f t="shared" ref="E126" si="26">INDEX($A$1:$P$52,MATCH(D$123,INDEX($A$1:$P$52,,MATCH($A126&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A126&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="F126" s="71" t="str">
+        <f t="shared" si="22"/>
+        <v>Office of Family Safety</v>
+      </c>
+      <c r="G126" s="90">
+        <f t="shared" si="23"/>
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="8" t="str" cm="1">
-        <f t="array" ref="B100">INDEX($A$2:$A$52,MATCH(_xlfn.CONCAT($A100,"*_pct"),$A$1:$P$1,0),0)</f>
-        <v>District Attorney</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C102" t="str">
-        <f>(_xlfn.CONCAT(A92,"_","rank"))</f>
-        <v>FY18_rank</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C103">
-        <f>MATCH(_xlfn.CONCAT(A92,"_","rank"),$A$1:$P$1,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C104" t="str">
-        <f>INDEX(A2:A52,MATCH(_xlfn.CONCAT(A92,"_","rank"),$A$1:$P$1,0))</f>
-        <v>County Clerk</v>
-      </c>
+      <c r="B127" s="91" t="str">
+        <f t="shared" si="24"/>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C127" s="92">
+        <f t="shared" si="25"/>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="D127" s="91" t="str">
+        <f t="shared" si="20"/>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="E127" s="92">
+        <f t="shared" ref="E127" si="27">INDEX($A$1:$P$52,MATCH(D$123,INDEX($A$1:$P$52,,MATCH($A127&amp;"_rank",$A$1:$P$1,0)),0),MATCH($A127&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="F127" s="91" t="str">
+        <f t="shared" si="22"/>
+        <v>Election Commission</v>
+      </c>
+      <c r="G127" s="93">
+        <f t="shared" si="23"/>
+        <v>-0.12882667147667154</v>
+      </c>
+      <c r="I127" s="3"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133" s="83"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83 B87 B82" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A110 B114 B109" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
